--- a/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
+++ b/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rb\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\OltSchema\BaseData\HotelExport\SpecialOffers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="133">
   <si>
     <t>ItemType</t>
   </si>
@@ -30,12 +30,6 @@
     <t>Dest</t>
   </si>
   <si>
-    <t>HotelCode</t>
-  </si>
-  <si>
-    <t>ZimmerCode</t>
-  </si>
-  <si>
     <t>MealCode</t>
   </si>
   <si>
@@ -198,9 +192,6 @@
     <t>Tagespreis</t>
   </si>
   <si>
-    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving</t>
-  </si>
-  <si>
     <t>MinDays, MaxDays,MinAmount,MaxAmount,Average in Verbindung mit StartDateRelevant</t>
   </si>
   <si>
@@ -210,27 +201,15 @@
     <t>StartDateRelevant mit Revolving über Saisons hinweg</t>
   </si>
   <si>
-    <t>ToDo</t>
-  </si>
-  <si>
     <t>EndDateRelevant in einer Saison und StartDateRelevant in der nächsten</t>
   </si>
   <si>
-    <t>Wir sollten im Test-Fenster die Möglichkeit erlauben das Relevanz-Datum, was normalerweise das aktuelle Datum ist, zu überschreiben.</t>
-  </si>
-  <si>
     <t>7/5 und 4/3 in der gleichen Saison bei verschiedenen Durations</t>
   </si>
   <si>
-    <t>So könnten wir auch Days/DataBeforeDeparture testen</t>
-  </si>
-  <si>
     <t>7/5 und 4/3 in der gleichen Saison bei verschiedenen Durations mir Revolving</t>
   </si>
   <si>
-    <t>Neues Fenster in dem eine Liste gepastet werden kann mit Spalten, und das Ergebnis ist die Liste mit den berechneten Specials</t>
-  </si>
-  <si>
     <t>WeekdaysValid bei normalen Specials</t>
   </si>
   <si>
@@ -310,9 +289,6 @@
   </si>
   <si>
     <t>2 Erwachsene mit einem Kind und einem Baby</t>
-  </si>
-  <si>
-    <t>Test von normalen Specials mit unterschiedlicher Duration und 4/3 und 7,6/5 in der gleichen Saison</t>
   </si>
   <si>
     <t xml:space="preserve">(01.01.16-04.01.16) 04.01.16 / 104 - 11 = 93 </t>
@@ -451,13 +427,37 @@
     <t xml:space="preserve">(02.02.16-08.02.16) 07.02.16 / 207 - 11 = 196 
 (02.02.16-08.02.16) 08.02.16 / 208 - 11 = 197 </t>
   </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration</t>
+  </si>
+  <si>
+    <t>StartDateRelevant mit Saisonüberschneidung</t>
+  </si>
+  <si>
+    <t>EndDateRelevant mit Saisonüberschneidung</t>
+  </si>
+  <si>
+    <t>EndDateRelevant mit Revolving über Saisons hinweg</t>
+  </si>
+  <si>
+    <t>Start und EndDateRelevant</t>
+  </si>
+  <si>
+    <t>Start- und EndDateRelevant</t>
+  </si>
+  <si>
+    <t>ParentCode</t>
+  </si>
+  <si>
+    <t>ItemCode</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mmm\ d&quot;, &quot;yy"/>
+    <numFmt numFmtId="164" formatCode="mmm\ d&quot;, &quot;yy"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -972,7 +972,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1324,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM37"/>
+  <dimension ref="A1:AM69"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:L37"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,7 +1335,7 @@
     <col min="1" max="1" width="9.42578125" style="7"/>
     <col min="2" max="2" width="5" style="7"/>
     <col min="3" max="3" width="10.42578125" style="7"/>
-    <col min="4" max="4" width="12.42578125" style="7"/>
+    <col min="4" max="4" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="7"/>
     <col min="6" max="6" width="11.85546875" style="7"/>
     <col min="7" max="7" width="5.85546875" style="7"/>
@@ -1343,7 +1343,7 @@
     <col min="9" max="9" width="3.42578125" style="7"/>
     <col min="10" max="10" width="13.42578125" style="13"/>
     <col min="11" max="11" width="8.7109375" style="7"/>
-    <col min="12" max="12" width="27.42578125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="51.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" style="13"/>
     <col min="14" max="14" width="7.28515625" style="13"/>
     <col min="15" max="15" width="5.140625" style="7"/>
@@ -1368,11 +1368,14 @@
     <col min="34" max="34" width="10.5703125" style="7"/>
     <col min="35" max="35" width="5.5703125" style="7"/>
     <col min="36" max="36" width="5.28515625" style="7"/>
-    <col min="37" max="1025" width="10.7109375" style="7"/>
+    <col min="37" max="37" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="40" max="1025" width="10.7109375" style="7"/>
     <col min="1026" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1380,135 +1383,135 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="N1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="O1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="14" t="s">
+      <c r="W1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="X1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AC1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AD1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AE1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AF1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AG1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AH1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AI1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AK1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AL1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AM1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="17" t="s">
+      <c r="B2" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G2" s="7">
         <v>1</v>
@@ -1526,33 +1529,28 @@
         <v>3</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="U2" s="13"/>
+        <v>125</v>
+      </c>
       <c r="Y2" s="12"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-    </row>
-    <row r="3" spans="1:39" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G3" s="7">
         <v>1</v>
@@ -1570,32 +1568,27 @@
         <v>4</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-    </row>
-    <row r="4" spans="1:39" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
@@ -1613,32 +1606,27 @@
         <v>5</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-    </row>
-    <row r="5" spans="1:39" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
@@ -1656,32 +1644,27 @@
         <v>6</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-    </row>
-    <row r="6" spans="1:39" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
@@ -1699,32 +1682,27 @@
         <v>7</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-    </row>
-    <row r="7" spans="1:39" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G7" s="7">
         <v>1</v>
@@ -1742,32 +1720,27 @@
         <v>8</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-    </row>
-    <row r="8" spans="1:39" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G8" s="7">
         <v>1</v>
@@ -1785,32 +1758,27 @@
         <v>9</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-    </row>
-    <row r="9" spans="1:39" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
@@ -1828,32 +1796,27 @@
         <v>10</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-    </row>
-    <row r="10" spans="1:39" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G10" s="7">
         <v>1</v>
@@ -1871,32 +1834,27 @@
         <v>11</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-    </row>
-    <row r="11" spans="1:39" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G11" s="7">
         <v>1</v>
@@ -1914,32 +1872,27 @@
         <v>12</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-    </row>
-    <row r="12" spans="1:39" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G12" s="7">
         <v>1</v>
@@ -1957,32 +1910,27 @@
         <v>13</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-    </row>
-    <row r="13" spans="1:39" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
@@ -2000,32 +1948,27 @@
         <v>14</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-    </row>
-    <row r="14" spans="1:39" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G14" s="7">
         <v>1</v>
@@ -2043,32 +1986,27 @@
         <v>15</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-    </row>
-    <row r="15" spans="1:39" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G15" s="7">
         <v>1</v>
@@ -2086,32 +2024,27 @@
         <v>16</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-    </row>
-    <row r="16" spans="1:39" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G16" s="7">
         <v>1</v>
@@ -2129,32 +2062,27 @@
         <v>17</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-    </row>
-    <row r="17" spans="1:30" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
@@ -2172,32 +2100,27 @@
         <v>18</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-    </row>
-    <row r="18" spans="1:30" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G18" s="7">
         <v>1</v>
@@ -2215,32 +2138,27 @@
         <v>19</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-    </row>
-    <row r="19" spans="1:30" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G19" s="7">
         <v>1</v>
@@ -2258,32 +2176,27 @@
         <v>20</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-    </row>
-    <row r="20" spans="1:30" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G20" s="7">
         <v>1</v>
@@ -2301,32 +2214,27 @@
         <v>21</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-    </row>
-    <row r="21" spans="1:30" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
@@ -2344,32 +2252,27 @@
         <v>22</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-    </row>
-    <row r="22" spans="1:30" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G22" s="7">
         <v>1</v>
@@ -2387,32 +2290,27 @@
         <v>23</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-    </row>
-    <row r="24" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G24" s="7">
         <v>1</v>
@@ -2429,31 +2327,28 @@
       <c r="K24" s="7">
         <v>7</v>
       </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-    </row>
-    <row r="25" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
@@ -2470,31 +2365,28 @@
       <c r="K25" s="7">
         <v>7</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-    </row>
-    <row r="26" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G26" s="7">
         <v>1</v>
@@ -2511,31 +2403,28 @@
       <c r="K26" s="7">
         <v>7</v>
       </c>
-      <c r="L26" s="11"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-    </row>
-    <row r="27" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G27" s="7">
         <v>1</v>
@@ -2552,31 +2441,28 @@
       <c r="K27" s="7">
         <v>7</v>
       </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-    </row>
-    <row r="28" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G28" s="7">
         <v>1</v>
@@ -2593,31 +2479,28 @@
       <c r="K28" s="7">
         <v>7</v>
       </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-    </row>
-    <row r="30" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G30" s="7">
         <v>1</v>
@@ -2634,31 +2517,28 @@
       <c r="K30" s="7">
         <v>7</v>
       </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-    </row>
-    <row r="31" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G31" s="7">
         <v>1</v>
@@ -2675,31 +2555,28 @@
       <c r="K31" s="7">
         <v>7</v>
       </c>
-      <c r="L31" s="11"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-    </row>
-    <row r="32" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G32" s="7">
         <v>1</v>
@@ -2716,31 +2593,28 @@
       <c r="K32" s="7">
         <v>7</v>
       </c>
-      <c r="L32" s="11"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-    </row>
-    <row r="33" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G33" s="7">
         <v>1</v>
@@ -2757,31 +2631,28 @@
       <c r="K33" s="7">
         <v>7</v>
       </c>
-      <c r="L33" s="11"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="13"/>
-    </row>
-    <row r="34" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G34" s="7">
         <v>1</v>
@@ -2798,31 +2669,28 @@
       <c r="K34" s="7">
         <v>7</v>
       </c>
-      <c r="L34" s="11"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
-    </row>
-    <row r="35" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G35" s="7">
         <v>1</v>
@@ -2839,31 +2707,28 @@
       <c r="K35" s="7">
         <v>7</v>
       </c>
-      <c r="L35" s="11"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-    </row>
-    <row r="36" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="E36" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G36" s="7">
         <v>1</v>
@@ -2880,31 +2745,28 @@
       <c r="K36" s="7">
         <v>7</v>
       </c>
-      <c r="L36" s="11"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-    </row>
-    <row r="37" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G37" s="7">
         <v>1</v>
@@ -2921,12 +2783,1111 @@
       <c r="K37" s="7">
         <v>7</v>
       </c>
-      <c r="L37" s="11"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="13"/>
+      <c r="L37" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="13">
+        <v>42404</v>
+      </c>
+      <c r="K39" s="7">
+        <v>7</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="13">
+        <v>42405</v>
+      </c>
+      <c r="K40" s="7">
+        <v>7</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="13">
+        <v>42406</v>
+      </c>
+      <c r="K41" s="7">
+        <v>7</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="7">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="13">
+        <v>42407</v>
+      </c>
+      <c r="K42" s="7">
+        <v>7</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="7">
+        <v>1</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="13">
+        <v>42408</v>
+      </c>
+      <c r="K43" s="7">
+        <v>7</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="7">
+        <v>1</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="13">
+        <v>42409</v>
+      </c>
+      <c r="K44" s="7">
+        <v>7</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="7">
+        <v>1</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="13">
+        <v>42410</v>
+      </c>
+      <c r="K45" s="7">
+        <v>7</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="7">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="13">
+        <v>42411</v>
+      </c>
+      <c r="K46" s="7">
+        <v>7</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="7">
+        <v>1</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>42412</v>
+      </c>
+      <c r="K47" s="7">
+        <v>7</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="7">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="13">
+        <v>42413</v>
+      </c>
+      <c r="K48" s="7">
+        <v>7</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="7">
+        <v>1</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="13">
+        <v>42414</v>
+      </c>
+      <c r="K49" s="7">
+        <v>7</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="7">
+        <v>1</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="13">
+        <v>42415</v>
+      </c>
+      <c r="K50" s="7">
+        <v>7</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="7">
+        <v>1</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="13">
+        <v>42416</v>
+      </c>
+      <c r="K51" s="7">
+        <v>7</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" s="7">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="13">
+        <v>42417</v>
+      </c>
+      <c r="K53" s="7">
+        <v>5</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="7">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="13">
+        <v>42418</v>
+      </c>
+      <c r="K54" s="7">
+        <v>5</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" s="7">
+        <v>1</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="13">
+        <v>42419</v>
+      </c>
+      <c r="K55" s="7">
+        <v>5</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="7">
+        <v>1</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="13">
+        <v>42420</v>
+      </c>
+      <c r="K56" s="7">
+        <v>5</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="7">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>0</v>
+      </c>
+      <c r="J57" s="13">
+        <v>42421</v>
+      </c>
+      <c r="K57" s="7">
+        <v>5</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="7">
+        <v>1</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
+      <c r="J58" s="13">
+        <v>42422</v>
+      </c>
+      <c r="K58" s="7">
+        <v>5</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" s="7">
+        <v>1</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
+      <c r="J59" s="13">
+        <v>42423</v>
+      </c>
+      <c r="K59" s="7">
+        <v>5</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" s="7">
+        <v>1</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7">
+        <v>0</v>
+      </c>
+      <c r="J60" s="13">
+        <v>42424</v>
+      </c>
+      <c r="K60" s="7">
+        <v>5</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" s="7">
+        <v>1</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="13">
+        <v>42425</v>
+      </c>
+      <c r="K61" s="7">
+        <v>5</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" s="7">
+        <v>1</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
+      <c r="J62" s="13">
+        <v>42426</v>
+      </c>
+      <c r="K62" s="7">
+        <v>5</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="7">
+        <v>1</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>0</v>
+      </c>
+      <c r="J64" s="13">
+        <v>42428</v>
+      </c>
+      <c r="K64" s="7">
+        <v>5</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" s="7">
+        <v>1</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
+      <c r="J65" s="13">
+        <v>42429</v>
+      </c>
+      <c r="K65" s="7">
+        <v>5</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G66" s="7">
+        <v>1</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="7">
+        <v>0</v>
+      </c>
+      <c r="J66" s="13">
+        <v>42430</v>
+      </c>
+      <c r="K66" s="7">
+        <v>5</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" s="7">
+        <v>1</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7">
+        <v>0</v>
+      </c>
+      <c r="J67" s="13">
+        <v>42431</v>
+      </c>
+      <c r="K67" s="7">
+        <v>5</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" s="7">
+        <v>1</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <v>0</v>
+      </c>
+      <c r="J68" s="13">
+        <v>42432</v>
+      </c>
+      <c r="K68" s="7">
+        <v>5</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" s="7">
+        <v>1</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>0</v>
+      </c>
+      <c r="J69" s="13">
+        <v>42433</v>
+      </c>
+      <c r="K69" s="7">
+        <v>5</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2938,8 +3899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2994,133 +3955,133 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="O1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AM1" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G3" s="18">
         <v>1</v>
@@ -3165,28 +4126,28 @@
       <c r="AK3" s="18"/>
       <c r="AL3" s="18"/>
       <c r="AM3" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN3" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G4" s="18">
         <v>1</v>
@@ -3217,16 +4178,16 @@
         <v>4</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R4" s="18">
         <v>3</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T4" s="18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="U4" s="19">
         <v>42390</v>
@@ -3235,16 +4196,16 @@
         <v>3</v>
       </c>
       <c r="W4" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X4" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y4" s="18">
         <v>1111111</v>
       </c>
       <c r="Z4" s="18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AA4" s="18">
         <v>999</v>
@@ -3273,34 +4234,34 @@
         <v>0</v>
       </c>
       <c r="AK4" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL4" s="18">
         <v>-11</v>
       </c>
       <c r="AM4" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN4" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G5" s="18">
         <v>1</v>
@@ -3331,16 +4292,16 @@
         <v>4</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R5" s="18">
         <v>3</v>
       </c>
       <c r="S5" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T5" s="18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="U5" s="19">
         <v>42390</v>
@@ -3349,16 +4310,16 @@
         <v>3</v>
       </c>
       <c r="W5" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X5" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y5" s="18">
         <v>1111111</v>
       </c>
       <c r="Z5" s="18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AA5" s="18">
         <v>999</v>
@@ -3387,34 +4348,34 @@
         <v>0</v>
       </c>
       <c r="AK5" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL5" s="18">
         <v>-11</v>
       </c>
       <c r="AM5" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN5" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G6" s="18">
         <v>1</v>
@@ -3445,16 +4406,16 @@
         <v>6</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R6" s="18">
         <v>5</v>
       </c>
       <c r="S6" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T6" s="18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="U6" s="19">
         <v>42390</v>
@@ -3463,16 +4424,16 @@
         <v>3</v>
       </c>
       <c r="W6" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X6" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y6" s="18">
         <v>1111111</v>
       </c>
       <c r="Z6" s="18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA6" s="18">
         <v>999</v>
@@ -3501,34 +4462,34 @@
         <v>0</v>
       </c>
       <c r="AK6" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL6" s="18">
         <v>-11</v>
       </c>
       <c r="AM6" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN6" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G7" s="18">
         <v>1</v>
@@ -3559,16 +4520,16 @@
         <v>7</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R7" s="18">
         <v>5</v>
       </c>
       <c r="S7" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T7" s="20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="U7" s="19">
         <v>42390</v>
@@ -3577,16 +4538,16 @@
         <v>3</v>
       </c>
       <c r="W7" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X7" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y7" s="18">
         <v>1111111</v>
       </c>
       <c r="Z7" s="18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA7" s="18">
         <v>999</v>
@@ -3615,34 +4576,34 @@
         <v>0</v>
       </c>
       <c r="AK7" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL7" s="18">
         <v>-11</v>
       </c>
       <c r="AM7" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN7" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" s="18">
         <v>1</v>
@@ -3670,19 +4631,19 @@
         <v>8</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R8" s="18">
         <v>3</v>
       </c>
       <c r="S8" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T8" s="20" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="U8" s="19">
         <v>42390</v>
@@ -3691,16 +4652,16 @@
         <v>3</v>
       </c>
       <c r="W8" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X8" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y8" s="18">
         <v>1111111</v>
       </c>
       <c r="Z8" s="18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AA8" s="18">
         <v>999</v>
@@ -3729,34 +4690,34 @@
         <v>0</v>
       </c>
       <c r="AK8" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL8" s="18">
         <v>-11</v>
       </c>
       <c r="AM8" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN8" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G9" s="18">
         <v>1</v>
@@ -3784,19 +4745,19 @@
         <v>8</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R9" s="18">
         <v>3</v>
       </c>
       <c r="S9" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T9" s="20" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="U9" s="19">
         <v>42390</v>
@@ -3805,16 +4766,16 @@
         <v>3</v>
       </c>
       <c r="W9" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X9" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y9" s="18">
         <v>1111111</v>
       </c>
       <c r="Z9" s="18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AA9" s="18">
         <v>999</v>
@@ -3843,34 +4804,34 @@
         <v>0</v>
       </c>
       <c r="AK9" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL9" s="18">
         <v>-11</v>
       </c>
       <c r="AM9" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN9" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="18">
         <v>1</v>
@@ -3898,19 +4859,19 @@
         <v>8</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R10" s="18">
         <v>3</v>
       </c>
       <c r="S10" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T10" s="20" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="U10" s="19">
         <v>42390</v>
@@ -3919,16 +4880,16 @@
         <v>3</v>
       </c>
       <c r="W10" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X10" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y10" s="18">
         <v>1111111</v>
       </c>
       <c r="Z10" s="18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AA10" s="18">
         <v>999</v>
@@ -3957,34 +4918,34 @@
         <v>0</v>
       </c>
       <c r="AK10" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL10" s="18">
         <v>-11</v>
       </c>
       <c r="AM10" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN10" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" s="18">
         <v>1</v>
@@ -4012,19 +4973,19 @@
         <v>8</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R11" s="18">
         <v>3</v>
       </c>
       <c r="S11" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T11" s="20" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="U11" s="19">
         <v>42390</v>
@@ -4033,16 +4994,16 @@
         <v>3</v>
       </c>
       <c r="W11" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X11" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y11" s="18">
         <v>1111111</v>
       </c>
       <c r="Z11" s="18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AA11" s="18">
         <v>999</v>
@@ -4071,34 +5032,34 @@
         <v>0</v>
       </c>
       <c r="AK11" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL11" s="18">
         <v>-11</v>
       </c>
       <c r="AM11" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN11" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G12" s="18">
         <v>1</v>
@@ -4126,19 +5087,19 @@
         <v>12</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R12" s="18">
         <v>3</v>
       </c>
       <c r="S12" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T12" s="20" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="U12" s="19">
         <v>42390</v>
@@ -4147,16 +5108,16 @@
         <v>3</v>
       </c>
       <c r="W12" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X12" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y12" s="18">
         <v>1111111</v>
       </c>
       <c r="Z12" s="18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AA12" s="18">
         <v>999</v>
@@ -4185,34 +5146,34 @@
         <v>0</v>
       </c>
       <c r="AK12" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL12" s="18">
         <v>-11</v>
       </c>
       <c r="AM12" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN12" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G13" s="18">
         <v>1</v>
@@ -4240,19 +5201,19 @@
         <v>13</v>
       </c>
       <c r="P13" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R13" s="18">
         <v>5</v>
       </c>
       <c r="S13" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T13" s="20" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="U13" s="19">
         <v>42390</v>
@@ -4261,16 +5222,16 @@
         <v>3</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X13" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y13" s="18">
         <v>1111111</v>
       </c>
       <c r="Z13" s="18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA13" s="18">
         <v>999</v>
@@ -4299,34 +5260,34 @@
         <v>0</v>
       </c>
       <c r="AK13" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL13" s="18">
         <v>-11</v>
       </c>
       <c r="AM13" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN13" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G14" s="18">
         <v>1</v>
@@ -4354,19 +5315,19 @@
         <v>14</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R14" s="18">
         <v>5</v>
       </c>
       <c r="S14" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T14" s="20" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="U14" s="19">
         <v>42390</v>
@@ -4375,16 +5336,16 @@
         <v>3</v>
       </c>
       <c r="W14" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X14" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y14" s="18">
         <v>1111111</v>
       </c>
       <c r="Z14" s="18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA14" s="18">
         <v>999</v>
@@ -4413,34 +5374,34 @@
         <v>0</v>
       </c>
       <c r="AK14" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL14" s="18">
         <v>-11</v>
       </c>
       <c r="AM14" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN14" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G15" s="18">
         <v>1</v>
@@ -4468,19 +5429,19 @@
         <v>14</v>
       </c>
       <c r="P15" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R15" s="18">
         <v>5</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T15" s="20" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="U15" s="19">
         <v>42390</v>
@@ -4489,16 +5450,16 @@
         <v>3</v>
       </c>
       <c r="W15" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y15" s="18">
         <v>1111111</v>
       </c>
       <c r="Z15" s="18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA15" s="18">
         <v>999</v>
@@ -4527,34 +5488,34 @@
         <v>0</v>
       </c>
       <c r="AK15" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL15" s="18">
         <v>-11</v>
       </c>
       <c r="AM15" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN15" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G16" s="18">
         <v>1</v>
@@ -4582,19 +5543,19 @@
         <v>14</v>
       </c>
       <c r="P16" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R16" s="18">
         <v>5</v>
       </c>
       <c r="S16" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T16" s="20" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="U16" s="19">
         <v>42390</v>
@@ -4603,16 +5564,16 @@
         <v>3</v>
       </c>
       <c r="W16" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X16" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y16" s="18">
         <v>1111111</v>
       </c>
       <c r="Z16" s="18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA16" s="18">
         <v>999</v>
@@ -4641,34 +5602,34 @@
         <v>0</v>
       </c>
       <c r="AK16" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL16" s="18">
         <v>-11</v>
       </c>
       <c r="AM16" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN16" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G17" s="18">
         <v>1</v>
@@ -4696,19 +5657,19 @@
         <v>14</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R17" s="18">
         <v>5</v>
       </c>
       <c r="S17" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T17" s="20" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="U17" s="19">
         <v>42390</v>
@@ -4717,16 +5678,16 @@
         <v>3</v>
       </c>
       <c r="W17" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X17" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y17" s="18">
         <v>1111111</v>
       </c>
       <c r="Z17" s="18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA17" s="18">
         <v>999</v>
@@ -4755,34 +5716,34 @@
         <v>0</v>
       </c>
       <c r="AK17" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL17" s="18">
         <v>-11</v>
       </c>
       <c r="AM17" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN17" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G18" s="18">
         <v>1</v>
@@ -4810,19 +5771,19 @@
         <v>14</v>
       </c>
       <c r="P18" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R18" s="18">
         <v>5</v>
       </c>
       <c r="S18" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T18" s="20" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="U18" s="19">
         <v>42390</v>
@@ -4831,16 +5792,16 @@
         <v>3</v>
       </c>
       <c r="W18" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X18" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y18" s="18">
         <v>1111111</v>
       </c>
       <c r="Z18" s="18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA18" s="18">
         <v>999</v>
@@ -4869,16 +5830,16 @@
         <v>0</v>
       </c>
       <c r="AK18" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL18" s="18">
         <v>-11</v>
       </c>
       <c r="AM18" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN18" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
@@ -4907,16 +5868,16 @@
         <v>4</v>
       </c>
       <c r="Q19" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R19" s="18">
         <v>3</v>
       </c>
       <c r="S19" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T19" s="18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="U19" s="19">
         <v>42390</v>
@@ -4925,16 +5886,16 @@
         <v>3</v>
       </c>
       <c r="W19" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X19" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y19" s="18">
         <v>1111111</v>
       </c>
       <c r="Z19" s="18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AA19" s="18">
         <v>999</v>
@@ -4963,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL19" s="18">
         <v>-11</v>
@@ -4973,20 +5934,20 @@
     </row>
     <row r="20" spans="1:40" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G20" s="18">
         <v>1</v>
@@ -5014,19 +5975,19 @@
         <v>14</v>
       </c>
       <c r="P20" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R20" s="18">
         <v>5</v>
       </c>
       <c r="S20" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T20" s="20" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="U20" s="19">
         <v>42390</v>
@@ -5035,16 +5996,16 @@
         <v>3</v>
       </c>
       <c r="W20" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X20" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y20" s="18">
         <v>1111111</v>
       </c>
       <c r="Z20" s="18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA20" s="18">
         <v>999</v>
@@ -5073,16 +6034,16 @@
         <v>0</v>
       </c>
       <c r="AK20" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL20" s="18">
         <v>-11</v>
       </c>
       <c r="AM20" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN20" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
@@ -5111,16 +6072,16 @@
         <v>4</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R21" s="18">
         <v>3</v>
       </c>
       <c r="S21" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="U21" s="19">
         <v>42390</v>
@@ -5129,16 +6090,16 @@
         <v>3</v>
       </c>
       <c r="W21" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X21" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y21" s="18">
         <v>1111111</v>
       </c>
       <c r="Z21" s="18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AA21" s="18">
         <v>999</v>
@@ -5167,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL21" s="18">
         <v>-11</v>
@@ -5177,20 +6138,20 @@
     </row>
     <row r="22" spans="1:40" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22" s="18">
         <v>1</v>
@@ -5218,19 +6179,19 @@
         <v>20</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q22" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R22" s="18">
         <v>5</v>
       </c>
       <c r="S22" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T22" s="20" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="U22" s="19">
         <v>42390</v>
@@ -5239,16 +6200,16 @@
         <v>3</v>
       </c>
       <c r="W22" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X22" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y22" s="18">
         <v>1111111</v>
       </c>
       <c r="Z22" s="18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA22" s="18">
         <v>999</v>
@@ -5277,34 +6238,34 @@
         <v>0</v>
       </c>
       <c r="AK22" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL22" s="18">
         <v>-11</v>
       </c>
       <c r="AM22" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN22" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G23" s="18">
         <v>1</v>
@@ -5332,19 +6293,19 @@
         <v>21</v>
       </c>
       <c r="P23" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q23" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R23" s="18">
         <v>5</v>
       </c>
       <c r="S23" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T23" s="20" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="U23" s="19">
         <v>42390</v>
@@ -5353,16 +6314,16 @@
         <v>3</v>
       </c>
       <c r="W23" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X23" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y23" s="18">
         <v>1111111</v>
       </c>
       <c r="Z23" s="18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA23" s="18">
         <v>999</v>
@@ -5391,34 +6352,34 @@
         <v>0</v>
       </c>
       <c r="AK23" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL23" s="18">
         <v>-11</v>
       </c>
       <c r="AM23" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN23" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:40" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G24" s="18">
         <v>1</v>
@@ -5446,19 +6407,19 @@
         <v>21</v>
       </c>
       <c r="P24" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q24" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R24" s="18">
         <v>5</v>
       </c>
       <c r="S24" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T24" s="20" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="U24" s="19">
         <v>42390</v>
@@ -5467,16 +6428,16 @@
         <v>3</v>
       </c>
       <c r="W24" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X24" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y24" s="18">
         <v>1111111</v>
       </c>
       <c r="Z24" s="18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA24" s="18">
         <v>999</v>
@@ -5505,34 +6466,34 @@
         <v>0</v>
       </c>
       <c r="AK24" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL24" s="18">
         <v>-11</v>
       </c>
       <c r="AM24" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN24" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:40" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G25" s="18">
         <v>1</v>
@@ -5560,19 +6521,19 @@
         <v>21</v>
       </c>
       <c r="P25" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q25" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R25" s="18">
         <v>5</v>
       </c>
       <c r="S25" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T25" s="20" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="U25" s="19">
         <v>42390</v>
@@ -5581,16 +6542,16 @@
         <v>3</v>
       </c>
       <c r="W25" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X25" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y25" s="18">
         <v>1111111</v>
       </c>
       <c r="Z25" s="18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AA25" s="18">
         <v>999</v>
@@ -5619,34 +6580,34 @@
         <v>0</v>
       </c>
       <c r="AK25" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL25" s="18">
         <v>-11</v>
       </c>
       <c r="AM25" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN25" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G26" s="18">
         <v>1</v>
@@ -5677,16 +6638,16 @@
         <v>7</v>
       </c>
       <c r="Q26" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R26" s="18">
         <v>5</v>
       </c>
       <c r="S26" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T26" s="20" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U26" s="19">
         <v>42402</v>
@@ -5695,16 +6656,16 @@
         <v>3</v>
       </c>
       <c r="W26" s="18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="X26" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y26" s="18">
         <v>1111111</v>
       </c>
       <c r="Z26" s="18" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AA26" s="18">
         <v>999</v>
@@ -5733,34 +6694,34 @@
         <v>0</v>
       </c>
       <c r="AK26" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL26" s="18">
         <v>-11</v>
       </c>
       <c r="AM26" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN26" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G27" s="18">
         <v>1</v>
@@ -5791,16 +6752,16 @@
         <v>7</v>
       </c>
       <c r="Q27" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R27" s="18">
         <v>5</v>
       </c>
       <c r="S27" s="18" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="T27" s="20" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="U27" s="19">
         <v>42402</v>
@@ -5809,16 +6770,16 @@
         <v>3</v>
       </c>
       <c r="W27" s="18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="X27" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y27" s="18">
         <v>1111111</v>
       </c>
       <c r="Z27" s="18" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AA27" s="18">
         <v>999</v>
@@ -5847,34 +6808,34 @@
         <v>0</v>
       </c>
       <c r="AK27" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL27" s="18">
         <v>-11</v>
       </c>
       <c r="AM27" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN27" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G28" s="18">
         <v>1</v>
@@ -5905,16 +6866,16 @@
         <v>7</v>
       </c>
       <c r="Q28" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R28" s="18">
         <v>5</v>
       </c>
       <c r="S28" s="18" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="T28" s="20" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="U28" s="19">
         <v>42402</v>
@@ -5923,16 +6884,16 @@
         <v>3</v>
       </c>
       <c r="W28" s="18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="X28" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y28" s="18">
         <v>1111111</v>
       </c>
       <c r="Z28" s="18" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AA28" s="18">
         <v>999</v>
@@ -5961,34 +6922,34 @@
         <v>0</v>
       </c>
       <c r="AK28" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL28" s="18">
         <v>-11</v>
       </c>
       <c r="AM28" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN28" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G29" s="18">
         <v>1</v>
@@ -6019,16 +6980,16 @@
         <v>7</v>
       </c>
       <c r="Q29" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R29" s="18">
         <v>5</v>
       </c>
       <c r="S29" s="18" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="T29" s="20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="U29" s="19">
         <v>42402</v>
@@ -6037,16 +6998,16 @@
         <v>3</v>
       </c>
       <c r="W29" s="18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="X29" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y29" s="18">
         <v>1111111</v>
       </c>
       <c r="Z29" s="18" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="AA29" s="18">
         <v>999</v>
@@ -6075,34 +7036,34 @@
         <v>0</v>
       </c>
       <c r="AK29" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL29" s="18">
         <v>-11</v>
       </c>
       <c r="AM29" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN29" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G30" s="18">
         <v>1</v>
@@ -6133,16 +7094,16 @@
         <v>7</v>
       </c>
       <c r="Q30" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R30" s="18">
         <v>5</v>
       </c>
       <c r="S30" s="18" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="T30" s="20" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="U30" s="19">
         <v>42402</v>
@@ -6151,16 +7112,16 @@
         <v>3</v>
       </c>
       <c r="W30" s="18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="X30" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y30" s="18">
         <v>1111111</v>
       </c>
       <c r="Z30" s="18" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AA30" s="18">
         <v>999</v>
@@ -6189,34 +7150,34 @@
         <v>0</v>
       </c>
       <c r="AK30" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL30" s="18">
         <v>-11</v>
       </c>
       <c r="AM30" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN30" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G31" s="18">
         <v>1</v>
@@ -6247,16 +7208,16 @@
         <v>7</v>
       </c>
       <c r="Q31" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R31" s="18">
         <v>5</v>
       </c>
       <c r="S31" s="18" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="T31" s="20" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="U31" s="19">
         <v>42402</v>
@@ -6265,16 +7226,16 @@
         <v>3</v>
       </c>
       <c r="W31" s="18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="X31" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y31" s="18">
         <v>1111111</v>
       </c>
       <c r="Z31" s="18" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AA31" s="18">
         <v>999</v>
@@ -6303,34 +7264,34 @@
         <v>0</v>
       </c>
       <c r="AK31" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL31" s="18">
         <v>-11</v>
       </c>
       <c r="AM31" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN31" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G32" s="18">
         <v>1</v>
@@ -6361,16 +7322,16 @@
         <v>7</v>
       </c>
       <c r="Q32" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R32" s="18">
         <v>5</v>
       </c>
       <c r="S32" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T32" s="20" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="U32" s="19">
         <v>42402</v>
@@ -6379,16 +7340,16 @@
         <v>3</v>
       </c>
       <c r="W32" s="18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="X32" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y32" s="18">
         <v>1111111</v>
       </c>
       <c r="Z32" s="18" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AA32" s="18">
         <v>999</v>
@@ -6417,34 +7378,34 @@
         <v>0</v>
       </c>
       <c r="AK32" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL32" s="18">
         <v>-11</v>
       </c>
       <c r="AM32" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN32" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G33" s="18">
         <v>1</v>
@@ -6475,16 +7436,16 @@
         <v>7</v>
       </c>
       <c r="Q33" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R33" s="18">
         <v>5</v>
       </c>
       <c r="S33" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T33" s="20" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="U33" s="19">
         <v>42402</v>
@@ -6493,16 +7454,16 @@
         <v>3</v>
       </c>
       <c r="W33" s="18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="X33" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y33" s="18">
         <v>1111111</v>
       </c>
       <c r="Z33" s="18" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AA33" s="18">
         <v>999</v>
@@ -6531,34 +7492,34 @@
         <v>0</v>
       </c>
       <c r="AK33" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL33" s="18">
         <v>-11</v>
       </c>
       <c r="AM33" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN33" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G34" s="18">
         <v>1</v>
@@ -6589,16 +7550,16 @@
         <v>7</v>
       </c>
       <c r="Q34" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R34" s="18">
         <v>5</v>
       </c>
       <c r="S34" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T34" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="U34" s="19">
         <v>42402</v>
@@ -6607,16 +7568,16 @@
         <v>3</v>
       </c>
       <c r="W34" s="18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="X34" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y34" s="18">
         <v>1111111</v>
       </c>
       <c r="Z34" s="18" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AA34" s="18">
         <v>999</v>
@@ -6645,34 +7606,34 @@
         <v>0</v>
       </c>
       <c r="AK34" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL34" s="18">
         <v>-11</v>
       </c>
       <c r="AM34" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN34" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G35" s="18">
         <v>1</v>
@@ -6703,16 +7664,16 @@
         <v>7</v>
       </c>
       <c r="Q35" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R35" s="18">
         <v>5</v>
       </c>
       <c r="S35" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T35" s="20" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="U35" s="19">
         <v>42402</v>
@@ -6721,16 +7682,16 @@
         <v>3</v>
       </c>
       <c r="W35" s="18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="X35" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y35" s="18">
         <v>1111111</v>
       </c>
       <c r="Z35" s="18" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AA35" s="18">
         <v>999</v>
@@ -6759,34 +7720,34 @@
         <v>0</v>
       </c>
       <c r="AK35" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL35" s="18">
         <v>-11</v>
       </c>
       <c r="AM35" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN35" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G36" s="18">
         <v>1</v>
@@ -6817,16 +7778,16 @@
         <v>7</v>
       </c>
       <c r="Q36" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R36" s="18">
         <v>5</v>
       </c>
       <c r="S36" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T36" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="U36" s="19">
         <v>42402</v>
@@ -6835,16 +7796,16 @@
         <v>3</v>
       </c>
       <c r="W36" s="18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="X36" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y36" s="18">
         <v>1111111</v>
       </c>
       <c r="Z36" s="18" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AA36" s="18">
         <v>999</v>
@@ -6873,34 +7834,34 @@
         <v>0</v>
       </c>
       <c r="AK36" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL36" s="18">
         <v>-11</v>
       </c>
       <c r="AM36" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN36" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G37" s="18">
         <v>1</v>
@@ -6931,16 +7892,16 @@
         <v>7</v>
       </c>
       <c r="Q37" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R37" s="18">
         <v>5</v>
       </c>
       <c r="S37" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T37" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="U37" s="19">
         <v>42402</v>
@@ -6949,16 +7910,16 @@
         <v>3</v>
       </c>
       <c r="W37" s="18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="X37" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y37" s="18">
         <v>1111111</v>
       </c>
       <c r="Z37" s="18" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AA37" s="18">
         <v>999</v>
@@ -6987,34 +7948,34 @@
         <v>0</v>
       </c>
       <c r="AK37" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AL37" s="18">
         <v>-11</v>
       </c>
       <c r="AM37" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN37" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G38" s="18">
         <v>1</v>
@@ -7059,10 +8020,10 @@
       <c r="AK38" s="18"/>
       <c r="AL38" s="18"/>
       <c r="AM38" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AN38" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -7091,10 +8052,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -10052,10 +11013,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10066,191 +11027,194 @@
     <col min="5" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
+++ b/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="144">
   <si>
     <t>ItemType</t>
   </si>
@@ -207,9 +207,6 @@
     <t>7/5 und 4/3 in der gleichen Saison bei verschiedenen Durations</t>
   </si>
   <si>
-    <t>7/5 und 4/3 in der gleichen Saison bei verschiedenen Durations mir Revolving</t>
-  </si>
-  <si>
     <t>WeekdaysValid bei normalen Specials</t>
   </si>
   <si>
@@ -228,12 +225,6 @@
     <t>Normale Specials mit MinPrice</t>
   </si>
   <si>
-    <t>Normale Specials mit mehreren Folgesaisons und untereschiedlichen Durations</t>
-  </si>
-  <si>
-    <t>Normale Specials mit mehreren Folgesaisons und untereschiedlichen ItemStartDate</t>
-  </si>
-  <si>
     <t>Normale Specials mit Revolving, und das ignorieren von gleicher RevolvingGroup Specials</t>
   </si>
   <si>
@@ -250,9 +241,6 @@
   </si>
   <si>
     <t>WeekdaysValid mit EndDateRelevant</t>
-  </si>
-  <si>
-    <t>Komplexe DayString Beispiele innerhalb einer Saison (7,7,7) mit allen Permutationen</t>
   </si>
   <si>
     <t>Normale Specials mit Lücken zwischen den Specials</t>
@@ -450,6 +438,51 @@
   </si>
   <si>
     <t>ItemCode</t>
+  </si>
+  <si>
+    <t>Normale Specials mit mehreren Folgesaisons und unterschiedlichen Durations</t>
+  </si>
+  <si>
+    <t>Normale Specials mit mehreren Folgesaisons und unterschiedlichen ItemStartDate</t>
+  </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Da es keine SpecialOffer gibt mit Days&lt;=3, kommt hier kein Special zum Tragen.</t>
+  </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Hier gibt es nur den 4/3 mit Days=4 welcher zum Tragen kommt.</t>
+  </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Hier kommt nur der 4/3 zum Tragen. Analog wie dem 4 Tage Beispiel kommt der 4JAN zum Tragen</t>
+  </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Hier könnten zwei Regeln passen, der Days=4 und Days=6, da aber Days=6 grösser ist kommt dieser zur Anwendung. PayNights ist 5, und da EndDays, kommt der 6JAN zum Abzug.</t>
+  </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Hier könnten drei Days Regeln passen: 3, 6, 7. Die 7 ist die grösste Regeln, PayNights ist 5, EndDays, daher kommen 6JAN und 7JAN zum Abzug.</t>
+  </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Hier gibt es vier Regeln die passen könnten: 4 ,6 ,7 ,8. Die Days=8 Regel ist Revolving mit dem DayString 4,4, daher müssen die 8 Tage in zwei Gruppen aufgeteilt werden, 1JAN-4JAN und 5JAN bis 8JAN. Jede Gruppe wird einzeln betrachtet, und da EndDays, kommt der 4JAN und 8JAN zum Abzug.</t>
+  </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Analog Duration=8.</t>
+  </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Analog Duration=8. Dies ist aber ein Sonderfall. Eigentlich würden 7 und 4 besser passen, dies verletzt aber die Regel, dass zuerst immer der Special verwedent wird mit dem grössten Days. Daher hat die Days=8 eine höhere Gewichtung wie die Days=7 Regel. Es bleiben nach Abzug der 8 Nächte nur noch drei Nächte, und dort passt kein Special mehr rein.</t>
+  </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Hier könnten die Regeln 4,6,7,8,12 passen. Da Days=12 hier der grösste ist, wird diese Regel angewendet. Der DayString ist 4,4,4. Die Tage müssen und drei Gruppen aufgeteilt werden je 4 Tage. Jeweils der letzte Tag der Periode wird dann als Special berechnet; 4JAN, 8JAN, 12JAN</t>
+  </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Hier könnten folgende Days passen: 4,6,7,8,12,13. Der 13 ist der 7,6/5 Revolving, was die Days=13 zur Folge hat. Die 13 Tage müssen und einer Gruppe von 7 Tagen und einer von 6 Tagen aufgeteilt werden. Mit EndDays macht dies die Tage 6JAN, 7JAN und 13JAN zu den berechneten Tagen.</t>
+  </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Dieser Fall ist eigentlich analog dem Duration=12, nur dass hier der DayString 7,7 ist, die 14 Tage in zwei Gruppen aufgeteilt werden müssen 1JAN bis 7JAN und 8JAN bis 14JAN. Mit EndDays kommen dann die Tage 6JAN, 7JAN, 13JAN und 14JAN zum Tragen.</t>
+  </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Hier wäre folgende Konstellation denkbar: 8 (4,4) und 7, aber die Regel ist, immer die grösste Anzahl Days zuerst auszuprobieren, und dass sind die 14 Days mit dem DayString 7,7. Daher hat dieser eine höhere Gewichtung und die gleichen Regeln kommen zu tragen wie beim Duration=15 .</t>
+  </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Hier wäre folgende Konstellation denkbar: 8 (4,4) und 8 (4,4), aber die Regel ist, immer die grösste Anzahl Days zuerst auszuprobieren, und dass sind die 14 Days mit dem DayString 7,7. Daher hat dieser eine höhere Gewichtung und die gleichen Regeln kommen zu tragen wie beim Duration=15 . Es sind noch zwei Tage übrig, aber es sind keine Regeln mehr vorhanden mit dem Anfangstag 25JAN mit Days &lt;= 2, also wird die Berechnung abgebrochen.</t>
   </si>
 </sst>
 </file>
@@ -1326,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,10 +1416,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -1494,7 +1527,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1529,11 +1562,11 @@
         <v>3</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Y2" s="12"/>
     </row>
-    <row r="3" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -1568,10 +1601,10 @@
         <v>4</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -1606,10 +1639,10 @@
         <v>5</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -1644,10 +1677,10 @@
         <v>6</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
@@ -1682,10 +1715,10 @@
         <v>7</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
@@ -1720,10 +1753,10 @@
         <v>8</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
@@ -1758,10 +1791,10 @@
         <v>9</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
@@ -1796,10 +1829,10 @@
         <v>10</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
@@ -1834,10 +1867,10 @@
         <v>11</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
@@ -1872,10 +1905,10 @@
         <v>12</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
@@ -1910,10 +1943,10 @@
         <v>13</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -1948,10 +1981,10 @@
         <v>14</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
@@ -1986,10 +2019,10 @@
         <v>15</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="165" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
@@ -2024,7 +2057,7 @@
         <v>16</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="30" x14ac:dyDescent="0.25">
@@ -2062,7 +2095,7 @@
         <v>17</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2100,7 +2133,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2138,7 +2171,7 @@
         <v>19</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2176,7 +2209,7 @@
         <v>20</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2214,7 +2247,7 @@
         <v>21</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2252,7 +2285,7 @@
         <v>22</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2290,7 +2323,7 @@
         <v>23</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2822,7 +2855,7 @@
         <v>7</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2860,7 +2893,7 @@
         <v>7</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2898,7 +2931,7 @@
         <v>7</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2936,7 +2969,7 @@
         <v>7</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2974,7 +3007,7 @@
         <v>7</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -3012,7 +3045,7 @@
         <v>7</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -3050,7 +3083,7 @@
         <v>7</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3088,7 +3121,7 @@
         <v>7</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3126,7 +3159,7 @@
         <v>7</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3164,7 +3197,7 @@
         <v>7</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -3202,7 +3235,7 @@
         <v>7</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3240,7 +3273,7 @@
         <v>7</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3278,7 +3311,7 @@
         <v>7</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3316,7 +3349,7 @@
         <v>5</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -3354,7 +3387,7 @@
         <v>5</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3392,7 +3425,7 @@
         <v>5</v>
       </c>
       <c r="L55" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3430,7 +3463,7 @@
         <v>5</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -3468,7 +3501,7 @@
         <v>5</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -3506,7 +3539,7 @@
         <v>5</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3544,7 +3577,7 @@
         <v>5</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3582,7 +3615,7 @@
         <v>5</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3620,7 +3653,7 @@
         <v>5</v>
       </c>
       <c r="L61" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3658,7 +3691,7 @@
         <v>5</v>
       </c>
       <c r="L62" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3696,7 +3729,7 @@
         <v>5</v>
       </c>
       <c r="L64" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3734,7 +3767,7 @@
         <v>5</v>
       </c>
       <c r="L65" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3772,7 +3805,7 @@
         <v>5</v>
       </c>
       <c r="L66" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3810,7 +3843,7 @@
         <v>5</v>
       </c>
       <c r="L67" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3848,7 +3881,7 @@
         <v>5</v>
       </c>
       <c r="L68" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3886,7 +3919,7 @@
         <v>5</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3899,8 +3932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3916,7 +3949,7 @@
     <col min="9" max="9" width="3.42578125"/>
     <col min="10" max="10" width="13.42578125"/>
     <col min="11" max="11" width="8.7109375"/>
-    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
     <col min="13" max="14" width="10.140625"/>
     <col min="15" max="15" width="5.140625"/>
     <col min="16" max="16" width="9.42578125"/>
@@ -3955,10 +3988,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -4187,7 +4220,7 @@
         <v>43</v>
       </c>
       <c r="T4" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="U4" s="19">
         <v>42390</v>
@@ -4205,7 +4238,7 @@
         <v>1111111</v>
       </c>
       <c r="Z4" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AA4" s="18">
         <v>999</v>
@@ -4234,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL4" s="18">
         <v>-11</v>
@@ -4301,7 +4334,7 @@
         <v>43</v>
       </c>
       <c r="T5" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="U5" s="19">
         <v>42390</v>
@@ -4319,7 +4352,7 @@
         <v>1111111</v>
       </c>
       <c r="Z5" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AA5" s="18">
         <v>999</v>
@@ -4348,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL5" s="18">
         <v>-11</v>
@@ -4406,7 +4439,7 @@
         <v>6</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R6" s="18">
         <v>5</v>
@@ -4415,7 +4448,7 @@
         <v>43</v>
       </c>
       <c r="T6" s="18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="U6" s="19">
         <v>42390</v>
@@ -4433,7 +4466,7 @@
         <v>1111111</v>
       </c>
       <c r="Z6" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AA6" s="18">
         <v>999</v>
@@ -4462,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL6" s="18">
         <v>-11</v>
@@ -4520,7 +4553,7 @@
         <v>7</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R7" s="18">
         <v>5</v>
@@ -4529,7 +4562,7 @@
         <v>43</v>
       </c>
       <c r="T7" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U7" s="19">
         <v>42390</v>
@@ -4547,7 +4580,7 @@
         <v>1111111</v>
       </c>
       <c r="Z7" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AA7" s="18">
         <v>999</v>
@@ -4576,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL7" s="18">
         <v>-11</v>
@@ -4643,7 +4676,7 @@
         <v>43</v>
       </c>
       <c r="T8" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="U8" s="19">
         <v>42390</v>
@@ -4661,7 +4694,7 @@
         <v>1111111</v>
       </c>
       <c r="Z8" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AA8" s="18">
         <v>999</v>
@@ -4690,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL8" s="18">
         <v>-11</v>
@@ -4757,7 +4790,7 @@
         <v>43</v>
       </c>
       <c r="T9" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="U9" s="19">
         <v>42390</v>
@@ -4775,7 +4808,7 @@
         <v>1111111</v>
       </c>
       <c r="Z9" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AA9" s="18">
         <v>999</v>
@@ -4804,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL9" s="18">
         <v>-11</v>
@@ -4871,7 +4904,7 @@
         <v>43</v>
       </c>
       <c r="T10" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="U10" s="19">
         <v>42390</v>
@@ -4889,7 +4922,7 @@
         <v>1111111</v>
       </c>
       <c r="Z10" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AA10" s="18">
         <v>999</v>
@@ -4918,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL10" s="18">
         <v>-11</v>
@@ -4985,7 +5018,7 @@
         <v>43</v>
       </c>
       <c r="T11" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="U11" s="19">
         <v>42390</v>
@@ -5003,7 +5036,7 @@
         <v>1111111</v>
       </c>
       <c r="Z11" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AA11" s="18">
         <v>999</v>
@@ -5032,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL11" s="18">
         <v>-11</v>
@@ -5099,7 +5132,7 @@
         <v>43</v>
       </c>
       <c r="T12" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="U12" s="19">
         <v>42390</v>
@@ -5117,7 +5150,7 @@
         <v>1111111</v>
       </c>
       <c r="Z12" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AA12" s="18">
         <v>999</v>
@@ -5146,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL12" s="18">
         <v>-11</v>
@@ -5204,7 +5237,7 @@
         <v>49</v>
       </c>
       <c r="Q13" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R13" s="18">
         <v>5</v>
@@ -5213,7 +5246,7 @@
         <v>43</v>
       </c>
       <c r="T13" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="U13" s="19">
         <v>42390</v>
@@ -5231,7 +5264,7 @@
         <v>1111111</v>
       </c>
       <c r="Z13" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AA13" s="18">
         <v>999</v>
@@ -5260,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL13" s="18">
         <v>-11</v>
@@ -5318,7 +5351,7 @@
         <v>50</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R14" s="18">
         <v>5</v>
@@ -5327,7 +5360,7 @@
         <v>43</v>
       </c>
       <c r="T14" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U14" s="19">
         <v>42390</v>
@@ -5345,7 +5378,7 @@
         <v>1111111</v>
       </c>
       <c r="Z14" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AA14" s="18">
         <v>999</v>
@@ -5374,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL14" s="18">
         <v>-11</v>
@@ -5432,7 +5465,7 @@
         <v>50</v>
       </c>
       <c r="Q15" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R15" s="18">
         <v>5</v>
@@ -5441,7 +5474,7 @@
         <v>43</v>
       </c>
       <c r="T15" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U15" s="19">
         <v>42390</v>
@@ -5459,7 +5492,7 @@
         <v>1111111</v>
       </c>
       <c r="Z15" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AA15" s="18">
         <v>999</v>
@@ -5488,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL15" s="18">
         <v>-11</v>
@@ -5546,7 +5579,7 @@
         <v>50</v>
       </c>
       <c r="Q16" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R16" s="18">
         <v>5</v>
@@ -5555,7 +5588,7 @@
         <v>43</v>
       </c>
       <c r="T16" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U16" s="19">
         <v>42390</v>
@@ -5573,7 +5606,7 @@
         <v>1111111</v>
       </c>
       <c r="Z16" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AA16" s="18">
         <v>999</v>
@@ -5602,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL16" s="18">
         <v>-11</v>
@@ -5660,7 +5693,7 @@
         <v>50</v>
       </c>
       <c r="Q17" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R17" s="18">
         <v>5</v>
@@ -5669,7 +5702,7 @@
         <v>43</v>
       </c>
       <c r="T17" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U17" s="19">
         <v>42390</v>
@@ -5687,7 +5720,7 @@
         <v>1111111</v>
       </c>
       <c r="Z17" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AA17" s="18">
         <v>999</v>
@@ -5716,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL17" s="18">
         <v>-11</v>
@@ -5774,7 +5807,7 @@
         <v>50</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R18" s="18">
         <v>5</v>
@@ -5783,7 +5816,7 @@
         <v>43</v>
       </c>
       <c r="T18" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U18" s="19">
         <v>42390</v>
@@ -5801,7 +5834,7 @@
         <v>1111111</v>
       </c>
       <c r="Z18" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AA18" s="18">
         <v>999</v>
@@ -5830,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL18" s="18">
         <v>-11</v>
@@ -5877,7 +5910,7 @@
         <v>43</v>
       </c>
       <c r="T19" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="U19" s="19">
         <v>42390</v>
@@ -5895,7 +5928,7 @@
         <v>1111111</v>
       </c>
       <c r="Z19" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AA19" s="18">
         <v>999</v>
@@ -5924,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL19" s="18">
         <v>-11</v>
@@ -5978,7 +6011,7 @@
         <v>50</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R20" s="18">
         <v>5</v>
@@ -5987,7 +6020,7 @@
         <v>43</v>
       </c>
       <c r="T20" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U20" s="19">
         <v>42390</v>
@@ -6005,7 +6038,7 @@
         <v>1111111</v>
       </c>
       <c r="Z20" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AA20" s="18">
         <v>999</v>
@@ -6034,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL20" s="18">
         <v>-11</v>
@@ -6081,7 +6114,7 @@
         <v>43</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="U21" s="19">
         <v>42390</v>
@@ -6099,7 +6132,7 @@
         <v>1111111</v>
       </c>
       <c r="Z21" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AA21" s="18">
         <v>999</v>
@@ -6128,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL21" s="18">
         <v>-11</v>
@@ -6182,7 +6215,7 @@
         <v>51</v>
       </c>
       <c r="Q22" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R22" s="18">
         <v>5</v>
@@ -6191,7 +6224,7 @@
         <v>43</v>
       </c>
       <c r="T22" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="U22" s="19">
         <v>42390</v>
@@ -6209,7 +6242,7 @@
         <v>1111111</v>
       </c>
       <c r="Z22" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AA22" s="18">
         <v>999</v>
@@ -6238,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL22" s="18">
         <v>-11</v>
@@ -6296,7 +6329,7 @@
         <v>52</v>
       </c>
       <c r="Q23" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R23" s="18">
         <v>5</v>
@@ -6305,7 +6338,7 @@
         <v>43</v>
       </c>
       <c r="T23" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="U23" s="19">
         <v>42390</v>
@@ -6323,7 +6356,7 @@
         <v>1111111</v>
       </c>
       <c r="Z23" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AA23" s="18">
         <v>999</v>
@@ -6352,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL23" s="18">
         <v>-11</v>
@@ -6410,7 +6443,7 @@
         <v>52</v>
       </c>
       <c r="Q24" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R24" s="18">
         <v>5</v>
@@ -6419,7 +6452,7 @@
         <v>43</v>
       </c>
       <c r="T24" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="U24" s="19">
         <v>42390</v>
@@ -6437,7 +6470,7 @@
         <v>1111111</v>
       </c>
       <c r="Z24" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AA24" s="18">
         <v>999</v>
@@ -6466,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL24" s="18">
         <v>-11</v>
@@ -6524,7 +6557,7 @@
         <v>52</v>
       </c>
       <c r="Q25" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R25" s="18">
         <v>5</v>
@@ -6533,7 +6566,7 @@
         <v>43</v>
       </c>
       <c r="T25" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="U25" s="19">
         <v>42390</v>
@@ -6551,7 +6584,7 @@
         <v>1111111</v>
       </c>
       <c r="Z25" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AA25" s="18">
         <v>999</v>
@@ -6580,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL25" s="18">
         <v>-11</v>
@@ -6638,7 +6671,7 @@
         <v>7</v>
       </c>
       <c r="Q26" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R26" s="18">
         <v>5</v>
@@ -6647,7 +6680,7 @@
         <v>43</v>
       </c>
       <c r="T26" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="U26" s="19">
         <v>42402</v>
@@ -6656,7 +6689,7 @@
         <v>3</v>
       </c>
       <c r="W26" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="X26" s="18" t="s">
         <v>44</v>
@@ -6665,7 +6698,7 @@
         <v>1111111</v>
       </c>
       <c r="Z26" s="18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AA26" s="18">
         <v>999</v>
@@ -6694,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL26" s="18">
         <v>-11</v>
@@ -6752,16 +6785,16 @@
         <v>7</v>
       </c>
       <c r="Q27" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R27" s="18">
         <v>5</v>
       </c>
       <c r="S27" s="18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="T27" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="U27" s="19">
         <v>42402</v>
@@ -6770,7 +6803,7 @@
         <v>3</v>
       </c>
       <c r="W27" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="X27" s="18" t="s">
         <v>44</v>
@@ -6779,7 +6812,7 @@
         <v>1111111</v>
       </c>
       <c r="Z27" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AA27" s="18">
         <v>999</v>
@@ -6808,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL27" s="18">
         <v>-11</v>
@@ -6866,16 +6899,16 @@
         <v>7</v>
       </c>
       <c r="Q28" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R28" s="18">
         <v>5</v>
       </c>
       <c r="S28" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="T28" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="U28" s="19">
         <v>42402</v>
@@ -6884,7 +6917,7 @@
         <v>3</v>
       </c>
       <c r="W28" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="X28" s="18" t="s">
         <v>44</v>
@@ -6893,7 +6926,7 @@
         <v>1111111</v>
       </c>
       <c r="Z28" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AA28" s="18">
         <v>999</v>
@@ -6922,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL28" s="18">
         <v>-11</v>
@@ -6980,16 +7013,16 @@
         <v>7</v>
       </c>
       <c r="Q29" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R29" s="18">
         <v>5</v>
       </c>
       <c r="S29" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="T29" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="U29" s="19">
         <v>42402</v>
@@ -6998,7 +7031,7 @@
         <v>3</v>
       </c>
       <c r="W29" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="X29" s="18" t="s">
         <v>44</v>
@@ -7007,7 +7040,7 @@
         <v>1111111</v>
       </c>
       <c r="Z29" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AA29" s="18">
         <v>999</v>
@@ -7036,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL29" s="18">
         <v>-11</v>
@@ -7094,16 +7127,16 @@
         <v>7</v>
       </c>
       <c r="Q30" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R30" s="18">
         <v>5</v>
       </c>
       <c r="S30" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T30" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="U30" s="19">
         <v>42402</v>
@@ -7112,7 +7145,7 @@
         <v>3</v>
       </c>
       <c r="W30" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="X30" s="18" t="s">
         <v>44</v>
@@ -7121,7 +7154,7 @@
         <v>1111111</v>
       </c>
       <c r="Z30" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AA30" s="18">
         <v>999</v>
@@ -7150,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL30" s="18">
         <v>-11</v>
@@ -7208,16 +7241,16 @@
         <v>7</v>
       </c>
       <c r="Q31" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R31" s="18">
         <v>5</v>
       </c>
       <c r="S31" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T31" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="U31" s="19">
         <v>42402</v>
@@ -7226,7 +7259,7 @@
         <v>3</v>
       </c>
       <c r="W31" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="X31" s="18" t="s">
         <v>44</v>
@@ -7235,7 +7268,7 @@
         <v>1111111</v>
       </c>
       <c r="Z31" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AA31" s="18">
         <v>999</v>
@@ -7264,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL31" s="18">
         <v>-11</v>
@@ -7322,7 +7355,7 @@
         <v>7</v>
       </c>
       <c r="Q32" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R32" s="18">
         <v>5</v>
@@ -7331,7 +7364,7 @@
         <v>43</v>
       </c>
       <c r="T32" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="U32" s="19">
         <v>42402</v>
@@ -7340,7 +7373,7 @@
         <v>3</v>
       </c>
       <c r="W32" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="X32" s="18" t="s">
         <v>44</v>
@@ -7349,7 +7382,7 @@
         <v>1111111</v>
       </c>
       <c r="Z32" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AA32" s="18">
         <v>999</v>
@@ -7378,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL32" s="18">
         <v>-11</v>
@@ -7436,7 +7469,7 @@
         <v>7</v>
       </c>
       <c r="Q33" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R33" s="18">
         <v>5</v>
@@ -7445,7 +7478,7 @@
         <v>43</v>
       </c>
       <c r="T33" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="U33" s="19">
         <v>42402</v>
@@ -7454,7 +7487,7 @@
         <v>3</v>
       </c>
       <c r="W33" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="X33" s="18" t="s">
         <v>44</v>
@@ -7463,7 +7496,7 @@
         <v>1111111</v>
       </c>
       <c r="Z33" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AA33" s="18">
         <v>999</v>
@@ -7492,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL33" s="18">
         <v>-11</v>
@@ -7550,7 +7583,7 @@
         <v>7</v>
       </c>
       <c r="Q34" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R34" s="18">
         <v>5</v>
@@ -7559,7 +7592,7 @@
         <v>43</v>
       </c>
       <c r="T34" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="U34" s="19">
         <v>42402</v>
@@ -7568,7 +7601,7 @@
         <v>3</v>
       </c>
       <c r="W34" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="X34" s="18" t="s">
         <v>44</v>
@@ -7577,7 +7610,7 @@
         <v>1111111</v>
       </c>
       <c r="Z34" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AA34" s="18">
         <v>999</v>
@@ -7606,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL34" s="18">
         <v>-11</v>
@@ -7664,7 +7697,7 @@
         <v>7</v>
       </c>
       <c r="Q35" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R35" s="18">
         <v>5</v>
@@ -7673,7 +7706,7 @@
         <v>43</v>
       </c>
       <c r="T35" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="U35" s="19">
         <v>42402</v>
@@ -7682,7 +7715,7 @@
         <v>3</v>
       </c>
       <c r="W35" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="X35" s="18" t="s">
         <v>44</v>
@@ -7691,7 +7724,7 @@
         <v>1111111</v>
       </c>
       <c r="Z35" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AA35" s="18">
         <v>999</v>
@@ -7720,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL35" s="18">
         <v>-11</v>
@@ -7778,7 +7811,7 @@
         <v>7</v>
       </c>
       <c r="Q36" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R36" s="18">
         <v>5</v>
@@ -7787,7 +7820,7 @@
         <v>43</v>
       </c>
       <c r="T36" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="U36" s="19">
         <v>42402</v>
@@ -7796,7 +7829,7 @@
         <v>3</v>
       </c>
       <c r="W36" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="X36" s="18" t="s">
         <v>44</v>
@@ -7805,7 +7838,7 @@
         <v>1111111</v>
       </c>
       <c r="Z36" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AA36" s="18">
         <v>999</v>
@@ -7834,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL36" s="18">
         <v>-11</v>
@@ -7892,7 +7925,7 @@
         <v>7</v>
       </c>
       <c r="Q37" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R37" s="18">
         <v>5</v>
@@ -7901,7 +7934,7 @@
         <v>43</v>
       </c>
       <c r="T37" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U37" s="19">
         <v>42402</v>
@@ -7910,7 +7943,7 @@
         <v>3</v>
       </c>
       <c r="W37" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="X37" s="18" t="s">
         <v>44</v>
@@ -7919,7 +7952,7 @@
         <v>1111111</v>
       </c>
       <c r="Z37" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AA37" s="18">
         <v>999</v>
@@ -7948,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL37" s="18">
         <v>-11</v>
@@ -11016,7 +11049,7 @@
   <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11029,7 +11062,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -11049,12 +11082,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -11072,144 +11105,134 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>61</v>
-      </c>
-    </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
+++ b/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="156">
   <si>
     <t>ItemType</t>
   </si>
@@ -483,6 +483,42 @@
   </si>
   <si>
     <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Hier wäre folgende Konstellation denkbar: 8 (4,4) und 8 (4,4), aber die Regel ist, immer die grösste Anzahl Days zuerst auszuprobieren, und dass sind die 14 Days mit dem DayString 7,7. Daher hat dieser eine höhere Gewichtung und die gleichen Regeln kommen zu tragen wie beim Duration=15 . Es sind noch zwei Tage übrig, aber es sind keine Regeln mehr vorhanden mit dem Anfangstag 25JAN mit Days &lt;= 2, also wird die Berechnung abgebrochen.</t>
+  </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Hier wäre folgende Konstellation denkbar: 8 (4,4) und 8 (4,4), aber die Regel ist, immer die grösste Anzahl Days zuerst auszuprobieren, und dass sind die 14 Days mit dem DayString 7,7. Daher hat dieser eine höhere Gewichtung und die gleichen Regeln kommen zu tragen wie beim Duration=15 . Es sind noch drei Tage übrig, aber es sind keine Regeln mehr vorhanden mit dem Anfangstag 25JAN mit Days &lt;= 3, also wird die Berechnung abgebrochen.</t>
+  </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Dies ist dier erste Duration die mehrere Regeln nutzen kann. Folgende Days Regeln könnten passen: 4,6,7,8,12,14. Der Revolving vom 4/3 ist hier 3, daher gibt es keine Days=16 (4,4,4) Regel. Die grösste vorhanden Regel ist 14 (DayString=7,7) Die Tage kommen analog dem Beispiel für Duration=14. Es bleiben noch 4 Tage übrig, mit dem Startdatum=15JAN. Also müssen wir ab dem 15JAN nach einem Special suchen der passt mit Days&lt;=4, und da gibt es den 4/3. Mit EndDays kommt dann noch zusätzlich zu den Tagen 6JAN, 7JAN, 13JAN und 14JAN noch der 18JAN somit zum Abzug.</t>
+  </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Dieser Fall funktioniert analog dem Duration=18. Die gleichen Tage kommen zum Abzug wie bei Duration=18.</t>
+  </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Die grösste Days Regel welche hier passt ist die für 20 Tage mit dem DayString 7,7,6. Die 20 Tage werden in die Gruppen 1-7JAN, 8-14JAN und 15-20JAN aufgeteilt. Da EndDays, kommen die Tage 6JAN, 7JAN, 13JAN, 14JAN, 20JAN zum Abzug.</t>
+  </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Die grösste passende Regel hier ist die Days=21 mit DayString 7,7,7. Daher sind die gleichen Begründungen wirksam wie im Fall Duration=20, und die Tage  6JAN, 7JAN, 13JAN, 14JAN, 20JAN, 21JAN kommen zum Abzug.</t>
+  </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Die grösste passende Regel hier ist die Days=21, daher sind die gleichen Regeln wirksam wie für Duration=20.</t>
+  </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Die grösste passende Regel hier ist die Days=21, daher sind die gleichen Regeln wirksam wie für Duration=20. Es gibt keine weitere Regel die ab dem 21JAN gilt für Days=2, daher kann mit der Berechnung abgebrochen werden.</t>
+  </si>
+  <si>
+    <t>MinDays, MaxDays,MinAmount,MaxAmount,Average in Verbindung mit StartDateRelevant. Dieses Beispiel zeigt die Anwendung vom EndDays. Die effektiven PerDayPrices sind vom 23JAN bis 29JAN, und mit der Regel EndDays kommen die Tage 28JAN und 29JAN zum Abzug.</t>
+  </si>
+  <si>
+    <t>MinDays, MaxDays,MinAmount,MaxAmount,Average in Verbindung mit StartDateRelevant. Dieses Beispiel zeigt die Anwendung vom StartDays. Die effektiven PerDayPrices sind vom 23JAN bis 29JAN, und mit der Regel StartDays kommen die Tage 23JAN und 24JAN zum Abzug.</t>
+  </si>
+  <si>
+    <t>MinDays, MaxDays,MinAmount,MaxAmount,Average in Verbindung mit StartDateRelevant. Dieses Beispiel zeigt die Anwendung vom MinAmount. Die effektiven PerDayPrices sind vom 23JAN bis 29JAN, die PerDayPrices Liste wird sortiert nach Preis aufsteigend und die ersten zwei Einträge aus der Liste werden für den Special genutzt.</t>
+  </si>
+  <si>
+    <t>MinDays, MaxDays,MinAmount,MaxAmount,Average in Verbindung mit StartDateRelevant. Dieses Beispiel zeigt die Anwendung vom MaxAmount. Die effektiven PerDayPrices sind vom 23JAN bis 29JAN, die PerDayPrices Liste wird sortiert nach Preis absteigend und die ersten zwei Einträge aus der Liste werden für den Special genutzt.</t>
+  </si>
+  <si>
+    <t>MinDays, MaxDays,MinAmount,MaxAmount,Average in Verbindung mit StartDateRelevant. Dieses Beispiel zeigt die Anwendung vom Average. Die effektiven PerDayPrices sind vom 23JAN bis 29JAN, es wird ein Durchschnitt der Preise gemacht, und da die Duration 7 Tage ist, und PayNights=5 wird der Average-Betrag zwei Mal abgezogen.</t>
   </si>
 </sst>
 </file>
@@ -1359,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2060,7 +2096,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="165" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
@@ -2095,10 +2131,10 @@
         <v>17</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>37</v>
       </c>
@@ -2133,10 +2169,10 @@
         <v>18</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>37</v>
       </c>
@@ -2171,10 +2207,10 @@
         <v>19</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>37</v>
       </c>
@@ -2209,10 +2245,10 @@
         <v>20</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>37</v>
       </c>
@@ -2247,10 +2283,10 @@
         <v>21</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>37</v>
       </c>
@@ -2285,10 +2321,10 @@
         <v>22</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>37</v>
       </c>
@@ -2323,10 +2359,10 @@
         <v>23</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>37</v>
       </c>
@@ -2361,10 +2397,10 @@
         <v>7</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>37</v>
       </c>
@@ -2399,10 +2435,10 @@
         <v>7</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>37</v>
       </c>
@@ -2437,10 +2473,10 @@
         <v>7</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>37</v>
       </c>
@@ -2475,10 +2511,10 @@
         <v>7</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
@@ -2513,7 +2549,7 @@
         <v>7</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -3932,8 +3968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
+++ b/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\OltSchema\BaseData\HotelExport\SpecialOffers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
@@ -17,12 +12,12 @@
     <sheet name="PreisProTag" sheetId="4" r:id="rId3"/>
     <sheet name="Test-Beispiele" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="164">
   <si>
     <t>ItemType</t>
   </si>
@@ -519,6 +514,30 @@
   </si>
   <si>
     <t>MinDays, MaxDays,MinAmount,MaxAmount,Average in Verbindung mit StartDateRelevant. Dieses Beispiel zeigt die Anwendung vom Average. Die effektiven PerDayPrices sind vom 23JAN bis 29JAN, es wird ein Durchschnitt der Preise gemacht, und da die Duration 7 Tage ist, und PayNights=5 wird der Average-Betrag zwei Mal abgezogen.</t>
+  </si>
+  <si>
+    <t>stay 4 pay 3 MAR allways</t>
+  </si>
+  <si>
+    <t>stay 5 pay 4 MAR Days before depature 60-999</t>
+  </si>
+  <si>
+    <t>stay 5 pay 4 MAR Days before depature 1-59</t>
+  </si>
+  <si>
+    <t>stay 4 pay 3 APR Date 25.3.15-31.12.15</t>
+  </si>
+  <si>
+    <t>stay 5 pay 4 APR Date 01.01.16-20.03.16</t>
+  </si>
+  <si>
+    <t>stay 7 pay 5 APR Days 1-30</t>
+  </si>
+  <si>
+    <t>stay 5 pay 4 APR Fr Sa So</t>
+  </si>
+  <si>
+    <t>stay 7 pay 5 APR Mo Di Mi</t>
   </si>
 </sst>
 </file>
@@ -1385,7 +1404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1393,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM69"/>
+  <dimension ref="A1:AM82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3956,6 +3975,310 @@
       </c>
       <c r="L69" s="11" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" s="7">
+        <v>1</v>
+      </c>
+      <c r="H71" s="7">
+        <v>0</v>
+      </c>
+      <c r="I71" s="7">
+        <v>0</v>
+      </c>
+      <c r="J71" s="13">
+        <v>42436</v>
+      </c>
+      <c r="K71" s="7">
+        <v>5</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" s="13">
+        <v>42217</v>
+      </c>
+      <c r="G72" s="7">
+        <v>1</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0</v>
+      </c>
+      <c r="I72" s="7">
+        <v>0</v>
+      </c>
+      <c r="J72" s="13">
+        <v>42443</v>
+      </c>
+      <c r="K72" s="7">
+        <v>5</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F73" s="13">
+        <v>42410</v>
+      </c>
+      <c r="G73" s="7">
+        <v>1</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <v>0</v>
+      </c>
+      <c r="J73" s="13">
+        <v>42451</v>
+      </c>
+      <c r="K73" s="7">
+        <v>5</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" s="13">
+        <v>42217</v>
+      </c>
+      <c r="G76" s="7">
+        <v>1</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>0</v>
+      </c>
+      <c r="J76" s="13">
+        <v>42461</v>
+      </c>
+      <c r="K76" s="7">
+        <v>5</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F77" s="13">
+        <v>42402</v>
+      </c>
+      <c r="G77" s="7">
+        <v>1</v>
+      </c>
+      <c r="H77" s="7">
+        <v>0</v>
+      </c>
+      <c r="I77" s="7">
+        <v>0</v>
+      </c>
+      <c r="J77" s="13">
+        <v>42468</v>
+      </c>
+      <c r="K77" s="7">
+        <v>5</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" s="13">
+        <v>42439</v>
+      </c>
+      <c r="G78" s="7">
+        <v>1</v>
+      </c>
+      <c r="H78" s="7">
+        <v>0</v>
+      </c>
+      <c r="I78" s="7">
+        <v>0</v>
+      </c>
+      <c r="J78" s="13">
+        <v>42461</v>
+      </c>
+      <c r="K78" s="7">
+        <v>15</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="13">
+        <v>42439</v>
+      </c>
+      <c r="G81" s="7">
+        <v>1</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7">
+        <v>0</v>
+      </c>
+      <c r="J81" s="13">
+        <v>42476</v>
+      </c>
+      <c r="K81" s="7">
+        <v>10</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F82" s="13">
+        <v>42439</v>
+      </c>
+      <c r="G82" s="7">
+        <v>1</v>
+      </c>
+      <c r="H82" s="7">
+        <v>0</v>
+      </c>
+      <c r="I82" s="7">
+        <v>0</v>
+      </c>
+      <c r="J82" s="13">
+        <v>42479</v>
+      </c>
+      <c r="K82" s="7">
+        <v>10</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
+++ b/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\OltSchema\BaseData\HotelExport\SpecialOffers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
@@ -17,12 +12,12 @@
     <sheet name="PreisProTag" sheetId="4" r:id="rId3"/>
     <sheet name="Test-Beispiele" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="234">
   <si>
     <t>ItemType</t>
   </si>
@@ -745,6 +740,15 @@
   </si>
   <si>
     <t>stay 7 pay 5 APR Days 1-30. Hier wollten wir ein komplexeres Beispiel zeigen. Der Code findet zwei Specials, den 5/4 mit explizitem  Datum DateBeforeDepartureFrom/To und die Regel 1-30 Tage vor Abreise. Da aber die Regel 7/5 einen grösseren Wert für Days hat, hat diese Regel eine höhere Gewichtung als die 5/4. Die 7/5 Regel hat als Saisonstart den 07APR. Ich fange also am 1APR an, finde keine passende Regel, gehe weiter zum 2APR ... bis zum 7APR. Dort finde ich eine Regel die passt. Ausgehend vom 7APR sind dann die EndDays 12APR und 13APR die zwei Tage welche zum Abzu kommen.</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>stay 4 pay 3 Mai Saison übergreifend</t>
+  </si>
+  <si>
+    <t>stay 5 pay 4 Mai Saison übergreifend</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1602,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1606,10 +1610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:AM1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:L102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3708,19 +3712,1110 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F70" s="7"/>
+      <c r="A70" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="7">
+        <v>42491</v>
+      </c>
+      <c r="K70" s="2">
+        <v>5</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F71" s="7"/>
+      <c r="A71" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71" s="7">
+        <v>42492</v>
+      </c>
+      <c r="K71" s="2">
+        <v>5</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F72" s="7"/>
+      <c r="A72" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="7">
+        <v>42493</v>
+      </c>
+      <c r="K72" s="2">
+        <v>5</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+      <c r="J73" s="7">
+        <v>42494</v>
+      </c>
+      <c r="K73" s="2">
+        <v>5</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
+      <c r="J74" s="7">
+        <v>42495</v>
+      </c>
+      <c r="K74" s="2">
+        <v>5</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F75" s="7"/>
+      <c r="A75" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G75" s="2">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="7">
+        <v>42496</v>
+      </c>
+      <c r="K75" s="2">
+        <v>5</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F76" s="7"/>
+      <c r="A76" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G76" s="2">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76" s="7">
+        <v>42497</v>
+      </c>
+      <c r="K76" s="2">
+        <v>5</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G77" s="2">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+      <c r="J77" s="7">
+        <v>42498</v>
+      </c>
+      <c r="K77" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G78" s="2">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78" s="7">
+        <v>42498</v>
+      </c>
+      <c r="K78" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G79" s="2">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
+      <c r="J79" s="7">
+        <v>42499</v>
+      </c>
+      <c r="K79" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G80" s="2">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+      <c r="J80" s="7">
+        <v>42500</v>
+      </c>
+      <c r="K80" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G83" s="2">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+      <c r="J83" s="7">
+        <v>42500</v>
+      </c>
+      <c r="K83" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+      <c r="J84" s="7">
+        <v>42501</v>
+      </c>
+      <c r="K84" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G85" s="2">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+      <c r="J85" s="7">
+        <v>42502</v>
+      </c>
+      <c r="K85" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G86" s="2">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2">
+        <v>0</v>
+      </c>
+      <c r="J86" s="7">
+        <v>42503</v>
+      </c>
+      <c r="K86" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G87" s="2">
+        <v>1</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2">
+        <v>0</v>
+      </c>
+      <c r="J87" s="7">
+        <v>42504</v>
+      </c>
+      <c r="K87" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G88" s="2">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0</v>
+      </c>
+      <c r="I88" s="2">
+        <v>0</v>
+      </c>
+      <c r="J88" s="7">
+        <v>42505</v>
+      </c>
+      <c r="K88" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G89" s="2">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0</v>
+      </c>
+      <c r="I89" s="2">
+        <v>0</v>
+      </c>
+      <c r="J89" s="7">
+        <v>42506</v>
+      </c>
+      <c r="K89" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" s="2">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2">
+        <v>0</v>
+      </c>
+      <c r="J90" s="7">
+        <v>42507</v>
+      </c>
+      <c r="K90" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G91" s="2">
+        <v>1</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2">
+        <v>0</v>
+      </c>
+      <c r="J91" s="7">
+        <v>42508</v>
+      </c>
+      <c r="K91" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G92" s="2">
+        <v>1</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0</v>
+      </c>
+      <c r="J92" s="7">
+        <v>42509</v>
+      </c>
+      <c r="K92" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G93" s="2">
+        <v>1</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0</v>
+      </c>
+      <c r="I93" s="2">
+        <v>0</v>
+      </c>
+      <c r="J93" s="7">
+        <v>42510</v>
+      </c>
+      <c r="K93" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G94" s="2">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0</v>
+      </c>
+      <c r="I94" s="2">
+        <v>0</v>
+      </c>
+      <c r="J94" s="7">
+        <v>42511</v>
+      </c>
+      <c r="K94" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G95" s="2">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0</v>
+      </c>
+      <c r="J95" s="7">
+        <v>42512</v>
+      </c>
+      <c r="K95" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G96" s="2">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0</v>
+      </c>
+      <c r="J96" s="7">
+        <v>42513</v>
+      </c>
+      <c r="K96" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G97" s="2">
+        <v>1</v>
+      </c>
+      <c r="H97" s="2">
+        <v>0</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0</v>
+      </c>
+      <c r="J97" s="7">
+        <v>42514</v>
+      </c>
+      <c r="K97" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G98" s="2">
+        <v>1</v>
+      </c>
+      <c r="H98" s="2">
+        <v>0</v>
+      </c>
+      <c r="I98" s="2">
+        <v>0</v>
+      </c>
+      <c r="J98" s="7">
+        <v>42515</v>
+      </c>
+      <c r="K98" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G99" s="2">
+        <v>1</v>
+      </c>
+      <c r="H99" s="2">
+        <v>0</v>
+      </c>
+      <c r="I99" s="2">
+        <v>0</v>
+      </c>
+      <c r="J99" s="7">
+        <v>42516</v>
+      </c>
+      <c r="K99" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G100" s="2">
+        <v>1</v>
+      </c>
+      <c r="H100" s="2">
+        <v>0</v>
+      </c>
+      <c r="I100" s="2">
+        <v>0</v>
+      </c>
+      <c r="J100" s="7">
+        <v>42517</v>
+      </c>
+      <c r="K100" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G101" s="2">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2">
+        <v>0</v>
+      </c>
+      <c r="I101" s="2">
+        <v>0</v>
+      </c>
+      <c r="J101" s="7">
+        <v>42518</v>
+      </c>
+      <c r="K101" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G102" s="2">
+        <v>1</v>
+      </c>
+      <c r="H102" s="2">
+        <v>0</v>
+      </c>
+      <c r="I102" s="2">
+        <v>0</v>
+      </c>
+      <c r="J102" s="7">
+        <v>42519</v>
+      </c>
+      <c r="K102" s="2">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
+++ b/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="287">
   <si>
     <t>ItemType</t>
   </si>
@@ -920,6 +920,12 @@
   </si>
   <si>
     <t>Normale Specials mit minimum zwei Folgesaisons und unterschiedlichen Durations</t>
+  </si>
+  <si>
+    <t>Einfache Saisonüberschneidung mit normalen Specials</t>
+  </si>
+  <si>
+    <t>Komplexere Saisonüberschneidung mit normalen Specials</t>
   </si>
 </sst>
 </file>
@@ -1783,7 +1789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W89" sqref="W89"/>
     </sheetView>
   </sheetViews>
@@ -5178,10 +5184,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN110"/>
+  <dimension ref="A1:AN111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5355,6 +5361,9 @@
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>39</v>
       </c>
@@ -5397,6 +5406,9 @@
       <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>39</v>
       </c>
@@ -5510,6 +5522,9 @@
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>39</v>
       </c>
@@ -5623,6 +5638,9 @@
       <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
@@ -5736,6 +5754,9 @@
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
@@ -5849,6 +5870,9 @@
       <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
@@ -5962,6 +5986,9 @@
       <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>39</v>
       </c>
@@ -6075,6 +6102,9 @@
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>39</v>
       </c>
@@ -6188,6 +6218,9 @@
       <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
@@ -6301,6 +6334,9 @@
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>39</v>
       </c>
@@ -6414,6 +6450,9 @@
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
@@ -6527,6 +6566,9 @@
       <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>39</v>
       </c>
@@ -6640,6 +6682,9 @@
       <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>39</v>
       </c>
@@ -6753,6 +6798,9 @@
       <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>39</v>
       </c>
@@ -6866,6 +6914,9 @@
       <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>39</v>
       </c>
@@ -6979,6 +7030,9 @@
       <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>39</v>
       </c>
@@ -7086,6 +7140,9 @@
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="M19" s="7">
         <v>42370</v>
       </c>
@@ -7175,6 +7232,9 @@
       <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E20" s="2" t="s">
         <v>39</v>
       </c>
@@ -7282,6 +7342,9 @@
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="M21" s="7">
         <v>42370</v>
       </c>
@@ -7371,6 +7434,9 @@
       <c r="C22" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E22" s="2" t="s">
         <v>39</v>
       </c>
@@ -7484,6 +7550,9 @@
       <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E23" s="2" t="s">
         <v>39</v>
       </c>
@@ -7597,6 +7666,9 @@
       <c r="C24" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E24" s="2" t="s">
         <v>39</v>
       </c>
@@ -7709,6 +7781,9 @@
       </c>
       <c r="C25" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>39</v>
@@ -7830,6 +7905,9 @@
       <c r="C27" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E27" s="2" t="s">
         <v>39</v>
       </c>
@@ -7943,6 +8021,9 @@
       <c r="C28" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E28" s="2" t="s">
         <v>39</v>
       </c>
@@ -8056,6 +8137,9 @@
       <c r="C29" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E29" s="2" t="s">
         <v>39</v>
       </c>
@@ -8169,6 +8253,9 @@
       <c r="C30" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E30" s="2" t="s">
         <v>39</v>
       </c>
@@ -8281,6 +8368,9 @@
       </c>
       <c r="C31" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>39</v>
@@ -8402,6 +8492,9 @@
       <c r="C33" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E33" s="2" t="s">
         <v>39</v>
       </c>
@@ -8515,6 +8608,9 @@
       <c r="C34" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E34" s="2" t="s">
         <v>39</v>
       </c>
@@ -8628,6 +8724,9 @@
       <c r="C35" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E35" s="2" t="s">
         <v>39</v>
       </c>
@@ -8741,6 +8840,9 @@
       <c r="C36" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E36" s="2" t="s">
         <v>39</v>
       </c>
@@ -8854,6 +8956,9 @@
       <c r="C37" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E37" s="2" t="s">
         <v>39</v>
       </c>
@@ -8966,6 +9071,9 @@
       </c>
       <c r="C38" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>39</v>
@@ -9087,6 +9195,9 @@
       <c r="C40" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E40" s="2" t="s">
         <v>39</v>
       </c>
@@ -9194,6 +9305,9 @@
       <c r="C41" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E41" s="2" t="s">
         <v>39</v>
       </c>
@@ -9301,6 +9415,9 @@
       <c r="C42" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E42" s="2" t="s">
         <v>39</v>
       </c>
@@ -9408,6 +9525,9 @@
       <c r="C43" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E43" s="2" t="s">
         <v>39</v>
       </c>
@@ -9515,6 +9635,9 @@
       <c r="C44" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E44" s="2" t="s">
         <v>39</v>
       </c>
@@ -9622,6 +9745,9 @@
       <c r="C45" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E45" s="2" t="s">
         <v>39</v>
       </c>
@@ -9729,6 +9855,9 @@
       <c r="C46" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E46" s="2" t="s">
         <v>39</v>
       </c>
@@ -9836,6 +9965,9 @@
       <c r="C47" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E47" s="2" t="s">
         <v>39</v>
       </c>
@@ -9943,6 +10075,9 @@
       <c r="C48" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D48" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E48" s="2" t="s">
         <v>39</v>
       </c>
@@ -10049,6 +10184,9 @@
       </c>
       <c r="C49" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>39</v>
@@ -10164,6 +10302,9 @@
       <c r="C51" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E51" s="2" t="s">
         <v>39</v>
       </c>
@@ -10271,6 +10412,9 @@
       <c r="C52" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E52" s="2" t="s">
         <v>39</v>
       </c>
@@ -10378,6 +10522,9 @@
       <c r="C53" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E53" s="2" t="s">
         <v>39</v>
       </c>
@@ -10485,6 +10632,9 @@
       <c r="C54" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D54" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E54" s="2" t="s">
         <v>39</v>
       </c>
@@ -10592,6 +10742,9 @@
       <c r="C55" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E55" s="2" t="s">
         <v>39</v>
       </c>
@@ -10638,6 +10791,9 @@
       <c r="C57" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D57" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E57" s="2" t="s">
         <v>39</v>
       </c>
@@ -10680,6 +10836,9 @@
       <c r="C58" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D58" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E58" s="2" t="s">
         <v>39</v>
       </c>
@@ -10787,6 +10946,9 @@
       <c r="C59" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E59" s="2" t="s">
         <v>39</v>
       </c>
@@ -10894,6 +11056,9 @@
       <c r="C60" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D60" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E60" s="2" t="s">
         <v>39</v>
       </c>
@@ -11001,6 +11166,9 @@
       <c r="C61" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D61" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E61" s="2" t="s">
         <v>39</v>
       </c>
@@ -11047,6 +11215,9 @@
       <c r="C63" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D63" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E63" s="2" t="s">
         <v>39</v>
       </c>
@@ -11154,6 +11325,9 @@
       <c r="C64" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D64" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E64" s="2" t="s">
         <v>39</v>
       </c>
@@ -11266,6 +11440,9 @@
       </c>
       <c r="C65" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>39</v>
@@ -11388,6 +11565,9 @@
       <c r="C67" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D67" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E67" s="2" t="s">
         <v>39</v>
       </c>
@@ -11501,6 +11681,9 @@
       <c r="C68" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D68" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E68" s="2" t="s">
         <v>39</v>
       </c>
@@ -11613,6 +11796,9 @@
       </c>
       <c r="C69" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>39</v>
@@ -11735,6 +11921,9 @@
       <c r="C71" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D71" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E71" s="2" t="s">
         <v>39</v>
       </c>
@@ -11842,6 +12031,9 @@
       <c r="C72" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D72" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E72" s="2" t="s">
         <v>39</v>
       </c>
@@ -11949,6 +12141,9 @@
       <c r="C73" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D73" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E73" s="2" t="s">
         <v>39</v>
       </c>
@@ -12056,6 +12251,9 @@
       <c r="C74" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D74" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E74" s="2" t="s">
         <v>39</v>
       </c>
@@ -12163,6 +12361,9 @@
       <c r="C75" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D75" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E75" s="2" t="s">
         <v>39</v>
       </c>
@@ -12270,6 +12471,9 @@
       <c r="C76" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D76" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E76" s="2" t="s">
         <v>39</v>
       </c>
@@ -12377,6 +12581,9 @@
       <c r="C77" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D77" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E77" s="2" t="s">
         <v>39</v>
       </c>
@@ -12484,6 +12691,9 @@
       <c r="C78" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D78" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E78" s="2" t="s">
         <v>39</v>
       </c>
@@ -12588,6 +12798,9 @@
       <c r="C79" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D79" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E79" s="2" t="s">
         <v>39</v>
       </c>
@@ -12692,6 +12905,9 @@
       <c r="C80" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D80" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E80" s="2" t="s">
         <v>39</v>
       </c>
@@ -12796,6 +13012,9 @@
       <c r="C81" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D81" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E81" s="2" t="s">
         <v>39</v>
       </c>
@@ -12890,125 +13109,58 @@
         <v>238</v>
       </c>
     </row>
-    <row r="82" spans="1:40" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G82" s="2">
-        <v>1</v>
-      </c>
-      <c r="H82" s="2">
-        <v>0</v>
-      </c>
-      <c r="I82" s="2">
-        <v>0</v>
-      </c>
-      <c r="J82" s="7">
-        <v>42500</v>
-      </c>
-      <c r="K82" s="2">
-        <v>13</v>
-      </c>
-      <c r="M82" s="7">
-        <v>42500</v>
-      </c>
-      <c r="N82" s="7">
-        <v>42513</v>
-      </c>
-      <c r="O82" s="2">
-        <v>8</v>
-      </c>
-      <c r="P82" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q82" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R82" s="2">
-        <v>3</v>
-      </c>
-      <c r="S82" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="T82" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="U82" s="7">
-        <v>42513</v>
-      </c>
-      <c r="V82" s="2">
-        <v>2</v>
-      </c>
-      <c r="W82" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X82" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y82" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF82" s="2">
-        <v>4</v>
-      </c>
-      <c r="AG82" s="2">
-        <v>4</v>
-      </c>
-      <c r="AH82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ82" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL82" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM82" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN82" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="J82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="7"/>
+    </row>
+    <row r="83" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B83" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G83" s="2">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+      <c r="J83" s="7">
+        <v>42500</v>
+      </c>
+      <c r="K83" s="2">
+        <v>13</v>
+      </c>
       <c r="M83" s="7">
-        <v>42496</v>
+        <v>42500</v>
       </c>
       <c r="N83" s="7">
-        <v>42500</v>
+        <v>42513</v>
       </c>
       <c r="O83" s="2">
-        <v>4</v>
-      </c>
-      <c r="P83" s="2">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="Q83" s="2" t="s">
         <v>51</v>
@@ -13020,13 +13172,13 @@
         <v>97</v>
       </c>
       <c r="T83" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="U83" s="7">
         <v>42513</v>
       </c>
       <c r="V83" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W83" s="2" t="s">
         <v>42</v>
@@ -13068,51 +13220,27 @@
         <v>44</v>
       </c>
       <c r="AN83" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="84" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G84" s="2">
-        <v>1</v>
-      </c>
-      <c r="H84" s="2">
-        <v>0</v>
-      </c>
-      <c r="I84" s="2">
-        <v>0</v>
-      </c>
-      <c r="J84" s="7">
-        <v>42501</v>
-      </c>
-      <c r="K84" s="2">
-        <v>13</v>
+      <c r="D84" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="M84" s="7">
+        <v>42496</v>
+      </c>
+      <c r="N84" s="7">
         <v>42500</v>
       </c>
-      <c r="N84" s="7">
-        <v>42513</v>
-      </c>
       <c r="O84" s="2">
-        <v>8</v>
-      </c>
-      <c r="P84" s="2" t="s">
-        <v>45</v>
+        <v>4</v>
+      </c>
+      <c r="P84" s="2">
+        <v>4</v>
       </c>
       <c r="Q84" s="2" t="s">
         <v>51</v>
@@ -13124,13 +13252,13 @@
         <v>97</v>
       </c>
       <c r="T84" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U84" s="7">
         <v>42513</v>
       </c>
       <c r="V84" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W84" s="2" t="s">
         <v>42</v>
@@ -13172,7 +13300,7 @@
         <v>44</v>
       </c>
       <c r="AN84" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:40" ht="30" x14ac:dyDescent="0.25">
@@ -13185,6 +13313,9 @@
       <c r="C85" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D85" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E85" s="2" t="s">
         <v>39</v>
       </c>
@@ -13201,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="7">
-        <v>42502</v>
+        <v>42501</v>
       </c>
       <c r="K85" s="2">
         <v>13</v>
@@ -13228,10 +13359,10 @@
         <v>97</v>
       </c>
       <c r="T85" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U85" s="7">
-        <v>42528</v>
+        <v>42513</v>
       </c>
       <c r="V85" s="2">
         <v>2</v>
@@ -13289,6 +13420,9 @@
       <c r="C86" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D86" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E86" s="2" t="s">
         <v>39</v>
       </c>
@@ -13305,7 +13439,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="7">
-        <v>42503</v>
+        <v>42502</v>
       </c>
       <c r="K86" s="2">
         <v>13</v>
@@ -13332,7 +13466,7 @@
         <v>97</v>
       </c>
       <c r="T86" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U86" s="7">
         <v>42528</v>
@@ -13393,6 +13527,9 @@
       <c r="C87" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D87" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E87" s="2" t="s">
         <v>39</v>
       </c>
@@ -13409,7 +13546,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="7">
-        <v>42504</v>
+        <v>42503</v>
       </c>
       <c r="K87" s="2">
         <v>13</v>
@@ -13436,7 +13573,7 @@
         <v>97</v>
       </c>
       <c r="T87" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U87" s="7">
         <v>42528</v>
@@ -13497,6 +13634,9 @@
       <c r="C88" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D88" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E88" s="2" t="s">
         <v>39</v>
       </c>
@@ -13513,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="7">
-        <v>42505</v>
+        <v>42504</v>
       </c>
       <c r="K88" s="2">
         <v>13</v>
@@ -13540,7 +13680,7 @@
         <v>97</v>
       </c>
       <c r="T88" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U88" s="7">
         <v>42528</v>
@@ -13601,6 +13741,9 @@
       <c r="C89" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D89" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E89" s="2" t="s">
         <v>39</v>
       </c>
@@ -13617,7 +13760,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="7">
-        <v>42506</v>
+        <v>42505</v>
       </c>
       <c r="K89" s="2">
         <v>13</v>
@@ -13644,7 +13787,7 @@
         <v>97</v>
       </c>
       <c r="T89" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U89" s="7">
         <v>42528</v>
@@ -13695,33 +13838,63 @@
         <v>244</v>
       </c>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B90" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" s="2">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2">
+        <v>0</v>
+      </c>
+      <c r="J90" s="7">
+        <v>42506</v>
+      </c>
+      <c r="K90" s="2">
+        <v>13</v>
+      </c>
       <c r="M90" s="7">
-        <v>42514</v>
+        <v>42500</v>
       </c>
       <c r="N90" s="7">
-        <v>42528</v>
+        <v>42513</v>
       </c>
       <c r="O90" s="2">
-        <v>5</v>
-      </c>
-      <c r="P90" s="2">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="R90" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S90" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T90" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U90" s="7">
         <v>42528</v>
@@ -13736,7 +13909,7 @@
         <v>42</v>
       </c>
       <c r="Y90" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AD90" s="2">
         <v>0</v>
@@ -13745,10 +13918,10 @@
         <v>0</v>
       </c>
       <c r="AF90" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG90" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH90" s="2">
         <v>0</v>
@@ -13769,63 +13942,39 @@
         <v>44</v>
       </c>
       <c r="AN90" s="2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G91" s="2">
-        <v>1</v>
-      </c>
-      <c r="H91" s="2">
-        <v>0</v>
-      </c>
-      <c r="I91" s="2">
-        <v>0</v>
-      </c>
-      <c r="J91" s="7">
-        <v>42507</v>
-      </c>
-      <c r="K91" s="2">
-        <v>13</v>
+      <c r="D91" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="M91" s="7">
-        <v>42500</v>
+        <v>42514</v>
       </c>
       <c r="N91" s="7">
-        <v>42513</v>
+        <v>42528</v>
       </c>
       <c r="O91" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P91" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>254</v>
+        <v>169</v>
       </c>
       <c r="R91" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S91" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T91" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="U91" s="7">
         <v>42528</v>
@@ -13840,7 +13989,7 @@
         <v>42</v>
       </c>
       <c r="Y91" s="2" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="AD91" s="2">
         <v>0</v>
@@ -13849,10 +13998,10 @@
         <v>0</v>
       </c>
       <c r="AF91" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG91" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH91" s="2">
         <v>0</v>
@@ -13873,36 +14022,66 @@
         <v>44</v>
       </c>
       <c r="AN91" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B92" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G92" s="2">
+        <v>1</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0</v>
+      </c>
+      <c r="J92" s="7">
+        <v>42507</v>
+      </c>
+      <c r="K92" s="2">
+        <v>13</v>
+      </c>
       <c r="M92" s="7">
-        <v>42514</v>
+        <v>42500</v>
       </c>
       <c r="N92" s="7">
-        <v>42528</v>
+        <v>42513</v>
       </c>
       <c r="O92" s="2">
+        <v>7</v>
+      </c>
+      <c r="P92" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q92" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="R92" s="2">
         <v>6</v>
-      </c>
-      <c r="P92" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q92" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="R92" s="2">
-        <v>5</v>
       </c>
       <c r="S92" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T92" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="U92" s="7">
         <v>42528</v>
@@ -13917,7 +14096,7 @@
         <v>42</v>
       </c>
       <c r="Y92" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AD92" s="2">
         <v>0</v>
@@ -13926,10 +14105,10 @@
         <v>0</v>
       </c>
       <c r="AF92" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG92" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH92" s="2">
         <v>0</v>
@@ -13950,63 +14129,39 @@
         <v>44</v>
       </c>
       <c r="AN92" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G93" s="2">
-        <v>1</v>
-      </c>
-      <c r="H93" s="2">
-        <v>0</v>
-      </c>
-      <c r="I93" s="2">
-        <v>0</v>
-      </c>
-      <c r="J93" s="7">
-        <v>42508</v>
-      </c>
-      <c r="K93" s="2">
-        <v>13</v>
+      <c r="D93" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="M93" s="7">
-        <v>42500</v>
+        <v>42514</v>
       </c>
       <c r="N93" s="7">
-        <v>42513</v>
+        <v>42528</v>
       </c>
       <c r="O93" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P93" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="R93" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S93" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T93" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="U93" s="7">
         <v>42528</v>
@@ -14021,7 +14176,7 @@
         <v>42</v>
       </c>
       <c r="Y93" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AD93" s="2">
         <v>0</v>
@@ -14030,10 +14185,10 @@
         <v>0</v>
       </c>
       <c r="AF93" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG93" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH93" s="2">
         <v>0</v>
@@ -14054,36 +14209,66 @@
         <v>44</v>
       </c>
       <c r="AN93" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B94" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G94" s="2">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0</v>
+      </c>
+      <c r="I94" s="2">
+        <v>0</v>
+      </c>
+      <c r="J94" s="7">
+        <v>42508</v>
+      </c>
+      <c r="K94" s="2">
+        <v>13</v>
+      </c>
       <c r="M94" s="7">
-        <v>42514</v>
+        <v>42500</v>
       </c>
       <c r="N94" s="7">
-        <v>42528</v>
+        <v>42513</v>
       </c>
       <c r="O94" s="2">
+        <v>7</v>
+      </c>
+      <c r="P94" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q94" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="R94" s="2">
         <v>6</v>
-      </c>
-      <c r="P94" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q94" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="R94" s="2">
-        <v>5</v>
       </c>
       <c r="S94" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T94" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U94" s="7">
         <v>42528</v>
@@ -14098,7 +14283,7 @@
         <v>42</v>
       </c>
       <c r="Y94" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AD94" s="2">
         <v>0</v>
@@ -14107,10 +14292,10 @@
         <v>0</v>
       </c>
       <c r="AF94" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG94" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH94" s="2">
         <v>0</v>
@@ -14131,63 +14316,39 @@
         <v>44</v>
       </c>
       <c r="AN94" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G95" s="2">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2">
-        <v>0</v>
-      </c>
-      <c r="I95" s="2">
-        <v>0</v>
-      </c>
-      <c r="J95" s="7">
-        <v>42509</v>
-      </c>
-      <c r="K95" s="2">
-        <v>13</v>
+      <c r="D95" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="M95" s="7">
-        <v>42500</v>
+        <v>42514</v>
       </c>
       <c r="N95" s="7">
-        <v>42513</v>
+        <v>42528</v>
       </c>
       <c r="O95" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P95" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="R95" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S95" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T95" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U95" s="7">
         <v>42528</v>
@@ -14202,7 +14363,7 @@
         <v>42</v>
       </c>
       <c r="Y95" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AD95" s="2">
         <v>0</v>
@@ -14211,10 +14372,10 @@
         <v>0</v>
       </c>
       <c r="AF95" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG95" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH95" s="2">
         <v>0</v>
@@ -14235,36 +14396,66 @@
         <v>44</v>
       </c>
       <c r="AN95" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B96" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G96" s="2">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0</v>
+      </c>
+      <c r="J96" s="7">
+        <v>42509</v>
+      </c>
+      <c r="K96" s="2">
+        <v>13</v>
+      </c>
       <c r="M96" s="7">
-        <v>42514</v>
+        <v>42500</v>
       </c>
       <c r="N96" s="7">
-        <v>42528</v>
+        <v>42513</v>
       </c>
       <c r="O96" s="2">
+        <v>7</v>
+      </c>
+      <c r="P96" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q96" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="R96" s="2">
         <v>6</v>
-      </c>
-      <c r="P96" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q96" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="R96" s="2">
-        <v>5</v>
       </c>
       <c r="S96" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T96" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U96" s="7">
         <v>42528</v>
@@ -14279,7 +14470,7 @@
         <v>42</v>
       </c>
       <c r="Y96" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AD96" s="2">
         <v>0</v>
@@ -14288,10 +14479,10 @@
         <v>0</v>
       </c>
       <c r="AF96" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG96" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH96" s="2">
         <v>0</v>
@@ -14312,63 +14503,39 @@
         <v>44</v>
       </c>
       <c r="AN96" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G97" s="2">
-        <v>1</v>
-      </c>
-      <c r="H97" s="2">
-        <v>0</v>
-      </c>
-      <c r="I97" s="2">
-        <v>0</v>
-      </c>
-      <c r="J97" s="7">
-        <v>42510</v>
-      </c>
-      <c r="K97" s="2">
-        <v>13</v>
+      <c r="D97" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="M97" s="7">
-        <v>42500</v>
+        <v>42514</v>
       </c>
       <c r="N97" s="7">
-        <v>42513</v>
+        <v>42528</v>
       </c>
       <c r="O97" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P97" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>51</v>
+        <v>258</v>
       </c>
       <c r="R97" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S97" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T97" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U97" s="7">
         <v>42528</v>
@@ -14383,7 +14550,7 @@
         <v>42</v>
       </c>
       <c r="Y97" s="2" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="AD97" s="2">
         <v>0</v>
@@ -14392,10 +14559,10 @@
         <v>0</v>
       </c>
       <c r="AF97" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG97" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH97" s="2">
         <v>0</v>
@@ -14416,13 +14583,43 @@
         <v>44</v>
       </c>
       <c r="AN97" s="2" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B98" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G98" s="2">
+        <v>1</v>
+      </c>
+      <c r="H98" s="2">
+        <v>0</v>
+      </c>
+      <c r="I98" s="2">
+        <v>0</v>
+      </c>
+      <c r="J98" s="7">
+        <v>42510</v>
+      </c>
+      <c r="K98" s="2">
+        <v>13</v>
+      </c>
       <c r="M98" s="7">
         <v>42500</v>
       </c>
@@ -14430,22 +14627,22 @@
         <v>42513</v>
       </c>
       <c r="O98" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P98" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q98" s="2" t="s">
-        <v>254</v>
+        <v>51</v>
       </c>
       <c r="R98" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S98" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T98" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U98" s="7">
         <v>42528</v>
@@ -14460,7 +14657,7 @@
         <v>42</v>
       </c>
       <c r="Y98" s="2" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="AD98" s="2">
         <v>0</v>
@@ -14469,10 +14666,10 @@
         <v>0</v>
       </c>
       <c r="AF98" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG98" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH98" s="2">
         <v>0</v>
@@ -14493,39 +14690,15 @@
         <v>44</v>
       </c>
       <c r="AN98" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G99" s="2">
-        <v>1</v>
-      </c>
-      <c r="H99" s="2">
-        <v>0</v>
-      </c>
-      <c r="I99" s="2">
-        <v>0</v>
-      </c>
-      <c r="J99" s="7">
-        <v>42511</v>
-      </c>
-      <c r="K99" s="2">
-        <v>13</v>
+      <c r="D99" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="M99" s="7">
         <v>42500</v>
@@ -14534,22 +14707,22 @@
         <v>42513</v>
       </c>
       <c r="O99" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P99" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q99" s="2" t="s">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="R99" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S99" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T99" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="U99" s="7">
         <v>42528</v>
@@ -14564,7 +14737,7 @@
         <v>42</v>
       </c>
       <c r="Y99" s="2" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="AD99" s="2">
         <v>0</v>
@@ -14573,10 +14746,10 @@
         <v>0</v>
       </c>
       <c r="AF99" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG99" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH99" s="2">
         <v>0</v>
@@ -14597,13 +14770,43 @@
         <v>44</v>
       </c>
       <c r="AN99" s="2" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B100" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G100" s="2">
+        <v>1</v>
+      </c>
+      <c r="H100" s="2">
+        <v>0</v>
+      </c>
+      <c r="I100" s="2">
+        <v>0</v>
+      </c>
+      <c r="J100" s="7">
+        <v>42511</v>
+      </c>
+      <c r="K100" s="2">
+        <v>13</v>
+      </c>
       <c r="M100" s="7">
         <v>42500</v>
       </c>
@@ -14611,22 +14814,22 @@
         <v>42513</v>
       </c>
       <c r="O100" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P100" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q100" s="2" t="s">
-        <v>254</v>
+        <v>51</v>
       </c>
       <c r="R100" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S100" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T100" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U100" s="7">
         <v>42528</v>
@@ -14641,7 +14844,7 @@
         <v>42</v>
       </c>
       <c r="Y100" s="2" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="AD100" s="2">
         <v>0</v>
@@ -14650,10 +14853,10 @@
         <v>0</v>
       </c>
       <c r="AF100" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG100" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH100" s="2">
         <v>0</v>
@@ -14674,39 +14877,15 @@
         <v>44</v>
       </c>
       <c r="AN100" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G101" s="2">
-        <v>1</v>
-      </c>
-      <c r="H101" s="2">
-        <v>0</v>
-      </c>
-      <c r="I101" s="2">
-        <v>0</v>
-      </c>
-      <c r="J101" s="7">
-        <v>42512</v>
-      </c>
-      <c r="K101" s="2">
-        <v>13</v>
+      <c r="D101" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="M101" s="7">
         <v>42500</v>
@@ -14715,22 +14894,22 @@
         <v>42513</v>
       </c>
       <c r="O101" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P101" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q101" s="2" t="s">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="R101" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S101" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T101" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U101" s="7">
         <v>42528</v>
@@ -14745,7 +14924,7 @@
         <v>42</v>
       </c>
       <c r="Y101" s="2" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="AD101" s="2">
         <v>0</v>
@@ -14754,10 +14933,10 @@
         <v>0</v>
       </c>
       <c r="AF101" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG101" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH101" s="2">
         <v>0</v>
@@ -14778,13 +14957,43 @@
         <v>44</v>
       </c>
       <c r="AN101" s="2" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B102" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G102" s="2">
+        <v>1</v>
+      </c>
+      <c r="H102" s="2">
+        <v>0</v>
+      </c>
+      <c r="I102" s="2">
+        <v>0</v>
+      </c>
+      <c r="J102" s="7">
+        <v>42512</v>
+      </c>
+      <c r="K102" s="2">
+        <v>13</v>
+      </c>
       <c r="M102" s="7">
         <v>42500</v>
       </c>
@@ -14792,22 +15001,22 @@
         <v>42513</v>
       </c>
       <c r="O102" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P102" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q102" s="2" t="s">
-        <v>254</v>
+        <v>51</v>
       </c>
       <c r="R102" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S102" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T102" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U102" s="7">
         <v>42528</v>
@@ -14822,7 +15031,7 @@
         <v>42</v>
       </c>
       <c r="Y102" s="2" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="AD102" s="2">
         <v>0</v>
@@ -14831,10 +15040,10 @@
         <v>0</v>
       </c>
       <c r="AF102" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG102" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH102" s="2">
         <v>0</v>
@@ -14855,39 +15064,15 @@
         <v>44</v>
       </c>
       <c r="AN102" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G103" s="2">
-        <v>1</v>
-      </c>
-      <c r="H103" s="2">
-        <v>0</v>
-      </c>
-      <c r="I103" s="2">
-        <v>0</v>
-      </c>
-      <c r="J103" s="7">
-        <v>42513</v>
-      </c>
-      <c r="K103" s="2">
-        <v>13</v>
+      <c r="D103" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="M103" s="7">
         <v>42500</v>
@@ -14896,22 +15081,22 @@
         <v>42513</v>
       </c>
       <c r="O103" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P103" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="R103" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S103" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T103" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U103" s="7">
         <v>42528</v>
@@ -14926,7 +15111,7 @@
         <v>42</v>
       </c>
       <c r="Y103" s="2" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="AD103" s="2">
         <v>0</v>
@@ -14935,10 +15120,10 @@
         <v>0</v>
       </c>
       <c r="AF103" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG103" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH103" s="2">
         <v>0</v>
@@ -14959,13 +15144,43 @@
         <v>44</v>
       </c>
       <c r="AN103" s="2" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B104" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G104" s="2">
+        <v>1</v>
+      </c>
+      <c r="H104" s="2">
+        <v>0</v>
+      </c>
+      <c r="I104" s="2">
+        <v>0</v>
+      </c>
+      <c r="J104" s="7">
+        <v>42513</v>
+      </c>
+      <c r="K104" s="2">
+        <v>13</v>
+      </c>
       <c r="M104" s="7">
         <v>42500</v>
       </c>
@@ -14973,22 +15188,22 @@
         <v>42513</v>
       </c>
       <c r="O104" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P104" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q104" s="2" t="s">
-        <v>254</v>
+        <v>51</v>
       </c>
       <c r="R104" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S104" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T104" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U104" s="7">
         <v>42528</v>
@@ -15003,7 +15218,7 @@
         <v>42</v>
       </c>
       <c r="Y104" s="2" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="AD104" s="2">
         <v>0</v>
@@ -15012,10 +15227,10 @@
         <v>0</v>
       </c>
       <c r="AF104" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG104" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH104" s="2">
         <v>0</v>
@@ -15036,63 +15251,39 @@
         <v>44</v>
       </c>
       <c r="AN104" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="105" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G105" s="2">
-        <v>1</v>
-      </c>
-      <c r="H105" s="2">
-        <v>0</v>
-      </c>
-      <c r="I105" s="2">
-        <v>0</v>
-      </c>
-      <c r="J105" s="7">
-        <v>42514</v>
-      </c>
-      <c r="K105" s="2">
-        <v>13</v>
+      <c r="D105" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="M105" s="7">
-        <v>42514</v>
+        <v>42500</v>
       </c>
       <c r="N105" s="7">
-        <v>42528</v>
+        <v>42513</v>
       </c>
       <c r="O105" s="2">
-        <v>12</v>
-      </c>
-      <c r="P105" s="2" t="s">
-        <v>274</v>
+        <v>7</v>
+      </c>
+      <c r="P105" s="2">
+        <v>7</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="R105" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S105" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T105" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="U105" s="7">
         <v>42528</v>
@@ -15107,7 +15298,7 @@
         <v>42</v>
       </c>
       <c r="Y105" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AD105" s="2">
         <v>0</v>
@@ -15116,10 +15307,10 @@
         <v>0</v>
       </c>
       <c r="AF105" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG105" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH105" s="2">
         <v>0</v>
@@ -15140,7 +15331,7 @@
         <v>44</v>
       </c>
       <c r="AN105" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:40" ht="30" x14ac:dyDescent="0.25">
@@ -15153,6 +15344,9 @@
       <c r="C106" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D106" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E106" s="2" t="s">
         <v>39</v>
       </c>
@@ -15169,7 +15363,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="7">
-        <v>42515</v>
+        <v>42514</v>
       </c>
       <c r="K106" s="2">
         <v>13</v>
@@ -15196,7 +15390,7 @@
         <v>97</v>
       </c>
       <c r="T106" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U106" s="7">
         <v>42528</v>
@@ -15257,6 +15451,9 @@
       <c r="C107" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D107" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E107" s="2" t="s">
         <v>39</v>
       </c>
@@ -15273,7 +15470,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="7">
-        <v>42516</v>
+        <v>42515</v>
       </c>
       <c r="K107" s="2">
         <v>13</v>
@@ -15300,7 +15497,7 @@
         <v>97</v>
       </c>
       <c r="T107" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U107" s="7">
         <v>42528</v>
@@ -15361,6 +15558,9 @@
       <c r="C108" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D108" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E108" s="2" t="s">
         <v>39</v>
       </c>
@@ -15377,7 +15577,7 @@
         <v>0</v>
       </c>
       <c r="J108" s="7">
-        <v>42517</v>
+        <v>42516</v>
       </c>
       <c r="K108" s="2">
         <v>13</v>
@@ -15404,7 +15604,7 @@
         <v>97</v>
       </c>
       <c r="T108" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U108" s="7">
         <v>42528</v>
@@ -15465,6 +15665,9 @@
       <c r="C109" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D109" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E109" s="2" t="s">
         <v>39</v>
       </c>
@@ -15481,7 +15684,7 @@
         <v>0</v>
       </c>
       <c r="J109" s="7">
-        <v>42518</v>
+        <v>42517</v>
       </c>
       <c r="K109" s="2">
         <v>13</v>
@@ -15493,22 +15696,22 @@
         <v>42528</v>
       </c>
       <c r="O109" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Q109" s="2" t="s">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="R109" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S109" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T109" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="U109" s="7">
         <v>42528</v>
@@ -15523,7 +15726,7 @@
         <v>42</v>
       </c>
       <c r="Y109" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="AD109" s="2">
         <v>0</v>
@@ -15532,10 +15735,10 @@
         <v>0</v>
       </c>
       <c r="AF109" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG109" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH109" s="2">
         <v>0</v>
@@ -15556,7 +15759,7 @@
         <v>44</v>
       </c>
       <c r="AN109" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" spans="1:40" ht="30" x14ac:dyDescent="0.25">
@@ -15569,6 +15772,9 @@
       <c r="C110" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D110" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E110" s="2" t="s">
         <v>39</v>
       </c>
@@ -15585,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="7">
-        <v>42519</v>
+        <v>42518</v>
       </c>
       <c r="K110" s="2">
         <v>13</v>
@@ -15612,7 +15818,7 @@
         <v>97</v>
       </c>
       <c r="T110" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U110" s="7">
         <v>42528</v>
@@ -15660,6 +15866,113 @@
         <v>44</v>
       </c>
       <c r="AN110" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="111" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G111" s="2">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2">
+        <v>0</v>
+      </c>
+      <c r="I111" s="2">
+        <v>0</v>
+      </c>
+      <c r="J111" s="7">
+        <v>42519</v>
+      </c>
+      <c r="K111" s="2">
+        <v>13</v>
+      </c>
+      <c r="M111" s="7">
+        <v>42514</v>
+      </c>
+      <c r="N111" s="7">
+        <v>42528</v>
+      </c>
+      <c r="O111" s="2">
+        <v>10</v>
+      </c>
+      <c r="P111" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q111" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="R111" s="2">
+        <v>4</v>
+      </c>
+      <c r="S111" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T111" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="U111" s="7">
+        <v>42528</v>
+      </c>
+      <c r="V111" s="2">
+        <v>2</v>
+      </c>
+      <c r="W111" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X111" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y111" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD111" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE111" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF111" s="2">
+        <v>5</v>
+      </c>
+      <c r="AG111" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH111" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI111" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ111" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK111" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL111" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM111" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN111" s="2" t="s">
         <v>253</v>
       </c>
     </row>
@@ -18653,7 +18966,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18722,6 +19035,16 @@
         <v>122</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>286</v>
+      </c>
+    </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>

--- a/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
+++ b/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\OltSchema\BaseData\HotelExport\SpecialOffers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="288">
   <si>
     <t>ItemType</t>
   </si>
@@ -783,18 +778,7 @@
     <t xml:space="preserve">(10.05.16-13.05.16) 10.05.16 / 510 </t>
   </si>
   <si>
-    <t xml:space="preserve">(10.05.16-13.05.16) 10.05.16 / 510 
-(14.05.16-17.05.16) 14.05.16 / 514 </t>
-  </si>
-  <si>
     <t>TUIXYA104370521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(18.05.16-21.05.16) 18.05.16 / 518 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(11.05.16-14.05.16) 11.05.16 / 511 
-(15.05.16-18.05.16) 15.05.16 / 515 </t>
   </si>
   <si>
     <t xml:space="preserve">(12.05.16-15.05.16) 12.05.16 / 512 
@@ -817,18 +801,12 @@
 (20.05.16-23.05.16) 20.05.16 / 520 </t>
   </si>
   <si>
-    <t xml:space="preserve">(24.05.16-28.05.16) 24.05.16 / 524 </t>
-  </si>
-  <si>
     <t>TUIXYA104370525</t>
   </si>
   <si>
     <t>stay 7 pay 6</t>
   </si>
   <si>
-    <t xml:space="preserve">(17.05.16-23.05.16) 17.05.16 / 517 </t>
-  </si>
-  <si>
     <t>stay 7 pay 6 Mai Saison übergreifend</t>
   </si>
   <si>
@@ -838,39 +816,18 @@
     <t>stay 6 pay 5</t>
   </si>
   <si>
-    <t xml:space="preserve">(24.05.16-29.05.16) 24.05.16 / 524 </t>
-  </si>
-  <si>
     <t>stay 6 pay 5 Mai Saison übergreifend</t>
   </si>
   <si>
     <t>TUIXYA104370527</t>
   </si>
   <si>
-    <t xml:space="preserve">(18.05.16-24.05.16) 18.05.16 / 518 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25.05.16-30.05.16) 25.05.16 / 525 </t>
-  </si>
-  <si>
     <t xml:space="preserve">(19.05.16-25.05.16) 19.05.16 / 519 </t>
   </si>
   <si>
     <t xml:space="preserve">(26.05.16-31.05.16) 26.05.16 / 526 </t>
   </si>
   <si>
-    <t xml:space="preserve">(20.05.16-23.05.16) 20.05.16 / 520 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(24.05.16-30.05.16) 24.05.16 / 524 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(21.05.16-24.05.16) 21.05.16 / 521 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25.05.16-31.05.16) 25.05.16 / 525 </t>
-  </si>
-  <si>
     <t xml:space="preserve">(22.05.16-25.05.16) 22.05.16 / 522 </t>
   </si>
   <si>
@@ -884,14 +841,6 @@
   </si>
   <si>
     <t>6,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(24.05.16-29.05.16) 24.05.16 / 524 
-(30.05.16-04.06.16) 30.05.16 / 530 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25.05.16-30.05.16) 25.05.16 / 525 
-(31.05.16-05.06.16) 31.05.16 / 531 </t>
   </si>
   <si>
     <t xml:space="preserve">(26.05.16-31.05.16) 26.05.16 / 526 
@@ -905,14 +854,6 @@
     <t>5,5</t>
   </si>
   <si>
-    <t xml:space="preserve">(28.05.16-01.06.16) 28.05.16 / 528 
-(02.06.16-06.06.16) 02.06.16 / 602 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(29.05.16-02.06.16) 29.05.16 / 529 
-(03.06.16-07.06.16) 03.06.16 / 603 </t>
-  </si>
-  <si>
     <t>Muss fragen ob Klaus die benötigt. Es gibt schon eine Beispiel</t>
   </si>
   <si>
@@ -926,6 +867,63 @@
   </si>
   <si>
     <t>Komplexere Saisonüberschneidung mit normalen Specials</t>
+  </si>
+  <si>
+    <t>AddAmount</t>
+  </si>
+  <si>
+    <t>SpecialSeq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(17.05.16-20.05.16) 17.05.16 / 517 
+(21.05.16-24.05.16) 21.05.16 / 521 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(18.05.16-21.05.16) 18.05.16 / 518 
+(22.05.16-25.05.16) 22.05.16 / 522 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(26.05.16-30.05.16) 26.05.16 / 526 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(20.05.16-26.05.16) 20.05.16 / 520 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27.05.16-01.06.16) 27.05.16 / 527 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(21.05.16-27.05.16) 21.05.16 / 521 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(28.05.16-02.06.16) 28.05.16 / 528 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(24.05.16-27.05.16) 24.05.16 / 524 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(28.05.16-03.06.16) 28.05.16 / 528 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25.05.16-28.05.16) 25.05.16 / 525 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(29.05.16-04.06.16) 29.05.16 / 529 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(28.05.16-02.06.16) 28.05.16 / 528 
+(03.06.16-08.06.16) 03.06.16 / 603 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(29.05.16-03.06.16) 29.05.16 / 529 
+(04.06.16-09.06.16) 04.06.16 / 604 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(30.05.16-03.06.16) 30.05.16 / 530 
+(04.06.16-08.06.16) 04.06.16 / 604 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(31.05.16-04.06.16) 31.05.16 / 531 
+(05.06.16-09.06.16) 05.06.16 / 605 </t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1509,131 @@
     <cellStyle name="Warnender Text" xfId="1" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="2" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="41">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1522,6 +1644,54 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:AN1015" totalsRowShown="0" dataDxfId="0">
+  <tableColumns count="40">
+    <tableColumn id="1" name="ItemType" dataDxfId="40"/>
+    <tableColumn id="2" name="Dest" dataDxfId="39"/>
+    <tableColumn id="3" name="ParentCode" dataDxfId="38"/>
+    <tableColumn id="4" name="ItemCode" dataDxfId="37"/>
+    <tableColumn id="5" name="MealCode" dataDxfId="36"/>
+    <tableColumn id="6" name="CurrentDate" dataDxfId="35"/>
+    <tableColumn id="7" name="Adult" dataDxfId="34"/>
+    <tableColumn id="8" name="Chd" dataDxfId="33"/>
+    <tableColumn id="9" name="Inf" dataDxfId="32"/>
+    <tableColumn id="10" name="ItemStartDate" dataDxfId="31"/>
+    <tableColumn id="11" name="Duration" dataDxfId="30"/>
+    <tableColumn id="12" name="Notes" dataDxfId="29"/>
+    <tableColumn id="13" name="DateFrom" dataDxfId="28"/>
+    <tableColumn id="14" name="DateTo" dataDxfId="27"/>
+    <tableColumn id="15" name="Days" dataDxfId="26"/>
+    <tableColumn id="16" name="DayString" dataDxfId="25"/>
+    <tableColumn id="17" name="RuleDesc" dataDxfId="24"/>
+    <tableColumn id="18" name="PayNights" dataDxfId="23"/>
+    <tableColumn id="19" name="Type" dataDxfId="22"/>
+    <tableColumn id="20" name="EffectiveSpecialDays" dataDxfId="21"/>
+    <tableColumn id="21" name="LastSpOffEndDate" dataDxfId="20"/>
+    <tableColumn id="22" name="RevolvingGroup" dataDxfId="19"/>
+    <tableColumn id="23" name="StartDateRelevant" dataDxfId="18"/>
+    <tableColumn id="24" name="EndDateRelevant" dataDxfId="17"/>
+    <tableColumn id="25" name="DescId" dataDxfId="16"/>
+    <tableColumn id="26" name="DaysBeforeDepartureFrom" dataDxfId="15"/>
+    <tableColumn id="27" name="DaysBeforeDepartureTo" dataDxfId="14"/>
+    <tableColumn id="28" name="DateBeforeDepartureFrom" dataDxfId="13"/>
+    <tableColumn id="29" name="DateBeforeDepartureTo" dataDxfId="12"/>
+    <tableColumn id="30" name="ChildAdultNr" dataDxfId="11"/>
+    <tableColumn id="31" name="ChildChildNr" dataDxfId="10"/>
+    <tableColumn id="32" name="FromDayBase" dataDxfId="9"/>
+    <tableColumn id="33" name="ToDayBase" dataDxfId="8"/>
+    <tableColumn id="34" name="Child" dataDxfId="7"/>
+    <tableColumn id="35" name="Baby" dataDxfId="6"/>
+    <tableColumn id="36" name="RuleType" dataDxfId="5"/>
+    <tableColumn id="37" name="AddAmount" dataDxfId="4"/>
+    <tableColumn id="38" name="ItemSeq" dataDxfId="3"/>
+    <tableColumn id="39" name="ParentSeq" dataDxfId="2"/>
+    <tableColumn id="40" name="SpecialSeq" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1779,7 +1949,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1789,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W89" sqref="W89"/>
+    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J81" sqref="J81:J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4505,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="7">
-        <v>42500</v>
+        <v>42502</v>
       </c>
       <c r="K81" s="2">
         <v>13</v>
@@ -4540,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="7">
-        <v>42501</v>
+        <v>42503</v>
       </c>
       <c r="K82" s="2">
         <v>13</v>
@@ -4575,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="7">
-        <v>42502</v>
+        <v>42504</v>
       </c>
       <c r="K83" s="2">
         <v>13</v>
@@ -4610,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="7">
-        <v>42503</v>
+        <v>42505</v>
       </c>
       <c r="K84" s="2">
         <v>13</v>
@@ -4645,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="7">
-        <v>42504</v>
+        <v>42506</v>
       </c>
       <c r="K85" s="2">
         <v>13</v>
@@ -4680,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="7">
-        <v>42505</v>
+        <v>42507</v>
       </c>
       <c r="K86" s="2">
         <v>13</v>
@@ -4715,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="7">
-        <v>42506</v>
+        <v>42508</v>
       </c>
       <c r="K87" s="2">
         <v>13</v>
@@ -4750,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="7">
-        <v>42507</v>
+        <v>42509</v>
       </c>
       <c r="K88" s="2">
         <v>13</v>
@@ -4785,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="7">
-        <v>42508</v>
+        <v>42510</v>
       </c>
       <c r="K89" s="2">
         <v>13</v>
@@ -4820,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="7">
-        <v>42509</v>
+        <v>42511</v>
       </c>
       <c r="K90" s="2">
         <v>13</v>
@@ -4855,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="7">
-        <v>42510</v>
+        <v>42512</v>
       </c>
       <c r="K91" s="2">
         <v>13</v>
@@ -4890,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="7">
-        <v>42511</v>
+        <v>42513</v>
       </c>
       <c r="K92" s="2">
         <v>13</v>
@@ -4925,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="7">
-        <v>42512</v>
+        <v>42514</v>
       </c>
       <c r="K93" s="2">
         <v>13</v>
@@ -4960,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="7">
-        <v>42513</v>
+        <v>42515</v>
       </c>
       <c r="K94" s="2">
         <v>13</v>
@@ -4995,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="7">
-        <v>42514</v>
+        <v>42516</v>
       </c>
       <c r="K95" s="2">
         <v>13</v>
@@ -5030,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="7">
-        <v>42515</v>
+        <v>42517</v>
       </c>
       <c r="K96" s="2">
         <v>13</v>
@@ -5065,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="7">
-        <v>42516</v>
+        <v>42518</v>
       </c>
       <c r="K97" s="2">
         <v>13</v>
@@ -5100,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="7">
-        <v>42517</v>
+        <v>42519</v>
       </c>
       <c r="K98" s="2">
         <v>13</v>
@@ -5135,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="7">
-        <v>42518</v>
+        <v>42520</v>
       </c>
       <c r="K99" s="2">
         <v>13</v>
@@ -5170,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="7">
-        <v>42519</v>
+        <v>42521</v>
       </c>
       <c r="K100" s="2">
         <v>13</v>
@@ -5184,50 +5354,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN111"/>
+  <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L71" sqref="L71"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P108" sqref="P108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="2"/>
-    <col min="2" max="2" width="5" style="2"/>
-    <col min="3" max="3" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="2"/>
-    <col min="6" max="6" width="11.85546875" style="2"/>
-    <col min="7" max="7" width="5.85546875" style="2"/>
-    <col min="8" max="8" width="4.42578125" style="2"/>
-    <col min="9" max="9" width="3.42578125" style="2"/>
-    <col min="10" max="10" width="13.42578125" style="2"/>
-    <col min="11" max="11" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="2" customWidth="1"/>
     <col min="12" max="12" width="47" style="6" customWidth="1"/>
-    <col min="13" max="14" width="10.140625" style="2"/>
-    <col min="15" max="15" width="5.140625" style="2"/>
-    <col min="16" max="16" width="9.42578125" style="2"/>
+    <col min="13" max="13" width="11.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="2"/>
+    <col min="15" max="15" width="7.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="2" customWidth="1"/>
     <col min="17" max="17" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" style="2"/>
+    <col min="18" max="18" width="12" style="2" customWidth="1"/>
     <col min="19" max="19" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="39.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17" style="2"/>
-    <col min="22" max="22" width="15.140625" style="2"/>
-    <col min="23" max="23" width="17.28515625" style="2"/>
-    <col min="24" max="24" width="16.42578125" style="2"/>
+    <col min="21" max="21" width="19" style="2" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="18.42578125" style="2" customWidth="1"/>
     <col min="25" max="25" width="47.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25" style="2"/>
-    <col min="27" max="27" width="22.5703125" style="2"/>
-    <col min="28" max="28" width="25" style="2"/>
-    <col min="29" max="29" width="22.5703125" style="2"/>
-    <col min="30" max="30" width="12.5703125" style="2"/>
-    <col min="31" max="31" width="12.28515625" style="2"/>
-    <col min="32" max="32" width="13" style="2"/>
-    <col min="33" max="33" width="10.5703125" style="2"/>
-    <col min="34" max="34" width="5.5703125" style="2"/>
-    <col min="35" max="35" width="5.28515625" style="2"/>
-    <col min="36" max="36" width="9.28515625" style="2"/>
-    <col min="37" max="37" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.85546875" style="2" customWidth="1"/>
+    <col min="27" max="27" width="24.42578125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="26.85546875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="24.42578125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="2" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="15.140625" style="2" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="2" customWidth="1"/>
+    <col min="34" max="34" width="7.7109375" style="2" customWidth="1"/>
+    <col min="35" max="35" width="7.42578125" style="2" customWidth="1"/>
+    <col min="36" max="36" width="11.42578125" style="2" customWidth="1"/>
+    <col min="37" max="37" width="13.85546875" style="2" customWidth="1"/>
     <col min="38" max="38" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -5344,11 +5515,17 @@
       <c r="AJ1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AK1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AL1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>35</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="60" x14ac:dyDescent="0.25">
@@ -13145,16 +13322,16 @@
         <v>0</v>
       </c>
       <c r="J83" s="7">
-        <v>42500</v>
+        <v>42502</v>
       </c>
       <c r="K83" s="2">
         <v>13</v>
       </c>
       <c r="M83" s="7">
-        <v>42500</v>
+        <v>42502</v>
       </c>
       <c r="N83" s="7">
-        <v>42513</v>
+        <v>42515</v>
       </c>
       <c r="O83" s="2">
         <v>8</v>
@@ -13172,10 +13349,10 @@
         <v>97</v>
       </c>
       <c r="T83" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="U83" s="7">
-        <v>42513</v>
+        <v>42515</v>
       </c>
       <c r="V83" s="2">
         <v>2</v>
@@ -13220,27 +13397,54 @@
         <v>44</v>
       </c>
       <c r="AN83" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="84" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B84" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D84" s="2" t="s">
         <v>227</v>
       </c>
+      <c r="E84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+      <c r="J84" s="7">
+        <v>42503</v>
+      </c>
+      <c r="K84" s="2">
+        <v>13</v>
+      </c>
       <c r="M84" s="7">
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="N84" s="7">
-        <v>42500</v>
+        <v>42515</v>
       </c>
       <c r="O84" s="2">
-        <v>4</v>
-      </c>
-      <c r="P84" s="2">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="Q84" s="2" t="s">
         <v>51</v>
@@ -13255,10 +13459,10 @@
         <v>245</v>
       </c>
       <c r="U84" s="7">
-        <v>42513</v>
+        <v>42515</v>
       </c>
       <c r="V84" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W84" s="2" t="s">
         <v>42</v>
@@ -13300,7 +13504,7 @@
         <v>44</v>
       </c>
       <c r="AN84" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:40" ht="30" x14ac:dyDescent="0.25">
@@ -13332,16 +13536,16 @@
         <v>0</v>
       </c>
       <c r="J85" s="7">
-        <v>42501</v>
+        <v>42504</v>
       </c>
       <c r="K85" s="2">
         <v>13</v>
       </c>
       <c r="M85" s="7">
-        <v>42500</v>
+        <v>42502</v>
       </c>
       <c r="N85" s="7">
-        <v>42513</v>
+        <v>42515</v>
       </c>
       <c r="O85" s="2">
         <v>8</v>
@@ -13362,7 +13566,7 @@
         <v>246</v>
       </c>
       <c r="U85" s="7">
-        <v>42513</v>
+        <v>42530</v>
       </c>
       <c r="V85" s="2">
         <v>2</v>
@@ -13407,7 +13611,7 @@
         <v>44</v>
       </c>
       <c r="AN85" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:40" ht="30" x14ac:dyDescent="0.25">
@@ -13439,16 +13643,16 @@
         <v>0</v>
       </c>
       <c r="J86" s="7">
-        <v>42502</v>
+        <v>42505</v>
       </c>
       <c r="K86" s="2">
         <v>13</v>
       </c>
       <c r="M86" s="7">
-        <v>42500</v>
+        <v>42502</v>
       </c>
       <c r="N86" s="7">
-        <v>42513</v>
+        <v>42515</v>
       </c>
       <c r="O86" s="2">
         <v>8</v>
@@ -13469,7 +13673,7 @@
         <v>247</v>
       </c>
       <c r="U86" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V86" s="2">
         <v>2</v>
@@ -13514,7 +13718,7 @@
         <v>44</v>
       </c>
       <c r="AN86" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:40" ht="30" x14ac:dyDescent="0.25">
@@ -13546,16 +13750,16 @@
         <v>0</v>
       </c>
       <c r="J87" s="7">
-        <v>42503</v>
+        <v>42506</v>
       </c>
       <c r="K87" s="2">
         <v>13</v>
       </c>
       <c r="M87" s="7">
-        <v>42500</v>
+        <v>42502</v>
       </c>
       <c r="N87" s="7">
-        <v>42513</v>
+        <v>42515</v>
       </c>
       <c r="O87" s="2">
         <v>8</v>
@@ -13576,7 +13780,7 @@
         <v>248</v>
       </c>
       <c r="U87" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V87" s="2">
         <v>2</v>
@@ -13621,7 +13825,7 @@
         <v>44</v>
       </c>
       <c r="AN87" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="1:40" ht="30" x14ac:dyDescent="0.25">
@@ -13653,16 +13857,16 @@
         <v>0</v>
       </c>
       <c r="J88" s="7">
-        <v>42504</v>
+        <v>42507</v>
       </c>
       <c r="K88" s="2">
         <v>13</v>
       </c>
       <c r="M88" s="7">
-        <v>42500</v>
+        <v>42502</v>
       </c>
       <c r="N88" s="7">
-        <v>42513</v>
+        <v>42515</v>
       </c>
       <c r="O88" s="2">
         <v>8</v>
@@ -13680,10 +13884,10 @@
         <v>97</v>
       </c>
       <c r="T88" s="6" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="U88" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V88" s="2">
         <v>2</v>
@@ -13728,7 +13932,7 @@
         <v>44</v>
       </c>
       <c r="AN88" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="1:40" ht="30" x14ac:dyDescent="0.25">
@@ -13760,16 +13964,16 @@
         <v>0</v>
       </c>
       <c r="J89" s="7">
-        <v>42505</v>
+        <v>42508</v>
       </c>
       <c r="K89" s="2">
         <v>13</v>
       </c>
       <c r="M89" s="7">
-        <v>42500</v>
+        <v>42502</v>
       </c>
       <c r="N89" s="7">
-        <v>42513</v>
+        <v>42515</v>
       </c>
       <c r="O89" s="2">
         <v>8</v>
@@ -13787,10 +13991,10 @@
         <v>97</v>
       </c>
       <c r="T89" s="6" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="U89" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V89" s="2">
         <v>2</v>
@@ -13835,69 +14039,39 @@
         <v>44</v>
       </c>
       <c r="AN89" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="90" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G90" s="2">
-        <v>1</v>
-      </c>
-      <c r="H90" s="2">
-        <v>0</v>
-      </c>
-      <c r="I90" s="2">
-        <v>0</v>
-      </c>
-      <c r="J90" s="7">
-        <v>42506</v>
-      </c>
-      <c r="K90" s="2">
-        <v>13</v>
-      </c>
       <c r="M90" s="7">
-        <v>42500</v>
+        <v>42516</v>
       </c>
       <c r="N90" s="7">
-        <v>42513</v>
+        <v>42530</v>
       </c>
       <c r="O90" s="2">
-        <v>8</v>
-      </c>
-      <c r="P90" s="2" t="s">
-        <v>45</v>
+        <v>5</v>
+      </c>
+      <c r="P90" s="2">
+        <v>5</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="R90" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S90" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T90" s="6" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="U90" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V90" s="2">
         <v>2</v>
@@ -13909,7 +14083,7 @@
         <v>42</v>
       </c>
       <c r="Y90" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AD90" s="2">
         <v>0</v>
@@ -13918,10 +14092,10 @@
         <v>0</v>
       </c>
       <c r="AF90" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG90" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH90" s="2">
         <v>0</v>
@@ -13942,42 +14116,69 @@
         <v>44</v>
       </c>
       <c r="AN90" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B91" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D91" s="2" t="s">
         <v>227</v>
       </c>
+      <c r="E91" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G91" s="2">
+        <v>1</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2">
+        <v>0</v>
+      </c>
+      <c r="J91" s="7">
+        <v>42509</v>
+      </c>
+      <c r="K91" s="2">
+        <v>13</v>
+      </c>
       <c r="M91" s="7">
-        <v>42514</v>
+        <v>42502</v>
       </c>
       <c r="N91" s="7">
-        <v>42528</v>
+        <v>42515</v>
       </c>
       <c r="O91" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P91" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>169</v>
+        <v>250</v>
       </c>
       <c r="R91" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S91" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T91" s="6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="U91" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V91" s="2">
         <v>2</v>
@@ -13989,7 +14190,7 @@
         <v>42</v>
       </c>
       <c r="Y91" s="2" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="AD91" s="2">
         <v>0</v>
@@ -13998,10 +14199,10 @@
         <v>0</v>
       </c>
       <c r="AF91" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG91" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH91" s="2">
         <v>0</v>
@@ -14022,69 +14223,39 @@
         <v>44</v>
       </c>
       <c r="AN91" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G92" s="2">
-        <v>1</v>
-      </c>
-      <c r="H92" s="2">
-        <v>0</v>
-      </c>
-      <c r="I92" s="2">
-        <v>0</v>
-      </c>
-      <c r="J92" s="7">
-        <v>42507</v>
-      </c>
-      <c r="K92" s="2">
-        <v>13</v>
-      </c>
       <c r="M92" s="7">
-        <v>42500</v>
+        <v>42516</v>
       </c>
       <c r="N92" s="7">
-        <v>42513</v>
+        <v>42530</v>
       </c>
       <c r="O92" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P92" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R92" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S92" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T92" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="U92" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V92" s="2">
         <v>2</v>
@@ -14096,7 +14267,7 @@
         <v>42</v>
       </c>
       <c r="Y92" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AD92" s="2">
         <v>0</v>
@@ -14105,10 +14276,10 @@
         <v>0</v>
       </c>
       <c r="AF92" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG92" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH92" s="2">
         <v>0</v>
@@ -14129,42 +14300,69 @@
         <v>44</v>
       </c>
       <c r="AN92" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B93" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D93" s="2" t="s">
         <v>227</v>
       </c>
+      <c r="E93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G93" s="2">
+        <v>1</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0</v>
+      </c>
+      <c r="I93" s="2">
+        <v>0</v>
+      </c>
+      <c r="J93" s="7">
+        <v>42510</v>
+      </c>
+      <c r="K93" s="2">
+        <v>13</v>
+      </c>
       <c r="M93" s="7">
-        <v>42514</v>
+        <v>42502</v>
       </c>
       <c r="N93" s="7">
-        <v>42528</v>
+        <v>42515</v>
       </c>
       <c r="O93" s="2">
+        <v>7</v>
+      </c>
+      <c r="P93" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q93" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="R93" s="2">
         <v>6</v>
-      </c>
-      <c r="P93" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q93" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="R93" s="2">
-        <v>5</v>
       </c>
       <c r="S93" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T93" s="6" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="U93" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V93" s="2">
         <v>2</v>
@@ -14176,7 +14374,7 @@
         <v>42</v>
       </c>
       <c r="Y93" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="AD93" s="2">
         <v>0</v>
@@ -14185,10 +14383,10 @@
         <v>0</v>
       </c>
       <c r="AF93" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG93" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH93" s="2">
         <v>0</v>
@@ -14209,69 +14407,39 @@
         <v>44</v>
       </c>
       <c r="AN93" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G94" s="2">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2">
-        <v>0</v>
-      </c>
-      <c r="I94" s="2">
-        <v>0</v>
-      </c>
-      <c r="J94" s="7">
-        <v>42508</v>
-      </c>
-      <c r="K94" s="2">
-        <v>13</v>
-      </c>
       <c r="M94" s="7">
-        <v>42500</v>
+        <v>42516</v>
       </c>
       <c r="N94" s="7">
-        <v>42513</v>
+        <v>42530</v>
       </c>
       <c r="O94" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P94" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R94" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S94" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T94" s="6" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="U94" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V94" s="2">
         <v>2</v>
@@ -14283,7 +14451,7 @@
         <v>42</v>
       </c>
       <c r="Y94" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AD94" s="2">
         <v>0</v>
@@ -14292,10 +14460,10 @@
         <v>0</v>
       </c>
       <c r="AF94" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG94" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH94" s="2">
         <v>0</v>
@@ -14316,42 +14484,69 @@
         <v>44</v>
       </c>
       <c r="AN94" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B95" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D95" s="2" t="s">
         <v>227</v>
       </c>
+      <c r="E95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G95" s="2">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0</v>
+      </c>
+      <c r="J95" s="7">
+        <v>42511</v>
+      </c>
+      <c r="K95" s="2">
+        <v>13</v>
+      </c>
       <c r="M95" s="7">
-        <v>42514</v>
+        <v>42502</v>
       </c>
       <c r="N95" s="7">
-        <v>42528</v>
+        <v>42515</v>
       </c>
       <c r="O95" s="2">
+        <v>7</v>
+      </c>
+      <c r="P95" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q95" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="R95" s="2">
         <v>6</v>
-      </c>
-      <c r="P95" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q95" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="R95" s="2">
-        <v>5</v>
       </c>
       <c r="S95" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T95" s="6" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="U95" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V95" s="2">
         <v>2</v>
@@ -14363,7 +14558,7 @@
         <v>42</v>
       </c>
       <c r="Y95" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="AD95" s="2">
         <v>0</v>
@@ -14372,10 +14567,10 @@
         <v>0</v>
       </c>
       <c r="AF95" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG95" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH95" s="2">
         <v>0</v>
@@ -14396,69 +14591,39 @@
         <v>44</v>
       </c>
       <c r="AN95" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G96" s="2">
-        <v>1</v>
-      </c>
-      <c r="H96" s="2">
-        <v>0</v>
-      </c>
-      <c r="I96" s="2">
-        <v>0</v>
-      </c>
-      <c r="J96" s="7">
-        <v>42509</v>
-      </c>
-      <c r="K96" s="2">
-        <v>13</v>
-      </c>
       <c r="M96" s="7">
-        <v>42500</v>
+        <v>42516</v>
       </c>
       <c r="N96" s="7">
-        <v>42513</v>
+        <v>42530</v>
       </c>
       <c r="O96" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P96" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R96" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S96" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T96" s="6" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="U96" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V96" s="2">
         <v>2</v>
@@ -14470,7 +14635,7 @@
         <v>42</v>
       </c>
       <c r="Y96" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AD96" s="2">
         <v>0</v>
@@ -14479,10 +14644,10 @@
         <v>0</v>
       </c>
       <c r="AF96" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG96" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH96" s="2">
         <v>0</v>
@@ -14503,42 +14668,69 @@
         <v>44</v>
       </c>
       <c r="AN96" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B97" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D97" s="2" t="s">
         <v>227</v>
       </c>
+      <c r="E97" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G97" s="2">
+        <v>1</v>
+      </c>
+      <c r="H97" s="2">
+        <v>0</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0</v>
+      </c>
+      <c r="J97" s="7">
+        <v>42512</v>
+      </c>
+      <c r="K97" s="2">
+        <v>13</v>
+      </c>
       <c r="M97" s="7">
-        <v>42514</v>
+        <v>42502</v>
       </c>
       <c r="N97" s="7">
-        <v>42528</v>
+        <v>42515</v>
       </c>
       <c r="O97" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P97" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>258</v>
+        <v>51</v>
       </c>
       <c r="R97" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S97" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T97" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="U97" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V97" s="2">
         <v>2</v>
@@ -14550,7 +14742,7 @@
         <v>42</v>
       </c>
       <c r="Y97" s="2" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="AD97" s="2">
         <v>0</v>
@@ -14559,10 +14751,10 @@
         <v>0</v>
       </c>
       <c r="AF97" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG97" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH97" s="2">
         <v>0</v>
@@ -14583,69 +14775,39 @@
         <v>44</v>
       </c>
       <c r="AN97" s="2" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G98" s="2">
-        <v>1</v>
-      </c>
-      <c r="H98" s="2">
-        <v>0</v>
-      </c>
-      <c r="I98" s="2">
-        <v>0</v>
-      </c>
-      <c r="J98" s="7">
-        <v>42510</v>
-      </c>
-      <c r="K98" s="2">
-        <v>13</v>
-      </c>
       <c r="M98" s="7">
-        <v>42500</v>
+        <v>42502</v>
       </c>
       <c r="N98" s="7">
-        <v>42513</v>
+        <v>42515</v>
       </c>
       <c r="O98" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P98" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q98" s="2" t="s">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="R98" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S98" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T98" s="6" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="U98" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V98" s="2">
         <v>2</v>
@@ -14657,7 +14819,7 @@
         <v>42</v>
       </c>
       <c r="Y98" s="2" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="AD98" s="2">
         <v>0</v>
@@ -14666,10 +14828,10 @@
         <v>0</v>
       </c>
       <c r="AF98" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG98" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH98" s="2">
         <v>0</v>
@@ -14690,42 +14852,69 @@
         <v>44</v>
       </c>
       <c r="AN98" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B99" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D99" s="2" t="s">
         <v>227</v>
       </c>
+      <c r="E99" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G99" s="2">
+        <v>1</v>
+      </c>
+      <c r="H99" s="2">
+        <v>0</v>
+      </c>
+      <c r="I99" s="2">
+        <v>0</v>
+      </c>
+      <c r="J99" s="7">
+        <v>42513</v>
+      </c>
+      <c r="K99" s="2">
+        <v>13</v>
+      </c>
       <c r="M99" s="7">
-        <v>42500</v>
+        <v>42502</v>
       </c>
       <c r="N99" s="7">
-        <v>42513</v>
+        <v>42515</v>
       </c>
       <c r="O99" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P99" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q99" s="2" t="s">
-        <v>254</v>
+        <v>51</v>
       </c>
       <c r="R99" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S99" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T99" s="6" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="U99" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V99" s="2">
         <v>2</v>
@@ -14737,7 +14926,7 @@
         <v>42</v>
       </c>
       <c r="Y99" s="2" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="AD99" s="2">
         <v>0</v>
@@ -14746,10 +14935,10 @@
         <v>0</v>
       </c>
       <c r="AF99" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG99" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH99" s="2">
         <v>0</v>
@@ -14770,69 +14959,39 @@
         <v>44</v>
       </c>
       <c r="AN99" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G100" s="2">
-        <v>1</v>
-      </c>
-      <c r="H100" s="2">
-        <v>0</v>
-      </c>
-      <c r="I100" s="2">
-        <v>0</v>
-      </c>
-      <c r="J100" s="7">
-        <v>42511</v>
-      </c>
-      <c r="K100" s="2">
-        <v>13</v>
-      </c>
       <c r="M100" s="7">
-        <v>42500</v>
+        <v>42502</v>
       </c>
       <c r="N100" s="7">
-        <v>42513</v>
+        <v>42515</v>
       </c>
       <c r="O100" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P100" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q100" s="2" t="s">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="R100" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S100" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T100" s="6" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="U100" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V100" s="2">
         <v>2</v>
@@ -14844,7 +15003,7 @@
         <v>42</v>
       </c>
       <c r="Y100" s="2" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="AD100" s="2">
         <v>0</v>
@@ -14853,10 +15012,10 @@
         <v>0</v>
       </c>
       <c r="AF100" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG100" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH100" s="2">
         <v>0</v>
@@ -14877,42 +15036,69 @@
         <v>44</v>
       </c>
       <c r="AN100" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B101" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D101" s="2" t="s">
         <v>227</v>
       </c>
+      <c r="E101" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G101" s="2">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2">
+        <v>0</v>
+      </c>
+      <c r="I101" s="2">
+        <v>0</v>
+      </c>
+      <c r="J101" s="7">
+        <v>42514</v>
+      </c>
+      <c r="K101" s="2">
+        <v>13</v>
+      </c>
       <c r="M101" s="7">
-        <v>42500</v>
+        <v>42502</v>
       </c>
       <c r="N101" s="7">
-        <v>42513</v>
+        <v>42515</v>
       </c>
       <c r="O101" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P101" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q101" s="2" t="s">
-        <v>254</v>
+        <v>51</v>
       </c>
       <c r="R101" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S101" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T101" s="6" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="U101" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V101" s="2">
         <v>2</v>
@@ -14924,7 +15110,7 @@
         <v>42</v>
       </c>
       <c r="Y101" s="2" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="AD101" s="2">
         <v>0</v>
@@ -14933,10 +15119,10 @@
         <v>0</v>
       </c>
       <c r="AF101" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG101" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH101" s="2">
         <v>0</v>
@@ -14957,69 +15143,39 @@
         <v>44</v>
       </c>
       <c r="AN101" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G102" s="2">
-        <v>1</v>
-      </c>
-      <c r="H102" s="2">
-        <v>0</v>
-      </c>
-      <c r="I102" s="2">
-        <v>0</v>
-      </c>
-      <c r="J102" s="7">
-        <v>42512</v>
-      </c>
-      <c r="K102" s="2">
-        <v>13</v>
-      </c>
       <c r="M102" s="7">
-        <v>42500</v>
+        <v>42502</v>
       </c>
       <c r="N102" s="7">
-        <v>42513</v>
+        <v>42515</v>
       </c>
       <c r="O102" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P102" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q102" s="2" t="s">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="R102" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S102" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T102" s="6" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="U102" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V102" s="2">
         <v>2</v>
@@ -15031,7 +15187,7 @@
         <v>42</v>
       </c>
       <c r="Y102" s="2" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="AD102" s="2">
         <v>0</v>
@@ -15040,10 +15196,10 @@
         <v>0</v>
       </c>
       <c r="AF102" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG102" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH102" s="2">
         <v>0</v>
@@ -15064,42 +15220,69 @@
         <v>44</v>
       </c>
       <c r="AN102" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B103" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D103" s="2" t="s">
         <v>227</v>
       </c>
+      <c r="E103" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G103" s="2">
+        <v>1</v>
+      </c>
+      <c r="H103" s="2">
+        <v>0</v>
+      </c>
+      <c r="I103" s="2">
+        <v>0</v>
+      </c>
+      <c r="J103" s="7">
+        <v>42515</v>
+      </c>
+      <c r="K103" s="2">
+        <v>13</v>
+      </c>
       <c r="M103" s="7">
-        <v>42500</v>
+        <v>42502</v>
       </c>
       <c r="N103" s="7">
-        <v>42513</v>
+        <v>42515</v>
       </c>
       <c r="O103" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P103" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>254</v>
+        <v>51</v>
       </c>
       <c r="R103" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S103" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T103" s="6" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="U103" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V103" s="2">
         <v>2</v>
@@ -15111,7 +15294,7 @@
         <v>42</v>
       </c>
       <c r="Y103" s="2" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="AD103" s="2">
         <v>0</v>
@@ -15120,10 +15303,10 @@
         <v>0</v>
       </c>
       <c r="AF103" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG103" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH103" s="2">
         <v>0</v>
@@ -15144,69 +15327,39 @@
         <v>44</v>
       </c>
       <c r="AN103" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G104" s="2">
-        <v>1</v>
-      </c>
-      <c r="H104" s="2">
-        <v>0</v>
-      </c>
-      <c r="I104" s="2">
-        <v>0</v>
-      </c>
-      <c r="J104" s="7">
-        <v>42513</v>
-      </c>
-      <c r="K104" s="2">
-        <v>13</v>
-      </c>
       <c r="M104" s="7">
-        <v>42500</v>
+        <v>42502</v>
       </c>
       <c r="N104" s="7">
-        <v>42513</v>
+        <v>42515</v>
       </c>
       <c r="O104" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P104" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q104" s="2" t="s">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="R104" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S104" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T104" s="6" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="U104" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V104" s="2">
         <v>2</v>
@@ -15218,7 +15371,7 @@
         <v>42</v>
       </c>
       <c r="Y104" s="2" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="AD104" s="2">
         <v>0</v>
@@ -15227,10 +15380,10 @@
         <v>0</v>
       </c>
       <c r="AF104" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG104" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH104" s="2">
         <v>0</v>
@@ -15251,42 +15404,69 @@
         <v>44</v>
       </c>
       <c r="AN104" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B105" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D105" s="2" t="s">
         <v>227</v>
       </c>
+      <c r="E105" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G105" s="2">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2">
+        <v>0</v>
+      </c>
+      <c r="I105" s="2">
+        <v>0</v>
+      </c>
+      <c r="J105" s="7">
+        <v>42516</v>
+      </c>
+      <c r="K105" s="2">
+        <v>13</v>
+      </c>
       <c r="M105" s="7">
-        <v>42500</v>
+        <v>42516</v>
       </c>
       <c r="N105" s="7">
-        <v>42513</v>
+        <v>42530</v>
       </c>
       <c r="O105" s="2">
-        <v>7</v>
-      </c>
-      <c r="P105" s="2">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R105" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S105" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T105" s="6" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="U105" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V105" s="2">
         <v>2</v>
@@ -15298,7 +15478,7 @@
         <v>42</v>
       </c>
       <c r="Y105" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AD105" s="2">
         <v>0</v>
@@ -15307,10 +15487,10 @@
         <v>0</v>
       </c>
       <c r="AF105" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG105" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH105" s="2">
         <v>0</v>
@@ -15331,7 +15511,7 @@
         <v>44</v>
       </c>
       <c r="AN105" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="106" spans="1:40" ht="30" x14ac:dyDescent="0.25">
@@ -15363,25 +15543,25 @@
         <v>0</v>
       </c>
       <c r="J106" s="7">
-        <v>42514</v>
+        <v>42517</v>
       </c>
       <c r="K106" s="2">
         <v>13</v>
       </c>
       <c r="M106" s="7">
-        <v>42514</v>
+        <v>42516</v>
       </c>
       <c r="N106" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="O106" s="2">
         <v>12</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="R106" s="2">
         <v>5</v>
@@ -15390,10 +15570,10 @@
         <v>97</v>
       </c>
       <c r="T106" s="6" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="U106" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V106" s="2">
         <v>2</v>
@@ -15405,7 +15585,7 @@
         <v>42</v>
       </c>
       <c r="Y106" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AD106" s="2">
         <v>0</v>
@@ -15438,7 +15618,7 @@
         <v>44</v>
       </c>
       <c r="AN106" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="107" spans="1:40" ht="30" x14ac:dyDescent="0.25">
@@ -15470,25 +15650,25 @@
         <v>0</v>
       </c>
       <c r="J107" s="7">
-        <v>42515</v>
+        <v>42518</v>
       </c>
       <c r="K107" s="2">
         <v>13</v>
       </c>
       <c r="M107" s="7">
-        <v>42514</v>
+        <v>42516</v>
       </c>
       <c r="N107" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="O107" s="2">
         <v>12</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="R107" s="2">
         <v>5</v>
@@ -15497,10 +15677,10 @@
         <v>97</v>
       </c>
       <c r="T107" s="6" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="U107" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V107" s="2">
         <v>2</v>
@@ -15512,7 +15692,7 @@
         <v>42</v>
       </c>
       <c r="Y107" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AD107" s="2">
         <v>0</v>
@@ -15545,7 +15725,7 @@
         <v>44</v>
       </c>
       <c r="AN107" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="108" spans="1:40" ht="30" x14ac:dyDescent="0.25">
@@ -15577,25 +15757,25 @@
         <v>0</v>
       </c>
       <c r="J108" s="7">
-        <v>42516</v>
+        <v>42519</v>
       </c>
       <c r="K108" s="2">
         <v>13</v>
       </c>
       <c r="M108" s="7">
-        <v>42514</v>
+        <v>42516</v>
       </c>
       <c r="N108" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="O108" s="2">
         <v>12</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="Q108" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="R108" s="2">
         <v>5</v>
@@ -15604,10 +15784,10 @@
         <v>97</v>
       </c>
       <c r="T108" s="6" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="U108" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V108" s="2">
         <v>2</v>
@@ -15619,7 +15799,7 @@
         <v>42</v>
       </c>
       <c r="Y108" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AD108" s="2">
         <v>0</v>
@@ -15652,7 +15832,7 @@
         <v>44</v>
       </c>
       <c r="AN108" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="109" spans="1:40" ht="30" x14ac:dyDescent="0.25">
@@ -15684,37 +15864,37 @@
         <v>0</v>
       </c>
       <c r="J109" s="7">
-        <v>42517</v>
+        <v>42520</v>
       </c>
       <c r="K109" s="2">
         <v>13</v>
       </c>
       <c r="M109" s="7">
-        <v>42514</v>
+        <v>42516</v>
       </c>
       <c r="N109" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="O109" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="Q109" s="2" t="s">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="R109" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S109" s="2" t="s">
         <v>97</v>
       </c>
       <c r="T109" s="6" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="U109" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V109" s="2">
         <v>2</v>
@@ -15726,7 +15906,7 @@
         <v>42</v>
       </c>
       <c r="Y109" s="2" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="AD109" s="2">
         <v>0</v>
@@ -15735,10 +15915,10 @@
         <v>0</v>
       </c>
       <c r="AF109" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG109" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH109" s="2">
         <v>0</v>
@@ -15759,7 +15939,7 @@
         <v>44</v>
       </c>
       <c r="AN109" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="110" spans="1:40" ht="30" x14ac:dyDescent="0.25">
@@ -15791,22 +15971,22 @@
         <v>0</v>
       </c>
       <c r="J110" s="7">
-        <v>42518</v>
+        <v>42521</v>
       </c>
       <c r="K110" s="2">
         <v>13</v>
       </c>
       <c r="M110" s="7">
-        <v>42514</v>
+        <v>42516</v>
       </c>
       <c r="N110" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="O110" s="2">
         <v>10</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="Q110" s="2" t="s">
         <v>169</v>
@@ -15818,10 +15998,10 @@
         <v>97</v>
       </c>
       <c r="T110" s="6" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="U110" s="7">
-        <v>42528</v>
+        <v>42530</v>
       </c>
       <c r="V110" s="2">
         <v>2</v>
@@ -15866,119 +16046,15 @@
         <v>44</v>
       </c>
       <c r="AN110" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="111" spans="1:40" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G111" s="2">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2">
-        <v>0</v>
-      </c>
-      <c r="I111" s="2">
-        <v>0</v>
-      </c>
-      <c r="J111" s="7">
-        <v>42519</v>
-      </c>
-      <c r="K111" s="2">
-        <v>13</v>
-      </c>
-      <c r="M111" s="7">
-        <v>42514</v>
-      </c>
-      <c r="N111" s="7">
-        <v>42528</v>
-      </c>
-      <c r="O111" s="2">
-        <v>10</v>
-      </c>
-      <c r="P111" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q111" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="R111" s="2">
-        <v>4</v>
-      </c>
-      <c r="S111" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="T111" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="U111" s="7">
-        <v>42528</v>
-      </c>
-      <c r="V111" s="2">
-        <v>2</v>
-      </c>
-      <c r="W111" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X111" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y111" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AD111" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE111" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF111" s="2">
-        <v>5</v>
-      </c>
-      <c r="AG111" s="2">
-        <v>5</v>
-      </c>
-      <c r="AH111" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI111" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ111" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK111" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL111" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM111" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN111" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -19027,7 +19103,7 @@
         <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -19037,12 +19113,12 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -19052,12 +19128,12 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -19070,7 +19146,7 @@
         <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -19088,7 +19164,7 @@
         <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -19136,7 +19212,7 @@
         <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -19144,7 +19220,7 @@
         <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -19152,7 +19228,7 @@
         <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -19160,7 +19236,7 @@
         <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -19168,7 +19244,7 @@
         <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
+++ b/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\OltSchema\BaseData\HotelExport\SpecialOffers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="299">
   <si>
     <t>ItemType</t>
   </si>
@@ -920,6 +915,53 @@
   </si>
   <si>
     <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Hier könnten drei Days Regeln passen: 3, 6, 7. Die 7 ist die grösste der Regeln, PayNights ist  für die Days=7 Regel 5, EndDays, daher kommen 6JAN und 7JAN zum Abzug.</t>
+  </si>
+  <si>
+    <t>stay 4 pay 3 MAR allways. Diese Regel soll die Spalte RuleType erläutern. Es gibt Specials die sind nur eine bestimmte Anzahl Tage vor Abreise gültig, oder in einem fixen Zeitraum. Buche ich vor oder nach diesem Datum, ist die Regel nicht gültig, dafür aber vielleicht eine andere. Wenn aber der RuleType Always ist, dann ist die Regel immer wirksam, egal wann gebucht wird.  Zu beachten ist, dass die Spalte links den Wert current date hat, also zeigt dieses Beispiel das egal wann gebucht wird, diese Regel wirksam ist.""</t>
+  </si>
+  <si>
+    <t>Normaler Special Saison übergreifend. Hier ist der LastSpOffEndDate relevant. Da es zwei Saisons gibt die bündig" sind (1MAY-5MAY:6MAY-10MAY) darf ein Special aus einer Saison in die nächste rübergehen. Es muss aber sichergestellt werden, dass der Special zur Anwendung kommt der so wenig wie möglich in die neue Saison übergeht. In diesem Beispiel passt die Buchung voll in die erste Saison. Es gibt keine Überschneidung."</t>
+  </si>
+  <si>
+    <t>Normaler Special Saison übergreifend. Hier ist der LastSpOffEndDate relevant. Da es zwei Saisons gibt die bündig" sind (1MAY-5MAY:6MAY-10MAY) darf ein Special aus einer Saison in die nächste rübergehen. Es muss aber sichergestellt werden, dass der Special zur Anwendung kommt der so wenig wie möglich in die neue Saison übergeht. In diesem Beispiel ist das LastSpOffEndDate &gt;= 6MAR (Leistung EndDate). Dieser Special darf also zur Anwendung kommen, obwohl die Saison eigentlich zu Ende wäre."</t>
+  </si>
+  <si>
+    <t>Normaler Special Saison übergreifend. Hier ist der LastSpOffEndDate relevant. Da es zwei Saisons gibt die bündig" sind (1MAY-5MAY:6MAY-10MAY) darf ein Special aus einer Saison in die nächste rübergehen. Es muss aber sichergestellt werden, dass der Special zur Anwendung kommt der so wenig wie möglich in die neue Saison übergeht. In diesem Beispiel ist das LastSpOffEndDate &gt;= 7MAR (Leistung EndDate). Dieser Special darf also zur Anwendung kommen, obwohl die Saison eigentlich zu Ende wäre."</t>
+  </si>
+  <si>
+    <t>Normaler Special Saison übergreifend. Hier ist der LastSpOffEndDate relevant. Da es zwei Saisons gibt die bündig" sind (1MAY-5MAY:6MAY-10MAY) darf ein Special aus einer Saison in die nächste rübergehen. Es muss aber sichergestellt werden, dass der Special zur Anwendung kommt der so wenig wie möglich in die neue Saison übergeht. In diesem Beispiel ist das LastSpOffEndDate &gt;= 8MAR (Leistung EndDate). Dieser Special darf also zur Anwendung kommen, obwohl die Saison eigentlich zu Ende wäre."</t>
+  </si>
+  <si>
+    <t>Normaler Special Saison übergreifend. Hier ist der LastSpOffEndDate relevant. Da es zwei Saisons gibt die bündig" sind (1MAY-5MAY:6MAY-10MAY) darf ein Special aus einer Saison in die nächste rübergehen. Es muss aber sichergestellt werden, dass der Special zur Anwendung kommt der so wenig wie möglich in die neue Saison übergeht. In diesem Beispiel ist das BeginDate der Leistung in der neuen Saison, also kommt dieser Special zum Tragen. Der neue Special ist ein 4/3, und dieser passt voll in die neue Saison. Das LeistungsEndDatum ist der 10MAY."</t>
+  </si>
+  <si>
+    <t>Normaler Special Saison übergreifend. Hier ist der LastSpOffEndDate relevant. Da es zwei Saisons gibt die bündig" sind (1MAY-5MAY:6MAY-10MAY) darf ein Special aus einer Saison in die nächste rübergehen. Es muss aber sichergestellt werden, dass der Special zur Anwendung kommt der so wenig wie möglich in die neue Saison übergeht. In diesem Beispiel ist das BeginDate der Leistung in der neuen Saison, also könnte dieser Special zur Anwendung kommen, aber der LastSpOffEndDate des Specials 6MAY-10MAY ist der 10MAY, weil danach kein neuer Special folgt, aber das LeistungEndDatum ist der 11MAY, daher kann dieser Special 6MAY-10MAY nicht zur Anwendung kommen."</t>
+  </si>
+  <si>
+    <t>stay 21 pay 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(03.07.16-23.07.16) Average / 713 
+(03.07.16-23.07.16) Average / 713 
+(03.07.16-23.07.16) Average / 713 
+(03.07.16-23.07.16) Average / 713 
+(03.07.16-23.07.16) Average / 713 
+(03.07.16-23.07.16) Average / 713 </t>
+  </si>
+  <si>
+    <t>stay 21 pay 15 JUN</t>
+  </si>
+  <si>
+    <t>TUIXYA104370531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(24.07.16-29.07.16) 24.07.16 / 724 </t>
+  </si>
+  <si>
+    <t>stay 6 pay 5 JUN</t>
+  </si>
+  <si>
+    <t>TUIXYA104370533</t>
   </si>
 </sst>
 </file>
@@ -1497,79 +1539,6 @@
   </cellStyles>
   <dxfs count="56">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1689,6 +1658,79 @@
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1703,69 +1745,69 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:L1048576" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:L1048576" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="A1:L1048576"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="ItemType" dataDxfId="13"/>
-    <tableColumn id="2" name="Dest" dataDxfId="12"/>
-    <tableColumn id="3" name="ParentCode" dataDxfId="11"/>
-    <tableColumn id="4" name="ItemCode" dataDxfId="10"/>
-    <tableColumn id="5" name="MealCode" dataDxfId="9"/>
-    <tableColumn id="6" name="CurrentDate" dataDxfId="8"/>
-    <tableColumn id="7" name="Adult" dataDxfId="7"/>
-    <tableColumn id="8" name="Chd" dataDxfId="6"/>
-    <tableColumn id="9" name="Inf" dataDxfId="5"/>
-    <tableColumn id="10" name="ItemStartDate" dataDxfId="4"/>
-    <tableColumn id="11" name="Duration" dataDxfId="3"/>
-    <tableColumn id="12" name="Notes" dataDxfId="2"/>
+    <tableColumn id="1" name="ItemType" dataDxfId="53"/>
+    <tableColumn id="2" name="Dest" dataDxfId="52"/>
+    <tableColumn id="3" name="ParentCode" dataDxfId="51"/>
+    <tableColumn id="4" name="ItemCode" dataDxfId="50"/>
+    <tableColumn id="5" name="MealCode" dataDxfId="49"/>
+    <tableColumn id="6" name="CurrentDate" dataDxfId="48"/>
+    <tableColumn id="7" name="Adult" dataDxfId="47"/>
+    <tableColumn id="8" name="Chd" dataDxfId="46"/>
+    <tableColumn id="9" name="Inf" dataDxfId="45"/>
+    <tableColumn id="10" name="ItemStartDate" dataDxfId="44"/>
+    <tableColumn id="11" name="Duration" dataDxfId="43"/>
+    <tableColumn id="12" name="Notes" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:AN1007" totalsRowShown="0" headerRowDxfId="14" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:AN1007" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <tableColumns count="40">
-    <tableColumn id="1" name="ItemType" dataDxfId="55"/>
-    <tableColumn id="2" name="Dest" dataDxfId="54"/>
-    <tableColumn id="3" name="ParentCode" dataDxfId="53"/>
-    <tableColumn id="4" name="ItemCode" dataDxfId="52"/>
-    <tableColumn id="5" name="MealCode" dataDxfId="51"/>
-    <tableColumn id="6" name="CurrentDate" dataDxfId="50"/>
-    <tableColumn id="7" name="Adult" dataDxfId="49"/>
-    <tableColumn id="8" name="Chd" dataDxfId="48"/>
-    <tableColumn id="9" name="Inf" dataDxfId="47"/>
-    <tableColumn id="10" name="ItemStartDate" dataDxfId="46"/>
-    <tableColumn id="11" name="Duration" dataDxfId="45"/>
-    <tableColumn id="12" name="Notes" dataDxfId="44"/>
-    <tableColumn id="13" name="DateFrom" dataDxfId="43"/>
-    <tableColumn id="14" name="DateTo" dataDxfId="42"/>
-    <tableColumn id="15" name="Days" dataDxfId="41"/>
-    <tableColumn id="16" name="DayString" dataDxfId="40"/>
-    <tableColumn id="17" name="RuleDesc" dataDxfId="39"/>
-    <tableColumn id="18" name="PayNights" dataDxfId="38"/>
-    <tableColumn id="19" name="Type" dataDxfId="37"/>
-    <tableColumn id="20" name="EffectiveSpecialDays" dataDxfId="36"/>
-    <tableColumn id="21" name="LastSpOffEndDate" dataDxfId="35"/>
-    <tableColumn id="22" name="RevolvingGroup" dataDxfId="34"/>
-    <tableColumn id="23" name="StartDateRelevant" dataDxfId="33"/>
-    <tableColumn id="24" name="EndDateRelevant" dataDxfId="32"/>
-    <tableColumn id="25" name="DescId" dataDxfId="31"/>
-    <tableColumn id="26" name="DaysBeforeDepartureFrom" dataDxfId="30"/>
-    <tableColumn id="27" name="DaysBeforeDepartureTo" dataDxfId="29"/>
-    <tableColumn id="28" name="DateBeforeDepartureFrom" dataDxfId="28"/>
-    <tableColumn id="29" name="DateBeforeDepartureTo" dataDxfId="27"/>
-    <tableColumn id="30" name="ChildAdultNr" dataDxfId="26"/>
-    <tableColumn id="31" name="ChildChildNr" dataDxfId="25"/>
-    <tableColumn id="32" name="FromDayBase" dataDxfId="24"/>
-    <tableColumn id="33" name="ToDayBase" dataDxfId="23"/>
-    <tableColumn id="34" name="Child" dataDxfId="22"/>
-    <tableColumn id="35" name="Baby" dataDxfId="21"/>
-    <tableColumn id="36" name="RuleType" dataDxfId="20"/>
-    <tableColumn id="37" name="AddAmount" dataDxfId="19"/>
-    <tableColumn id="38" name="ItemSeq" dataDxfId="18"/>
-    <tableColumn id="39" name="ParentSeq" dataDxfId="17"/>
-    <tableColumn id="40" name="SpecialSeq" dataDxfId="16"/>
+    <tableColumn id="1" name="ItemType" dataDxfId="39"/>
+    <tableColumn id="2" name="Dest" dataDxfId="38"/>
+    <tableColumn id="3" name="ParentCode" dataDxfId="37"/>
+    <tableColumn id="4" name="ItemCode" dataDxfId="36"/>
+    <tableColumn id="5" name="MealCode" dataDxfId="35"/>
+    <tableColumn id="6" name="CurrentDate" dataDxfId="34"/>
+    <tableColumn id="7" name="Adult" dataDxfId="33"/>
+    <tableColumn id="8" name="Chd" dataDxfId="32"/>
+    <tableColumn id="9" name="Inf" dataDxfId="31"/>
+    <tableColumn id="10" name="ItemStartDate" dataDxfId="30"/>
+    <tableColumn id="11" name="Duration" dataDxfId="29"/>
+    <tableColumn id="12" name="Notes" dataDxfId="28"/>
+    <tableColumn id="13" name="DateFrom" dataDxfId="27"/>
+    <tableColumn id="14" name="DateTo" dataDxfId="26"/>
+    <tableColumn id="15" name="Days" dataDxfId="25"/>
+    <tableColumn id="16" name="DayString" dataDxfId="24"/>
+    <tableColumn id="17" name="RuleDesc" dataDxfId="23"/>
+    <tableColumn id="18" name="PayNights" dataDxfId="22"/>
+    <tableColumn id="19" name="Type" dataDxfId="21"/>
+    <tableColumn id="20" name="EffectiveSpecialDays" dataDxfId="20"/>
+    <tableColumn id="21" name="LastSpOffEndDate" dataDxfId="19"/>
+    <tableColumn id="22" name="RevolvingGroup" dataDxfId="18"/>
+    <tableColumn id="23" name="StartDateRelevant" dataDxfId="17"/>
+    <tableColumn id="24" name="EndDateRelevant" dataDxfId="16"/>
+    <tableColumn id="25" name="DescId" dataDxfId="15"/>
+    <tableColumn id="26" name="DaysBeforeDepartureFrom" dataDxfId="14"/>
+    <tableColumn id="27" name="DaysBeforeDepartureTo" dataDxfId="13"/>
+    <tableColumn id="28" name="DateBeforeDepartureFrom" dataDxfId="12"/>
+    <tableColumn id="29" name="DateBeforeDepartureTo" dataDxfId="11"/>
+    <tableColumn id="30" name="ChildAdultNr" dataDxfId="10"/>
+    <tableColumn id="31" name="ChildChildNr" dataDxfId="9"/>
+    <tableColumn id="32" name="FromDayBase" dataDxfId="8"/>
+    <tableColumn id="33" name="ToDayBase" dataDxfId="7"/>
+    <tableColumn id="34" name="Child" dataDxfId="6"/>
+    <tableColumn id="35" name="Baby" dataDxfId="5"/>
+    <tableColumn id="36" name="RuleType" dataDxfId="4"/>
+    <tableColumn id="37" name="AddAmount" dataDxfId="3"/>
+    <tableColumn id="38" name="ItemSeq" dataDxfId="2"/>
+    <tableColumn id="39" name="ParentSeq" dataDxfId="1"/>
+    <tableColumn id="40" name="SpecialSeq" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2026,7 +2068,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2034,10 +2076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105:XFD105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5199,6 +5241,41 @@
         <v>13</v>
       </c>
     </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G105" s="2">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2">
+        <v>0</v>
+      </c>
+      <c r="I105" s="2">
+        <v>0</v>
+      </c>
+      <c r="J105" s="7">
+        <v>42554</v>
+      </c>
+      <c r="K105" s="2">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -5210,51 +5287,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN102"/>
+  <dimension ref="A1:AN106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="47" style="6" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" style="2"/>
-    <col min="15" max="15" width="7.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19" style="2" customWidth="1"/>
-    <col min="22" max="22" width="17.28515625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="19.28515625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="18.42578125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="39" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="47.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.85546875" style="2" customWidth="1"/>
-    <col min="27" max="27" width="24.42578125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="26.85546875" style="2" customWidth="1"/>
-    <col min="29" max="29" width="24.42578125" style="2" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="2" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="2" customWidth="1"/>
-    <col min="32" max="32" width="15.140625" style="2" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="2" customWidth="1"/>
-    <col min="34" max="34" width="7.7109375" style="2" customWidth="1"/>
-    <col min="35" max="35" width="7.42578125" style="2" customWidth="1"/>
-    <col min="36" max="36" width="11.42578125" style="2" customWidth="1"/>
-    <col min="37" max="37" width="13.85546875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -7173,9 +7250,6 @@
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="M19" s="7">
         <v>42370</v>
       </c>
@@ -7374,9 +7448,6 @@
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="M21" s="7">
         <v>42370</v>
@@ -10723,7 +10794,7 @@
         <v>5</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="M58" s="7">
         <v>42436</v>
@@ -11429,7 +11500,7 @@
         <v>5</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M66" s="7">
         <v>42491</v>
@@ -11539,7 +11610,7 @@
         <v>5</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="M67" s="7">
         <v>42491</v>
@@ -11649,7 +11720,7 @@
         <v>5</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="M68" s="7">
         <v>42491</v>
@@ -11759,7 +11830,7 @@
         <v>5</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M69" s="7">
         <v>42491</v>
@@ -11869,7 +11940,7 @@
         <v>5</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="M70" s="7">
         <v>42491</v>
@@ -12006,7 +12077,7 @@
         <v>230</v>
       </c>
       <c r="U71" s="7">
-        <v>42513</v>
+        <v>42500</v>
       </c>
       <c r="V71" s="2">
         <v>0</v>
@@ -12089,7 +12160,7 @@
         <v>5</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="M72" s="7">
         <v>42496</v>
@@ -12116,7 +12187,7 @@
         <v>232</v>
       </c>
       <c r="U72" s="7">
-        <v>42513</v>
+        <v>42500</v>
       </c>
       <c r="V72" s="2">
         <v>0</v>
@@ -12199,12 +12270,18 @@
         <v>5</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
       <c r="T73" s="6"/>
       <c r="U73" s="7"/>
+      <c r="AL73" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM73" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.25">
       <c r="J74" s="7"/>
@@ -14967,6 +15044,190 @@
       </c>
       <c r="AN102" s="2" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="105" spans="1:40" ht="90" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G105" s="2">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2">
+        <v>0</v>
+      </c>
+      <c r="I105" s="2">
+        <v>0</v>
+      </c>
+      <c r="J105" s="7">
+        <v>42554</v>
+      </c>
+      <c r="K105" s="2">
+        <v>27</v>
+      </c>
+      <c r="M105" s="7">
+        <v>42552</v>
+      </c>
+      <c r="N105" s="7">
+        <v>42565</v>
+      </c>
+      <c r="O105" s="2">
+        <v>21</v>
+      </c>
+      <c r="P105" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q105" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="R105" s="2">
+        <v>15</v>
+      </c>
+      <c r="S105" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="T105" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="U105" s="7">
+        <v>42582</v>
+      </c>
+      <c r="V105" s="2">
+        <v>0</v>
+      </c>
+      <c r="W105" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X105" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y105" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD105" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE105" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF105" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG105" s="2">
+        <v>21</v>
+      </c>
+      <c r="AH105" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI105" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ105" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK105" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM105" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN105" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="106" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M106" s="7">
+        <v>42573</v>
+      </c>
+      <c r="N106" s="7">
+        <v>42582</v>
+      </c>
+      <c r="O106" s="2">
+        <v>6</v>
+      </c>
+      <c r="P106" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q106" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="R106" s="2">
+        <v>5</v>
+      </c>
+      <c r="S106" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T106" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="U106" s="7">
+        <v>42582</v>
+      </c>
+      <c r="V106" s="2">
+        <v>0</v>
+      </c>
+      <c r="W106" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X106" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y106" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AD106" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE106" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF106" s="2">
+        <v>6</v>
+      </c>
+      <c r="AG106" s="2">
+        <v>6</v>
+      </c>
+      <c r="AH106" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI106" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ106" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK106" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL106" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM106" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN106" s="2" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
+++ b/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="261">
   <si>
     <t>ItemType</t>
   </si>
@@ -841,6 +841,15 @@
   </si>
   <si>
     <t>Komplexere Saisonüberschneidungen. Dies ist dann wieder ein einfacher Fall. Das ItemStartDate 26MAY ItemEndDate 7JUN. Folgende Days Regeln gibt es in der neuen Saison: 5,6,10,12. Days = 12 &lt;= Duration = 13, und ist die grösste passende Regel, kann also angewendet werden. Da Type = StartDays und DayString = 6,6 gibt es zwei Gruppen: 26MAY-31MAY und 1JUN-6JUN. Die Special-Tage sind also 26MAY und 1JUN.</t>
+  </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Hier gibt es nur den 4/3 mit Days=4 welcher zum Tragen kommt. Da Type=EndDays ist der 4JAN der Special-Tag.</t>
+  </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving und unterschiedlicher Duration. Hier kommt nur der 4/3 zum Tragen. Analog wie dem 4 Tage Beispiel kommt der 4JAN zum Tragen. Obwohl ich mehr Tage Stay habe als der Special passt einfach kein Special besser in die 5 Tage als der 4/3.</t>
+  </si>
+  <si>
+    <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving=3 und unterschiedlicher Duration. Da es keine SpecialOffer gibt mit Days&lt;=3, kommt hier kein Special zum Tragen. Die Beispiele 01.01.2016 mit Duration 3 bis 23 sollen helfen zu verstehen wie DayString in Verbindung mit Days funktioniert, und wie ein Revolving funktioniert.</t>
   </si>
 </sst>
 </file>
@@ -17891,8 +17900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18061,7 +18070,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>36</v>
       </c>
@@ -18096,7 +18105,7 @@
         <v>3</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
@@ -18166,7 +18175,7 @@
         <v>4</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="M3" s="13">
         <v>42370</v>
@@ -18249,7 +18258,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
@@ -18284,7 +18293,7 @@
         <v>5</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>101</v>
+        <v>259</v>
       </c>
       <c r="M4" s="13">
         <v>42370</v>

--- a/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
+++ b/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="279">
   <si>
     <t>ItemType</t>
   </si>
@@ -851,6 +851,60 @@
   <si>
     <t>Gemischte 7,6/5 and 4/3 in der gleichen Saison mit Revolving=3 und unterschiedlicher Duration. Da es keine SpecialOffer gibt mit Days&lt;=3, kommt hier kein Special zum Tragen. Die Beispiele 01.01.2016 mit Duration 3 bis 23 sollen helfen zu verstehen wie DayString in Verbindung mit Days funktioniert, und wie ein Revolving funktioniert.</t>
   </si>
+  <si>
+    <t>SZM</t>
+  </si>
+  <si>
+    <t>NAMLOD</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>stay 3 pay 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(01.01.16-03.01.16) 03.01.16 / 66 </t>
+  </si>
+  <si>
+    <t>SO ADT 3/2</t>
+  </si>
+  <si>
+    <t>TUIXYZ50502</t>
+  </si>
+  <si>
+    <t>TUIXYZ20928</t>
+  </si>
+  <si>
+    <t>TUIXYA44542716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(01.01.16-03.01.16) 03.01.16 / 25 </t>
+  </si>
+  <si>
+    <t>SO CHD 3/2 Kind 1</t>
+  </si>
+  <si>
+    <t>TUIXYZ528517</t>
+  </si>
+  <si>
+    <t>SO CHD 3/2 Kind 2</t>
+  </si>
+  <si>
+    <t>TUIXYA104370539</t>
+  </si>
+  <si>
+    <t>Normale Belegung eines Doppelzimmers mit zwei Erwachsenen</t>
+  </si>
+  <si>
+    <t>Normale Belegung eines Doppelzimmers, mit einem Kind zusätzlich im Zimmer. Child=1. Da es ein Kind ist, wird nach ChildAdultNr=2 (Normbelegung) gesucht, und das erste Kind kann den Special ChildChildNr=1 anwenden.</t>
+  </si>
+  <si>
+    <t>Normale Belegung eines Doppelzimmers, mit zwei Kinder zusätzlich im Zimmer. Es sind zwei Kinder in dem Zimmer. Es muss für jedes Kind einzeln nach den Specials gesucht werden. Child=1. Für das erste Kind wird nach ChildAdultNr=2 (Normbelegung) gesucht, und ChildChildNr=1. Für das zweite Kind wird nach ChildAdultNr=2 (Normbelegung) gesucht, und ChildChildNr=2. Ansonsten sind die Specials für Kinder in der Logik identisch wie die für Erwachsene. Für die Erwachsene wird nach ChildAdultNr=0 und ChildChildNr=0 gesucht. Rechts die Regeln nur für das letzte Kind. Die Regeln für das erste Kind sind im vorherigen Beispiel dokumentiert wo ChildAdultNr=2 und ChildChildNr=1.</t>
+  </si>
 </sst>
 </file>
 
@@ -859,13 +913,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\ d&quot;, &quot;yy"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1343,52 +1404,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1398,34 +1473,34 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1434,20 +1509,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="43" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="57">
     <cellStyle name="20 % - Akzent1" xfId="17" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1 2" xfId="45"/>
     <cellStyle name="20 % - Akzent2" xfId="21" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2 2" xfId="47"/>
     <cellStyle name="20 % - Akzent3" xfId="25" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3 2" xfId="49"/>
     <cellStyle name="20 % - Akzent4" xfId="29" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4 2" xfId="51"/>
     <cellStyle name="20 % - Akzent5" xfId="33" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5 2" xfId="53"/>
     <cellStyle name="20 % - Akzent6" xfId="37" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6 2" xfId="55"/>
     <cellStyle name="40 % - Akzent1" xfId="18" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1 2" xfId="46"/>
     <cellStyle name="40 % - Akzent2" xfId="22" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2 2" xfId="48"/>
     <cellStyle name="40 % - Akzent3" xfId="26" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3 2" xfId="50"/>
     <cellStyle name="40 % - Akzent4" xfId="30" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4 2" xfId="52"/>
     <cellStyle name="40 % - Akzent5" xfId="34" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5 2" xfId="54"/>
     <cellStyle name="40 % - Akzent6" xfId="38" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6 2" xfId="56"/>
     <cellStyle name="60 % - Akzent1" xfId="19" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60 % - Akzent2" xfId="23" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60 % - Akzent3" xfId="27" builtinId="40" customBuiltin="1"/>
@@ -1468,9 +1560,11 @@
     <cellStyle name="Gut" xfId="9" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="7" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Notiz 2" xfId="42"/>
+    <cellStyle name="Notiz 3" xfId="44"/>
     <cellStyle name="Schlecht" xfId="8" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="40"/>
+    <cellStyle name="Standard 3" xfId="43"/>
     <cellStyle name="Überschrift 1" xfId="13" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Überschrift 2" xfId="12" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Überschrift 3" xfId="11" builtinId="18" customBuiltin="1"/>
@@ -1481,6 +1575,14 @@
     <cellStyle name="Zelle überprüfen" xfId="2" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="56">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1711,14 +1813,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1919,7 +2013,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:AN992" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:AN989" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <tableColumns count="40">
     <tableColumn id="1" name="ItemType" dataDxfId="39"/>
     <tableColumn id="2" name="Dest" dataDxfId="38"/>
@@ -1932,35 +2026,35 @@
     <tableColumn id="9" name="Inf" dataDxfId="31"/>
     <tableColumn id="10" name="ItemStartDate" dataDxfId="30"/>
     <tableColumn id="11" name="Duration" dataDxfId="29"/>
-    <tableColumn id="12" name="Notes" dataDxfId="28"/>
-    <tableColumn id="13" name="DateFrom" dataDxfId="27"/>
-    <tableColumn id="14" name="DateTo" dataDxfId="26"/>
-    <tableColumn id="15" name="Days" dataDxfId="25"/>
-    <tableColumn id="16" name="DayString" dataDxfId="24"/>
-    <tableColumn id="17" name="RuleDesc" dataDxfId="23"/>
-    <tableColumn id="18" name="PayNights" dataDxfId="22"/>
-    <tableColumn id="19" name="Type" dataDxfId="21"/>
-    <tableColumn id="20" name="EffectiveSpecialDays" dataDxfId="20"/>
-    <tableColumn id="21" name="LastSpOffEndDate" dataDxfId="19"/>
-    <tableColumn id="22" name="RevolvingGroup" dataDxfId="18"/>
-    <tableColumn id="23" name="StartDateRelevant" dataDxfId="17"/>
-    <tableColumn id="24" name="EndDateRelevant" dataDxfId="16"/>
-    <tableColumn id="25" name="DescId" dataDxfId="15"/>
-    <tableColumn id="26" name="DaysBeforeDepartureFrom" dataDxfId="14"/>
-    <tableColumn id="27" name="DaysBeforeDepartureTo" dataDxfId="13"/>
-    <tableColumn id="28" name="DateBeforeDepartureFrom" dataDxfId="12"/>
-    <tableColumn id="29" name="DateBeforeDepartureTo" dataDxfId="11"/>
-    <tableColumn id="30" name="ChildAdultNr" dataDxfId="10"/>
-    <tableColumn id="31" name="ChildChildNr" dataDxfId="9"/>
-    <tableColumn id="32" name="FromDayBase" dataDxfId="8"/>
-    <tableColumn id="33" name="ToDayBase" dataDxfId="7"/>
-    <tableColumn id="34" name="Child" dataDxfId="6"/>
-    <tableColumn id="35" name="Baby" dataDxfId="5"/>
-    <tableColumn id="36" name="RuleType" dataDxfId="4"/>
-    <tableColumn id="37" name="AddAmount" dataDxfId="3"/>
-    <tableColumn id="38" name="ItemSeq" dataDxfId="2"/>
-    <tableColumn id="39" name="ParentSeq" dataDxfId="1"/>
-    <tableColumn id="40" name="SpecialSeq" dataDxfId="0"/>
+    <tableColumn id="12" name="Notes" dataDxfId="0"/>
+    <tableColumn id="13" name="DateFrom" dataDxfId="28"/>
+    <tableColumn id="14" name="DateTo" dataDxfId="27"/>
+    <tableColumn id="15" name="Days" dataDxfId="26"/>
+    <tableColumn id="16" name="DayString" dataDxfId="25"/>
+    <tableColumn id="17" name="RuleDesc" dataDxfId="24"/>
+    <tableColumn id="18" name="PayNights" dataDxfId="23"/>
+    <tableColumn id="19" name="Type" dataDxfId="22"/>
+    <tableColumn id="20" name="EffectiveSpecialDays" dataDxfId="21"/>
+    <tableColumn id="21" name="LastSpOffEndDate" dataDxfId="20"/>
+    <tableColumn id="22" name="RevolvingGroup" dataDxfId="19"/>
+    <tableColumn id="23" name="StartDateRelevant" dataDxfId="18"/>
+    <tableColumn id="24" name="EndDateRelevant" dataDxfId="17"/>
+    <tableColumn id="25" name="DescId" dataDxfId="16"/>
+    <tableColumn id="26" name="DaysBeforeDepartureFrom" dataDxfId="15"/>
+    <tableColumn id="27" name="DaysBeforeDepartureTo" dataDxfId="14"/>
+    <tableColumn id="28" name="DateBeforeDepartureFrom" dataDxfId="13"/>
+    <tableColumn id="29" name="DateBeforeDepartureTo" dataDxfId="12"/>
+    <tableColumn id="30" name="ChildAdultNr" dataDxfId="11"/>
+    <tableColumn id="31" name="ChildChildNr" dataDxfId="10"/>
+    <tableColumn id="32" name="FromDayBase" dataDxfId="9"/>
+    <tableColumn id="33" name="ToDayBase" dataDxfId="8"/>
+    <tableColumn id="34" name="Child" dataDxfId="7"/>
+    <tableColumn id="35" name="Baby" dataDxfId="6"/>
+    <tableColumn id="36" name="RuleType" dataDxfId="5"/>
+    <tableColumn id="37" name="AddAmount" dataDxfId="4"/>
+    <tableColumn id="38" name="ItemSeq" dataDxfId="3"/>
+    <tableColumn id="39" name="ParentSeq" dataDxfId="2"/>
+    <tableColumn id="40" name="SpecialSeq" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2231,8 +2325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L992"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:L95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5288,46 +5382,118 @@
       <c r="L92" s="16"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="15"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="15"/>
-      <c r="L93" s="16"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="15"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="15"/>
-      <c r="L94" s="16"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="15"/>
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="15"/>
-      <c r="L95" s="16"/>
+      <c r="A93" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G93" s="15">
+        <v>2</v>
+      </c>
+      <c r="H93" s="15">
+        <v>0</v>
+      </c>
+      <c r="I93" s="15">
+        <v>0</v>
+      </c>
+      <c r="J93" s="15">
+        <v>42370</v>
+      </c>
+      <c r="K93" s="15">
+        <v>3</v>
+      </c>
+      <c r="L93" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G94" s="15">
+        <v>2</v>
+      </c>
+      <c r="H94" s="15">
+        <v>1</v>
+      </c>
+      <c r="I94" s="15">
+        <v>0</v>
+      </c>
+      <c r="J94" s="15">
+        <v>42370</v>
+      </c>
+      <c r="K94" s="15">
+        <v>3</v>
+      </c>
+      <c r="L94" s="16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G95" s="15">
+        <v>2</v>
+      </c>
+      <c r="H95" s="15">
+        <v>2</v>
+      </c>
+      <c r="I95" s="15">
+        <v>0</v>
+      </c>
+      <c r="J95" s="15">
+        <v>42370</v>
+      </c>
+      <c r="K95" s="15">
+        <v>3</v>
+      </c>
+      <c r="L95" s="16" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
@@ -17898,10 +18064,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN91"/>
+  <dimension ref="A1:AN95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:L95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27342,6 +27508,348 @@
         <v>240</v>
       </c>
     </row>
+    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A93" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="F93" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G93" s="17">
+        <v>2</v>
+      </c>
+      <c r="H93" s="17">
+        <v>0</v>
+      </c>
+      <c r="I93" s="17">
+        <v>0</v>
+      </c>
+      <c r="J93" s="18">
+        <v>42370</v>
+      </c>
+      <c r="K93" s="17">
+        <v>3</v>
+      </c>
+      <c r="L93" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="M93" s="18">
+        <v>42370</v>
+      </c>
+      <c r="N93" s="18">
+        <v>42735</v>
+      </c>
+      <c r="O93" s="17">
+        <v>3</v>
+      </c>
+      <c r="P93" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q93" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="R93" s="17">
+        <v>2</v>
+      </c>
+      <c r="S93" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="T93" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="U93" s="18">
+        <v>42735</v>
+      </c>
+      <c r="V93" s="17">
+        <v>0</v>
+      </c>
+      <c r="W93" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="X93" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y93" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z93" s="17"/>
+      <c r="AA93" s="17"/>
+      <c r="AB93" s="17"/>
+      <c r="AC93" s="17"/>
+      <c r="AD93" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="17">
+        <v>3</v>
+      </c>
+      <c r="AG93" s="17">
+        <v>3</v>
+      </c>
+      <c r="AH93" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI93" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ93" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK93" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL93" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="AM93" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN93" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="94" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G94" s="17">
+        <v>2</v>
+      </c>
+      <c r="H94" s="17">
+        <v>1</v>
+      </c>
+      <c r="I94" s="17">
+        <v>0</v>
+      </c>
+      <c r="J94" s="18">
+        <v>42370</v>
+      </c>
+      <c r="K94" s="17">
+        <v>3</v>
+      </c>
+      <c r="L94" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="M94" s="18">
+        <v>42370</v>
+      </c>
+      <c r="N94" s="18">
+        <v>42735</v>
+      </c>
+      <c r="O94" s="17">
+        <v>3</v>
+      </c>
+      <c r="P94" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="R94" s="17">
+        <v>2</v>
+      </c>
+      <c r="S94" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="T94" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="U94" s="18">
+        <v>42735</v>
+      </c>
+      <c r="V94" s="17">
+        <v>0</v>
+      </c>
+      <c r="W94" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="X94" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y94" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z94" s="17"/>
+      <c r="AA94" s="17"/>
+      <c r="AB94" s="17"/>
+      <c r="AC94" s="17"/>
+      <c r="AD94" s="17">
+        <v>2</v>
+      </c>
+      <c r="AE94" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF94" s="17">
+        <v>3</v>
+      </c>
+      <c r="AG94" s="17">
+        <v>3</v>
+      </c>
+      <c r="AH94" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI94" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ94" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK94" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL94" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="AM94" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN94" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="95" spans="1:40" ht="105" x14ac:dyDescent="0.25">
+      <c r="A95" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G95" s="17">
+        <v>2</v>
+      </c>
+      <c r="H95" s="17">
+        <v>2</v>
+      </c>
+      <c r="I95" s="17">
+        <v>0</v>
+      </c>
+      <c r="J95" s="18">
+        <v>42370</v>
+      </c>
+      <c r="K95" s="17">
+        <v>3</v>
+      </c>
+      <c r="L95" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="M95" s="18">
+        <v>42370</v>
+      </c>
+      <c r="N95" s="18">
+        <v>42735</v>
+      </c>
+      <c r="O95" s="17">
+        <v>3</v>
+      </c>
+      <c r="P95" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q95" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="R95" s="17">
+        <v>2</v>
+      </c>
+      <c r="S95" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="T95" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="U95" s="18">
+        <v>42735</v>
+      </c>
+      <c r="V95" s="17">
+        <v>0</v>
+      </c>
+      <c r="W95" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="X95" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y95" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z95" s="17"/>
+      <c r="AA95" s="17"/>
+      <c r="AB95" s="17"/>
+      <c r="AC95" s="17"/>
+      <c r="AD95" s="17">
+        <v>2</v>
+      </c>
+      <c r="AE95" s="17">
+        <v>2</v>
+      </c>
+      <c r="AF95" s="17">
+        <v>3</v>
+      </c>
+      <c r="AG95" s="17">
+        <v>3</v>
+      </c>
+      <c r="AH95" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI95" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ95" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK95" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL95" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="AM95" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN95" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
+++ b/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3343" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="303">
   <si>
     <t>ItemType</t>
   </si>
@@ -976,6 +976,10 @@
   <si>
     <t>HotelLA2:L15</t>
   </si>
+  <si>
+    <t xml:space="preserve">(12.05.16-18.05.16) 12.05.16 / 512 
+(19.05.16-25.05.16) 19.05.16 / 519 </t>
+  </si>
 </sst>
 </file>
 
@@ -1772,94 +1776,6 @@
   </cellStyles>
   <dxfs count="112">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2287,6 +2203,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2299,9 +2220,42 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2314,6 +2268,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2323,7 +2282,54 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2461,108 +2467,108 @@
     <tableColumn id="3" name="ParentCode" dataDxfId="93" dataCellStyle="Standard 4"/>
     <tableColumn id="4" name="ItemCode" dataDxfId="92" dataCellStyle="Standard 4"/>
     <tableColumn id="5" name="MealCode" dataDxfId="91" dataCellStyle="Standard 4"/>
-    <tableColumn id="6" name="CurrentDate" dataDxfId="19" dataCellStyle="Standard 4"/>
-    <tableColumn id="7" name="Adult" dataDxfId="18" dataCellStyle="Standard 4"/>
-    <tableColumn id="8" name="Chd" dataDxfId="17" dataCellStyle="Standard 4"/>
-    <tableColumn id="9" name="Inf" dataDxfId="16" dataCellStyle="Standard 4"/>
-    <tableColumn id="10" name="ItemStartDate" dataDxfId="20" dataCellStyle="Standard 4"/>
-    <tableColumn id="11" name="Duration" dataDxfId="15" dataCellStyle="Standard 4"/>
-    <tableColumn id="12" name="Notes" dataDxfId="90" dataCellStyle="Standard 4"/>
-    <tableColumn id="13" name="DateFrom" dataDxfId="23" dataCellStyle="Standard 4"/>
-    <tableColumn id="14" name="DateTo" dataDxfId="22" dataCellStyle="Standard 4"/>
-    <tableColumn id="15" name="Days" dataDxfId="14" dataCellStyle="Standard 4"/>
-    <tableColumn id="16" name="DayString" dataDxfId="13" dataCellStyle="Standard 4"/>
-    <tableColumn id="17" name="RuleDesc" dataDxfId="89" dataCellStyle="Standard 4"/>
-    <tableColumn id="18" name="PayNights" dataDxfId="12" dataCellStyle="Standard 4"/>
-    <tableColumn id="19" name="Type" dataDxfId="88" dataCellStyle="Standard 4"/>
-    <tableColumn id="20" name="EffectiveSpecialDays" dataDxfId="87" dataCellStyle="Standard 4"/>
-    <tableColumn id="21" name="LastSpOffEndDate" dataDxfId="21" dataCellStyle="Standard 4"/>
-    <tableColumn id="22" name="RevolvingGroup" dataDxfId="11" dataCellStyle="Standard 4"/>
-    <tableColumn id="23" name="StartDateRelevant" dataDxfId="86" dataCellStyle="Standard 4"/>
-    <tableColumn id="24" name="EndDateRelevant" dataDxfId="85" dataCellStyle="Standard 4"/>
-    <tableColumn id="25" name="DescId" dataDxfId="84" dataCellStyle="Standard 4"/>
-    <tableColumn id="26" name="DaysBeforeDepartureFrom" dataDxfId="10" dataCellStyle="Standard 4"/>
-    <tableColumn id="27" name="DaysBeforeDepartureTo" dataDxfId="9" dataCellStyle="Standard 4"/>
-    <tableColumn id="28" name="DateBeforeDepartureFrom" dataDxfId="83" dataCellStyle="Standard 4"/>
-    <tableColumn id="29" name="DateBeforeDepartureTo" dataDxfId="82" dataCellStyle="Standard 4"/>
-    <tableColumn id="30" name="ChildAdultNr" dataDxfId="8" dataCellStyle="Standard 4"/>
-    <tableColumn id="31" name="ChildChildNr" dataDxfId="7" dataCellStyle="Standard 4"/>
-    <tableColumn id="32" name="FromDayBase" dataDxfId="6" dataCellStyle="Standard 4"/>
-    <tableColumn id="33" name="ToDayBase" dataDxfId="5" dataCellStyle="Standard 4"/>
-    <tableColumn id="34" name="Child" dataDxfId="4" dataCellStyle="Standard 4"/>
-    <tableColumn id="35" name="Baby" dataDxfId="3" dataCellStyle="Standard 4"/>
-    <tableColumn id="36" name="RuleType" dataDxfId="81" dataCellStyle="Standard 4"/>
-    <tableColumn id="37" name="AddAmount" dataDxfId="2" dataCellStyle="Standard 4"/>
-    <tableColumn id="38" name="ItemSeq" dataDxfId="80" dataCellStyle="Standard 4"/>
-    <tableColumn id="39" name="ParentSeq" dataDxfId="79" dataCellStyle="Standard 4"/>
-    <tableColumn id="40" name="SpecialSeq" dataDxfId="78" dataCellStyle="Standard 4"/>
-    <tableColumn id="41" name="TotalSavings" dataDxfId="1" dataCellStyle="Standard 4"/>
-    <tableColumn id="42" name="TotalPrice" dataDxfId="0" dataCellStyle="Standard 4"/>
-    <tableColumn id="43" name="Spalte1" dataDxfId="77"/>
-    <tableColumn id="44" name="Spalte2" dataDxfId="76"/>
-    <tableColumn id="45" name="Spalte3" dataDxfId="75"/>
-    <tableColumn id="46" name="Spalte4" dataDxfId="74"/>
-    <tableColumn id="47" name="Spalte5" dataDxfId="73"/>
+    <tableColumn id="6" name="CurrentDate" dataDxfId="90" dataCellStyle="Standard 4"/>
+    <tableColumn id="7" name="Adult" dataDxfId="89" dataCellStyle="Standard 4"/>
+    <tableColumn id="8" name="Chd" dataDxfId="88" dataCellStyle="Standard 4"/>
+    <tableColumn id="9" name="Inf" dataDxfId="87" dataCellStyle="Standard 4"/>
+    <tableColumn id="10" name="ItemStartDate" dataDxfId="86" dataCellStyle="Standard 4"/>
+    <tableColumn id="11" name="Duration" dataDxfId="85" dataCellStyle="Standard 4"/>
+    <tableColumn id="12" name="Notes" dataDxfId="84" dataCellStyle="Standard 4"/>
+    <tableColumn id="13" name="DateFrom" dataDxfId="83" dataCellStyle="Standard 4"/>
+    <tableColumn id="14" name="DateTo" dataDxfId="82" dataCellStyle="Standard 4"/>
+    <tableColumn id="15" name="Days" dataDxfId="81" dataCellStyle="Standard 4"/>
+    <tableColumn id="16" name="DayString" dataDxfId="80" dataCellStyle="Standard 4"/>
+    <tableColumn id="17" name="RuleDesc" dataDxfId="79" dataCellStyle="Standard 4"/>
+    <tableColumn id="18" name="PayNights" dataDxfId="78" dataCellStyle="Standard 4"/>
+    <tableColumn id="19" name="Type" dataDxfId="77" dataCellStyle="Standard 4"/>
+    <tableColumn id="20" name="EffectiveSpecialDays" dataDxfId="76" dataCellStyle="Standard 4"/>
+    <tableColumn id="21" name="LastSpOffEndDate" dataDxfId="75" dataCellStyle="Standard 4"/>
+    <tableColumn id="22" name="RevolvingGroup" dataDxfId="74" dataCellStyle="Standard 4"/>
+    <tableColumn id="23" name="StartDateRelevant" dataDxfId="73" dataCellStyle="Standard 4"/>
+    <tableColumn id="24" name="EndDateRelevant" dataDxfId="72" dataCellStyle="Standard 4"/>
+    <tableColumn id="25" name="DescId" dataDxfId="71" dataCellStyle="Standard 4"/>
+    <tableColumn id="26" name="DaysBeforeDepartureFrom" dataDxfId="70" dataCellStyle="Standard 4"/>
+    <tableColumn id="27" name="DaysBeforeDepartureTo" dataDxfId="69" dataCellStyle="Standard 4"/>
+    <tableColumn id="28" name="DateBeforeDepartureFrom" dataDxfId="1" dataCellStyle="Standard 4"/>
+    <tableColumn id="29" name="DateBeforeDepartureTo" dataDxfId="0" dataCellStyle="Standard 4"/>
+    <tableColumn id="30" name="ChildAdultNr" dataDxfId="68" dataCellStyle="Standard 4"/>
+    <tableColumn id="31" name="ChildChildNr" dataDxfId="67" dataCellStyle="Standard 4"/>
+    <tableColumn id="32" name="FromDayBase" dataDxfId="66" dataCellStyle="Standard 4"/>
+    <tableColumn id="33" name="ToDayBase" dataDxfId="65" dataCellStyle="Standard 4"/>
+    <tableColumn id="34" name="Child" dataDxfId="64" dataCellStyle="Standard 4"/>
+    <tableColumn id="35" name="Baby" dataDxfId="63" dataCellStyle="Standard 4"/>
+    <tableColumn id="36" name="RuleType" dataDxfId="62" dataCellStyle="Standard 4"/>
+    <tableColumn id="37" name="AddAmount" dataDxfId="61" dataCellStyle="Standard 4"/>
+    <tableColumn id="38" name="ItemSeq" dataDxfId="60" dataCellStyle="Standard 4"/>
+    <tableColumn id="39" name="ParentSeq" dataDxfId="59" dataCellStyle="Standard 4"/>
+    <tableColumn id="40" name="SpecialSeq" dataDxfId="58" dataCellStyle="Standard 4"/>
+    <tableColumn id="41" name="TotalSavings" dataDxfId="57" dataCellStyle="Standard 4"/>
+    <tableColumn id="42" name="TotalPrice" dataDxfId="56" dataCellStyle="Standard 4"/>
+    <tableColumn id="43" name="Spalte1" dataDxfId="55"/>
+    <tableColumn id="44" name="Spalte2" dataDxfId="54"/>
+    <tableColumn id="45" name="Spalte3" dataDxfId="53"/>
+    <tableColumn id="46" name="Spalte4" dataDxfId="52"/>
+    <tableColumn id="47" name="Spalte5" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:AN989" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:AN989" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <tableColumns count="40">
-    <tableColumn id="1" name="ItemType" dataDxfId="70"/>
-    <tableColumn id="2" name="Dest" dataDxfId="69"/>
-    <tableColumn id="3" name="ParentCode" dataDxfId="68"/>
-    <tableColumn id="4" name="ItemCode" dataDxfId="67"/>
-    <tableColumn id="5" name="MealCode" dataDxfId="66"/>
-    <tableColumn id="6" name="CurrentDate" dataDxfId="65"/>
-    <tableColumn id="7" name="Adult" dataDxfId="64"/>
-    <tableColumn id="8" name="Chd" dataDxfId="63"/>
-    <tableColumn id="9" name="Inf" dataDxfId="62"/>
-    <tableColumn id="10" name="ItemStartDate" dataDxfId="61"/>
-    <tableColumn id="11" name="Duration" dataDxfId="60"/>
-    <tableColumn id="12" name="Notes" dataDxfId="59"/>
-    <tableColumn id="13" name="DateFrom" dataDxfId="58"/>
-    <tableColumn id="14" name="DateTo" dataDxfId="57"/>
-    <tableColumn id="15" name="Days" dataDxfId="56"/>
-    <tableColumn id="16" name="DayString" dataDxfId="55"/>
-    <tableColumn id="17" name="RuleDesc" dataDxfId="54"/>
-    <tableColumn id="18" name="PayNights" dataDxfId="53"/>
-    <tableColumn id="19" name="Type" dataDxfId="52"/>
-    <tableColumn id="20" name="EffectiveSpecialDays" dataDxfId="51"/>
-    <tableColumn id="21" name="LastSpOffEndDate" dataDxfId="50"/>
-    <tableColumn id="22" name="RevolvingGroup" dataDxfId="49"/>
-    <tableColumn id="23" name="StartDateRelevant" dataDxfId="48"/>
-    <tableColumn id="24" name="EndDateRelevant" dataDxfId="47"/>
-    <tableColumn id="25" name="DescId" dataDxfId="46"/>
-    <tableColumn id="26" name="DaysBeforeDepartureFrom" dataDxfId="45"/>
-    <tableColumn id="27" name="DaysBeforeDepartureTo" dataDxfId="44"/>
-    <tableColumn id="28" name="DateBeforeDepartureFrom" dataDxfId="43"/>
-    <tableColumn id="29" name="DateBeforeDepartureTo" dataDxfId="42"/>
-    <tableColumn id="30" name="ChildAdultNr" dataDxfId="41"/>
-    <tableColumn id="31" name="ChildChildNr" dataDxfId="40"/>
-    <tableColumn id="32" name="FromDayBase" dataDxfId="39"/>
-    <tableColumn id="33" name="ToDayBase" dataDxfId="38"/>
-    <tableColumn id="34" name="Child" dataDxfId="37"/>
-    <tableColumn id="35" name="Baby" dataDxfId="36"/>
-    <tableColumn id="36" name="RuleType" dataDxfId="35"/>
-    <tableColumn id="37" name="AddAmount" dataDxfId="34"/>
-    <tableColumn id="38" name="ItemSeq" dataDxfId="33"/>
-    <tableColumn id="39" name="ParentSeq" dataDxfId="32"/>
-    <tableColumn id="40" name="SpecialSeq" dataDxfId="31"/>
+    <tableColumn id="1" name="ItemType" dataDxfId="48"/>
+    <tableColumn id="2" name="Dest" dataDxfId="47"/>
+    <tableColumn id="3" name="ParentCode" dataDxfId="46"/>
+    <tableColumn id="4" name="ItemCode" dataDxfId="45"/>
+    <tableColumn id="5" name="MealCode" dataDxfId="44"/>
+    <tableColumn id="6" name="CurrentDate" dataDxfId="43"/>
+    <tableColumn id="7" name="Adult" dataDxfId="42"/>
+    <tableColumn id="8" name="Chd" dataDxfId="41"/>
+    <tableColumn id="9" name="Inf" dataDxfId="40"/>
+    <tableColumn id="10" name="ItemStartDate" dataDxfId="39"/>
+    <tableColumn id="11" name="Duration" dataDxfId="38"/>
+    <tableColumn id="12" name="Notes" dataDxfId="37"/>
+    <tableColumn id="13" name="DateFrom" dataDxfId="36"/>
+    <tableColumn id="14" name="DateTo" dataDxfId="35"/>
+    <tableColumn id="15" name="Days" dataDxfId="34"/>
+    <tableColumn id="16" name="DayString" dataDxfId="33"/>
+    <tableColumn id="17" name="RuleDesc" dataDxfId="32"/>
+    <tableColumn id="18" name="PayNights" dataDxfId="31"/>
+    <tableColumn id="19" name="Type" dataDxfId="30"/>
+    <tableColumn id="20" name="EffectiveSpecialDays" dataDxfId="29"/>
+    <tableColumn id="21" name="LastSpOffEndDate" dataDxfId="28"/>
+    <tableColumn id="22" name="RevolvingGroup" dataDxfId="27"/>
+    <tableColumn id="23" name="StartDateRelevant" dataDxfId="26"/>
+    <tableColumn id="24" name="EndDateRelevant" dataDxfId="25"/>
+    <tableColumn id="25" name="DescId" dataDxfId="24"/>
+    <tableColumn id="26" name="DaysBeforeDepartureFrom" dataDxfId="23"/>
+    <tableColumn id="27" name="DaysBeforeDepartureTo" dataDxfId="22"/>
+    <tableColumn id="28" name="DateBeforeDepartureFrom" dataDxfId="21"/>
+    <tableColumn id="29" name="DateBeforeDepartureTo" dataDxfId="20"/>
+    <tableColumn id="30" name="ChildAdultNr" dataDxfId="19"/>
+    <tableColumn id="31" name="ChildChildNr" dataDxfId="18"/>
+    <tableColumn id="32" name="FromDayBase" dataDxfId="17"/>
+    <tableColumn id="33" name="ToDayBase" dataDxfId="16"/>
+    <tableColumn id="34" name="Child" dataDxfId="15"/>
+    <tableColumn id="35" name="Baby" dataDxfId="14"/>
+    <tableColumn id="36" name="RuleType" dataDxfId="13"/>
+    <tableColumn id="37" name="AddAmount" dataDxfId="12"/>
+    <tableColumn id="38" name="ItemSeq" dataDxfId="11"/>
+    <tableColumn id="39" name="ParentSeq" dataDxfId="10"/>
+    <tableColumn id="40" name="SpecialSeq" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="AO1:AQ1048576" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="AO1:AQ1048576" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="AO1:AQ1048576"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="TotalSavings" dataDxfId="26"/>
-    <tableColumn id="2" name="TotalPrice" dataDxfId="25"/>
-    <tableColumn id="3" name="Spalte1" dataDxfId="24"/>
+    <tableColumn id="1" name="TotalSavings" dataDxfId="4"/>
+    <tableColumn id="2" name="TotalPrice" dataDxfId="3"/>
+    <tableColumn id="3" name="Spalte1" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -18976,10 +18982,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU99"/>
+  <dimension ref="A1:AU108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+      <selection activeCell="AC87" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19011,8 +19017,8 @@
     <col min="25" max="25" width="52.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="28.42578125" style="36" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="26" style="36" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.5703125" style="33" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15.7109375" style="36" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15.28515625" style="36" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17.140625" style="36" bestFit="1" customWidth="1"/>
@@ -19225,8 +19231,8 @@
       <c r="Y2" s="27"/>
       <c r="Z2" s="35"/>
       <c r="AA2" s="35"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
       <c r="AD2" s="35"/>
       <c r="AE2" s="35"/>
       <c r="AF2" s="35"/>
@@ -19331,8 +19337,8 @@
       <c r="AA3" s="35">
         <v>1</v>
       </c>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
       <c r="AD3" s="35">
         <v>0</v>
       </c>
@@ -19455,8 +19461,8 @@
       <c r="AA4" s="35">
         <v>1</v>
       </c>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
       <c r="AD4" s="35">
         <v>0</v>
       </c>
@@ -19579,8 +19585,8 @@
       <c r="AA5" s="35">
         <v>1</v>
       </c>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
       <c r="AD5" s="35">
         <v>0</v>
       </c>
@@ -19703,8 +19709,8 @@
       <c r="AA6" s="35">
         <v>1</v>
       </c>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
       <c r="AD6" s="35">
         <v>0</v>
       </c>
@@ -19827,8 +19833,8 @@
       <c r="AA7" s="35">
         <v>1</v>
       </c>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
       <c r="AD7" s="35">
         <v>0</v>
       </c>
@@ -19951,8 +19957,8 @@
       <c r="AA8" s="35">
         <v>1</v>
       </c>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
       <c r="AD8" s="35">
         <v>0</v>
       </c>
@@ -20075,8 +20081,8 @@
       <c r="AA9" s="35">
         <v>1</v>
       </c>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
       <c r="AD9" s="35">
         <v>0</v>
       </c>
@@ -20199,8 +20205,8 @@
       <c r="AA10" s="35">
         <v>1</v>
       </c>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
       <c r="AD10" s="35">
         <v>0</v>
       </c>
@@ -20323,8 +20329,8 @@
       <c r="AA11" s="35">
         <v>1</v>
       </c>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
       <c r="AD11" s="35">
         <v>0</v>
       </c>
@@ -20447,8 +20453,8 @@
       <c r="AA12" s="35">
         <v>1</v>
       </c>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
       <c r="AD12" s="35">
         <v>0</v>
       </c>
@@ -20571,8 +20577,8 @@
       <c r="AA13" s="35">
         <v>1</v>
       </c>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
       <c r="AD13" s="35">
         <v>0</v>
       </c>
@@ -20695,8 +20701,8 @@
       <c r="AA14" s="35">
         <v>1</v>
       </c>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
       <c r="AD14" s="35">
         <v>0</v>
       </c>
@@ -20819,8 +20825,8 @@
       <c r="AA15" s="35">
         <v>1</v>
       </c>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
       <c r="AD15" s="35">
         <v>0</v>
       </c>
@@ -20943,8 +20949,8 @@
       <c r="AA16" s="35">
         <v>1</v>
       </c>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
       <c r="AD16" s="35">
         <v>0</v>
       </c>
@@ -21067,8 +21073,8 @@
       <c r="AA17" s="35">
         <v>1</v>
       </c>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
       <c r="AD17" s="35">
         <v>0</v>
       </c>
@@ -21169,8 +21175,8 @@
       <c r="AA18" s="35">
         <v>1</v>
       </c>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
       <c r="AD18" s="35">
         <v>0</v>
       </c>
@@ -21289,8 +21295,8 @@
       <c r="AA19" s="35">
         <v>1</v>
       </c>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
       <c r="AD19" s="35">
         <v>0</v>
       </c>
@@ -21391,8 +21397,8 @@
       <c r="AA20" s="35">
         <v>1</v>
       </c>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
       <c r="AD20" s="35">
         <v>0</v>
       </c>
@@ -21511,8 +21517,8 @@
       <c r="AA21" s="35">
         <v>1</v>
       </c>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
       <c r="AD21" s="35">
         <v>0</v>
       </c>
@@ -21635,8 +21641,8 @@
       <c r="AA22" s="35">
         <v>1</v>
       </c>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
       <c r="AD22" s="35">
         <v>0</v>
       </c>
@@ -21759,8 +21765,8 @@
       <c r="AA23" s="35">
         <v>1</v>
       </c>
-      <c r="AB23" s="25"/>
-      <c r="AC23" s="25"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
       <c r="AD23" s="35">
         <v>0</v>
       </c>
@@ -21883,8 +21889,8 @@
       <c r="AA24" s="35">
         <v>1</v>
       </c>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
       <c r="AD24" s="35">
         <v>0</v>
       </c>
@@ -22007,8 +22013,8 @@
       <c r="AA26" s="35">
         <v>1</v>
       </c>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
       <c r="AD26" s="35">
         <v>0</v>
       </c>
@@ -22131,8 +22137,8 @@
       <c r="AA27" s="35">
         <v>1</v>
       </c>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
       <c r="AD27" s="35">
         <v>0</v>
       </c>
@@ -22255,8 +22261,8 @@
       <c r="AA28" s="35">
         <v>1</v>
       </c>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
       <c r="AD28" s="35">
         <v>0</v>
       </c>
@@ -22379,8 +22385,8 @@
       <c r="AA29" s="35">
         <v>1</v>
       </c>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="25"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
       <c r="AD29" s="35">
         <v>0</v>
       </c>
@@ -22503,8 +22509,8 @@
       <c r="AA30" s="35">
         <v>1</v>
       </c>
-      <c r="AB30" s="25"/>
-      <c r="AC30" s="25"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
       <c r="AD30" s="35">
         <v>0</v>
       </c>
@@ -22627,8 +22633,8 @@
       <c r="AA32" s="35">
         <v>1</v>
       </c>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="25"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
       <c r="AD32" s="35">
         <v>0</v>
       </c>
@@ -22751,8 +22757,8 @@
       <c r="AA33" s="35">
         <v>1</v>
       </c>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="25"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
       <c r="AD33" s="35">
         <v>0</v>
       </c>
@@ -22875,8 +22881,8 @@
       <c r="AA34" s="35">
         <v>1</v>
       </c>
-      <c r="AB34" s="25"/>
-      <c r="AC34" s="25"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
       <c r="AD34" s="35">
         <v>0</v>
       </c>
@@ -22999,8 +23005,8 @@
       <c r="AA35" s="35">
         <v>1</v>
       </c>
-      <c r="AB35" s="25"/>
-      <c r="AC35" s="25"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
       <c r="AD35" s="35">
         <v>0</v>
       </c>
@@ -23123,8 +23129,8 @@
       <c r="AA36" s="35">
         <v>1</v>
       </c>
-      <c r="AB36" s="25"/>
-      <c r="AC36" s="25"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
       <c r="AD36" s="35">
         <v>0</v>
       </c>
@@ -23247,8 +23253,8 @@
       <c r="AA37" s="35">
         <v>1</v>
       </c>
-      <c r="AB37" s="25"/>
-      <c r="AC37" s="25"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="28"/>
       <c r="AD37" s="35">
         <v>0</v>
       </c>
@@ -23367,8 +23373,8 @@
       </c>
       <c r="Z39" s="35"/>
       <c r="AA39" s="35"/>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="25"/>
+      <c r="AB39" s="28"/>
+      <c r="AC39" s="28"/>
       <c r="AD39" s="35">
         <v>0</v>
       </c>
@@ -23487,8 +23493,8 @@
       </c>
       <c r="Z40" s="35"/>
       <c r="AA40" s="35"/>
-      <c r="AB40" s="25"/>
-      <c r="AC40" s="25"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
       <c r="AD40" s="35">
         <v>0</v>
       </c>
@@ -23607,8 +23613,8 @@
       </c>
       <c r="Z41" s="35"/>
       <c r="AA41" s="35"/>
-      <c r="AB41" s="25"/>
-      <c r="AC41" s="25"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
       <c r="AD41" s="35">
         <v>0</v>
       </c>
@@ -23727,8 +23733,8 @@
       </c>
       <c r="Z42" s="35"/>
       <c r="AA42" s="35"/>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="25"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
       <c r="AD42" s="35">
         <v>0</v>
       </c>
@@ -23847,8 +23853,8 @@
       </c>
       <c r="Z43" s="35"/>
       <c r="AA43" s="35"/>
-      <c r="AB43" s="25"/>
-      <c r="AC43" s="25"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
       <c r="AD43" s="35">
         <v>0</v>
       </c>
@@ -23967,8 +23973,8 @@
       </c>
       <c r="Z44" s="35"/>
       <c r="AA44" s="35"/>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="25"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
       <c r="AD44" s="35">
         <v>0</v>
       </c>
@@ -24087,8 +24093,8 @@
       </c>
       <c r="Z46" s="35"/>
       <c r="AA46" s="35"/>
-      <c r="AB46" s="25"/>
-      <c r="AC46" s="25"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
       <c r="AD46" s="35">
         <v>0</v>
       </c>
@@ -24207,8 +24213,8 @@
       </c>
       <c r="Z47" s="35"/>
       <c r="AA47" s="35"/>
-      <c r="AB47" s="25"/>
-      <c r="AC47" s="25"/>
+      <c r="AB47" s="28"/>
+      <c r="AC47" s="28"/>
       <c r="AD47" s="35">
         <v>0</v>
       </c>
@@ -24327,8 +24333,8 @@
       </c>
       <c r="Z48" s="35"/>
       <c r="AA48" s="35"/>
-      <c r="AB48" s="25"/>
-      <c r="AC48" s="25"/>
+      <c r="AB48" s="28"/>
+      <c r="AC48" s="28"/>
       <c r="AD48" s="35">
         <v>0</v>
       </c>
@@ -24421,8 +24427,8 @@
       <c r="Y49" s="27"/>
       <c r="Z49" s="35"/>
       <c r="AA49" s="35"/>
-      <c r="AB49" s="25"/>
-      <c r="AC49" s="25"/>
+      <c r="AB49" s="28"/>
+      <c r="AC49" s="28"/>
       <c r="AD49" s="35"/>
       <c r="AE49" s="35"/>
       <c r="AF49" s="35"/>
@@ -24497,8 +24503,8 @@
       <c r="Y51" s="27"/>
       <c r="Z51" s="35"/>
       <c r="AA51" s="35"/>
-      <c r="AB51" s="25"/>
-      <c r="AC51" s="25"/>
+      <c r="AB51" s="28"/>
+      <c r="AC51" s="28"/>
       <c r="AD51" s="35"/>
       <c r="AE51" s="35"/>
       <c r="AF51" s="35"/>
@@ -24599,8 +24605,8 @@
       </c>
       <c r="Z52" s="35"/>
       <c r="AA52" s="35"/>
-      <c r="AB52" s="25"/>
-      <c r="AC52" s="25"/>
+      <c r="AB52" s="28"/>
+      <c r="AC52" s="28"/>
       <c r="AD52" s="35">
         <v>0</v>
       </c>
@@ -24719,8 +24725,8 @@
       </c>
       <c r="Z53" s="35"/>
       <c r="AA53" s="35"/>
-      <c r="AB53" s="25"/>
-      <c r="AC53" s="25"/>
+      <c r="AB53" s="28"/>
+      <c r="AC53" s="28"/>
       <c r="AD53" s="35">
         <v>0</v>
       </c>
@@ -24839,8 +24845,8 @@
       </c>
       <c r="Z54" s="35"/>
       <c r="AA54" s="35"/>
-      <c r="AB54" s="25"/>
-      <c r="AC54" s="25"/>
+      <c r="AB54" s="28"/>
+      <c r="AC54" s="28"/>
       <c r="AD54" s="35">
         <v>0</v>
       </c>
@@ -24933,8 +24939,8 @@
       <c r="Y55" s="27"/>
       <c r="Z55" s="35"/>
       <c r="AA55" s="35"/>
-      <c r="AB55" s="25"/>
-      <c r="AC55" s="25"/>
+      <c r="AB55" s="28"/>
+      <c r="AC55" s="28"/>
       <c r="AD55" s="35"/>
       <c r="AE55" s="35"/>
       <c r="AF55" s="35"/>
@@ -25035,8 +25041,8 @@
       </c>
       <c r="Z57" s="35"/>
       <c r="AA57" s="35"/>
-      <c r="AB57" s="25"/>
-      <c r="AC57" s="25"/>
+      <c r="AB57" s="28"/>
+      <c r="AC57" s="28"/>
       <c r="AD57" s="35">
         <v>0</v>
       </c>
@@ -25159,8 +25165,8 @@
       <c r="AA58" s="35">
         <v>60</v>
       </c>
-      <c r="AB58" s="25"/>
-      <c r="AC58" s="25"/>
+      <c r="AB58" s="28"/>
+      <c r="AC58" s="28"/>
       <c r="AD58" s="35">
         <v>0</v>
       </c>
@@ -25283,8 +25289,8 @@
       <c r="AA59" s="35">
         <v>1</v>
       </c>
-      <c r="AB59" s="25"/>
-      <c r="AC59" s="25"/>
+      <c r="AB59" s="28"/>
+      <c r="AC59" s="28"/>
       <c r="AD59" s="35">
         <v>0</v>
       </c>
@@ -25655,8 +25661,8 @@
       <c r="AA63" s="35">
         <v>1</v>
       </c>
-      <c r="AB63" s="25"/>
-      <c r="AC63" s="25"/>
+      <c r="AB63" s="28"/>
+      <c r="AC63" s="28"/>
       <c r="AD63" s="35">
         <v>0</v>
       </c>
@@ -25775,8 +25781,8 @@
       </c>
       <c r="Z65" s="35"/>
       <c r="AA65" s="35"/>
-      <c r="AB65" s="25"/>
-      <c r="AC65" s="25"/>
+      <c r="AB65" s="28"/>
+      <c r="AC65" s="28"/>
       <c r="AD65" s="35">
         <v>0</v>
       </c>
@@ -25895,8 +25901,8 @@
       </c>
       <c r="Z66" s="35"/>
       <c r="AA66" s="35"/>
-      <c r="AB66" s="25"/>
-      <c r="AC66" s="25"/>
+      <c r="AB66" s="28"/>
+      <c r="AC66" s="28"/>
       <c r="AD66" s="35">
         <v>0</v>
       </c>
@@ -26015,8 +26021,8 @@
       </c>
       <c r="Z67" s="35"/>
       <c r="AA67" s="35"/>
-      <c r="AB67" s="25"/>
-      <c r="AC67" s="25"/>
+      <c r="AB67" s="28"/>
+      <c r="AC67" s="28"/>
       <c r="AD67" s="35">
         <v>0</v>
       </c>
@@ -26135,8 +26141,8 @@
       </c>
       <c r="Z68" s="35"/>
       <c r="AA68" s="35"/>
-      <c r="AB68" s="25"/>
-      <c r="AC68" s="25"/>
+      <c r="AB68" s="28"/>
+      <c r="AC68" s="28"/>
       <c r="AD68" s="35">
         <v>0</v>
       </c>
@@ -26255,8 +26261,8 @@
       </c>
       <c r="Z69" s="35"/>
       <c r="AA69" s="35"/>
-      <c r="AB69" s="25"/>
-      <c r="AC69" s="25"/>
+      <c r="AB69" s="28"/>
+      <c r="AC69" s="28"/>
       <c r="AD69" s="35">
         <v>0</v>
       </c>
@@ -26375,8 +26381,8 @@
       </c>
       <c r="Z70" s="35"/>
       <c r="AA70" s="35"/>
-      <c r="AB70" s="25"/>
-      <c r="AC70" s="25"/>
+      <c r="AB70" s="28"/>
+      <c r="AC70" s="28"/>
       <c r="AD70" s="35">
         <v>0</v>
       </c>
@@ -26495,8 +26501,8 @@
       </c>
       <c r="Z71" s="35"/>
       <c r="AA71" s="35"/>
-      <c r="AB71" s="25"/>
-      <c r="AC71" s="25"/>
+      <c r="AB71" s="28"/>
+      <c r="AC71" s="28"/>
       <c r="AD71" s="35">
         <v>0</v>
       </c>
@@ -26589,8 +26595,8 @@
       <c r="Y72" s="27"/>
       <c r="Z72" s="35"/>
       <c r="AA72" s="35"/>
-      <c r="AB72" s="25"/>
-      <c r="AC72" s="25"/>
+      <c r="AB72" s="28"/>
+      <c r="AC72" s="28"/>
       <c r="AD72" s="35"/>
       <c r="AE72" s="35"/>
       <c r="AF72" s="35"/>
@@ -26691,8 +26697,8 @@
       </c>
       <c r="Z74" s="35"/>
       <c r="AA74" s="35"/>
-      <c r="AB74" s="25"/>
-      <c r="AC74" s="25"/>
+      <c r="AB74" s="28"/>
+      <c r="AC74" s="28"/>
       <c r="AD74" s="35">
         <v>0</v>
       </c>
@@ -26811,8 +26817,8 @@
       </c>
       <c r="Z75" s="35"/>
       <c r="AA75" s="35"/>
-      <c r="AB75" s="25"/>
-      <c r="AC75" s="25"/>
+      <c r="AB75" s="28"/>
+      <c r="AC75" s="28"/>
       <c r="AD75" s="35">
         <v>0</v>
       </c>
@@ -26931,8 +26937,8 @@
       </c>
       <c r="Z76" s="35"/>
       <c r="AA76" s="35"/>
-      <c r="AB76" s="25"/>
-      <c r="AC76" s="25"/>
+      <c r="AB76" s="28"/>
+      <c r="AC76" s="28"/>
       <c r="AD76" s="35">
         <v>0</v>
       </c>
@@ -27029,8 +27035,8 @@
       </c>
       <c r="Z77" s="35"/>
       <c r="AA77" s="35"/>
-      <c r="AB77" s="25"/>
-      <c r="AC77" s="25"/>
+      <c r="AB77" s="28"/>
+      <c r="AC77" s="28"/>
       <c r="AD77" s="35">
         <v>0</v>
       </c>
@@ -27145,8 +27151,8 @@
       </c>
       <c r="Z78" s="35"/>
       <c r="AA78" s="35"/>
-      <c r="AB78" s="25"/>
-      <c r="AC78" s="25"/>
+      <c r="AB78" s="28"/>
+      <c r="AC78" s="28"/>
       <c r="AD78" s="35">
         <v>0</v>
       </c>
@@ -27243,8 +27249,8 @@
       </c>
       <c r="Z79" s="35"/>
       <c r="AA79" s="35"/>
-      <c r="AB79" s="25"/>
-      <c r="AC79" s="25"/>
+      <c r="AB79" s="28"/>
+      <c r="AC79" s="28"/>
       <c r="AD79" s="35">
         <v>0</v>
       </c>
@@ -27359,8 +27365,8 @@
       </c>
       <c r="Z80" s="35"/>
       <c r="AA80" s="35"/>
-      <c r="AB80" s="25"/>
-      <c r="AC80" s="25"/>
+      <c r="AB80" s="28"/>
+      <c r="AC80" s="28"/>
       <c r="AD80" s="35">
         <v>0</v>
       </c>
@@ -27457,8 +27463,8 @@
       </c>
       <c r="Z81" s="35"/>
       <c r="AA81" s="35"/>
-      <c r="AB81" s="25"/>
-      <c r="AC81" s="25"/>
+      <c r="AB81" s="28"/>
+      <c r="AC81" s="28"/>
       <c r="AD81" s="35">
         <v>0</v>
       </c>
@@ -27573,8 +27579,8 @@
       </c>
       <c r="Z82" s="35"/>
       <c r="AA82" s="35"/>
-      <c r="AB82" s="25"/>
-      <c r="AC82" s="25"/>
+      <c r="AB82" s="28"/>
+      <c r="AC82" s="28"/>
       <c r="AD82" s="35">
         <v>0</v>
       </c>
@@ -27671,8 +27677,8 @@
       </c>
       <c r="Z83" s="35"/>
       <c r="AA83" s="35"/>
-      <c r="AB83" s="25"/>
-      <c r="AC83" s="25"/>
+      <c r="AB83" s="28"/>
+      <c r="AC83" s="28"/>
       <c r="AD83" s="35">
         <v>0</v>
       </c>
@@ -27787,8 +27793,8 @@
       </c>
       <c r="Z84" s="35"/>
       <c r="AA84" s="35"/>
-      <c r="AB84" s="25"/>
-      <c r="AC84" s="25"/>
+      <c r="AB84" s="28"/>
+      <c r="AC84" s="28"/>
       <c r="AD84" s="35">
         <v>0</v>
       </c>
@@ -27885,8 +27891,8 @@
       </c>
       <c r="Z85" s="35"/>
       <c r="AA85" s="35"/>
-      <c r="AB85" s="25"/>
-      <c r="AC85" s="25"/>
+      <c r="AB85" s="28"/>
+      <c r="AC85" s="28"/>
       <c r="AD85" s="35">
         <v>0</v>
       </c>
@@ -28001,8 +28007,8 @@
       </c>
       <c r="Z86" s="35"/>
       <c r="AA86" s="35"/>
-      <c r="AB86" s="25"/>
-      <c r="AC86" s="25"/>
+      <c r="AB86" s="28"/>
+      <c r="AC86" s="28"/>
       <c r="AD86" s="35">
         <v>0</v>
       </c>
@@ -28099,8 +28105,8 @@
       </c>
       <c r="Z87" s="35"/>
       <c r="AA87" s="35"/>
-      <c r="AB87" s="25"/>
-      <c r="AC87" s="25"/>
+      <c r="AB87" s="28"/>
+      <c r="AC87" s="28"/>
       <c r="AD87" s="35">
         <v>0</v>
       </c>
@@ -28215,8 +28221,8 @@
       </c>
       <c r="Z88" s="35"/>
       <c r="AA88" s="35"/>
-      <c r="AB88" s="25"/>
-      <c r="AC88" s="25"/>
+      <c r="AB88" s="28"/>
+      <c r="AC88" s="28"/>
       <c r="AD88" s="35">
         <v>0</v>
       </c>
@@ -28335,8 +28341,8 @@
       </c>
       <c r="Z90" s="35"/>
       <c r="AA90" s="35"/>
-      <c r="AB90" s="25"/>
-      <c r="AC90" s="25"/>
+      <c r="AB90" s="28"/>
+      <c r="AC90" s="28"/>
       <c r="AD90" s="35">
         <v>0</v>
       </c>
@@ -28433,8 +28439,8 @@
       </c>
       <c r="Z91" s="35"/>
       <c r="AA91" s="35"/>
-      <c r="AB91" s="25"/>
-      <c r="AC91" s="25"/>
+      <c r="AB91" s="28"/>
+      <c r="AC91" s="28"/>
       <c r="AD91" s="35">
         <v>0</v>
       </c>
@@ -28549,8 +28555,8 @@
       </c>
       <c r="Z93" s="35"/>
       <c r="AA93" s="35"/>
-      <c r="AB93" s="25"/>
-      <c r="AC93" s="25"/>
+      <c r="AB93" s="28"/>
+      <c r="AC93" s="28"/>
       <c r="AD93" s="35">
         <v>0</v>
       </c>
@@ -28669,8 +28675,8 @@
       </c>
       <c r="Z94" s="35"/>
       <c r="AA94" s="35"/>
-      <c r="AB94" s="25"/>
-      <c r="AC94" s="25"/>
+      <c r="AB94" s="28"/>
+      <c r="AC94" s="28"/>
       <c r="AD94" s="35">
         <v>2</v>
       </c>
@@ -28789,8 +28795,8 @@
       </c>
       <c r="Z95" s="35"/>
       <c r="AA95" s="35"/>
-      <c r="AB95" s="25"/>
-      <c r="AC95" s="25"/>
+      <c r="AB95" s="28"/>
+      <c r="AC95" s="28"/>
       <c r="AD95" s="35">
         <v>2</v>
       </c>
@@ -29102,6 +29108,670 @@
       </c>
       <c r="AN99" s="2" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F101" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G101" s="36">
+        <v>1</v>
+      </c>
+      <c r="H101" s="36">
+        <v>0</v>
+      </c>
+      <c r="I101" s="36">
+        <v>0</v>
+      </c>
+      <c r="J101" s="33">
+        <v>42430</v>
+      </c>
+      <c r="K101" s="36">
+        <v>91</v>
+      </c>
+      <c r="M101" s="33">
+        <v>42430</v>
+      </c>
+      <c r="N101" s="33">
+        <v>42434</v>
+      </c>
+      <c r="O101" s="36">
+        <v>4</v>
+      </c>
+      <c r="P101" s="39">
+        <v>4</v>
+      </c>
+      <c r="Q101" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R101" s="36">
+        <v>3</v>
+      </c>
+      <c r="S101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T101" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="U101" s="33">
+        <v>42434</v>
+      </c>
+      <c r="V101" s="36">
+        <v>3</v>
+      </c>
+      <c r="W101" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X101" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y101" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD101" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="36">
+        <v>4</v>
+      </c>
+      <c r="AG101" s="36">
+        <v>4</v>
+      </c>
+      <c r="AH101" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI101" s="36">
+        <v>0</v>
+      </c>
+      <c r="AJ101" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK101" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL101" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM101" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN101" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO101" s="17">
+        <v>-3900</v>
+      </c>
+      <c r="AP101" s="17">
+        <v>33826</v>
+      </c>
+    </row>
+    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M102" s="33">
+        <v>42436</v>
+      </c>
+      <c r="N102" s="33">
+        <v>42441</v>
+      </c>
+      <c r="O102" s="36">
+        <v>4</v>
+      </c>
+      <c r="P102" s="39">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R102" s="36">
+        <v>3</v>
+      </c>
+      <c r="S102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T102" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="U102" s="33">
+        <v>42441</v>
+      </c>
+      <c r="V102" s="36">
+        <v>3</v>
+      </c>
+      <c r="W102" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X102" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y102" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD102" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="36">
+        <v>4</v>
+      </c>
+      <c r="AG102" s="36">
+        <v>4</v>
+      </c>
+      <c r="AH102" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI102" s="36">
+        <v>0</v>
+      </c>
+      <c r="AJ102" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK102" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL102" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM102" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN102" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M103" s="33">
+        <v>42443</v>
+      </c>
+      <c r="N103" s="33">
+        <v>42449</v>
+      </c>
+      <c r="O103" s="36">
+        <v>5</v>
+      </c>
+      <c r="P103" s="39">
+        <v>5</v>
+      </c>
+      <c r="Q103" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="R103" s="36">
+        <v>4</v>
+      </c>
+      <c r="S103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T103" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="U103" s="33">
+        <v>42449</v>
+      </c>
+      <c r="V103" s="36">
+        <v>0</v>
+      </c>
+      <c r="W103" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X103" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y103" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z103" s="36">
+        <v>999</v>
+      </c>
+      <c r="AA103" s="36">
+        <v>60</v>
+      </c>
+      <c r="AD103" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE103" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF103" s="36">
+        <v>5</v>
+      </c>
+      <c r="AG103" s="36">
+        <v>5</v>
+      </c>
+      <c r="AH103" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI103" s="36">
+        <v>0</v>
+      </c>
+      <c r="AJ103" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK103" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL103" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM103" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN103" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M104" s="33">
+        <v>42461</v>
+      </c>
+      <c r="N104" s="33">
+        <v>42466</v>
+      </c>
+      <c r="O104" s="36">
+        <v>4</v>
+      </c>
+      <c r="P104" s="39">
+        <v>4</v>
+      </c>
+      <c r="Q104" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R104" s="36">
+        <v>3</v>
+      </c>
+      <c r="S104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T104" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="U104" s="33">
+        <v>42466</v>
+      </c>
+      <c r="V104" s="36">
+        <v>0</v>
+      </c>
+      <c r="W104" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X104" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y104" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB104" s="33">
+        <v>42088</v>
+      </c>
+      <c r="AC104" s="33">
+        <v>42369</v>
+      </c>
+      <c r="AD104" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE104" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF104" s="36">
+        <v>4</v>
+      </c>
+      <c r="AG104" s="36">
+        <v>4</v>
+      </c>
+      <c r="AH104" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI104" s="36">
+        <v>0</v>
+      </c>
+      <c r="AJ104" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK104" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM104" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN104" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M105" s="33">
+        <v>42491</v>
+      </c>
+      <c r="N105" s="33">
+        <v>42495</v>
+      </c>
+      <c r="O105" s="36">
+        <v>5</v>
+      </c>
+      <c r="P105" s="39">
+        <v>5</v>
+      </c>
+      <c r="Q105" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="R105" s="36">
+        <v>4</v>
+      </c>
+      <c r="S105" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T105" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="U105" s="33">
+        <v>42500</v>
+      </c>
+      <c r="V105" s="36">
+        <v>0</v>
+      </c>
+      <c r="W105" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X105" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y105" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD105" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE105" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF105" s="36">
+        <v>5</v>
+      </c>
+      <c r="AG105" s="36">
+        <v>5</v>
+      </c>
+      <c r="AH105" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI105" s="36">
+        <v>0</v>
+      </c>
+      <c r="AJ105" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK105" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM105" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN105" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M106" s="33">
+        <v>42496</v>
+      </c>
+      <c r="N106" s="33">
+        <v>42500</v>
+      </c>
+      <c r="O106" s="36">
+        <v>4</v>
+      </c>
+      <c r="P106" s="39">
+        <v>4</v>
+      </c>
+      <c r="Q106" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R106" s="36">
+        <v>3</v>
+      </c>
+      <c r="S106" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T106" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="U106" s="33">
+        <v>42500</v>
+      </c>
+      <c r="V106" s="36">
+        <v>0</v>
+      </c>
+      <c r="W106" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X106" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y106" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD106" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE106" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF106" s="36">
+        <v>4</v>
+      </c>
+      <c r="AG106" s="36">
+        <v>4</v>
+      </c>
+      <c r="AH106" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI106" s="36">
+        <v>0</v>
+      </c>
+      <c r="AJ106" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK106" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL106" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM106" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN106" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M107" s="33">
+        <v>42502</v>
+      </c>
+      <c r="N107" s="33">
+        <v>42515</v>
+      </c>
+      <c r="O107" s="36">
+        <v>14</v>
+      </c>
+      <c r="P107" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q107" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="R107" s="36">
+        <v>6</v>
+      </c>
+      <c r="S107" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T107" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="U107" s="33">
+        <v>42530</v>
+      </c>
+      <c r="V107" s="36">
+        <v>2</v>
+      </c>
+      <c r="W107" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X107" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y107" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD107" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE107" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF107" s="36">
+        <v>7</v>
+      </c>
+      <c r="AG107" s="36">
+        <v>7</v>
+      </c>
+      <c r="AH107" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI107" s="36">
+        <v>0</v>
+      </c>
+      <c r="AJ107" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK107" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL107" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM107" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN107" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M108" s="33">
+        <v>42516</v>
+      </c>
+      <c r="N108" s="33">
+        <v>42530</v>
+      </c>
+      <c r="O108" s="36">
+        <v>5</v>
+      </c>
+      <c r="P108" s="39">
+        <v>5</v>
+      </c>
+      <c r="Q108" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="R108" s="36">
+        <v>4</v>
+      </c>
+      <c r="S108" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T108" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U108" s="33">
+        <v>42530</v>
+      </c>
+      <c r="V108" s="36">
+        <v>2</v>
+      </c>
+      <c r="W108" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X108" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y108" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD108" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE108" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF108" s="36">
+        <v>5</v>
+      </c>
+      <c r="AG108" s="36">
+        <v>5</v>
+      </c>
+      <c r="AH108" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI108" s="36">
+        <v>0</v>
+      </c>
+      <c r="AJ108" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK108" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL108" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM108" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN108" s="2" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -29126,7 +29796,7 @@
     <col min="12" max="12" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="375" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>36</v>
       </c>

--- a/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
+++ b/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\OltSchema\BaseData\HotelExport\SpecialOffers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
@@ -19,12 +14,12 @@
     <sheet name="ToDo" sheetId="5" r:id="rId5"/>
     <sheet name="ResultOld" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="304">
   <si>
     <t>ItemType</t>
   </si>
@@ -980,6 +975,10 @@
     <t xml:space="preserve">(12.05.16-18.05.16) 12.05.16 / 512 
 (19.05.16-25.05.16) 19.05.16 / 519 </t>
   </si>
+  <si>
+    <t xml:space="preserve">(27.01.16-02.02.16) Average / 150 - 11 = 139
+(27.01.16-02.02.16) Average / 150 - 11 = 139 </t>
+  </si>
 </sst>
 </file>
 
@@ -988,13 +987,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\ d&quot;, &quot;yy"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1514,48 +1520,62 @@
   </borders>
   <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1570,22 +1590,8 @@
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1595,34 +1601,34 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1634,71 +1640,74 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="57" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="57" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="57" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="57" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
@@ -1775,14 +1784,6 @@
     <cellStyle name="Zelle überprüfen" xfId="2" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="112">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2251,6 +2252,14 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2489,86 +2498,86 @@
     <tableColumn id="25" name="DescId" dataDxfId="71" dataCellStyle="Standard 4"/>
     <tableColumn id="26" name="DaysBeforeDepartureFrom" dataDxfId="70" dataCellStyle="Standard 4"/>
     <tableColumn id="27" name="DaysBeforeDepartureTo" dataDxfId="69" dataCellStyle="Standard 4"/>
-    <tableColumn id="28" name="DateBeforeDepartureFrom" dataDxfId="1" dataCellStyle="Standard 4"/>
-    <tableColumn id="29" name="DateBeforeDepartureTo" dataDxfId="0" dataCellStyle="Standard 4"/>
-    <tableColumn id="30" name="ChildAdultNr" dataDxfId="68" dataCellStyle="Standard 4"/>
-    <tableColumn id="31" name="ChildChildNr" dataDxfId="67" dataCellStyle="Standard 4"/>
-    <tableColumn id="32" name="FromDayBase" dataDxfId="66" dataCellStyle="Standard 4"/>
-    <tableColumn id="33" name="ToDayBase" dataDxfId="65" dataCellStyle="Standard 4"/>
-    <tableColumn id="34" name="Child" dataDxfId="64" dataCellStyle="Standard 4"/>
-    <tableColumn id="35" name="Baby" dataDxfId="63" dataCellStyle="Standard 4"/>
-    <tableColumn id="36" name="RuleType" dataDxfId="62" dataCellStyle="Standard 4"/>
-    <tableColumn id="37" name="AddAmount" dataDxfId="61" dataCellStyle="Standard 4"/>
-    <tableColumn id="38" name="ItemSeq" dataDxfId="60" dataCellStyle="Standard 4"/>
-    <tableColumn id="39" name="ParentSeq" dataDxfId="59" dataCellStyle="Standard 4"/>
-    <tableColumn id="40" name="SpecialSeq" dataDxfId="58" dataCellStyle="Standard 4"/>
-    <tableColumn id="41" name="TotalSavings" dataDxfId="57" dataCellStyle="Standard 4"/>
-    <tableColumn id="42" name="TotalPrice" dataDxfId="56" dataCellStyle="Standard 4"/>
-    <tableColumn id="43" name="Spalte1" dataDxfId="55"/>
-    <tableColumn id="44" name="Spalte2" dataDxfId="54"/>
-    <tableColumn id="45" name="Spalte3" dataDxfId="53"/>
-    <tableColumn id="46" name="Spalte4" dataDxfId="52"/>
-    <tableColumn id="47" name="Spalte5" dataDxfId="51"/>
+    <tableColumn id="28" name="DateBeforeDepartureFrom" dataDxfId="68" dataCellStyle="Standard 4"/>
+    <tableColumn id="29" name="DateBeforeDepartureTo" dataDxfId="67" dataCellStyle="Standard 4"/>
+    <tableColumn id="30" name="ChildAdultNr" dataDxfId="66" dataCellStyle="Standard 4"/>
+    <tableColumn id="31" name="ChildChildNr" dataDxfId="65" dataCellStyle="Standard 4"/>
+    <tableColumn id="32" name="FromDayBase" dataDxfId="64" dataCellStyle="Standard 4"/>
+    <tableColumn id="33" name="ToDayBase" dataDxfId="63" dataCellStyle="Standard 4"/>
+    <tableColumn id="34" name="Child" dataDxfId="62" dataCellStyle="Standard 4"/>
+    <tableColumn id="35" name="Baby" dataDxfId="61" dataCellStyle="Standard 4"/>
+    <tableColumn id="36" name="RuleType" dataDxfId="60" dataCellStyle="Standard 4"/>
+    <tableColumn id="37" name="AddAmount" dataDxfId="59" dataCellStyle="Standard 4"/>
+    <tableColumn id="38" name="ItemSeq" dataDxfId="58" dataCellStyle="Standard 4"/>
+    <tableColumn id="39" name="ParentSeq" dataDxfId="57" dataCellStyle="Standard 4"/>
+    <tableColumn id="40" name="SpecialSeq" dataDxfId="56" dataCellStyle="Standard 4"/>
+    <tableColumn id="41" name="TotalSavings" dataDxfId="55" dataCellStyle="Standard 4"/>
+    <tableColumn id="42" name="TotalPrice" dataDxfId="54" dataCellStyle="Standard 4"/>
+    <tableColumn id="43" name="Spalte1" dataDxfId="53"/>
+    <tableColumn id="44" name="Spalte2" dataDxfId="52"/>
+    <tableColumn id="45" name="Spalte3" dataDxfId="51"/>
+    <tableColumn id="46" name="Spalte4" dataDxfId="50"/>
+    <tableColumn id="47" name="Spalte5" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:AN989" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:AN989" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <tableColumns count="40">
-    <tableColumn id="1" name="ItemType" dataDxfId="48"/>
-    <tableColumn id="2" name="Dest" dataDxfId="47"/>
-    <tableColumn id="3" name="ParentCode" dataDxfId="46"/>
-    <tableColumn id="4" name="ItemCode" dataDxfId="45"/>
-    <tableColumn id="5" name="MealCode" dataDxfId="44"/>
-    <tableColumn id="6" name="CurrentDate" dataDxfId="43"/>
-    <tableColumn id="7" name="Adult" dataDxfId="42"/>
-    <tableColumn id="8" name="Chd" dataDxfId="41"/>
-    <tableColumn id="9" name="Inf" dataDxfId="40"/>
-    <tableColumn id="10" name="ItemStartDate" dataDxfId="39"/>
-    <tableColumn id="11" name="Duration" dataDxfId="38"/>
-    <tableColumn id="12" name="Notes" dataDxfId="37"/>
-    <tableColumn id="13" name="DateFrom" dataDxfId="36"/>
-    <tableColumn id="14" name="DateTo" dataDxfId="35"/>
-    <tableColumn id="15" name="Days" dataDxfId="34"/>
-    <tableColumn id="16" name="DayString" dataDxfId="33"/>
-    <tableColumn id="17" name="RuleDesc" dataDxfId="32"/>
-    <tableColumn id="18" name="PayNights" dataDxfId="31"/>
-    <tableColumn id="19" name="Type" dataDxfId="30"/>
-    <tableColumn id="20" name="EffectiveSpecialDays" dataDxfId="29"/>
-    <tableColumn id="21" name="LastSpOffEndDate" dataDxfId="28"/>
-    <tableColumn id="22" name="RevolvingGroup" dataDxfId="27"/>
-    <tableColumn id="23" name="StartDateRelevant" dataDxfId="26"/>
-    <tableColumn id="24" name="EndDateRelevant" dataDxfId="25"/>
-    <tableColumn id="25" name="DescId" dataDxfId="24"/>
-    <tableColumn id="26" name="DaysBeforeDepartureFrom" dataDxfId="23"/>
-    <tableColumn id="27" name="DaysBeforeDepartureTo" dataDxfId="22"/>
-    <tableColumn id="28" name="DateBeforeDepartureFrom" dataDxfId="21"/>
-    <tableColumn id="29" name="DateBeforeDepartureTo" dataDxfId="20"/>
-    <tableColumn id="30" name="ChildAdultNr" dataDxfId="19"/>
-    <tableColumn id="31" name="ChildChildNr" dataDxfId="18"/>
-    <tableColumn id="32" name="FromDayBase" dataDxfId="17"/>
-    <tableColumn id="33" name="ToDayBase" dataDxfId="16"/>
-    <tableColumn id="34" name="Child" dataDxfId="15"/>
-    <tableColumn id="35" name="Baby" dataDxfId="14"/>
-    <tableColumn id="36" name="RuleType" dataDxfId="13"/>
-    <tableColumn id="37" name="AddAmount" dataDxfId="12"/>
-    <tableColumn id="38" name="ItemSeq" dataDxfId="11"/>
-    <tableColumn id="39" name="ParentSeq" dataDxfId="10"/>
-    <tableColumn id="40" name="SpecialSeq" dataDxfId="9"/>
+    <tableColumn id="1" name="ItemType" dataDxfId="46"/>
+    <tableColumn id="2" name="Dest" dataDxfId="45"/>
+    <tableColumn id="3" name="ParentCode" dataDxfId="44"/>
+    <tableColumn id="4" name="ItemCode" dataDxfId="43"/>
+    <tableColumn id="5" name="MealCode" dataDxfId="42"/>
+    <tableColumn id="6" name="CurrentDate" dataDxfId="41"/>
+    <tableColumn id="7" name="Adult" dataDxfId="40"/>
+    <tableColumn id="8" name="Chd" dataDxfId="39"/>
+    <tableColumn id="9" name="Inf" dataDxfId="38"/>
+    <tableColumn id="10" name="ItemStartDate" dataDxfId="37"/>
+    <tableColumn id="11" name="Duration" dataDxfId="36"/>
+    <tableColumn id="12" name="Notes" dataDxfId="35"/>
+    <tableColumn id="13" name="DateFrom" dataDxfId="34"/>
+    <tableColumn id="14" name="DateTo" dataDxfId="33"/>
+    <tableColumn id="15" name="Days" dataDxfId="32"/>
+    <tableColumn id="16" name="DayString" dataDxfId="31"/>
+    <tableColumn id="17" name="RuleDesc" dataDxfId="30"/>
+    <tableColumn id="18" name="PayNights" dataDxfId="29"/>
+    <tableColumn id="19" name="Type" dataDxfId="28"/>
+    <tableColumn id="20" name="EffectiveSpecialDays" dataDxfId="27"/>
+    <tableColumn id="21" name="LastSpOffEndDate" dataDxfId="26"/>
+    <tableColumn id="22" name="RevolvingGroup" dataDxfId="25"/>
+    <tableColumn id="23" name="StartDateRelevant" dataDxfId="24"/>
+    <tableColumn id="24" name="EndDateRelevant" dataDxfId="23"/>
+    <tableColumn id="25" name="DescId" dataDxfId="22"/>
+    <tableColumn id="26" name="DaysBeforeDepartureFrom" dataDxfId="21"/>
+    <tableColumn id="27" name="DaysBeforeDepartureTo" dataDxfId="20"/>
+    <tableColumn id="28" name="DateBeforeDepartureFrom" dataDxfId="19"/>
+    <tableColumn id="29" name="DateBeforeDepartureTo" dataDxfId="18"/>
+    <tableColumn id="30" name="ChildAdultNr" dataDxfId="17"/>
+    <tableColumn id="31" name="ChildChildNr" dataDxfId="16"/>
+    <tableColumn id="32" name="FromDayBase" dataDxfId="15"/>
+    <tableColumn id="33" name="ToDayBase" dataDxfId="14"/>
+    <tableColumn id="34" name="Child" dataDxfId="13"/>
+    <tableColumn id="35" name="Baby" dataDxfId="12"/>
+    <tableColumn id="36" name="RuleType" dataDxfId="11"/>
+    <tableColumn id="37" name="AddAmount" dataDxfId="10"/>
+    <tableColumn id="38" name="ItemSeq" dataDxfId="9"/>
+    <tableColumn id="39" name="ParentSeq" dataDxfId="8"/>
+    <tableColumn id="40" name="SpecialSeq" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="AO1:AQ1048576" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="AO1:AQ1048576" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
   <autoFilter ref="AO1:AQ1048576"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="TotalSavings" dataDxfId="4"/>
-    <tableColumn id="2" name="TotalPrice" dataDxfId="3"/>
-    <tableColumn id="3" name="Spalte1" dataDxfId="2"/>
+    <tableColumn id="1" name="TotalSavings" dataDxfId="2"/>
+    <tableColumn id="2" name="TotalPrice" dataDxfId="1"/>
+    <tableColumn id="3" name="Spalte1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2829,7 +2838,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -18984,8 +18993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC87" sqref="AC1:AC1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AB28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AQ30" sqref="AQ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22485,8 +22494,8 @@
       <c r="S30" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="T30" s="27" t="s">
-        <v>87</v>
+      <c r="T30" s="40" t="s">
+        <v>303</v>
       </c>
       <c r="U30" s="28">
         <v>42402</v>
@@ -22545,10 +22554,10 @@
         <v>133</v>
       </c>
       <c r="AO30" s="26">
-        <v>-233</v>
+        <v>-278</v>
       </c>
       <c r="AP30" s="26">
-        <v>815</v>
+        <v>770</v>
       </c>
     </row>
     <row r="32" spans="1:42" ht="75" x14ac:dyDescent="0.25">

--- a/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
+++ b/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3505" uniqueCount="309">
   <si>
     <t>ItemType</t>
   </si>
@@ -969,15 +969,30 @@
     <t>Spalte5</t>
   </si>
   <si>
-    <t>HotelLA2:L15</t>
-  </si>
-  <si>
     <t xml:space="preserve">(12.05.16-18.05.16) 12.05.16 / 512 
 (19.05.16-25.05.16) 19.05.16 / 519 </t>
   </si>
   <si>
-    <t xml:space="preserve">(27.01.16-02.02.16) Average / 150 - 11 = 139
-(27.01.16-02.02.16) Average / 150 - 11 = 139 </t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27.01.16-02.02.16) Average / 149.71 - 11 = 138 
+(27.01.16-02.02.16) Average / 149.71 - 11 = 138 </t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -987,13 +1002,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\ d&quot;, &quot;yy"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1520,48 +1542,62 @@
   </borders>
   <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1576,22 +1612,8 @@
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1601,34 +1623,34 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1640,74 +1662,95 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="57" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="57" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="57" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="57" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="57" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="57" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
@@ -2468,8 +2511,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:AU95" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
-  <autoFilter ref="A1:AU95"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:AU108" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
+  <autoFilter ref="A1:AU108"/>
   <tableColumns count="47">
     <tableColumn id="1" name="ItemType" dataDxfId="95" dataCellStyle="Standard 4"/>
     <tableColumn id="2" name="Dest" dataDxfId="94" dataCellStyle="Standard 4"/>
@@ -2838,7 +2881,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -18993,8 +19036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AQ30" sqref="AQ30"/>
+    <sheetView tabSelected="1" topLeftCell="G88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T90" sqref="T90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19189,8 +19232,8 @@
       </c>
     </row>
     <row r="2" spans="1:47" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>301</v>
+      <c r="A2" s="41" t="s">
+        <v>36</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>37</v>
@@ -19310,8 +19353,8 @@
       <c r="O3" s="35">
         <v>4</v>
       </c>
-      <c r="P3" s="38">
-        <v>4</v>
+      <c r="P3" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="Q3" s="25" t="s">
         <v>51</v>
@@ -19434,8 +19477,8 @@
       <c r="O4" s="35">
         <v>4</v>
       </c>
-      <c r="P4" s="38">
-        <v>4</v>
+      <c r="P4" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="Q4" s="25" t="s">
         <v>51</v>
@@ -19558,8 +19601,8 @@
       <c r="O5" s="35">
         <v>6</v>
       </c>
-      <c r="P5" s="38">
-        <v>6</v>
+      <c r="P5" s="38" t="s">
+        <v>303</v>
       </c>
       <c r="Q5" s="25" t="s">
         <v>63</v>
@@ -19682,8 +19725,8 @@
       <c r="O6" s="35">
         <v>7</v>
       </c>
-      <c r="P6" s="38">
-        <v>7</v>
+      <c r="P6" s="38" t="s">
+        <v>304</v>
       </c>
       <c r="Q6" s="25" t="s">
         <v>63</v>
@@ -21148,8 +21191,8 @@
       <c r="O18" s="35">
         <v>4</v>
       </c>
-      <c r="P18" s="38">
-        <v>4</v>
+      <c r="P18" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="Q18" s="25" t="s">
         <v>51</v>
@@ -21370,8 +21413,8 @@
       <c r="O20" s="35">
         <v>4</v>
       </c>
-      <c r="P20" s="38">
-        <v>4</v>
+      <c r="P20" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="Q20" s="25" t="s">
         <v>51</v>
@@ -21986,8 +22029,8 @@
       <c r="O26" s="35">
         <v>7</v>
       </c>
-      <c r="P26" s="38">
-        <v>7</v>
+      <c r="P26" s="38" t="s">
+        <v>304</v>
       </c>
       <c r="Q26" s="25" t="s">
         <v>63</v>
@@ -22110,8 +22153,8 @@
       <c r="O27" s="35">
         <v>7</v>
       </c>
-      <c r="P27" s="38">
-        <v>7</v>
+      <c r="P27" s="38" t="s">
+        <v>304</v>
       </c>
       <c r="Q27" s="25" t="s">
         <v>63</v>
@@ -22234,8 +22277,8 @@
       <c r="O28" s="35">
         <v>7</v>
       </c>
-      <c r="P28" s="38">
-        <v>7</v>
+      <c r="P28" s="38" t="s">
+        <v>304</v>
       </c>
       <c r="Q28" s="25" t="s">
         <v>63</v>
@@ -22358,8 +22401,8 @@
       <c r="O29" s="35">
         <v>7</v>
       </c>
-      <c r="P29" s="38">
-        <v>7</v>
+      <c r="P29" s="38" t="s">
+        <v>304</v>
       </c>
       <c r="Q29" s="25" t="s">
         <v>63</v>
@@ -22482,8 +22525,8 @@
       <c r="O30" s="35">
         <v>7</v>
       </c>
-      <c r="P30" s="38">
-        <v>7</v>
+      <c r="P30" s="38" t="s">
+        <v>304</v>
       </c>
       <c r="Q30" s="25" t="s">
         <v>63</v>
@@ -22495,7 +22538,7 @@
         <v>86</v>
       </c>
       <c r="T30" s="40" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="U30" s="28">
         <v>42402</v>
@@ -22554,10 +22597,10 @@
         <v>133</v>
       </c>
       <c r="AO30" s="26">
-        <v>-278</v>
+        <v>-277.42</v>
       </c>
       <c r="AP30" s="26">
-        <v>770</v>
+        <v>770.58</v>
       </c>
     </row>
     <row r="32" spans="1:42" ht="75" x14ac:dyDescent="0.25">
@@ -22606,8 +22649,8 @@
       <c r="O32" s="35">
         <v>7</v>
       </c>
-      <c r="P32" s="38">
-        <v>7</v>
+      <c r="P32" s="38" t="s">
+        <v>304</v>
       </c>
       <c r="Q32" s="25" t="s">
         <v>63</v>
@@ -22730,8 +22773,8 @@
       <c r="O33" s="35">
         <v>7</v>
       </c>
-      <c r="P33" s="38">
-        <v>7</v>
+      <c r="P33" s="38" t="s">
+        <v>304</v>
       </c>
       <c r="Q33" s="25" t="s">
         <v>63</v>
@@ -22854,8 +22897,8 @@
       <c r="O34" s="35">
         <v>7</v>
       </c>
-      <c r="P34" s="38">
-        <v>7</v>
+      <c r="P34" s="38" t="s">
+        <v>304</v>
       </c>
       <c r="Q34" s="25" t="s">
         <v>63</v>
@@ -22978,8 +23021,8 @@
       <c r="O35" s="35">
         <v>7</v>
       </c>
-      <c r="P35" s="38">
-        <v>7</v>
+      <c r="P35" s="38" t="s">
+        <v>304</v>
       </c>
       <c r="Q35" s="25" t="s">
         <v>63</v>
@@ -23102,8 +23145,8 @@
       <c r="O36" s="35">
         <v>7</v>
       </c>
-      <c r="P36" s="38">
-        <v>7</v>
+      <c r="P36" s="38" t="s">
+        <v>304</v>
       </c>
       <c r="Q36" s="25" t="s">
         <v>63</v>
@@ -23226,8 +23269,8 @@
       <c r="O37" s="35">
         <v>7</v>
       </c>
-      <c r="P37" s="38">
-        <v>7</v>
+      <c r="P37" s="38" t="s">
+        <v>304</v>
       </c>
       <c r="Q37" s="25" t="s">
         <v>63</v>
@@ -23350,8 +23393,8 @@
       <c r="O39" s="35">
         <v>4</v>
       </c>
-      <c r="P39" s="38">
-        <v>4</v>
+      <c r="P39" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="Q39" s="25" t="s">
         <v>51</v>
@@ -23470,8 +23513,8 @@
       <c r="O40" s="35">
         <v>4</v>
       </c>
-      <c r="P40" s="38">
-        <v>4</v>
+      <c r="P40" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="Q40" s="25" t="s">
         <v>51</v>
@@ -23590,8 +23633,8 @@
       <c r="O41" s="35">
         <v>4</v>
       </c>
-      <c r="P41" s="38">
-        <v>4</v>
+      <c r="P41" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="Q41" s="25" t="s">
         <v>51</v>
@@ -23710,8 +23753,8 @@
       <c r="O42" s="35">
         <v>5</v>
       </c>
-      <c r="P42" s="38">
-        <v>5</v>
+      <c r="P42" s="38" t="s">
+        <v>306</v>
       </c>
       <c r="Q42" s="25" t="s">
         <v>140</v>
@@ -23830,8 +23873,8 @@
       <c r="O43" s="35">
         <v>5</v>
       </c>
-      <c r="P43" s="38">
-        <v>5</v>
+      <c r="P43" s="38" t="s">
+        <v>306</v>
       </c>
       <c r="Q43" s="25" t="s">
         <v>140</v>
@@ -23950,8 +23993,8 @@
       <c r="O44" s="35">
         <v>4</v>
       </c>
-      <c r="P44" s="38">
-        <v>4</v>
+      <c r="P44" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="Q44" s="25" t="s">
         <v>51</v>
@@ -24070,8 +24113,8 @@
       <c r="O46" s="35">
         <v>4</v>
       </c>
-      <c r="P46" s="38">
-        <v>4</v>
+      <c r="P46" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="Q46" s="25" t="s">
         <v>51</v>
@@ -24190,8 +24233,8 @@
       <c r="O47" s="35">
         <v>5</v>
       </c>
-      <c r="P47" s="38">
-        <v>5</v>
+      <c r="P47" s="38" t="s">
+        <v>306</v>
       </c>
       <c r="Q47" s="25" t="s">
         <v>140</v>
@@ -24310,8 +24353,8 @@
       <c r="O48" s="35">
         <v>5</v>
       </c>
-      <c r="P48" s="38">
-        <v>5</v>
+      <c r="P48" s="38" t="s">
+        <v>306</v>
       </c>
       <c r="Q48" s="25" t="s">
         <v>140</v>
@@ -24582,8 +24625,8 @@
       <c r="O52" s="35">
         <v>4</v>
       </c>
-      <c r="P52" s="38">
-        <v>4</v>
+      <c r="P52" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="Q52" s="25" t="s">
         <v>51</v>
@@ -24702,8 +24745,8 @@
       <c r="O53" s="35">
         <v>4</v>
       </c>
-      <c r="P53" s="38">
-        <v>4</v>
+      <c r="P53" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="Q53" s="25" t="s">
         <v>51</v>
@@ -24822,8 +24865,8 @@
       <c r="O54" s="35">
         <v>4</v>
       </c>
-      <c r="P54" s="38">
-        <v>4</v>
+      <c r="P54" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="Q54" s="25" t="s">
         <v>51</v>
@@ -25018,8 +25061,8 @@
       <c r="O57" s="35">
         <v>4</v>
       </c>
-      <c r="P57" s="38">
-        <v>4</v>
+      <c r="P57" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="Q57" s="25" t="s">
         <v>51</v>
@@ -25138,8 +25181,8 @@
       <c r="O58" s="35">
         <v>5</v>
       </c>
-      <c r="P58" s="38">
-        <v>5</v>
+      <c r="P58" s="38" t="s">
+        <v>306</v>
       </c>
       <c r="Q58" s="25" t="s">
         <v>140</v>
@@ -25262,8 +25305,8 @@
       <c r="O59" s="35">
         <v>4</v>
       </c>
-      <c r="P59" s="38">
-        <v>4</v>
+      <c r="P59" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="Q59" s="25" t="s">
         <v>51</v>
@@ -25386,8 +25429,8 @@
       <c r="O61" s="35">
         <v>4</v>
       </c>
-      <c r="P61" s="38">
-        <v>4</v>
+      <c r="P61" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="Q61" s="25" t="s">
         <v>51</v>
@@ -25510,8 +25553,8 @@
       <c r="O62" s="35">
         <v>5</v>
       </c>
-      <c r="P62" s="38">
-        <v>5</v>
+      <c r="P62" s="38" t="s">
+        <v>306</v>
       </c>
       <c r="Q62" s="25" t="s">
         <v>140</v>
@@ -25634,8 +25677,8 @@
       <c r="O63" s="35">
         <v>7</v>
       </c>
-      <c r="P63" s="38">
-        <v>7</v>
+      <c r="P63" s="38" t="s">
+        <v>304</v>
       </c>
       <c r="Q63" s="25" t="s">
         <v>168</v>
@@ -25758,8 +25801,8 @@
       <c r="O65" s="35">
         <v>5</v>
       </c>
-      <c r="P65" s="38">
-        <v>5</v>
+      <c r="P65" s="38" t="s">
+        <v>306</v>
       </c>
       <c r="Q65" s="25" t="s">
         <v>140</v>
@@ -25878,8 +25921,8 @@
       <c r="O66" s="35">
         <v>5</v>
       </c>
-      <c r="P66" s="38">
-        <v>5</v>
+      <c r="P66" s="38" t="s">
+        <v>306</v>
       </c>
       <c r="Q66" s="25" t="s">
         <v>140</v>
@@ -25998,8 +26041,8 @@
       <c r="O67" s="35">
         <v>5</v>
       </c>
-      <c r="P67" s="38">
-        <v>5</v>
+      <c r="P67" s="38" t="s">
+        <v>306</v>
       </c>
       <c r="Q67" s="25" t="s">
         <v>140</v>
@@ -26118,8 +26161,8 @@
       <c r="O68" s="35">
         <v>5</v>
       </c>
-      <c r="P68" s="38">
-        <v>5</v>
+      <c r="P68" s="38" t="s">
+        <v>306</v>
       </c>
       <c r="Q68" s="25" t="s">
         <v>140</v>
@@ -26238,8 +26281,8 @@
       <c r="O69" s="35">
         <v>5</v>
       </c>
-      <c r="P69" s="38">
-        <v>5</v>
+      <c r="P69" s="38" t="s">
+        <v>306</v>
       </c>
       <c r="Q69" s="25" t="s">
         <v>140</v>
@@ -26358,8 +26401,8 @@
       <c r="O70" s="35">
         <v>4</v>
       </c>
-      <c r="P70" s="38">
-        <v>4</v>
+      <c r="P70" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="Q70" s="25" t="s">
         <v>51</v>
@@ -26478,8 +26521,8 @@
       <c r="O71" s="35">
         <v>4</v>
       </c>
-      <c r="P71" s="38">
-        <v>4</v>
+      <c r="P71" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="Q71" s="25" t="s">
         <v>51</v>
@@ -27012,8 +27055,8 @@
       <c r="O77" s="35">
         <v>5</v>
       </c>
-      <c r="P77" s="38">
-        <v>5</v>
+      <c r="P77" s="38" t="s">
+        <v>306</v>
       </c>
       <c r="Q77" s="25" t="s">
         <v>140</v>
@@ -27128,8 +27171,8 @@
       <c r="O78" s="35">
         <v>7</v>
       </c>
-      <c r="P78" s="38">
-        <v>7</v>
+      <c r="P78" s="38" t="s">
+        <v>304</v>
       </c>
       <c r="Q78" s="25" t="s">
         <v>212</v>
@@ -27226,8 +27269,8 @@
       <c r="O79" s="35">
         <v>6</v>
       </c>
-      <c r="P79" s="38">
-        <v>6</v>
+      <c r="P79" s="38" t="s">
+        <v>303</v>
       </c>
       <c r="Q79" s="25" t="s">
         <v>215</v>
@@ -27342,8 +27385,8 @@
       <c r="O80" s="35">
         <v>7</v>
       </c>
-      <c r="P80" s="38">
-        <v>7</v>
+      <c r="P80" s="38" t="s">
+        <v>304</v>
       </c>
       <c r="Q80" s="25" t="s">
         <v>212</v>
@@ -27440,8 +27483,8 @@
       <c r="O81" s="35">
         <v>6</v>
       </c>
-      <c r="P81" s="38">
-        <v>6</v>
+      <c r="P81" s="38" t="s">
+        <v>303</v>
       </c>
       <c r="Q81" s="25" t="s">
         <v>215</v>
@@ -27556,8 +27599,8 @@
       <c r="O82" s="35">
         <v>7</v>
       </c>
-      <c r="P82" s="38">
-        <v>7</v>
+      <c r="P82" s="38" t="s">
+        <v>304</v>
       </c>
       <c r="Q82" s="25" t="s">
         <v>212</v>
@@ -27654,8 +27697,8 @@
       <c r="O83" s="35">
         <v>6</v>
       </c>
-      <c r="P83" s="38">
-        <v>6</v>
+      <c r="P83" s="38" t="s">
+        <v>303</v>
       </c>
       <c r="Q83" s="25" t="s">
         <v>215</v>
@@ -27770,8 +27813,8 @@
       <c r="O84" s="35">
         <v>4</v>
       </c>
-      <c r="P84" s="38">
-        <v>4</v>
+      <c r="P84" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="Q84" s="25" t="s">
         <v>51</v>
@@ -27868,8 +27911,8 @@
       <c r="O85" s="35">
         <v>6</v>
       </c>
-      <c r="P85" s="38">
-        <v>6</v>
+      <c r="P85" s="38" t="s">
+        <v>303</v>
       </c>
       <c r="Q85" s="25" t="s">
         <v>215</v>
@@ -27984,8 +28027,8 @@
       <c r="O86" s="35">
         <v>4</v>
       </c>
-      <c r="P86" s="38">
-        <v>4</v>
+      <c r="P86" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="Q86" s="25" t="s">
         <v>51</v>
@@ -28082,8 +28125,8 @@
       <c r="O87" s="35">
         <v>6</v>
       </c>
-      <c r="P87" s="38">
-        <v>6</v>
+      <c r="P87" s="38" t="s">
+        <v>303</v>
       </c>
       <c r="Q87" s="25" t="s">
         <v>215</v>
@@ -28273,7 +28316,7 @@
       </c>
     </row>
     <row r="90" spans="1:42" ht="135" x14ac:dyDescent="0.25">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="41" t="s">
         <v>36</v>
       </c>
       <c r="B90" s="25" t="s">
@@ -28318,8 +28361,8 @@
       <c r="O90" s="35">
         <v>21</v>
       </c>
-      <c r="P90" s="38">
-        <v>21</v>
+      <c r="P90" s="38" t="s">
+        <v>307</v>
       </c>
       <c r="Q90" s="25" t="s">
         <v>234</v>
@@ -28416,8 +28459,8 @@
       <c r="O91" s="35">
         <v>6</v>
       </c>
-      <c r="P91" s="38">
-        <v>6</v>
+      <c r="P91" s="38" t="s">
+        <v>303</v>
       </c>
       <c r="Q91" s="25" t="s">
         <v>215</v>
@@ -28532,8 +28575,8 @@
       <c r="O93" s="35">
         <v>3</v>
       </c>
-      <c r="P93" s="38">
-        <v>3</v>
+      <c r="P93" s="38" t="s">
+        <v>308</v>
       </c>
       <c r="Q93" s="25" t="s">
         <v>265</v>
@@ -28652,8 +28695,8 @@
       <c r="O94" s="35">
         <v>3</v>
       </c>
-      <c r="P94" s="38">
-        <v>3</v>
+      <c r="P94" s="38" t="s">
+        <v>308</v>
       </c>
       <c r="Q94" s="25" t="s">
         <v>265</v>
@@ -28772,8 +28815,8 @@
       <c r="O95" s="35">
         <v>3</v>
       </c>
-      <c r="P95" s="38">
-        <v>3</v>
+      <c r="P95" s="38" t="s">
+        <v>308</v>
       </c>
       <c r="Q95" s="25" t="s">
         <v>265</v>
@@ -28846,942 +28889,1187 @@
         <v>364</v>
       </c>
     </row>
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A96" s="42"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="44"/>
+      <c r="I96" s="44"/>
+      <c r="J96" s="43"/>
+      <c r="K96" s="44"/>
+      <c r="L96" s="45"/>
+      <c r="M96" s="43"/>
+      <c r="N96" s="43"/>
+      <c r="O96" s="44"/>
+      <c r="P96" s="46"/>
+      <c r="Q96" s="42"/>
+      <c r="R96" s="44"/>
+      <c r="S96" s="42"/>
+      <c r="T96" s="42"/>
+      <c r="U96" s="43"/>
+      <c r="V96" s="44"/>
+      <c r="W96" s="42"/>
+      <c r="X96" s="42"/>
+      <c r="Y96" s="45"/>
+      <c r="Z96" s="44"/>
+      <c r="AA96" s="44"/>
+      <c r="AB96" s="43"/>
+      <c r="AC96" s="43"/>
+      <c r="AD96" s="44"/>
+      <c r="AE96" s="44"/>
+      <c r="AF96" s="44"/>
+      <c r="AG96" s="44"/>
+      <c r="AH96" s="44"/>
+      <c r="AI96" s="44"/>
+      <c r="AJ96" s="42"/>
+      <c r="AK96" s="47"/>
+      <c r="AL96" s="42"/>
+      <c r="AM96" s="42"/>
+      <c r="AN96" s="42"/>
+      <c r="AO96" s="47"/>
+      <c r="AP96" s="47"/>
+    </row>
     <row r="97" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F97" s="33" t="s">
+      <c r="F97" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="G97" s="36">
+      <c r="G97" s="44">
         <v>1</v>
       </c>
-      <c r="H97" s="36">
-        <v>0</v>
-      </c>
-      <c r="I97" s="36">
-        <v>0</v>
-      </c>
-      <c r="J97" s="33">
+      <c r="H97" s="44">
+        <v>0</v>
+      </c>
+      <c r="I97" s="44">
+        <v>0</v>
+      </c>
+      <c r="J97" s="43">
         <v>42430</v>
       </c>
-      <c r="K97" s="36">
+      <c r="K97" s="44">
         <v>30</v>
       </c>
-      <c r="M97" s="33">
+      <c r="L97" s="45"/>
+      <c r="M97" s="43">
         <v>42430</v>
       </c>
-      <c r="N97" s="33">
+      <c r="N97" s="43">
         <v>42434</v>
       </c>
-      <c r="O97" s="36">
+      <c r="O97" s="44">
         <v>4</v>
       </c>
-      <c r="P97" s="39">
+      <c r="P97" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q97" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="R97" s="44">
+        <v>3</v>
+      </c>
+      <c r="S97" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="T97" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="U97" s="43">
+        <v>42434</v>
+      </c>
+      <c r="V97" s="44">
+        <v>3</v>
+      </c>
+      <c r="W97" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="X97" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y97" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z97" s="44"/>
+      <c r="AA97" s="44"/>
+      <c r="AB97" s="43"/>
+      <c r="AC97" s="43"/>
+      <c r="AD97" s="44">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="44">
         <v>4</v>
       </c>
-      <c r="Q97" s="2" t="s">
+      <c r="AG97" s="44">
+        <v>4</v>
+      </c>
+      <c r="AH97" s="44">
+        <v>0</v>
+      </c>
+      <c r="AI97" s="44">
+        <v>0</v>
+      </c>
+      <c r="AJ97" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK97" s="47">
+        <v>0</v>
+      </c>
+      <c r="AL97" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM97" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN97" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO97" s="47">
+        <v>-932</v>
+      </c>
+      <c r="AP97" s="47">
+        <v>8533</v>
+      </c>
+    </row>
+    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A98" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="43"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="44"/>
+      <c r="I98" s="44"/>
+      <c r="J98" s="43"/>
+      <c r="K98" s="44"/>
+      <c r="L98" s="45"/>
+      <c r="M98" s="43">
+        <v>42436</v>
+      </c>
+      <c r="N98" s="43">
+        <v>42441</v>
+      </c>
+      <c r="O98" s="44">
+        <v>4</v>
+      </c>
+      <c r="P98" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q98" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="R97" s="36">
+      <c r="R98" s="44">
         <v>3</v>
       </c>
-      <c r="S97" s="2" t="s">
+      <c r="S98" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="T97" s="2" t="s">
+      <c r="T98" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="U98" s="43">
+        <v>42441</v>
+      </c>
+      <c r="V98" s="44">
+        <v>3</v>
+      </c>
+      <c r="W98" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="X98" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y98" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z98" s="44"/>
+      <c r="AA98" s="44"/>
+      <c r="AB98" s="43"/>
+      <c r="AC98" s="43"/>
+      <c r="AD98" s="44">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="44">
+        <v>4</v>
+      </c>
+      <c r="AG98" s="44">
+        <v>4</v>
+      </c>
+      <c r="AH98" s="44">
+        <v>0</v>
+      </c>
+      <c r="AI98" s="44">
+        <v>0</v>
+      </c>
+      <c r="AJ98" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK98" s="47">
+        <v>0</v>
+      </c>
+      <c r="AL98" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM98" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN98" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO98" s="47"/>
+      <c r="AP98" s="47"/>
+    </row>
+    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A99" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99" s="42"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="43"/>
+      <c r="K99" s="44"/>
+      <c r="L99" s="45"/>
+      <c r="M99" s="43">
+        <v>42443</v>
+      </c>
+      <c r="N99" s="43">
+        <v>42449</v>
+      </c>
+      <c r="O99" s="44">
+        <v>5</v>
+      </c>
+      <c r="P99" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q99" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="R99" s="44">
+        <v>4</v>
+      </c>
+      <c r="S99" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="T99" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="U99" s="43">
+        <v>42449</v>
+      </c>
+      <c r="V99" s="44">
+        <v>0</v>
+      </c>
+      <c r="W99" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="X99" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y99" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z99" s="44">
+        <v>999</v>
+      </c>
+      <c r="AA99" s="44">
+        <v>60</v>
+      </c>
+      <c r="AB99" s="43"/>
+      <c r="AC99" s="43"/>
+      <c r="AD99" s="44">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="44">
+        <v>5</v>
+      </c>
+      <c r="AG99" s="44">
+        <v>5</v>
+      </c>
+      <c r="AH99" s="44">
+        <v>0</v>
+      </c>
+      <c r="AI99" s="44">
+        <v>0</v>
+      </c>
+      <c r="AJ99" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK99" s="47">
+        <v>0</v>
+      </c>
+      <c r="AL99" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM99" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN99" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO99" s="47"/>
+      <c r="AP99" s="47"/>
+    </row>
+    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A100" s="42"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="44"/>
+      <c r="J100" s="43"/>
+      <c r="K100" s="44"/>
+      <c r="L100" s="45"/>
+      <c r="M100" s="43"/>
+      <c r="N100" s="43"/>
+      <c r="O100" s="44"/>
+      <c r="P100" s="46"/>
+      <c r="Q100" s="42"/>
+      <c r="R100" s="44"/>
+      <c r="S100" s="42"/>
+      <c r="T100" s="42"/>
+      <c r="U100" s="43"/>
+      <c r="V100" s="44"/>
+      <c r="W100" s="42"/>
+      <c r="X100" s="42"/>
+      <c r="Y100" s="45"/>
+      <c r="Z100" s="44"/>
+      <c r="AA100" s="44"/>
+      <c r="AB100" s="43"/>
+      <c r="AC100" s="43"/>
+      <c r="AD100" s="44"/>
+      <c r="AE100" s="44"/>
+      <c r="AF100" s="44"/>
+      <c r="AG100" s="44"/>
+      <c r="AH100" s="44"/>
+      <c r="AI100" s="44"/>
+      <c r="AJ100" s="42"/>
+      <c r="AK100" s="47"/>
+      <c r="AL100" s="42"/>
+      <c r="AM100" s="42"/>
+      <c r="AN100" s="42"/>
+      <c r="AO100" s="47"/>
+      <c r="AP100" s="47"/>
+    </row>
+    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A101" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B101" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="E101" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F101" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="G101" s="44">
+        <v>1</v>
+      </c>
+      <c r="H101" s="44">
+        <v>0</v>
+      </c>
+      <c r="I101" s="44">
+        <v>0</v>
+      </c>
+      <c r="J101" s="43">
+        <v>42430</v>
+      </c>
+      <c r="K101" s="44">
+        <v>91</v>
+      </c>
+      <c r="L101" s="45"/>
+      <c r="M101" s="43">
+        <v>42430</v>
+      </c>
+      <c r="N101" s="43">
+        <v>42434</v>
+      </c>
+      <c r="O101" s="44">
+        <v>4</v>
+      </c>
+      <c r="P101" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q101" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="R101" s="44">
+        <v>3</v>
+      </c>
+      <c r="S101" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="T101" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="U97" s="33">
+      <c r="U101" s="43">
         <v>42434</v>
       </c>
-      <c r="V97" s="36">
+      <c r="V101" s="44">
         <v>3</v>
       </c>
-      <c r="W97" s="2" t="s">
+      <c r="W101" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="X97" s="2" t="s">
+      <c r="X101" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="Y97" s="6" t="s">
+      <c r="Y101" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="AD97" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE97" s="36">
-        <v>0</v>
-      </c>
-      <c r="AF97" s="36">
+      <c r="Z101" s="44"/>
+      <c r="AA101" s="44"/>
+      <c r="AB101" s="43"/>
+      <c r="AC101" s="43"/>
+      <c r="AD101" s="44">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="44">
         <v>4</v>
       </c>
-      <c r="AG97" s="36">
+      <c r="AG101" s="44">
         <v>4</v>
       </c>
-      <c r="AH97" s="36">
-        <v>0</v>
-      </c>
-      <c r="AI97" s="36">
-        <v>0</v>
-      </c>
-      <c r="AJ97" s="2" t="s">
+      <c r="AH101" s="44">
+        <v>0</v>
+      </c>
+      <c r="AI101" s="44">
+        <v>0</v>
+      </c>
+      <c r="AJ101" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="AK97" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL97" s="2" t="s">
+      <c r="AK101" s="47">
+        <v>0</v>
+      </c>
+      <c r="AL101" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="AM97" s="2" t="s">
+      <c r="AM101" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AN97" s="2" t="s">
+      <c r="AN101" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="AO97" s="17">
-        <v>-932</v>
-      </c>
-      <c r="AP97" s="17">
-        <v>8533</v>
-      </c>
-    </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="AO101" s="47">
+        <v>-3900</v>
+      </c>
+      <c r="AP101" s="47">
+        <v>33826</v>
+      </c>
+    </row>
+    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A102" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="M98" s="33">
+      <c r="B102" s="42"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="43"/>
+      <c r="K102" s="44"/>
+      <c r="L102" s="45"/>
+      <c r="M102" s="43">
         <v>42436</v>
       </c>
-      <c r="N98" s="33">
+      <c r="N102" s="43">
         <v>42441</v>
       </c>
-      <c r="O98" s="36">
+      <c r="O102" s="44">
         <v>4</v>
       </c>
-      <c r="P98" s="39">
+      <c r="P102" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q102" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="R102" s="44">
+        <v>3</v>
+      </c>
+      <c r="S102" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="T102" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="U102" s="43">
+        <v>42441</v>
+      </c>
+      <c r="V102" s="44">
+        <v>3</v>
+      </c>
+      <c r="W102" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="X102" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y102" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z102" s="44"/>
+      <c r="AA102" s="44"/>
+      <c r="AB102" s="43"/>
+      <c r="AC102" s="43"/>
+      <c r="AD102" s="44">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="44">
         <v>4</v>
       </c>
-      <c r="Q98" s="2" t="s">
+      <c r="AG102" s="44">
+        <v>4</v>
+      </c>
+      <c r="AH102" s="44">
+        <v>0</v>
+      </c>
+      <c r="AI102" s="44">
+        <v>0</v>
+      </c>
+      <c r="AJ102" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK102" s="47">
+        <v>0</v>
+      </c>
+      <c r="AL102" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM102" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN102" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO102" s="47"/>
+      <c r="AP102" s="47"/>
+    </row>
+    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A103" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B103" s="42"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="44"/>
+      <c r="J103" s="43"/>
+      <c r="K103" s="44"/>
+      <c r="L103" s="45"/>
+      <c r="M103" s="43">
+        <v>42443</v>
+      </c>
+      <c r="N103" s="43">
+        <v>42449</v>
+      </c>
+      <c r="O103" s="44">
+        <v>5</v>
+      </c>
+      <c r="P103" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q103" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="R103" s="44">
+        <v>4</v>
+      </c>
+      <c r="S103" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="T103" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="U103" s="43">
+        <v>42449</v>
+      </c>
+      <c r="V103" s="44">
+        <v>0</v>
+      </c>
+      <c r="W103" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="X103" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y103" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z103" s="44">
+        <v>999</v>
+      </c>
+      <c r="AA103" s="44">
+        <v>60</v>
+      </c>
+      <c r="AB103" s="43"/>
+      <c r="AC103" s="43"/>
+      <c r="AD103" s="44">
+        <v>0</v>
+      </c>
+      <c r="AE103" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF103" s="44">
+        <v>5</v>
+      </c>
+      <c r="AG103" s="44">
+        <v>5</v>
+      </c>
+      <c r="AH103" s="44">
+        <v>0</v>
+      </c>
+      <c r="AI103" s="44">
+        <v>0</v>
+      </c>
+      <c r="AJ103" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK103" s="47">
+        <v>0</v>
+      </c>
+      <c r="AL103" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM103" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN103" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO103" s="47"/>
+      <c r="AP103" s="47"/>
+    </row>
+    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A104" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B104" s="42"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="44"/>
+      <c r="I104" s="44"/>
+      <c r="J104" s="43"/>
+      <c r="K104" s="44"/>
+      <c r="L104" s="45"/>
+      <c r="M104" s="43">
+        <v>42461</v>
+      </c>
+      <c r="N104" s="43">
+        <v>42466</v>
+      </c>
+      <c r="O104" s="44">
+        <v>4</v>
+      </c>
+      <c r="P104" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q104" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="R98" s="36">
+      <c r="R104" s="44">
         <v>3</v>
       </c>
-      <c r="S98" s="2" t="s">
+      <c r="S104" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="T98" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="U98" s="33">
-        <v>42441</v>
-      </c>
-      <c r="V98" s="36">
+      <c r="T104" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="U104" s="43">
+        <v>42466</v>
+      </c>
+      <c r="V104" s="44">
+        <v>0</v>
+      </c>
+      <c r="W104" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="X104" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y104" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z104" s="44"/>
+      <c r="AA104" s="44"/>
+      <c r="AB104" s="43">
+        <v>42088</v>
+      </c>
+      <c r="AC104" s="43">
+        <v>42369</v>
+      </c>
+      <c r="AD104" s="44">
+        <v>0</v>
+      </c>
+      <c r="AE104" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF104" s="44">
+        <v>4</v>
+      </c>
+      <c r="AG104" s="44">
+        <v>4</v>
+      </c>
+      <c r="AH104" s="44">
+        <v>0</v>
+      </c>
+      <c r="AI104" s="44">
+        <v>0</v>
+      </c>
+      <c r="AJ104" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK104" s="47">
+        <v>0</v>
+      </c>
+      <c r="AL104" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM104" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN104" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO104" s="47"/>
+      <c r="AP104" s="47"/>
+    </row>
+    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A105" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B105" s="42"/>
+      <c r="C105" s="42"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="42"/>
+      <c r="F105" s="43"/>
+      <c r="G105" s="44"/>
+      <c r="H105" s="44"/>
+      <c r="I105" s="44"/>
+      <c r="J105" s="43"/>
+      <c r="K105" s="44"/>
+      <c r="L105" s="45"/>
+      <c r="M105" s="43">
+        <v>42491</v>
+      </c>
+      <c r="N105" s="43">
+        <v>42495</v>
+      </c>
+      <c r="O105" s="44">
+        <v>5</v>
+      </c>
+      <c r="P105" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q105" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="R105" s="44">
+        <v>4</v>
+      </c>
+      <c r="S105" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="T105" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="U105" s="43">
+        <v>42500</v>
+      </c>
+      <c r="V105" s="44">
+        <v>0</v>
+      </c>
+      <c r="W105" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="X105" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y105" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z105" s="44"/>
+      <c r="AA105" s="44"/>
+      <c r="AB105" s="43"/>
+      <c r="AC105" s="43"/>
+      <c r="AD105" s="44">
+        <v>0</v>
+      </c>
+      <c r="AE105" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF105" s="44">
+        <v>5</v>
+      </c>
+      <c r="AG105" s="44">
+        <v>5</v>
+      </c>
+      <c r="AH105" s="44">
+        <v>0</v>
+      </c>
+      <c r="AI105" s="44">
+        <v>0</v>
+      </c>
+      <c r="AJ105" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK105" s="47">
+        <v>0</v>
+      </c>
+      <c r="AL105" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM105" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN105" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO105" s="47"/>
+      <c r="AP105" s="47"/>
+    </row>
+    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A106" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B106" s="42"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="43"/>
+      <c r="G106" s="44"/>
+      <c r="H106" s="44"/>
+      <c r="I106" s="44"/>
+      <c r="J106" s="43"/>
+      <c r="K106" s="44"/>
+      <c r="L106" s="45"/>
+      <c r="M106" s="43">
+        <v>42496</v>
+      </c>
+      <c r="N106" s="43">
+        <v>42500</v>
+      </c>
+      <c r="O106" s="44">
+        <v>4</v>
+      </c>
+      <c r="P106" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q106" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="R106" s="44">
         <v>3</v>
       </c>
-      <c r="W98" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X98" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y98" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD98" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE98" s="36">
-        <v>0</v>
-      </c>
-      <c r="AF98" s="36">
+      <c r="S106" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="T106" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="U106" s="43">
+        <v>42500</v>
+      </c>
+      <c r="V106" s="44">
+        <v>0</v>
+      </c>
+      <c r="W106" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="X106" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y106" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z106" s="44"/>
+      <c r="AA106" s="44"/>
+      <c r="AB106" s="43"/>
+      <c r="AC106" s="43"/>
+      <c r="AD106" s="44">
+        <v>0</v>
+      </c>
+      <c r="AE106" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF106" s="44">
         <v>4</v>
       </c>
-      <c r="AG98" s="36">
+      <c r="AG106" s="44">
         <v>4</v>
       </c>
-      <c r="AH98" s="36">
-        <v>0</v>
-      </c>
-      <c r="AI98" s="36">
-        <v>0</v>
-      </c>
-      <c r="AJ98" s="2" t="s">
+      <c r="AH106" s="44">
+        <v>0</v>
+      </c>
+      <c r="AI106" s="44">
+        <v>0</v>
+      </c>
+      <c r="AJ106" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="AK98" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL98" s="2" t="s">
+      <c r="AK106" s="47">
+        <v>0</v>
+      </c>
+      <c r="AL106" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="AM98" s="2" t="s">
+      <c r="AM106" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AN98" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="AN106" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO106" s="47"/>
+      <c r="AP106" s="47"/>
+    </row>
+    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A107" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="M99" s="33">
-        <v>42443</v>
-      </c>
-      <c r="N99" s="33">
-        <v>42449</v>
-      </c>
-      <c r="O99" s="36">
+      <c r="B107" s="42"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="42"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="43"/>
+      <c r="G107" s="44"/>
+      <c r="H107" s="44"/>
+      <c r="I107" s="44"/>
+      <c r="J107" s="43"/>
+      <c r="K107" s="44"/>
+      <c r="L107" s="45"/>
+      <c r="M107" s="43">
+        <v>42502</v>
+      </c>
+      <c r="N107" s="43">
+        <v>42515</v>
+      </c>
+      <c r="O107" s="44">
+        <v>14</v>
+      </c>
+      <c r="P107" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q107" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="R107" s="44">
+        <v>6</v>
+      </c>
+      <c r="S107" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="T107" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="U107" s="43">
+        <v>42530</v>
+      </c>
+      <c r="V107" s="44">
+        <v>2</v>
+      </c>
+      <c r="W107" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="X107" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y107" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z107" s="44"/>
+      <c r="AA107" s="44"/>
+      <c r="AB107" s="43"/>
+      <c r="AC107" s="43"/>
+      <c r="AD107" s="44">
+        <v>0</v>
+      </c>
+      <c r="AE107" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF107" s="44">
+        <v>7</v>
+      </c>
+      <c r="AG107" s="44">
+        <v>7</v>
+      </c>
+      <c r="AH107" s="44">
+        <v>0</v>
+      </c>
+      <c r="AI107" s="44">
+        <v>0</v>
+      </c>
+      <c r="AJ107" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK107" s="47">
+        <v>0</v>
+      </c>
+      <c r="AL107" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM107" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN107" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="AO107" s="47"/>
+      <c r="AP107" s="47"/>
+    </row>
+    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A108" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B108" s="42"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="43"/>
+      <c r="G108" s="44"/>
+      <c r="H108" s="44"/>
+      <c r="I108" s="44"/>
+      <c r="J108" s="43"/>
+      <c r="K108" s="44"/>
+      <c r="L108" s="45"/>
+      <c r="M108" s="43">
+        <v>42516</v>
+      </c>
+      <c r="N108" s="43">
+        <v>42530</v>
+      </c>
+      <c r="O108" s="44">
         <v>5</v>
       </c>
-      <c r="P99" s="39">
+      <c r="P108" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q108" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="R108" s="44">
+        <v>4</v>
+      </c>
+      <c r="S108" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="T108" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="U108" s="43">
+        <v>42530</v>
+      </c>
+      <c r="V108" s="44">
+        <v>2</v>
+      </c>
+      <c r="W108" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="X108" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y108" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z108" s="44"/>
+      <c r="AA108" s="44"/>
+      <c r="AB108" s="43"/>
+      <c r="AC108" s="43"/>
+      <c r="AD108" s="44">
+        <v>0</v>
+      </c>
+      <c r="AE108" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF108" s="44">
         <v>5</v>
       </c>
-      <c r="Q99" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="R99" s="36">
-        <v>4</v>
-      </c>
-      <c r="S99" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T99" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="U99" s="33">
-        <v>42449</v>
-      </c>
-      <c r="V99" s="36">
-        <v>0</v>
-      </c>
-      <c r="W99" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X99" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y99" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z99" s="36">
-        <v>999</v>
-      </c>
-      <c r="AA99" s="36">
-        <v>60</v>
-      </c>
-      <c r="AD99" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE99" s="36">
-        <v>0</v>
-      </c>
-      <c r="AF99" s="36">
+      <c r="AG108" s="44">
         <v>5</v>
       </c>
-      <c r="AG99" s="36">
-        <v>5</v>
-      </c>
-      <c r="AH99" s="36">
-        <v>0</v>
-      </c>
-      <c r="AI99" s="36">
-        <v>0</v>
-      </c>
-      <c r="AJ99" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK99" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL99" s="2" t="s">
+      <c r="AH108" s="44">
+        <v>0</v>
+      </c>
+      <c r="AI108" s="44">
+        <v>0</v>
+      </c>
+      <c r="AJ108" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK108" s="47">
+        <v>0</v>
+      </c>
+      <c r="AL108" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="AM99" s="2" t="s">
+      <c r="AM108" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AN99" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F101" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G101" s="36">
-        <v>1</v>
-      </c>
-      <c r="H101" s="36">
-        <v>0</v>
-      </c>
-      <c r="I101" s="36">
-        <v>0</v>
-      </c>
-      <c r="J101" s="33">
-        <v>42430</v>
-      </c>
-      <c r="K101" s="36">
-        <v>91</v>
-      </c>
-      <c r="M101" s="33">
-        <v>42430</v>
-      </c>
-      <c r="N101" s="33">
-        <v>42434</v>
-      </c>
-      <c r="O101" s="36">
-        <v>4</v>
-      </c>
-      <c r="P101" s="39">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R101" s="36">
-        <v>3</v>
-      </c>
-      <c r="S101" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T101" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="U101" s="33">
-        <v>42434</v>
-      </c>
-      <c r="V101" s="36">
-        <v>3</v>
-      </c>
-      <c r="W101" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X101" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y101" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD101" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE101" s="36">
-        <v>0</v>
-      </c>
-      <c r="AF101" s="36">
-        <v>4</v>
-      </c>
-      <c r="AG101" s="36">
-        <v>4</v>
-      </c>
-      <c r="AH101" s="36">
-        <v>0</v>
-      </c>
-      <c r="AI101" s="36">
-        <v>0</v>
-      </c>
-      <c r="AJ101" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK101" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL101" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM101" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN101" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO101" s="17">
-        <v>-3900</v>
-      </c>
-      <c r="AP101" s="17">
-        <v>33826</v>
-      </c>
-    </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M102" s="33">
-        <v>42436</v>
-      </c>
-      <c r="N102" s="33">
-        <v>42441</v>
-      </c>
-      <c r="O102" s="36">
-        <v>4</v>
-      </c>
-      <c r="P102" s="39">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R102" s="36">
-        <v>3</v>
-      </c>
-      <c r="S102" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T102" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="U102" s="33">
-        <v>42441</v>
-      </c>
-      <c r="V102" s="36">
-        <v>3</v>
-      </c>
-      <c r="W102" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X102" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y102" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD102" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE102" s="36">
-        <v>0</v>
-      </c>
-      <c r="AF102" s="36">
-        <v>4</v>
-      </c>
-      <c r="AG102" s="36">
-        <v>4</v>
-      </c>
-      <c r="AH102" s="36">
-        <v>0</v>
-      </c>
-      <c r="AI102" s="36">
-        <v>0</v>
-      </c>
-      <c r="AJ102" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK102" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL102" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM102" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN102" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M103" s="33">
-        <v>42443</v>
-      </c>
-      <c r="N103" s="33">
-        <v>42449</v>
-      </c>
-      <c r="O103" s="36">
-        <v>5</v>
-      </c>
-      <c r="P103" s="39">
-        <v>5</v>
-      </c>
-      <c r="Q103" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="R103" s="36">
-        <v>4</v>
-      </c>
-      <c r="S103" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T103" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="U103" s="33">
-        <v>42449</v>
-      </c>
-      <c r="V103" s="36">
-        <v>0</v>
-      </c>
-      <c r="W103" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X103" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y103" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z103" s="36">
-        <v>999</v>
-      </c>
-      <c r="AA103" s="36">
-        <v>60</v>
-      </c>
-      <c r="AD103" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE103" s="36">
-        <v>0</v>
-      </c>
-      <c r="AF103" s="36">
-        <v>5</v>
-      </c>
-      <c r="AG103" s="36">
-        <v>5</v>
-      </c>
-      <c r="AH103" s="36">
-        <v>0</v>
-      </c>
-      <c r="AI103" s="36">
-        <v>0</v>
-      </c>
-      <c r="AJ103" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK103" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL103" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM103" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN103" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M104" s="33">
-        <v>42461</v>
-      </c>
-      <c r="N104" s="33">
-        <v>42466</v>
-      </c>
-      <c r="O104" s="36">
-        <v>4</v>
-      </c>
-      <c r="P104" s="39">
-        <v>4</v>
-      </c>
-      <c r="Q104" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R104" s="36">
-        <v>3</v>
-      </c>
-      <c r="S104" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T104" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="U104" s="33">
-        <v>42466</v>
-      </c>
-      <c r="V104" s="36">
-        <v>0</v>
-      </c>
-      <c r="W104" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X104" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y104" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB104" s="33">
-        <v>42088</v>
-      </c>
-      <c r="AC104" s="33">
-        <v>42369</v>
-      </c>
-      <c r="AD104" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE104" s="36">
-        <v>0</v>
-      </c>
-      <c r="AF104" s="36">
-        <v>4</v>
-      </c>
-      <c r="AG104" s="36">
-        <v>4</v>
-      </c>
-      <c r="AH104" s="36">
-        <v>0</v>
-      </c>
-      <c r="AI104" s="36">
-        <v>0</v>
-      </c>
-      <c r="AJ104" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AK104" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL104" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM104" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN104" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M105" s="33">
-        <v>42491</v>
-      </c>
-      <c r="N105" s="33">
-        <v>42495</v>
-      </c>
-      <c r="O105" s="36">
-        <v>5</v>
-      </c>
-      <c r="P105" s="39">
-        <v>5</v>
-      </c>
-      <c r="Q105" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="R105" s="36">
-        <v>4</v>
-      </c>
-      <c r="S105" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T105" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="U105" s="33">
-        <v>42500</v>
-      </c>
-      <c r="V105" s="36">
-        <v>0</v>
-      </c>
-      <c r="W105" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X105" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y105" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD105" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE105" s="36">
-        <v>0</v>
-      </c>
-      <c r="AF105" s="36">
-        <v>5</v>
-      </c>
-      <c r="AG105" s="36">
-        <v>5</v>
-      </c>
-      <c r="AH105" s="36">
-        <v>0</v>
-      </c>
-      <c r="AI105" s="36">
-        <v>0</v>
-      </c>
-      <c r="AJ105" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK105" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL105" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM105" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN105" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M106" s="33">
-        <v>42496</v>
-      </c>
-      <c r="N106" s="33">
-        <v>42500</v>
-      </c>
-      <c r="O106" s="36">
-        <v>4</v>
-      </c>
-      <c r="P106" s="39">
-        <v>4</v>
-      </c>
-      <c r="Q106" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R106" s="36">
-        <v>3</v>
-      </c>
-      <c r="S106" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T106" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="U106" s="33">
-        <v>42500</v>
-      </c>
-      <c r="V106" s="36">
-        <v>0</v>
-      </c>
-      <c r="W106" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X106" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y106" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD106" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE106" s="36">
-        <v>0</v>
-      </c>
-      <c r="AF106" s="36">
-        <v>4</v>
-      </c>
-      <c r="AG106" s="36">
-        <v>4</v>
-      </c>
-      <c r="AH106" s="36">
-        <v>0</v>
-      </c>
-      <c r="AI106" s="36">
-        <v>0</v>
-      </c>
-      <c r="AJ106" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK106" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL106" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM106" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN106" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M107" s="33">
-        <v>42502</v>
-      </c>
-      <c r="N107" s="33">
-        <v>42515</v>
-      </c>
-      <c r="O107" s="36">
-        <v>14</v>
-      </c>
-      <c r="P107" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q107" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="R107" s="36">
-        <v>6</v>
-      </c>
-      <c r="S107" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T107" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="U107" s="33">
-        <v>42530</v>
-      </c>
-      <c r="V107" s="36">
-        <v>2</v>
-      </c>
-      <c r="W107" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X107" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y107" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD107" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE107" s="36">
-        <v>0</v>
-      </c>
-      <c r="AF107" s="36">
-        <v>7</v>
-      </c>
-      <c r="AG107" s="36">
-        <v>7</v>
-      </c>
-      <c r="AH107" s="36">
-        <v>0</v>
-      </c>
-      <c r="AI107" s="36">
-        <v>0</v>
-      </c>
-      <c r="AJ107" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK107" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL107" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM107" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN107" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M108" s="33">
-        <v>42516</v>
-      </c>
-      <c r="N108" s="33">
-        <v>42530</v>
-      </c>
-      <c r="O108" s="36">
-        <v>5</v>
-      </c>
-      <c r="P108" s="39">
-        <v>5</v>
-      </c>
-      <c r="Q108" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="R108" s="36">
-        <v>4</v>
-      </c>
-      <c r="S108" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T108" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="U108" s="33">
-        <v>42530</v>
-      </c>
-      <c r="V108" s="36">
-        <v>2</v>
-      </c>
-      <c r="W108" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X108" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y108" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD108" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE108" s="36">
-        <v>0</v>
-      </c>
-      <c r="AF108" s="36">
-        <v>5</v>
-      </c>
-      <c r="AG108" s="36">
-        <v>5</v>
-      </c>
-      <c r="AH108" s="36">
-        <v>0</v>
-      </c>
-      <c r="AI108" s="36">
-        <v>0</v>
-      </c>
-      <c r="AJ108" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK108" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL108" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM108" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN108" s="2" t="s">
+      <c r="AN108" s="42" t="s">
         <v>211</v>
       </c>
+      <c r="AO108" s="47"/>
+      <c r="AP108" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
+++ b/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3505" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3523" uniqueCount="312">
   <si>
     <t>ItemType</t>
   </si>
@@ -982,10 +982,6 @@
     <t>7</t>
   </si>
   <si>
-    <t xml:space="preserve">(27.01.16-02.02.16) Average / 149.71 - 11 = 138 
-(27.01.16-02.02.16) Average / 149.71 - 11 = 138 </t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -993,6 +989,21 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>MinDays, MaxDays,MinAmount,MaxAmount,Average in Verbindung mit StartDateRelevant. Dieses Beispiel zeigt die Anwendung vom Average. Die effektiven PerDayPrices sind vom 23JAN bis 29JAN, es wird ein Durchschnitt der Preise gemacht, und da die Duration 7 Tage ist, und PayNights=5 wird der Average-Betrag zwei Mal abgezogen. Wichtig hier: wenn es ein Days=13 DayString=7,6 gibt, dann muss jede 7-Tage-Gruppe für sich betrachtet werden. Es darf kein Average aller Tage 13 berechnet werden, sondern die ersten 7 Tage Gruppe und die zweite 6 Tage Gruppe müssen unabhängig voneinander betrachtet werden.</t>
+  </si>
+  <si>
+    <t>MinDays, MaxDays,MinAmount,MaxAmount,Average in Verbindung mit StartDateRelevant. Dieses Beispiel zeigt die Anwendung vom Average. Die effektiven PerDayPrices sind vom 23JAN bis 29JAN, es wird ein Durchschnitt der Preise gemacht, und da die Duration 7 Tage ist, und PayNights=5 wird der Average-Betrag zwei Mal abgezogen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27.01.16-02.02.16) Average / 149.71 - 11 = 138.71 
+(27.01.16-02.02.16) Average / 149.71 - 11 = 138.71 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27.01.16-02.02.16) Average / 149.71 - 11 = 138.71 
+(27.01.16-02.02.16) Average / 149.71 - 11 = 138.71 
+(03.02.16-08.02.16) Average / 205.50 - 11 = 194.50 </t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1624,7 @@
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1729,9 +1740,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="57" applyFill="1" applyAlignment="1">
@@ -1751,6 +1759,12 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
@@ -2511,8 +2525,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:AU108" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
-  <autoFilter ref="A1:AU108"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:AU110" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
+  <autoFilter ref="A1:AU110"/>
   <tableColumns count="47">
     <tableColumn id="1" name="ItemType" dataDxfId="95" dataCellStyle="Standard 4"/>
     <tableColumn id="2" name="Dest" dataDxfId="94" dataCellStyle="Standard 4"/>
@@ -2881,7 +2895,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -19034,10 +19048,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU108"/>
+  <dimension ref="A1:AU110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T90" sqref="T90"/>
+    <sheetView tabSelected="1" topLeftCell="O25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19232,7 +19246,7 @@
       </c>
     </row>
     <row r="2" spans="1:47" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -22479,7 +22493,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>36</v>
       </c>
@@ -22513,8 +22527,8 @@
       <c r="K30" s="35">
         <v>7</v>
       </c>
-      <c r="L30" s="27" t="s">
-        <v>171</v>
+      <c r="L30" s="47" t="s">
+        <v>309</v>
       </c>
       <c r="M30" s="28">
         <v>42396</v>
@@ -22537,8 +22551,8 @@
       <c r="S30" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="T30" s="40" t="s">
-        <v>305</v>
+      <c r="T30" s="47" t="s">
+        <v>310</v>
       </c>
       <c r="U30" s="28">
         <v>42402</v>
@@ -23754,7 +23768,7 @@
         <v>5</v>
       </c>
       <c r="P42" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q42" s="25" t="s">
         <v>140</v>
@@ -23874,7 +23888,7 @@
         <v>5</v>
       </c>
       <c r="P43" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q43" s="25" t="s">
         <v>140</v>
@@ -24234,7 +24248,7 @@
         <v>5</v>
       </c>
       <c r="P47" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q47" s="25" t="s">
         <v>140</v>
@@ -24354,7 +24368,7 @@
         <v>5</v>
       </c>
       <c r="P48" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q48" s="25" t="s">
         <v>140</v>
@@ -25182,7 +25196,7 @@
         <v>5</v>
       </c>
       <c r="P58" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q58" s="25" t="s">
         <v>140</v>
@@ -25554,7 +25568,7 @@
         <v>5</v>
       </c>
       <c r="P62" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q62" s="25" t="s">
         <v>140</v>
@@ -25802,7 +25816,7 @@
         <v>5</v>
       </c>
       <c r="P65" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q65" s="25" t="s">
         <v>140</v>
@@ -25922,7 +25936,7 @@
         <v>5</v>
       </c>
       <c r="P66" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q66" s="25" t="s">
         <v>140</v>
@@ -26042,7 +26056,7 @@
         <v>5</v>
       </c>
       <c r="P67" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q67" s="25" t="s">
         <v>140</v>
@@ -26162,7 +26176,7 @@
         <v>5</v>
       </c>
       <c r="P68" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q68" s="25" t="s">
         <v>140</v>
@@ -26282,7 +26296,7 @@
         <v>5</v>
       </c>
       <c r="P69" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q69" s="25" t="s">
         <v>140</v>
@@ -27056,7 +27070,7 @@
         <v>5</v>
       </c>
       <c r="P77" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q77" s="25" t="s">
         <v>140</v>
@@ -28316,7 +28330,7 @@
       </c>
     </row>
     <row r="90" spans="1:42" ht="135" x14ac:dyDescent="0.25">
-      <c r="A90" s="41" t="s">
+      <c r="A90" s="40" t="s">
         <v>36</v>
       </c>
       <c r="B90" s="25" t="s">
@@ -28362,7 +28376,7 @@
         <v>21</v>
       </c>
       <c r="P90" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q90" s="25" t="s">
         <v>234</v>
@@ -28576,7 +28590,7 @@
         <v>3</v>
       </c>
       <c r="P93" s="38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q93" s="25" t="s">
         <v>265</v>
@@ -28696,7 +28710,7 @@
         <v>3</v>
       </c>
       <c r="P94" s="38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q94" s="25" t="s">
         <v>265</v>
@@ -28816,7 +28830,7 @@
         <v>3</v>
       </c>
       <c r="P95" s="38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q95" s="25" t="s">
         <v>265</v>
@@ -28890,1186 +28904,1354 @@
       </c>
     </row>
     <row r="96" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A96" s="42"/>
-      <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="44"/>
-      <c r="H96" s="44"/>
-      <c r="I96" s="44"/>
-      <c r="J96" s="43"/>
-      <c r="K96" s="44"/>
-      <c r="L96" s="45"/>
-      <c r="M96" s="43"/>
-      <c r="N96" s="43"/>
-      <c r="O96" s="44"/>
-      <c r="P96" s="46"/>
-      <c r="Q96" s="42"/>
-      <c r="R96" s="44"/>
-      <c r="S96" s="42"/>
-      <c r="T96" s="42"/>
-      <c r="U96" s="43"/>
-      <c r="V96" s="44"/>
-      <c r="W96" s="42"/>
-      <c r="X96" s="42"/>
-      <c r="Y96" s="45"/>
-      <c r="Z96" s="44"/>
-      <c r="AA96" s="44"/>
-      <c r="AB96" s="43"/>
-      <c r="AC96" s="43"/>
-      <c r="AD96" s="44"/>
-      <c r="AE96" s="44"/>
-      <c r="AF96" s="44"/>
-      <c r="AG96" s="44"/>
-      <c r="AH96" s="44"/>
-      <c r="AI96" s="44"/>
-      <c r="AJ96" s="42"/>
-      <c r="AK96" s="47"/>
-      <c r="AL96" s="42"/>
-      <c r="AM96" s="42"/>
-      <c r="AN96" s="42"/>
-      <c r="AO96" s="47"/>
-      <c r="AP96" s="47"/>
+      <c r="A96" s="41"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="43"/>
+      <c r="I96" s="43"/>
+      <c r="J96" s="42"/>
+      <c r="K96" s="43"/>
+      <c r="L96" s="44"/>
+      <c r="M96" s="42"/>
+      <c r="N96" s="42"/>
+      <c r="O96" s="43"/>
+      <c r="P96" s="45"/>
+      <c r="Q96" s="41"/>
+      <c r="R96" s="43"/>
+      <c r="S96" s="41"/>
+      <c r="T96" s="41"/>
+      <c r="U96" s="42"/>
+      <c r="V96" s="43"/>
+      <c r="W96" s="41"/>
+      <c r="X96" s="41"/>
+      <c r="Y96" s="44"/>
+      <c r="Z96" s="43"/>
+      <c r="AA96" s="43"/>
+      <c r="AB96" s="42"/>
+      <c r="AC96" s="42"/>
+      <c r="AD96" s="43"/>
+      <c r="AE96" s="43"/>
+      <c r="AF96" s="43"/>
+      <c r="AG96" s="43"/>
+      <c r="AH96" s="43"/>
+      <c r="AI96" s="43"/>
+      <c r="AJ96" s="41"/>
+      <c r="AK96" s="46"/>
+      <c r="AL96" s="41"/>
+      <c r="AM96" s="41"/>
+      <c r="AN96" s="41"/>
+      <c r="AO96" s="46"/>
+      <c r="AP96" s="46"/>
     </row>
     <row r="97" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A97" s="42" t="s">
+      <c r="A97" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B97" s="42" t="s">
+      <c r="B97" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C97" s="42" t="s">
+      <c r="C97" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D97" s="42" t="s">
+      <c r="D97" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E97" s="42" t="s">
+      <c r="E97" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F97" s="43" t="s">
+      <c r="F97" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="G97" s="44">
+      <c r="G97" s="43">
         <v>1</v>
       </c>
-      <c r="H97" s="44">
-        <v>0</v>
-      </c>
-      <c r="I97" s="44">
-        <v>0</v>
-      </c>
-      <c r="J97" s="43">
+      <c r="H97" s="43">
+        <v>0</v>
+      </c>
+      <c r="I97" s="43">
+        <v>0</v>
+      </c>
+      <c r="J97" s="42">
         <v>42430</v>
       </c>
-      <c r="K97" s="44">
+      <c r="K97" s="43">
         <v>30</v>
       </c>
-      <c r="L97" s="45"/>
-      <c r="M97" s="43">
+      <c r="L97" s="44"/>
+      <c r="M97" s="42">
         <v>42430</v>
       </c>
-      <c r="N97" s="43">
+      <c r="N97" s="42">
         <v>42434</v>
       </c>
-      <c r="O97" s="44">
+      <c r="O97" s="43">
         <v>4</v>
       </c>
-      <c r="P97" s="46" t="s">
+      <c r="P97" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="Q97" s="42" t="s">
+      <c r="Q97" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="R97" s="44">
+      <c r="R97" s="43">
         <v>3</v>
       </c>
-      <c r="S97" s="42" t="s">
+      <c r="S97" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="T97" s="42" t="s">
+      <c r="T97" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="U97" s="43">
+      <c r="U97" s="42">
         <v>42434</v>
       </c>
-      <c r="V97" s="44">
+      <c r="V97" s="43">
         <v>3</v>
       </c>
-      <c r="W97" s="42" t="s">
+      <c r="W97" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="X97" s="42" t="s">
+      <c r="X97" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="Y97" s="45" t="s">
+      <c r="Y97" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="Z97" s="44"/>
-      <c r="AA97" s="44"/>
-      <c r="AB97" s="43"/>
-      <c r="AC97" s="43"/>
-      <c r="AD97" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE97" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF97" s="44">
+      <c r="Z97" s="43"/>
+      <c r="AA97" s="43"/>
+      <c r="AB97" s="42"/>
+      <c r="AC97" s="42"/>
+      <c r="AD97" s="43">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="43">
         <v>4</v>
       </c>
-      <c r="AG97" s="44">
+      <c r="AG97" s="43">
         <v>4</v>
       </c>
-      <c r="AH97" s="44">
-        <v>0</v>
-      </c>
-      <c r="AI97" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ97" s="42" t="s">
+      <c r="AH97" s="43">
+        <v>0</v>
+      </c>
+      <c r="AI97" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ97" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="AK97" s="47">
-        <v>0</v>
-      </c>
-      <c r="AL97" s="42" t="s">
+      <c r="AK97" s="46">
+        <v>0</v>
+      </c>
+      <c r="AL97" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="AM97" s="42" t="s">
+      <c r="AM97" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AN97" s="42" t="s">
+      <c r="AN97" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="AO97" s="47">
+      <c r="AO97" s="46">
         <v>-932</v>
       </c>
-      <c r="AP97" s="47">
+      <c r="AP97" s="46">
         <v>8533</v>
       </c>
     </row>
     <row r="98" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A98" s="42" t="s">
+      <c r="A98" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="42"/>
-      <c r="E98" s="42"/>
-      <c r="F98" s="43"/>
-      <c r="G98" s="44"/>
-      <c r="H98" s="44"/>
-      <c r="I98" s="44"/>
-      <c r="J98" s="43"/>
-      <c r="K98" s="44"/>
-      <c r="L98" s="45"/>
-      <c r="M98" s="43">
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="42"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="43"/>
+      <c r="J98" s="42"/>
+      <c r="K98" s="43"/>
+      <c r="L98" s="44"/>
+      <c r="M98" s="42">
         <v>42436</v>
       </c>
-      <c r="N98" s="43">
+      <c r="N98" s="42">
         <v>42441</v>
       </c>
-      <c r="O98" s="44">
+      <c r="O98" s="43">
         <v>4</v>
       </c>
-      <c r="P98" s="46" t="s">
+      <c r="P98" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="Q98" s="42" t="s">
+      <c r="Q98" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="R98" s="44">
+      <c r="R98" s="43">
         <v>3</v>
       </c>
-      <c r="S98" s="42" t="s">
+      <c r="S98" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="T98" s="42" t="s">
+      <c r="T98" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="U98" s="43">
+      <c r="U98" s="42">
         <v>42441</v>
       </c>
-      <c r="V98" s="44">
+      <c r="V98" s="43">
         <v>3</v>
       </c>
-      <c r="W98" s="42" t="s">
+      <c r="W98" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="X98" s="42" t="s">
+      <c r="X98" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="Y98" s="45" t="s">
+      <c r="Y98" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="Z98" s="44"/>
-      <c r="AA98" s="44"/>
-      <c r="AB98" s="43"/>
-      <c r="AC98" s="43"/>
-      <c r="AD98" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE98" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF98" s="44">
+      <c r="Z98" s="43"/>
+      <c r="AA98" s="43"/>
+      <c r="AB98" s="42"/>
+      <c r="AC98" s="42"/>
+      <c r="AD98" s="43">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="43">
         <v>4</v>
       </c>
-      <c r="AG98" s="44">
+      <c r="AG98" s="43">
         <v>4</v>
       </c>
-      <c r="AH98" s="44">
-        <v>0</v>
-      </c>
-      <c r="AI98" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ98" s="42" t="s">
+      <c r="AH98" s="43">
+        <v>0</v>
+      </c>
+      <c r="AI98" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ98" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="AK98" s="47">
-        <v>0</v>
-      </c>
-      <c r="AL98" s="42" t="s">
+      <c r="AK98" s="46">
+        <v>0</v>
+      </c>
+      <c r="AL98" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="AM98" s="42" t="s">
+      <c r="AM98" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AN98" s="42" t="s">
+      <c r="AN98" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="AO98" s="47"/>
-      <c r="AP98" s="47"/>
+      <c r="AO98" s="46"/>
+      <c r="AP98" s="46"/>
     </row>
     <row r="99" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A99" s="42" t="s">
+      <c r="A99" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B99" s="42"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="42"/>
-      <c r="E99" s="42"/>
-      <c r="F99" s="43"/>
-      <c r="G99" s="44"/>
-      <c r="H99" s="44"/>
-      <c r="I99" s="44"/>
-      <c r="J99" s="43"/>
-      <c r="K99" s="44"/>
-      <c r="L99" s="45"/>
-      <c r="M99" s="43">
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="42"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="43"/>
+      <c r="J99" s="42"/>
+      <c r="K99" s="43"/>
+      <c r="L99" s="44"/>
+      <c r="M99" s="42">
         <v>42443</v>
       </c>
-      <c r="N99" s="43">
+      <c r="N99" s="42">
         <v>42449</v>
       </c>
-      <c r="O99" s="44">
+      <c r="O99" s="43">
         <v>5</v>
       </c>
-      <c r="P99" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q99" s="42" t="s">
+      <c r="P99" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q99" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="R99" s="44">
+      <c r="R99" s="43">
         <v>4</v>
       </c>
-      <c r="S99" s="42" t="s">
+      <c r="S99" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="T99" s="42" t="s">
+      <c r="T99" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="U99" s="43">
+      <c r="U99" s="42">
         <v>42449</v>
       </c>
-      <c r="V99" s="44">
-        <v>0</v>
-      </c>
-      <c r="W99" s="42" t="s">
+      <c r="V99" s="43">
+        <v>0</v>
+      </c>
+      <c r="W99" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="X99" s="42" t="s">
+      <c r="X99" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="Y99" s="45" t="s">
+      <c r="Y99" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="Z99" s="44">
+      <c r="Z99" s="43">
         <v>999</v>
       </c>
-      <c r="AA99" s="44">
+      <c r="AA99" s="43">
         <v>60</v>
       </c>
-      <c r="AB99" s="43"/>
-      <c r="AC99" s="43"/>
-      <c r="AD99" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE99" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF99" s="44">
+      <c r="AB99" s="42"/>
+      <c r="AC99" s="42"/>
+      <c r="AD99" s="43">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="43">
         <v>5</v>
       </c>
-      <c r="AG99" s="44">
+      <c r="AG99" s="43">
         <v>5</v>
       </c>
-      <c r="AH99" s="44">
-        <v>0</v>
-      </c>
-      <c r="AI99" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ99" s="42" t="s">
+      <c r="AH99" s="43">
+        <v>0</v>
+      </c>
+      <c r="AI99" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ99" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="AK99" s="47">
-        <v>0</v>
-      </c>
-      <c r="AL99" s="42" t="s">
+      <c r="AK99" s="46">
+        <v>0</v>
+      </c>
+      <c r="AL99" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="AM99" s="42" t="s">
+      <c r="AM99" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AN99" s="42" t="s">
+      <c r="AN99" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="AO99" s="47"/>
-      <c r="AP99" s="47"/>
+      <c r="AO99" s="46"/>
+      <c r="AP99" s="46"/>
     </row>
     <row r="100" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A100" s="42"/>
-      <c r="B100" s="42"/>
-      <c r="C100" s="42"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="42"/>
-      <c r="F100" s="43"/>
-      <c r="G100" s="44"/>
-      <c r="H100" s="44"/>
-      <c r="I100" s="44"/>
-      <c r="J100" s="43"/>
-      <c r="K100" s="44"/>
-      <c r="L100" s="45"/>
-      <c r="M100" s="43"/>
-      <c r="N100" s="43"/>
-      <c r="O100" s="44"/>
-      <c r="P100" s="46"/>
-      <c r="Q100" s="42"/>
-      <c r="R100" s="44"/>
-      <c r="S100" s="42"/>
-      <c r="T100" s="42"/>
-      <c r="U100" s="43"/>
-      <c r="V100" s="44"/>
-      <c r="W100" s="42"/>
-      <c r="X100" s="42"/>
-      <c r="Y100" s="45"/>
-      <c r="Z100" s="44"/>
-      <c r="AA100" s="44"/>
-      <c r="AB100" s="43"/>
-      <c r="AC100" s="43"/>
-      <c r="AD100" s="44"/>
-      <c r="AE100" s="44"/>
-      <c r="AF100" s="44"/>
-      <c r="AG100" s="44"/>
-      <c r="AH100" s="44"/>
-      <c r="AI100" s="44"/>
-      <c r="AJ100" s="42"/>
-      <c r="AK100" s="47"/>
-      <c r="AL100" s="42"/>
-      <c r="AM100" s="42"/>
-      <c r="AN100" s="42"/>
-      <c r="AO100" s="47"/>
-      <c r="AP100" s="47"/>
+      <c r="A100" s="41"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="42"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="42"/>
+      <c r="K100" s="43"/>
+      <c r="L100" s="44"/>
+      <c r="M100" s="42"/>
+      <c r="N100" s="42"/>
+      <c r="O100" s="43"/>
+      <c r="P100" s="45"/>
+      <c r="Q100" s="41"/>
+      <c r="R100" s="43"/>
+      <c r="S100" s="41"/>
+      <c r="T100" s="41"/>
+      <c r="U100" s="42"/>
+      <c r="V100" s="43"/>
+      <c r="W100" s="41"/>
+      <c r="X100" s="41"/>
+      <c r="Y100" s="44"/>
+      <c r="Z100" s="43"/>
+      <c r="AA100" s="43"/>
+      <c r="AB100" s="42"/>
+      <c r="AC100" s="42"/>
+      <c r="AD100" s="43"/>
+      <c r="AE100" s="43"/>
+      <c r="AF100" s="43"/>
+      <c r="AG100" s="43"/>
+      <c r="AH100" s="43"/>
+      <c r="AI100" s="43"/>
+      <c r="AJ100" s="41"/>
+      <c r="AK100" s="46"/>
+      <c r="AL100" s="41"/>
+      <c r="AM100" s="41"/>
+      <c r="AN100" s="41"/>
+      <c r="AO100" s="46"/>
+      <c r="AP100" s="46"/>
     </row>
     <row r="101" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A101" s="42" t="s">
+      <c r="A101" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B101" s="42" t="s">
+      <c r="B101" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C101" s="42" t="s">
+      <c r="C101" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D101" s="42" t="s">
+      <c r="D101" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E101" s="42" t="s">
+      <c r="E101" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F101" s="43" t="s">
+      <c r="F101" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="G101" s="44">
+      <c r="G101" s="43">
         <v>1</v>
       </c>
-      <c r="H101" s="44">
-        <v>0</v>
-      </c>
-      <c r="I101" s="44">
-        <v>0</v>
-      </c>
-      <c r="J101" s="43">
+      <c r="H101" s="43">
+        <v>0</v>
+      </c>
+      <c r="I101" s="43">
+        <v>0</v>
+      </c>
+      <c r="J101" s="42">
         <v>42430</v>
       </c>
-      <c r="K101" s="44">
+      <c r="K101" s="43">
         <v>91</v>
       </c>
-      <c r="L101" s="45"/>
-      <c r="M101" s="43">
+      <c r="L101" s="44"/>
+      <c r="M101" s="42">
         <v>42430</v>
       </c>
-      <c r="N101" s="43">
+      <c r="N101" s="42">
         <v>42434</v>
       </c>
-      <c r="O101" s="44">
+      <c r="O101" s="43">
         <v>4</v>
       </c>
-      <c r="P101" s="46" t="s">
+      <c r="P101" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="Q101" s="42" t="s">
+      <c r="Q101" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="R101" s="44">
+      <c r="R101" s="43">
         <v>3</v>
       </c>
-      <c r="S101" s="42" t="s">
+      <c r="S101" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="T101" s="42" t="s">
+      <c r="T101" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="U101" s="43">
+      <c r="U101" s="42">
         <v>42434</v>
       </c>
-      <c r="V101" s="44">
+      <c r="V101" s="43">
         <v>3</v>
       </c>
-      <c r="W101" s="42" t="s">
+      <c r="W101" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="X101" s="42" t="s">
+      <c r="X101" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="Y101" s="45" t="s">
+      <c r="Y101" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="Z101" s="44"/>
-      <c r="AA101" s="44"/>
-      <c r="AB101" s="43"/>
-      <c r="AC101" s="43"/>
-      <c r="AD101" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE101" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF101" s="44">
+      <c r="Z101" s="43"/>
+      <c r="AA101" s="43"/>
+      <c r="AB101" s="42"/>
+      <c r="AC101" s="42"/>
+      <c r="AD101" s="43">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="43">
         <v>4</v>
       </c>
-      <c r="AG101" s="44">
+      <c r="AG101" s="43">
         <v>4</v>
       </c>
-      <c r="AH101" s="44">
-        <v>0</v>
-      </c>
-      <c r="AI101" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ101" s="42" t="s">
+      <c r="AH101" s="43">
+        <v>0</v>
+      </c>
+      <c r="AI101" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ101" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="AK101" s="47">
-        <v>0</v>
-      </c>
-      <c r="AL101" s="42" t="s">
+      <c r="AK101" s="46">
+        <v>0</v>
+      </c>
+      <c r="AL101" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="AM101" s="42" t="s">
+      <c r="AM101" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AN101" s="42" t="s">
+      <c r="AN101" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="AO101" s="47">
+      <c r="AO101" s="46">
         <v>-3900</v>
       </c>
-      <c r="AP101" s="47">
+      <c r="AP101" s="46">
         <v>33826</v>
       </c>
     </row>
     <row r="102" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A102" s="42" t="s">
+      <c r="A102" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B102" s="42"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="42"/>
-      <c r="F102" s="43"/>
-      <c r="G102" s="44"/>
-      <c r="H102" s="44"/>
-      <c r="I102" s="44"/>
-      <c r="J102" s="43"/>
-      <c r="K102" s="44"/>
-      <c r="L102" s="45"/>
-      <c r="M102" s="43">
+      <c r="B102" s="41"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="43"/>
+      <c r="I102" s="43"/>
+      <c r="J102" s="42"/>
+      <c r="K102" s="43"/>
+      <c r="L102" s="44"/>
+      <c r="M102" s="42">
         <v>42436</v>
       </c>
-      <c r="N102" s="43">
+      <c r="N102" s="42">
         <v>42441</v>
       </c>
-      <c r="O102" s="44">
+      <c r="O102" s="43">
         <v>4</v>
       </c>
-      <c r="P102" s="46" t="s">
+      <c r="P102" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="Q102" s="42" t="s">
+      <c r="Q102" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="R102" s="44">
+      <c r="R102" s="43">
         <v>3</v>
       </c>
-      <c r="S102" s="42" t="s">
+      <c r="S102" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="T102" s="42" t="s">
+      <c r="T102" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="U102" s="43">
+      <c r="U102" s="42">
         <v>42441</v>
       </c>
-      <c r="V102" s="44">
+      <c r="V102" s="43">
         <v>3</v>
       </c>
-      <c r="W102" s="42" t="s">
+      <c r="W102" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="X102" s="42" t="s">
+      <c r="X102" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="Y102" s="45" t="s">
+      <c r="Y102" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="Z102" s="44"/>
-      <c r="AA102" s="44"/>
-      <c r="AB102" s="43"/>
-      <c r="AC102" s="43"/>
-      <c r="AD102" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE102" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF102" s="44">
+      <c r="Z102" s="43"/>
+      <c r="AA102" s="43"/>
+      <c r="AB102" s="42"/>
+      <c r="AC102" s="42"/>
+      <c r="AD102" s="43">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="43">
         <v>4</v>
       </c>
-      <c r="AG102" s="44">
+      <c r="AG102" s="43">
         <v>4</v>
       </c>
-      <c r="AH102" s="44">
-        <v>0</v>
-      </c>
-      <c r="AI102" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ102" s="42" t="s">
+      <c r="AH102" s="43">
+        <v>0</v>
+      </c>
+      <c r="AI102" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ102" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="AK102" s="47">
-        <v>0</v>
-      </c>
-      <c r="AL102" s="42" t="s">
+      <c r="AK102" s="46">
+        <v>0</v>
+      </c>
+      <c r="AL102" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="AM102" s="42" t="s">
+      <c r="AM102" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AN102" s="42" t="s">
+      <c r="AN102" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="AO102" s="47"/>
-      <c r="AP102" s="47"/>
+      <c r="AO102" s="46"/>
+      <c r="AP102" s="46"/>
     </row>
     <row r="103" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A103" s="42" t="s">
+      <c r="A103" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B103" s="42"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="42"/>
-      <c r="F103" s="43"/>
-      <c r="G103" s="44"/>
-      <c r="H103" s="44"/>
-      <c r="I103" s="44"/>
-      <c r="J103" s="43"/>
-      <c r="K103" s="44"/>
-      <c r="L103" s="45"/>
-      <c r="M103" s="43">
+      <c r="B103" s="41"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
+      <c r="I103" s="43"/>
+      <c r="J103" s="42"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="44"/>
+      <c r="M103" s="42">
         <v>42443</v>
       </c>
-      <c r="N103" s="43">
+      <c r="N103" s="42">
         <v>42449</v>
       </c>
-      <c r="O103" s="44">
+      <c r="O103" s="43">
         <v>5</v>
       </c>
-      <c r="P103" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q103" s="42" t="s">
+      <c r="P103" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q103" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="R103" s="44">
+      <c r="R103" s="43">
         <v>4</v>
       </c>
-      <c r="S103" s="42" t="s">
+      <c r="S103" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="T103" s="42" t="s">
+      <c r="T103" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="U103" s="43">
+      <c r="U103" s="42">
         <v>42449</v>
       </c>
-      <c r="V103" s="44">
-        <v>0</v>
-      </c>
-      <c r="W103" s="42" t="s">
+      <c r="V103" s="43">
+        <v>0</v>
+      </c>
+      <c r="W103" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="X103" s="42" t="s">
+      <c r="X103" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="Y103" s="45" t="s">
+      <c r="Y103" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="Z103" s="44">
+      <c r="Z103" s="43">
         <v>999</v>
       </c>
-      <c r="AA103" s="44">
+      <c r="AA103" s="43">
         <v>60</v>
       </c>
-      <c r="AB103" s="43"/>
-      <c r="AC103" s="43"/>
-      <c r="AD103" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE103" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF103" s="44">
+      <c r="AB103" s="42"/>
+      <c r="AC103" s="42"/>
+      <c r="AD103" s="43">
+        <v>0</v>
+      </c>
+      <c r="AE103" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF103" s="43">
         <v>5</v>
       </c>
-      <c r="AG103" s="44">
+      <c r="AG103" s="43">
         <v>5</v>
       </c>
-      <c r="AH103" s="44">
-        <v>0</v>
-      </c>
-      <c r="AI103" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ103" s="42" t="s">
+      <c r="AH103" s="43">
+        <v>0</v>
+      </c>
+      <c r="AI103" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ103" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="AK103" s="47">
-        <v>0</v>
-      </c>
-      <c r="AL103" s="42" t="s">
+      <c r="AK103" s="46">
+        <v>0</v>
+      </c>
+      <c r="AL103" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="AM103" s="42" t="s">
+      <c r="AM103" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AN103" s="42" t="s">
+      <c r="AN103" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="AO103" s="47"/>
-      <c r="AP103" s="47"/>
+      <c r="AO103" s="46"/>
+      <c r="AP103" s="46"/>
     </row>
     <row r="104" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A104" s="42" t="s">
+      <c r="A104" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B104" s="42"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="42"/>
-      <c r="E104" s="42"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="44"/>
-      <c r="I104" s="44"/>
-      <c r="J104" s="43"/>
-      <c r="K104" s="44"/>
-      <c r="L104" s="45"/>
-      <c r="M104" s="43">
+      <c r="B104" s="41"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="43"/>
+      <c r="I104" s="43"/>
+      <c r="J104" s="42"/>
+      <c r="K104" s="43"/>
+      <c r="L104" s="44"/>
+      <c r="M104" s="42">
         <v>42461</v>
       </c>
-      <c r="N104" s="43">
+      <c r="N104" s="42">
         <v>42466</v>
       </c>
-      <c r="O104" s="44">
+      <c r="O104" s="43">
         <v>4</v>
       </c>
-      <c r="P104" s="46" t="s">
+      <c r="P104" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="Q104" s="42" t="s">
+      <c r="Q104" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="R104" s="44">
+      <c r="R104" s="43">
         <v>3</v>
       </c>
-      <c r="S104" s="42" t="s">
+      <c r="S104" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="T104" s="42" t="s">
+      <c r="T104" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="U104" s="43">
+      <c r="U104" s="42">
         <v>42466</v>
       </c>
-      <c r="V104" s="44">
-        <v>0</v>
-      </c>
-      <c r="W104" s="42" t="s">
+      <c r="V104" s="43">
+        <v>0</v>
+      </c>
+      <c r="W104" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="X104" s="42" t="s">
+      <c r="X104" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="Y104" s="45" t="s">
+      <c r="Y104" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="Z104" s="44"/>
-      <c r="AA104" s="44"/>
-      <c r="AB104" s="43">
+      <c r="Z104" s="43"/>
+      <c r="AA104" s="43"/>
+      <c r="AB104" s="42">
         <v>42088</v>
       </c>
-      <c r="AC104" s="43">
+      <c r="AC104" s="42">
         <v>42369</v>
       </c>
-      <c r="AD104" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE104" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF104" s="44">
+      <c r="AD104" s="43">
+        <v>0</v>
+      </c>
+      <c r="AE104" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF104" s="43">
         <v>4</v>
       </c>
-      <c r="AG104" s="44">
+      <c r="AG104" s="43">
         <v>4</v>
       </c>
-      <c r="AH104" s="44">
-        <v>0</v>
-      </c>
-      <c r="AI104" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ104" s="42" t="s">
+      <c r="AH104" s="43">
+        <v>0</v>
+      </c>
+      <c r="AI104" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ104" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="AK104" s="47">
-        <v>0</v>
-      </c>
-      <c r="AL104" s="42" t="s">
+      <c r="AK104" s="46">
+        <v>0</v>
+      </c>
+      <c r="AL104" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="AM104" s="42" t="s">
+      <c r="AM104" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AN104" s="42" t="s">
+      <c r="AN104" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="AO104" s="47"/>
-      <c r="AP104" s="47"/>
+      <c r="AO104" s="46"/>
+      <c r="AP104" s="46"/>
     </row>
     <row r="105" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A105" s="42" t="s">
+      <c r="A105" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B105" s="42"/>
-      <c r="C105" s="42"/>
-      <c r="D105" s="42"/>
-      <c r="E105" s="42"/>
-      <c r="F105" s="43"/>
-      <c r="G105" s="44"/>
-      <c r="H105" s="44"/>
-      <c r="I105" s="44"/>
-      <c r="J105" s="43"/>
-      <c r="K105" s="44"/>
-      <c r="L105" s="45"/>
-      <c r="M105" s="43">
+      <c r="B105" s="41"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="41"/>
+      <c r="F105" s="42"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="43"/>
+      <c r="I105" s="43"/>
+      <c r="J105" s="42"/>
+      <c r="K105" s="43"/>
+      <c r="L105" s="44"/>
+      <c r="M105" s="42">
         <v>42491</v>
       </c>
-      <c r="N105" s="43">
+      <c r="N105" s="42">
         <v>42495</v>
       </c>
-      <c r="O105" s="44">
+      <c r="O105" s="43">
         <v>5</v>
       </c>
-      <c r="P105" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q105" s="42" t="s">
+      <c r="P105" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q105" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="R105" s="44">
+      <c r="R105" s="43">
         <v>4</v>
       </c>
-      <c r="S105" s="42" t="s">
+      <c r="S105" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="T105" s="42" t="s">
+      <c r="T105" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="U105" s="43">
+      <c r="U105" s="42">
         <v>42500</v>
       </c>
-      <c r="V105" s="44">
-        <v>0</v>
-      </c>
-      <c r="W105" s="42" t="s">
+      <c r="V105" s="43">
+        <v>0</v>
+      </c>
+      <c r="W105" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="X105" s="42" t="s">
+      <c r="X105" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="Y105" s="45" t="s">
+      <c r="Y105" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="Z105" s="44"/>
-      <c r="AA105" s="44"/>
-      <c r="AB105" s="43"/>
-      <c r="AC105" s="43"/>
-      <c r="AD105" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE105" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF105" s="44">
+      <c r="Z105" s="43"/>
+      <c r="AA105" s="43"/>
+      <c r="AB105" s="42"/>
+      <c r="AC105" s="42"/>
+      <c r="AD105" s="43">
+        <v>0</v>
+      </c>
+      <c r="AE105" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF105" s="43">
         <v>5</v>
       </c>
-      <c r="AG105" s="44">
+      <c r="AG105" s="43">
         <v>5</v>
       </c>
-      <c r="AH105" s="44">
-        <v>0</v>
-      </c>
-      <c r="AI105" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ105" s="42" t="s">
+      <c r="AH105" s="43">
+        <v>0</v>
+      </c>
+      <c r="AI105" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ105" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="AK105" s="47">
-        <v>0</v>
-      </c>
-      <c r="AL105" s="42" t="s">
+      <c r="AK105" s="46">
+        <v>0</v>
+      </c>
+      <c r="AL105" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="AM105" s="42" t="s">
+      <c r="AM105" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AN105" s="42" t="s">
+      <c r="AN105" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="AO105" s="47"/>
-      <c r="AP105" s="47"/>
+      <c r="AO105" s="46"/>
+      <c r="AP105" s="46"/>
     </row>
     <row r="106" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A106" s="42" t="s">
+      <c r="A106" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B106" s="42"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="42"/>
-      <c r="E106" s="42"/>
-      <c r="F106" s="43"/>
-      <c r="G106" s="44"/>
-      <c r="H106" s="44"/>
-      <c r="I106" s="44"/>
-      <c r="J106" s="43"/>
-      <c r="K106" s="44"/>
-      <c r="L106" s="45"/>
-      <c r="M106" s="43">
+      <c r="B106" s="41"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="43"/>
+      <c r="I106" s="43"/>
+      <c r="J106" s="42"/>
+      <c r="K106" s="43"/>
+      <c r="L106" s="44"/>
+      <c r="M106" s="42">
         <v>42496</v>
       </c>
-      <c r="N106" s="43">
+      <c r="N106" s="42">
         <v>42500</v>
       </c>
-      <c r="O106" s="44">
+      <c r="O106" s="43">
         <v>4</v>
       </c>
-      <c r="P106" s="46" t="s">
+      <c r="P106" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="Q106" s="42" t="s">
+      <c r="Q106" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="R106" s="44">
+      <c r="R106" s="43">
         <v>3</v>
       </c>
-      <c r="S106" s="42" t="s">
+      <c r="S106" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="T106" s="42" t="s">
+      <c r="T106" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="U106" s="43">
+      <c r="U106" s="42">
         <v>42500</v>
       </c>
-      <c r="V106" s="44">
-        <v>0</v>
-      </c>
-      <c r="W106" s="42" t="s">
+      <c r="V106" s="43">
+        <v>0</v>
+      </c>
+      <c r="W106" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="X106" s="42" t="s">
+      <c r="X106" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="Y106" s="45" t="s">
+      <c r="Y106" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="Z106" s="44"/>
-      <c r="AA106" s="44"/>
-      <c r="AB106" s="43"/>
-      <c r="AC106" s="43"/>
-      <c r="AD106" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE106" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF106" s="44">
+      <c r="Z106" s="43"/>
+      <c r="AA106" s="43"/>
+      <c r="AB106" s="42"/>
+      <c r="AC106" s="42"/>
+      <c r="AD106" s="43">
+        <v>0</v>
+      </c>
+      <c r="AE106" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF106" s="43">
         <v>4</v>
       </c>
-      <c r="AG106" s="44">
+      <c r="AG106" s="43">
         <v>4</v>
       </c>
-      <c r="AH106" s="44">
-        <v>0</v>
-      </c>
-      <c r="AI106" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ106" s="42" t="s">
+      <c r="AH106" s="43">
+        <v>0</v>
+      </c>
+      <c r="AI106" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ106" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="AK106" s="47">
-        <v>0</v>
-      </c>
-      <c r="AL106" s="42" t="s">
+      <c r="AK106" s="46">
+        <v>0</v>
+      </c>
+      <c r="AL106" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="AM106" s="42" t="s">
+      <c r="AM106" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AN106" s="42" t="s">
+      <c r="AN106" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="AO106" s="47"/>
-      <c r="AP106" s="47"/>
-    </row>
-    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A107" s="42" t="s">
+      <c r="AO106" s="46"/>
+      <c r="AP106" s="46"/>
+    </row>
+    <row r="107" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B107" s="42"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="42"/>
-      <c r="E107" s="42"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="44"/>
-      <c r="H107" s="44"/>
-      <c r="I107" s="44"/>
-      <c r="J107" s="43"/>
-      <c r="K107" s="44"/>
-      <c r="L107" s="45"/>
-      <c r="M107" s="43">
+      <c r="B107" s="41"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="43"/>
+      <c r="I107" s="43"/>
+      <c r="J107" s="42"/>
+      <c r="K107" s="43"/>
+      <c r="L107" s="44"/>
+      <c r="M107" s="42">
         <v>42502</v>
       </c>
-      <c r="N107" s="43">
+      <c r="N107" s="42">
         <v>42515</v>
       </c>
-      <c r="O107" s="44">
+      <c r="O107" s="43">
         <v>14</v>
       </c>
-      <c r="P107" s="46" t="s">
+      <c r="P107" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="Q107" s="42" t="s">
+      <c r="Q107" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="R107" s="44">
+      <c r="R107" s="43">
         <v>6</v>
       </c>
-      <c r="S107" s="42" t="s">
+      <c r="S107" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="T107" s="42" t="s">
+      <c r="T107" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="U107" s="43">
+      <c r="U107" s="42">
         <v>42530</v>
       </c>
-      <c r="V107" s="44">
+      <c r="V107" s="43">
         <v>2</v>
       </c>
-      <c r="W107" s="42" t="s">
+      <c r="W107" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="X107" s="42" t="s">
+      <c r="X107" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="Y107" s="45" t="s">
+      <c r="Y107" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="Z107" s="44"/>
-      <c r="AA107" s="44"/>
-      <c r="AB107" s="43"/>
-      <c r="AC107" s="43"/>
-      <c r="AD107" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE107" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF107" s="44">
+      <c r="Z107" s="43"/>
+      <c r="AA107" s="43"/>
+      <c r="AB107" s="42"/>
+      <c r="AC107" s="42"/>
+      <c r="AD107" s="43">
+        <v>0</v>
+      </c>
+      <c r="AE107" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF107" s="43">
         <v>7</v>
       </c>
-      <c r="AG107" s="44">
+      <c r="AG107" s="43">
         <v>7</v>
       </c>
-      <c r="AH107" s="44">
-        <v>0</v>
-      </c>
-      <c r="AI107" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ107" s="42" t="s">
+      <c r="AH107" s="43">
+        <v>0</v>
+      </c>
+      <c r="AI107" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ107" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="AK107" s="47">
-        <v>0</v>
-      </c>
-      <c r="AL107" s="42" t="s">
+      <c r="AK107" s="46">
+        <v>0</v>
+      </c>
+      <c r="AL107" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="AM107" s="42" t="s">
+      <c r="AM107" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AN107" s="42" t="s">
+      <c r="AN107" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="AO107" s="47"/>
-      <c r="AP107" s="47"/>
+      <c r="AO107" s="46"/>
+      <c r="AP107" s="46"/>
     </row>
     <row r="108" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A108" s="42" t="s">
+      <c r="A108" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B108" s="42"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="42"/>
-      <c r="E108" s="42"/>
-      <c r="F108" s="43"/>
-      <c r="G108" s="44"/>
-      <c r="H108" s="44"/>
-      <c r="I108" s="44"/>
-      <c r="J108" s="43"/>
-      <c r="K108" s="44"/>
-      <c r="L108" s="45"/>
-      <c r="M108" s="43">
+      <c r="B108" s="41"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="41"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="43"/>
+      <c r="H108" s="43"/>
+      <c r="I108" s="43"/>
+      <c r="J108" s="42"/>
+      <c r="K108" s="43"/>
+      <c r="L108" s="44"/>
+      <c r="M108" s="42">
         <v>42516</v>
       </c>
-      <c r="N108" s="43">
+      <c r="N108" s="42">
         <v>42530</v>
       </c>
-      <c r="O108" s="44">
+      <c r="O108" s="43">
         <v>5</v>
       </c>
-      <c r="P108" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q108" s="42" t="s">
+      <c r="P108" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q108" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="R108" s="44">
+      <c r="R108" s="43">
         <v>4</v>
       </c>
-      <c r="S108" s="42" t="s">
+      <c r="S108" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="T108" s="42" t="s">
+      <c r="T108" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="U108" s="43">
+      <c r="U108" s="42">
         <v>42530</v>
       </c>
-      <c r="V108" s="44">
+      <c r="V108" s="43">
         <v>2</v>
       </c>
-      <c r="W108" s="42" t="s">
+      <c r="W108" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="X108" s="42" t="s">
+      <c r="X108" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="Y108" s="45" t="s">
+      <c r="Y108" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="Z108" s="44"/>
-      <c r="AA108" s="44"/>
-      <c r="AB108" s="43"/>
-      <c r="AC108" s="43"/>
-      <c r="AD108" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE108" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF108" s="44">
+      <c r="Z108" s="43"/>
+      <c r="AA108" s="43"/>
+      <c r="AB108" s="42"/>
+      <c r="AC108" s="42"/>
+      <c r="AD108" s="43">
+        <v>0</v>
+      </c>
+      <c r="AE108" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF108" s="43">
         <v>5</v>
       </c>
-      <c r="AG108" s="44">
+      <c r="AG108" s="43">
         <v>5</v>
       </c>
-      <c r="AH108" s="44">
-        <v>0</v>
-      </c>
-      <c r="AI108" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ108" s="42" t="s">
+      <c r="AH108" s="43">
+        <v>0</v>
+      </c>
+      <c r="AI108" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ108" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="AK108" s="47">
-        <v>0</v>
-      </c>
-      <c r="AL108" s="42" t="s">
+      <c r="AK108" s="46">
+        <v>0</v>
+      </c>
+      <c r="AL108" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="AM108" s="42" t="s">
+      <c r="AM108" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AN108" s="42" t="s">
+      <c r="AN108" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="AO108" s="47"/>
-      <c r="AP108" s="47"/>
+      <c r="AO108" s="46"/>
+      <c r="AP108" s="46"/>
+    </row>
+    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A109" s="41"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="42"/>
+      <c r="G109" s="43"/>
+      <c r="H109" s="43"/>
+      <c r="I109" s="43"/>
+      <c r="J109" s="42"/>
+      <c r="K109" s="43"/>
+      <c r="L109" s="44"/>
+      <c r="M109" s="42"/>
+      <c r="N109" s="42"/>
+      <c r="O109" s="43"/>
+      <c r="P109" s="45"/>
+      <c r="Q109" s="41"/>
+      <c r="R109" s="43"/>
+      <c r="S109" s="41"/>
+      <c r="T109" s="41"/>
+      <c r="U109" s="42"/>
+      <c r="V109" s="43"/>
+      <c r="W109" s="41"/>
+      <c r="X109" s="41"/>
+      <c r="Y109" s="44"/>
+      <c r="Z109" s="43"/>
+      <c r="AA109" s="43"/>
+      <c r="AB109" s="42"/>
+      <c r="AC109" s="42"/>
+      <c r="AD109" s="43"/>
+      <c r="AE109" s="43"/>
+      <c r="AF109" s="43"/>
+      <c r="AG109" s="43"/>
+      <c r="AH109" s="43"/>
+      <c r="AI109" s="43"/>
+      <c r="AJ109" s="41"/>
+      <c r="AK109" s="46"/>
+      <c r="AL109" s="41"/>
+      <c r="AM109" s="41"/>
+      <c r="AN109" s="41"/>
+      <c r="AO109" s="46"/>
+      <c r="AP109" s="46"/>
+    </row>
+    <row r="110" spans="1:42" ht="90" x14ac:dyDescent="0.25">
+      <c r="A110" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B110" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C110" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D110" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E110" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F110" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G110" s="43">
+        <v>1</v>
+      </c>
+      <c r="H110" s="43">
+        <v>0</v>
+      </c>
+      <c r="I110" s="43">
+        <v>0</v>
+      </c>
+      <c r="J110" s="42">
+        <v>42396</v>
+      </c>
+      <c r="K110" s="43">
+        <v>13</v>
+      </c>
+      <c r="L110" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="M110" s="42">
+        <v>42396</v>
+      </c>
+      <c r="N110" s="42">
+        <v>42396</v>
+      </c>
+      <c r="O110" s="43">
+        <v>13</v>
+      </c>
+      <c r="P110" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q110" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="R110" s="43">
+        <v>5</v>
+      </c>
+      <c r="S110" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="T110" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="U110" s="42">
+        <v>42402</v>
+      </c>
+      <c r="V110" s="43">
+        <v>3</v>
+      </c>
+      <c r="W110" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="X110" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y110" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z110" s="43">
+        <v>999</v>
+      </c>
+      <c r="AA110" s="43">
+        <v>1</v>
+      </c>
+      <c r="AB110" s="42"/>
+      <c r="AC110" s="42"/>
+      <c r="AD110" s="43">
+        <v>0</v>
+      </c>
+      <c r="AE110" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF110" s="43">
+        <v>6</v>
+      </c>
+      <c r="AG110" s="43">
+        <v>7</v>
+      </c>
+      <c r="AH110" s="43">
+        <v>0</v>
+      </c>
+      <c r="AI110" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ110" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK110" s="46">
+        <v>-11</v>
+      </c>
+      <c r="AL110" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM110" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN110" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO110" s="46">
+        <v>-471.92</v>
+      </c>
+      <c r="AP110" s="46">
+        <v>1809.08</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
+++ b/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\OltSchema\BaseData\HotelExport\SpecialOffers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="1" r:id="rId1"/>
     <sheet name="Result" sheetId="6" r:id="rId2"/>
-    <sheet name="Tabelle1" sheetId="7" r:id="rId3"/>
-    <sheet name="PreisProTag" sheetId="4" r:id="rId4"/>
-    <sheet name="ToDo" sheetId="5" r:id="rId5"/>
-    <sheet name="ResultOld" sheetId="2" r:id="rId6"/>
+    <sheet name="PreisProTag" sheetId="4" r:id="rId3"/>
+    <sheet name="ToDo" sheetId="5" r:id="rId4"/>
+    <sheet name="ResultOld" sheetId="2" r:id="rId5"/>
+    <sheet name="BasisFürTestSkript" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3523" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3521" uniqueCount="315">
   <si>
     <t>ItemType</t>
   </si>
@@ -1005,13 +1010,23 @@
 (27.01.16-02.02.16) Average / 149.71 - 11 = 138.71 
 (03.02.16-08.02.16) Average / 205.50 - 11 = 194.50 </t>
   </si>
+  <si>
+    <t>BookDate</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>BookStart</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm\ d&quot;, &quot;yy"/>
+    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1624,7 +1639,7 @@
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1765,6 +1780,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="10" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
@@ -2895,7 +2914,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -19050,8 +19069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB30" sqref="A30:XFD30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AV2" sqref="AV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30264,63 +30283,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="12" max="12" width="37.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="29">
-        <v>1</v>
-      </c>
-      <c r="H3" s="29">
-        <v>0</v>
-      </c>
-      <c r="I3" s="29">
-        <v>0</v>
-      </c>
-      <c r="J3" s="31">
-        <v>42430</v>
-      </c>
-      <c r="K3" s="29">
-        <v>30</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K368"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -33298,7 +33260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -33354,7 +33316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ95"/>
   <sheetViews>
@@ -43576,4 +43538,2885 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="K108" sqref="K108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="49"/>
+    <col min="5" max="5" width="14.28515625" style="49" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="49"/>
+    <col min="7" max="7" width="56.5703125" customWidth="1"/>
+    <col min="12" max="12" width="37.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(2,</v>
+      </c>
+      <c r="B2" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C2" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>3,</v>
+      </c>
+      <c r="E2" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G2" t="str">
+        <f ca="1">CONCATENATE(A2,B2,C2,D2,E2)</f>
+        <v>(2,'TUIXYA225410','2016-01-01',3,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(3,</v>
+      </c>
+      <c r="B3" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C3" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D3" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>4,</v>
+      </c>
+      <c r="E3" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" ca="1" si="0">CONCATENATE(A3,B3,C3,D3,E3)</f>
+        <v>(3,'TUIXYA225410','2016-01-01',4,'2015-05-19'),</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(4,</v>
+      </c>
+      <c r="B4" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C4" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D4" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>5,</v>
+      </c>
+      <c r="E4" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(4,'TUIXYA225410','2016-01-01',5,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(5,</v>
+      </c>
+      <c r="B5" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C5" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D5" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>6,</v>
+      </c>
+      <c r="E5" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(5,'TUIXYA225410','2016-01-01',6,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(6,</v>
+      </c>
+      <c r="B6" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C6" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D6" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>7,</v>
+      </c>
+      <c r="E6" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(6,'TUIXYA225410','2016-01-01',7,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(7,</v>
+      </c>
+      <c r="B7" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C7" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D7" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>8,</v>
+      </c>
+      <c r="E7" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(7,'TUIXYA225410','2016-01-01',8,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(8,</v>
+      </c>
+      <c r="B8" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C8" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D8" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>9,</v>
+      </c>
+      <c r="E8" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(8,'TUIXYA225410','2016-01-01',9,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(9,</v>
+      </c>
+      <c r="B9" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C9" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D9" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>10,</v>
+      </c>
+      <c r="E9" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(9,'TUIXYA225410','2016-01-01',10,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(10,</v>
+      </c>
+      <c r="B10" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C10" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D10" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>11,</v>
+      </c>
+      <c r="E10" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(10,'TUIXYA225410','2016-01-01',11,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(11,</v>
+      </c>
+      <c r="B11" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C11" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D11" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>12,</v>
+      </c>
+      <c r="E11" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(11,'TUIXYA225410','2016-01-01',12,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(12,</v>
+      </c>
+      <c r="B12" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C12" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D12" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>13,</v>
+      </c>
+      <c r="E12" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(12,'TUIXYA225410','2016-01-01',13,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(13,</v>
+      </c>
+      <c r="B13" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C13" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D13" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>14,</v>
+      </c>
+      <c r="E13" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(13,'TUIXYA225410','2016-01-01',14,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(14,</v>
+      </c>
+      <c r="B14" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C14" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D14" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>15,</v>
+      </c>
+      <c r="E14" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(14,'TUIXYA225410','2016-01-01',15,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(15,</v>
+      </c>
+      <c r="B15" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C15" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D15" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>16,</v>
+      </c>
+      <c r="E15" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(15,'TUIXYA225410','2016-01-01',16,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(16,</v>
+      </c>
+      <c r="B16" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C16" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D16" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>17,</v>
+      </c>
+      <c r="E16" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(16,'TUIXYA225410','2016-01-01',17,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(17,</v>
+      </c>
+      <c r="B17" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C17" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D17" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>18,</v>
+      </c>
+      <c r="E17" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(17,'TUIXYA225410','2016-01-01',18,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C18" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E18" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(19,</v>
+      </c>
+      <c r="B19" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C19" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D19" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>19,</v>
+      </c>
+      <c r="E19" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(19,'TUIXYA225410','2016-01-01',19,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C20" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E20" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(21,</v>
+      </c>
+      <c r="B21" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C21" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D21" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>20,</v>
+      </c>
+      <c r="E21" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(21,'TUIXYA225410','2016-01-01',20,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(22,</v>
+      </c>
+      <c r="B22" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C22" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D22" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>21,</v>
+      </c>
+      <c r="E22" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(22,'TUIXYA225410','2016-01-01',21,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(23,</v>
+      </c>
+      <c r="B23" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C23" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D23" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>22,</v>
+      </c>
+      <c r="E23" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(23,'TUIXYA225410','2016-01-01',22,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(24,</v>
+      </c>
+      <c r="B24" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C24" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D24" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>23,</v>
+      </c>
+      <c r="E24" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(24,'TUIXYA225410','2016-01-01',23,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C25" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E25" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(26,</v>
+      </c>
+      <c r="B26" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C26" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-23',</v>
+      </c>
+      <c r="D26" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>7,</v>
+      </c>
+      <c r="E26" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(26,'TUIXYA225410','2016-01-23',7,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(27,</v>
+      </c>
+      <c r="B27" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C27" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-24',</v>
+      </c>
+      <c r="D27" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>7,</v>
+      </c>
+      <c r="E27" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(27,'TUIXYA225410','2016-01-24',7,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(28,</v>
+      </c>
+      <c r="B28" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C28" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-25',</v>
+      </c>
+      <c r="D28" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>7,</v>
+      </c>
+      <c r="E28" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(28,'TUIXYA225410','2016-01-25',7,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(29,</v>
+      </c>
+      <c r="B29" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C29" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-26',</v>
+      </c>
+      <c r="D29" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>7,</v>
+      </c>
+      <c r="E29" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(29,'TUIXYA225410','2016-01-26',7,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(30,</v>
+      </c>
+      <c r="B30" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C30" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-27',</v>
+      </c>
+      <c r="D30" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>7,</v>
+      </c>
+      <c r="E30" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(30,'TUIXYA225410','2016-01-27',7,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B31" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C31" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E31" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(32,</v>
+      </c>
+      <c r="B32" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C32" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-28',</v>
+      </c>
+      <c r="D32" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>7,</v>
+      </c>
+      <c r="E32" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(32,'TUIXYA225410','2016-01-28',7,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(33,</v>
+      </c>
+      <c r="B33" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C33" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-29',</v>
+      </c>
+      <c r="D33" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>7,</v>
+      </c>
+      <c r="E33" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(33,'TUIXYA225410','2016-01-29',7,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(34,</v>
+      </c>
+      <c r="B34" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C34" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-30',</v>
+      </c>
+      <c r="D34" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>7,</v>
+      </c>
+      <c r="E34" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(34,'TUIXYA225410','2016-01-30',7,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(35,</v>
+      </c>
+      <c r="B35" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C35" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-31',</v>
+      </c>
+      <c r="D35" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>7,</v>
+      </c>
+      <c r="E35" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(35,'TUIXYA225410','2016-01-31',7,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(36,</v>
+      </c>
+      <c r="B36" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C36" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-02-01',</v>
+      </c>
+      <c r="D36" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>7,</v>
+      </c>
+      <c r="E36" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(36,'TUIXYA225410','2016-02-01',7,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(37,</v>
+      </c>
+      <c r="B37" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C37" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-02-02',</v>
+      </c>
+      <c r="D37" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>7,</v>
+      </c>
+      <c r="E37" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(37,'TUIXYA225410','2016-02-02',7,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B38" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C38" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E38" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(39,</v>
+      </c>
+      <c r="B39" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C39" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-02-03',</v>
+      </c>
+      <c r="D39" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>7,</v>
+      </c>
+      <c r="E39" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(39,'TUIXYA225410','2016-02-03',7,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(40,</v>
+      </c>
+      <c r="B40" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C40" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-02-04',</v>
+      </c>
+      <c r="D40" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>7,</v>
+      </c>
+      <c r="E40" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(40,'TUIXYA225410','2016-02-04',7,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(41,</v>
+      </c>
+      <c r="B41" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C41" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-02-09',</v>
+      </c>
+      <c r="D41" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>7,</v>
+      </c>
+      <c r="E41" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(41,'TUIXYA225410','2016-02-09',7,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(42,</v>
+      </c>
+      <c r="B42" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C42" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-02-10',</v>
+      </c>
+      <c r="D42" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>7,</v>
+      </c>
+      <c r="E42" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(42,'TUIXYA225410','2016-02-10',7,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(43,</v>
+      </c>
+      <c r="B43" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C43" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-02-15',</v>
+      </c>
+      <c r="D43" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>7,</v>
+      </c>
+      <c r="E43" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(43,'TUIXYA225410','2016-02-15',7,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(44,</v>
+      </c>
+      <c r="B44" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C44" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-02-16',</v>
+      </c>
+      <c r="D44" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>7,</v>
+      </c>
+      <c r="E44" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(44,'TUIXYA225410','2016-02-16',7,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B45" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C45" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E45" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(46,</v>
+      </c>
+      <c r="B46" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C46" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-02-18',</v>
+      </c>
+      <c r="D46" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>5,</v>
+      </c>
+      <c r="E46" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(46,'TUIXYA225410','2016-02-18',5,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(47,</v>
+      </c>
+      <c r="B47" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C47" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-02-19',</v>
+      </c>
+      <c r="D47" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>5,</v>
+      </c>
+      <c r="E47" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(47,'TUIXYA225410','2016-02-19',5,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(48,</v>
+      </c>
+      <c r="B48" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C48" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-02-23',</v>
+      </c>
+      <c r="D48" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>5,</v>
+      </c>
+      <c r="E48" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(48,'TUIXYA225410','2016-02-23',5,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(49,</v>
+      </c>
+      <c r="B49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C49" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-02-24',</v>
+      </c>
+      <c r="D49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>5,</v>
+      </c>
+      <c r="E49" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(49,'TUIXYA225410','2016-02-24',5,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B50" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C50" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D50" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E50" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(51,</v>
+      </c>
+      <c r="B51" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C51" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-02-28',</v>
+      </c>
+      <c r="D51" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>5,</v>
+      </c>
+      <c r="E51" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(51,'TUIXYA225410','2016-02-28',5,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(52,</v>
+      </c>
+      <c r="B52" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C52" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-02-29',</v>
+      </c>
+      <c r="D52" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>5,</v>
+      </c>
+      <c r="E52" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(52,'TUIXYA225410','2016-02-29',5,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(53,</v>
+      </c>
+      <c r="B53" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C53" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-03-01',</v>
+      </c>
+      <c r="D53" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>5,</v>
+      </c>
+      <c r="E53" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(53,'TUIXYA225410','2016-03-01',5,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(54,</v>
+      </c>
+      <c r="B54" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C54" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-03-02',</v>
+      </c>
+      <c r="D54" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>5,</v>
+      </c>
+      <c r="E54" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(54,'TUIXYA225410','2016-03-02',5,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(55,</v>
+      </c>
+      <c r="B55" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C55" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-03-03',</v>
+      </c>
+      <c r="D55" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>5,</v>
+      </c>
+      <c r="E55" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(55,'TUIXYA225410','2016-03-03',5,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B56" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C56" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D56" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E56" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(57,</v>
+      </c>
+      <c r="B57" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C57" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-03-07',</v>
+      </c>
+      <c r="D57" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>5,</v>
+      </c>
+      <c r="E57" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(57,'TUIXYA225410','2016-03-07',5,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(58,</v>
+      </c>
+      <c r="B58" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C58" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-03-14',</v>
+      </c>
+      <c r="D58" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>5,</v>
+      </c>
+      <c r="E58" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-08-01'),</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(58,'TUIXYA225410','2016-03-14',5,'2015-08-01'),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(59,</v>
+      </c>
+      <c r="B59" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C59" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-03-22',</v>
+      </c>
+      <c r="D59" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>5,</v>
+      </c>
+      <c r="E59" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2016-02-10'),</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(59,'TUIXYA225410','2016-03-22',5,'2016-02-10'),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B60" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C60" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D60" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E60" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(61,</v>
+      </c>
+      <c r="B61" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C61" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-04-01',</v>
+      </c>
+      <c r="D61" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>5,</v>
+      </c>
+      <c r="E61" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-08-01'),</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(61,'TUIXYA225410','2016-04-01',5,'2015-08-01'),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(62,</v>
+      </c>
+      <c r="B62" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C62" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-04-08',</v>
+      </c>
+      <c r="D62" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>5,</v>
+      </c>
+      <c r="E62" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2016-02-02'),</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(62,'TUIXYA225410','2016-04-08',5,'2016-02-02'),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(63,</v>
+      </c>
+      <c r="B63" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C63" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-04-01',</v>
+      </c>
+      <c r="D63" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>15,</v>
+      </c>
+      <c r="E63" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2016-03-10'),</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(63,'TUIXYA225410','2016-04-01',15,'2016-03-10'),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B64" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C64" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D64" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E64" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(65,</v>
+      </c>
+      <c r="B65" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C65" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-05-01',</v>
+      </c>
+      <c r="D65" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>5,</v>
+      </c>
+      <c r="E65" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(65,'TUIXYA225410','2016-05-01',5,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(66,</v>
+      </c>
+      <c r="B66" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C66" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-05-02',</v>
+      </c>
+      <c r="D66" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>5,</v>
+      </c>
+      <c r="E66" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>(66,'TUIXYA225410','2016-05-02',5,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(67,</v>
+      </c>
+      <c r="B67" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C67" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-05-03',</v>
+      </c>
+      <c r="D67" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>5,</v>
+      </c>
+      <c r="E67" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G110" ca="1" si="1">CONCATENATE(A67,B67,C67,D67,E67)</f>
+        <v>(67,'TUIXYA225410','2016-05-03',5,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(68,</v>
+      </c>
+      <c r="B68" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C68" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-05-04',</v>
+      </c>
+      <c r="D68" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>5,</v>
+      </c>
+      <c r="E68" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>(68,'TUIXYA225410','2016-05-04',5,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(69,</v>
+      </c>
+      <c r="B69" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C69" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-05-05',</v>
+      </c>
+      <c r="D69" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>5,</v>
+      </c>
+      <c r="E69" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>(69,'TUIXYA225410','2016-05-05',5,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(70,</v>
+      </c>
+      <c r="B70" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C70" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-05-06',</v>
+      </c>
+      <c r="D70" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>5,</v>
+      </c>
+      <c r="E70" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>(70,'TUIXYA225410','2016-05-06',5,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(71,</v>
+      </c>
+      <c r="B71" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C71" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-05-07',</v>
+      </c>
+      <c r="D71" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>5,</v>
+      </c>
+      <c r="E71" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>(71,'TUIXYA225410','2016-05-07',5,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(72,</v>
+      </c>
+      <c r="B72" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C72" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-05-08',</v>
+      </c>
+      <c r="D72" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>5,</v>
+      </c>
+      <c r="E72" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>(72,'TUIXYA225410','2016-05-08',5,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B73" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C73" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D73" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E73" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(74,</v>
+      </c>
+      <c r="B74" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C74" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-05-13',</v>
+      </c>
+      <c r="D74" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>13,</v>
+      </c>
+      <c r="E74" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>(74,'TUIXYA225410','2016-05-13',13,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(75,</v>
+      </c>
+      <c r="B75" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C75" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-05-14',</v>
+      </c>
+      <c r="D75" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>13,</v>
+      </c>
+      <c r="E75" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>(75,'TUIXYA225410','2016-05-14',13,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(76,</v>
+      </c>
+      <c r="B76" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C76" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-05-18',</v>
+      </c>
+      <c r="D76" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>13,</v>
+      </c>
+      <c r="E76" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>(76,'TUIXYA225410','2016-05-18',13,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B77" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C77" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D77" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E77" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(78,</v>
+      </c>
+      <c r="B78" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C78" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-05-19',</v>
+      </c>
+      <c r="D78" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>13,</v>
+      </c>
+      <c r="E78" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>(78,'TUIXYA225410','2016-05-19',13,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B79" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C79" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D79" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E79" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(80,</v>
+      </c>
+      <c r="B80" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C80" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-05-20',</v>
+      </c>
+      <c r="D80" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>13,</v>
+      </c>
+      <c r="E80" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>(80,'TUIXYA225410','2016-05-20',13,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B81" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C81" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D81" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E81" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(82,</v>
+      </c>
+      <c r="B82" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C82" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-05-21',</v>
+      </c>
+      <c r="D82" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>13,</v>
+      </c>
+      <c r="E82" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>(82,'TUIXYA225410','2016-05-21',13,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B83" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C83" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D83" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E83" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(84,</v>
+      </c>
+      <c r="B84" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C84" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-05-22',</v>
+      </c>
+      <c r="D84" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>13,</v>
+      </c>
+      <c r="E84" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>(84,'TUIXYA225410','2016-05-22',13,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B85" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C85" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D85" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E85" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(86,</v>
+      </c>
+      <c r="B86" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C86" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-05-23',</v>
+      </c>
+      <c r="D86" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>13,</v>
+      </c>
+      <c r="E86" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>(86,'TUIXYA225410','2016-05-23',13,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B87" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C87" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D87" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E87" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(88,</v>
+      </c>
+      <c r="B88" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C88" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-05-26',</v>
+      </c>
+      <c r="D88" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>13,</v>
+      </c>
+      <c r="E88" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>(88,'TUIXYA225410','2016-05-26',13,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B89" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C89" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D89" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E89" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(90,</v>
+      </c>
+      <c r="B90" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C90" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-07-03',</v>
+      </c>
+      <c r="D90" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>27,</v>
+      </c>
+      <c r="E90" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>(90,'TUIXYA225410','2016-07-03',27,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B91" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C91" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D91" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E91" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B92" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C92" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D92" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E92" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(93,</v>
+      </c>
+      <c r="B93" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYZ50502',</v>
+      </c>
+      <c r="C93" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D93" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>3,</v>
+      </c>
+      <c r="E93" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>(93,'TUIXYZ50502','2016-01-01',3,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(94,</v>
+      </c>
+      <c r="B94" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYZ50502',</v>
+      </c>
+      <c r="C94" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D94" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>3,</v>
+      </c>
+      <c r="E94" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>(94,'TUIXYZ50502','2016-01-01',3,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(95,</v>
+      </c>
+      <c r="B95" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYZ50502',</v>
+      </c>
+      <c r="C95" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-01',</v>
+      </c>
+      <c r="D95" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>3,</v>
+      </c>
+      <c r="E95" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>(95,'TUIXYZ50502','2016-01-01',3,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B96" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C96" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D96" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E96" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(97,</v>
+      </c>
+      <c r="B97" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C97" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-03-01',</v>
+      </c>
+      <c r="D97" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>30,</v>
+      </c>
+      <c r="E97" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>(97,'TUIXYA225410','2016-03-01',30,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B98" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C98" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D98" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E98" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B99" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C99" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D99" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E99" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B100" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C100" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D100" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E100" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(101,</v>
+      </c>
+      <c r="B101" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C101" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-03-01',</v>
+      </c>
+      <c r="D101" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>91,</v>
+      </c>
+      <c r="E101" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>(101,'TUIXYA225410','2016-03-01',91,'2015-05-19'),</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B102" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C102" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D102" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E102" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B103" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C103" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D103" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E103" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B104" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C104" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D104" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E104" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B105" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C105" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D105" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E105" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B106" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C106" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D106" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E106" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B107" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C107" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D107" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E107" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B108" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C108" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D108" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E108" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v/>
+      </c>
+      <c r="B109" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v/>
+      </c>
+      <c r="C109" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v/>
+      </c>
+      <c r="D109" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v/>
+      </c>
+      <c r="E109" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v/>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <v>(110,</v>
+      </c>
+      <c r="B110" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <v>'TUIXYA225410',</v>
+      </c>
+      <c r="C110" s="49" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <v>'2016-01-27',</v>
+      </c>
+      <c r="D110" t="str">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <v>13,</v>
+      </c>
+      <c r="E110" s="49" t="str">
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <v>'2015-05-19'),</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>(110,'TUIXYA225410','2016-01-27',13,'2015-05-19'),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
+++ b/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
@@ -1026,7 +1026,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm\ d&quot;, &quot;yy"/>
-    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1781,8 +1781,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="10" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -25788,7 +25788,7 @@
         <v>5295</v>
       </c>
     </row>
-    <row r="65" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
         <v>36</v>
       </c>
@@ -27372,7 +27372,7 @@
       <c r="AO79" s="26"/>
       <c r="AP79" s="26"/>
     </row>
-    <row r="80" spans="1:42" ht="360" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:42" ht="345" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
         <v>36</v>
       </c>
@@ -43544,17 +43544,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="K108" sqref="K108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="49"/>
-    <col min="5" max="5" width="14.28515625" style="49" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="49" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="49"/>
-    <col min="7" max="7" width="56.5703125" customWidth="1"/>
+    <col min="7" max="7" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -43576,55 +43578,55 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(2,</v>
+      <c r="A2">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>2</v>
       </c>
       <c r="B2" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C2" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D2" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>3,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D2">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>3</v>
       </c>
       <c r="E2" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G2" t="str">
-        <f ca="1">CONCATENATE(A2,B2,C2,D2,E2)</f>
+        <f ca="1">IF(LEN(B2)&gt;0,CONCATENATE("(",A2,",",B2,",",C2,",",D2,",",E2,"),"),"")</f>
         <v>(2,'TUIXYA225410','2016-01-01',3,'2015-05-19'),</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(3,</v>
+      <c r="A3">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>3</v>
       </c>
       <c r="B3" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C3" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D3" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>4,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D3">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>4</v>
       </c>
       <c r="E3" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="F3" s="50"/>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G66" ca="1" si="0">CONCATENATE(A3,B3,C3,D3,E3)</f>
+        <f t="shared" ref="G3:G66" ca="1" si="0">IF(LEN(B3)&gt;0,CONCATENATE("(",A3,",",B3,",",C3,",",D3,",",E3,"),"),"")</f>
         <v>(3,'TUIXYA225410','2016-01-01',4,'2015-05-19'),</v>
       </c>
       <c r="H3" s="29"/>
@@ -43634,25 +43636,25 @@
       <c r="L3" s="30"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(4,</v>
+      <c r="A4">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>4</v>
       </c>
       <c r="B4" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C4" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D4" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>5,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D4">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>5</v>
       </c>
       <c r="E4" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -43660,25 +43662,25 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(5,</v>
+      <c r="A5">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>5</v>
       </c>
       <c r="B5" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C5" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D5" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>6,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D5">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>6</v>
       </c>
       <c r="E5" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -43686,25 +43688,25 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(6,</v>
+      <c r="A6">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>6</v>
       </c>
       <c r="B6" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C6" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D6" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>7,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D6">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>7</v>
       </c>
       <c r="E6" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -43712,25 +43714,25 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(7,</v>
+      <c r="A7">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>7</v>
       </c>
       <c r="B7" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C7" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D7" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>8,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D7">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>8</v>
       </c>
       <c r="E7" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -43738,25 +43740,25 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(8,</v>
+      <c r="A8">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>8</v>
       </c>
       <c r="B8" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C8" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D8" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>9,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D8">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>9</v>
       </c>
       <c r="E8" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -43764,25 +43766,25 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(9,</v>
+      <c r="A9">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>9</v>
       </c>
       <c r="B9" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C9" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D9" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>10,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D9">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>10</v>
       </c>
       <c r="E9" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -43790,25 +43792,25 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(10,</v>
+      <c r="A10">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>10</v>
       </c>
       <c r="B10" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C10" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D10" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>11,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D10">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>11</v>
       </c>
       <c r="E10" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -43816,25 +43818,25 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(11,</v>
+      <c r="A11">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>11</v>
       </c>
       <c r="B11" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C11" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D11" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>12,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D11">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>12</v>
       </c>
       <c r="E11" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -43842,25 +43844,25 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(12,</v>
+      <c r="A12">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>12</v>
       </c>
       <c r="B12" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C12" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D12" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>13,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D12">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>13</v>
       </c>
       <c r="E12" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -43868,25 +43870,25 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(13,</v>
+      <c r="A13">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>13</v>
       </c>
       <c r="B13" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C13" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D13" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>14,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D13">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>14</v>
       </c>
       <c r="E13" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -43894,25 +43896,25 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(14,</v>
+      <c r="A14">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>14</v>
       </c>
       <c r="B14" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C14" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D14" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>15,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D14">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>15</v>
       </c>
       <c r="E14" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -43920,25 +43922,25 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(15,</v>
+      <c r="A15">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>15</v>
       </c>
       <c r="B15" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C15" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D15" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>16,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D15">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>16</v>
       </c>
       <c r="E15" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -43946,25 +43948,25 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(16,</v>
+      <c r="A16">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>16</v>
       </c>
       <c r="B16" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C16" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D16" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>17,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D16">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>17</v>
       </c>
       <c r="E16" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -43972,25 +43974,25 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(17,</v>
+      <c r="A17">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>17</v>
       </c>
       <c r="B17" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C17" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D17" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>18,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D17">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>18</v>
       </c>
       <c r="E17" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -43999,50 +44001,50 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B18" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C18" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D18" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E18" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G18" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(19,</v>
+      <c r="A19">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>19</v>
       </c>
       <c r="B19" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C19" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D19" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>19,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D19">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>19</v>
       </c>
       <c r="E19" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44051,50 +44053,50 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B20" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C20" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D20" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E20" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G20" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(21,</v>
+      <c r="A21">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>21</v>
       </c>
       <c r="B21" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C21" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D21" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>20,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D21">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>20</v>
       </c>
       <c r="E21" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44102,25 +44104,25 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(22,</v>
+      <c r="A22">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>22</v>
       </c>
       <c r="B22" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C22" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D22" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>21,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D22">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>21</v>
       </c>
       <c r="E22" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44128,25 +44130,25 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(23,</v>
+      <c r="A23">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>23</v>
       </c>
       <c r="B23" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C23" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D23" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>22,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D23">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>22</v>
       </c>
       <c r="E23" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44154,25 +44156,25 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(24,</v>
+      <c r="A24">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>24</v>
       </c>
       <c r="B24" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C24" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D24" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>23,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D24">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>23</v>
       </c>
       <c r="E24" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44181,50 +44183,50 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B25" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C25" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D25" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E25" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G25" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(26,</v>
+      <c r="A26">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>26</v>
       </c>
       <c r="B26" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C26" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-23',</v>
-      </c>
-      <c r="D26" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>7,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-23'</v>
+      </c>
+      <c r="D26">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>7</v>
       </c>
       <c r="E26" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44232,25 +44234,25 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(27,</v>
+      <c r="A27">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>27</v>
       </c>
       <c r="B27" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C27" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-24',</v>
-      </c>
-      <c r="D27" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>7,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-24'</v>
+      </c>
+      <c r="D27">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>7</v>
       </c>
       <c r="E27" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44258,25 +44260,25 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(28,</v>
+      <c r="A28">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>28</v>
       </c>
       <c r="B28" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C28" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-25',</v>
-      </c>
-      <c r="D28" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>7,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-25'</v>
+      </c>
+      <c r="D28">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>7</v>
       </c>
       <c r="E28" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44284,25 +44286,25 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(29,</v>
+      <c r="A29">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>29</v>
       </c>
       <c r="B29" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C29" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-26',</v>
-      </c>
-      <c r="D29" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>7,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-26'</v>
+      </c>
+      <c r="D29">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>7</v>
       </c>
       <c r="E29" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44310,25 +44312,25 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(30,</v>
+      <c r="A30">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>30</v>
       </c>
       <c r="B30" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C30" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-27',</v>
-      </c>
-      <c r="D30" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>7,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-27'</v>
+      </c>
+      <c r="D30">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>7</v>
       </c>
       <c r="E30" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44337,50 +44339,50 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B31" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C31" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D31" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E31" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G31" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(32,</v>
+      <c r="A32">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>32</v>
       </c>
       <c r="B32" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C32" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-28',</v>
-      </c>
-      <c r="D32" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>7,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-28'</v>
+      </c>
+      <c r="D32">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>7</v>
       </c>
       <c r="E32" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44388,25 +44390,25 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(33,</v>
+      <c r="A33">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>33</v>
       </c>
       <c r="B33" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C33" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-29',</v>
-      </c>
-      <c r="D33" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>7,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-29'</v>
+      </c>
+      <c r="D33">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>7</v>
       </c>
       <c r="E33" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44414,25 +44416,25 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(34,</v>
+      <c r="A34">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>34</v>
       </c>
       <c r="B34" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C34" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-30',</v>
-      </c>
-      <c r="D34" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>7,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-30'</v>
+      </c>
+      <c r="D34">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>7</v>
       </c>
       <c r="E34" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44440,25 +44442,25 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(35,</v>
+      <c r="A35">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>35</v>
       </c>
       <c r="B35" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C35" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-31',</v>
-      </c>
-      <c r="D35" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>7,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-31'</v>
+      </c>
+      <c r="D35">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>7</v>
       </c>
       <c r="E35" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44466,25 +44468,25 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(36,</v>
+      <c r="A36">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>36</v>
       </c>
       <c r="B36" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C36" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-02-01',</v>
-      </c>
-      <c r="D36" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>7,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-02-01'</v>
+      </c>
+      <c r="D36">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>7</v>
       </c>
       <c r="E36" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44492,25 +44494,25 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(37,</v>
+      <c r="A37">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>37</v>
       </c>
       <c r="B37" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C37" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-02-02',</v>
-      </c>
-      <c r="D37" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>7,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-02-02'</v>
+      </c>
+      <c r="D37">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>7</v>
       </c>
       <c r="E37" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44519,50 +44521,50 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B38" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C38" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D38" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E38" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G38" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(39,</v>
+      <c r="A39">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>39</v>
       </c>
       <c r="B39" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C39" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-02-03',</v>
-      </c>
-      <c r="D39" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>7,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-02-03'</v>
+      </c>
+      <c r="D39">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>7</v>
       </c>
       <c r="E39" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44570,25 +44572,25 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(40,</v>
+      <c r="A40">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>40</v>
       </c>
       <c r="B40" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C40" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-02-04',</v>
-      </c>
-      <c r="D40" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>7,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-02-04'</v>
+      </c>
+      <c r="D40">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>7</v>
       </c>
       <c r="E40" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44596,25 +44598,25 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(41,</v>
+      <c r="A41">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>41</v>
       </c>
       <c r="B41" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C41" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-02-09',</v>
-      </c>
-      <c r="D41" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>7,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-02-09'</v>
+      </c>
+      <c r="D41">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>7</v>
       </c>
       <c r="E41" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44622,25 +44624,25 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(42,</v>
+      <c r="A42">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>42</v>
       </c>
       <c r="B42" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C42" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-02-10',</v>
-      </c>
-      <c r="D42" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>7,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-02-10'</v>
+      </c>
+      <c r="D42">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>7</v>
       </c>
       <c r="E42" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44648,25 +44650,25 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(43,</v>
+      <c r="A43">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>43</v>
       </c>
       <c r="B43" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C43" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-02-15',</v>
-      </c>
-      <c r="D43" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>7,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-02-15'</v>
+      </c>
+      <c r="D43">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>7</v>
       </c>
       <c r="E43" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44674,25 +44676,25 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(44,</v>
+      <c r="A44">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>44</v>
       </c>
       <c r="B44" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C44" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-02-16',</v>
-      </c>
-      <c r="D44" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>7,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-02-16'</v>
+      </c>
+      <c r="D44">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>7</v>
       </c>
       <c r="E44" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44701,50 +44703,50 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B45" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C45" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D45" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E45" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G45" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(46,</v>
+      <c r="A46">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>46</v>
       </c>
       <c r="B46" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C46" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-02-18',</v>
-      </c>
-      <c r="D46" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>5,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-02-18'</v>
+      </c>
+      <c r="D46">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>5</v>
       </c>
       <c r="E46" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44752,25 +44754,25 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(47,</v>
+      <c r="A47">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>47</v>
       </c>
       <c r="B47" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C47" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-02-19',</v>
-      </c>
-      <c r="D47" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>5,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-02-19'</v>
+      </c>
+      <c r="D47">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>5</v>
       </c>
       <c r="E47" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44778,25 +44780,25 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(48,</v>
+      <c r="A48">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>48</v>
       </c>
       <c r="B48" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C48" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-02-23',</v>
-      </c>
-      <c r="D48" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>5,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-02-23'</v>
+      </c>
+      <c r="D48">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>5</v>
       </c>
       <c r="E48" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44804,25 +44806,25 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(49,</v>
+      <c r="A49">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>49</v>
       </c>
       <c r="B49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C49" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-02-24',</v>
-      </c>
-      <c r="D49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>5,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-02-24'</v>
+      </c>
+      <c r="D49">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>5</v>
       </c>
       <c r="E49" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44831,50 +44833,50 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B50" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C50" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D50" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E50" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G50" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(51,</v>
+      <c r="A51">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>51</v>
       </c>
       <c r="B51" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C51" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-02-28',</v>
-      </c>
-      <c r="D51" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>5,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-02-28'</v>
+      </c>
+      <c r="D51">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>5</v>
       </c>
       <c r="E51" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44882,25 +44884,25 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(52,</v>
+      <c r="A52">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>52</v>
       </c>
       <c r="B52" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C52" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-02-29',</v>
-      </c>
-      <c r="D52" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>5,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-02-29'</v>
+      </c>
+      <c r="D52">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>5</v>
       </c>
       <c r="E52" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44908,25 +44910,25 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(53,</v>
+      <c r="A53">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>53</v>
       </c>
       <c r="B53" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C53" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-03-01',</v>
-      </c>
-      <c r="D53" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>5,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-03-01'</v>
+      </c>
+      <c r="D53">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>5</v>
       </c>
       <c r="E53" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44934,25 +44936,25 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(54,</v>
+      <c r="A54">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>54</v>
       </c>
       <c r="B54" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C54" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-03-02',</v>
-      </c>
-      <c r="D54" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>5,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-03-02'</v>
+      </c>
+      <c r="D54">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>5</v>
       </c>
       <c r="E54" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44960,25 +44962,25 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(55,</v>
+      <c r="A55">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>55</v>
       </c>
       <c r="B55" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C55" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-03-03',</v>
-      </c>
-      <c r="D55" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>5,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-03-03'</v>
+      </c>
+      <c r="D55">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>5</v>
       </c>
       <c r="E55" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -44987,50 +44989,50 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B56" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C56" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D56" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E56" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G56" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(57,</v>
+      <c r="A57">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>57</v>
       </c>
       <c r="B57" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C57" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-03-07',</v>
-      </c>
-      <c r="D57" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>5,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-03-07'</v>
+      </c>
+      <c r="D57">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>5</v>
       </c>
       <c r="E57" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -45038,25 +45040,25 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(58,</v>
+      <c r="A58">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>58</v>
       </c>
       <c r="B58" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C58" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-03-14',</v>
-      </c>
-      <c r="D58" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>5,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-03-14'</v>
+      </c>
+      <c r="D58">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>5</v>
       </c>
       <c r="E58" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-08-01'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-08-01'</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -45064,25 +45066,25 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(59,</v>
+      <c r="A59">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>59</v>
       </c>
       <c r="B59" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C59" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-03-22',</v>
-      </c>
-      <c r="D59" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>5,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-03-22'</v>
+      </c>
+      <c r="D59">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>5</v>
       </c>
       <c r="E59" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2016-02-10'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2016-02-10'</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -45091,50 +45093,50 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B60" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C60" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D60" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E60" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G60" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(61,</v>
+      <c r="A61">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>61</v>
       </c>
       <c r="B61" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C61" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-04-01',</v>
-      </c>
-      <c r="D61" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>5,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-04-01'</v>
+      </c>
+      <c r="D61">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>5</v>
       </c>
       <c r="E61" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-08-01'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-08-01'</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -45142,25 +45144,25 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(62,</v>
+      <c r="A62">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>62</v>
       </c>
       <c r="B62" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C62" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-04-08',</v>
-      </c>
-      <c r="D62" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>5,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-04-08'</v>
+      </c>
+      <c r="D62">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>5</v>
       </c>
       <c r="E62" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2016-02-02'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2016-02-02'</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -45168,25 +45170,25 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(63,</v>
+      <c r="A63">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>63</v>
       </c>
       <c r="B63" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C63" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-04-01',</v>
-      </c>
-      <c r="D63" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>15,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-04-01'</v>
+      </c>
+      <c r="D63">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>15</v>
       </c>
       <c r="E63" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2016-03-10'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2016-03-10'</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -45195,50 +45197,50 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B64" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C64" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D64" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E64" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G64" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(65,</v>
+      <c r="A65">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>65</v>
       </c>
       <c r="B65" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C65" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-05-01',</v>
-      </c>
-      <c r="D65" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>5,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-05-01'</v>
+      </c>
+      <c r="D65">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>5</v>
       </c>
       <c r="E65" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -45246,25 +45248,25 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(66,</v>
+      <c r="A66">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>66</v>
       </c>
       <c r="B66" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C66" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-05-02',</v>
-      </c>
-      <c r="D66" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>5,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-05-02'</v>
+      </c>
+      <c r="D66">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>5</v>
       </c>
       <c r="E66" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -45272,51 +45274,51 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(67,</v>
+      <c r="A67">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>67</v>
       </c>
       <c r="B67" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C67" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-05-03',</v>
-      </c>
-      <c r="D67" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>5,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-05-03'</v>
+      </c>
+      <c r="D67">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>5</v>
       </c>
       <c r="E67" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G110" ca="1" si="1">CONCATENATE(A67,B67,C67,D67,E67)</f>
+        <f t="shared" ref="G67:G110" ca="1" si="1">IF(LEN(B67)&gt;0,CONCATENATE("(",A67,",",B67,",",C67,",",D67,",",E67,"),"),"")</f>
         <v>(67,'TUIXYA225410','2016-05-03',5,'2015-05-19'),</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(68,</v>
+      <c r="A68">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>68</v>
       </c>
       <c r="B68" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C68" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-05-04',</v>
-      </c>
-      <c r="D68" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>5,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-05-04'</v>
+      </c>
+      <c r="D68">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>5</v>
       </c>
       <c r="E68" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -45324,25 +45326,25 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(69,</v>
+      <c r="A69">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>69</v>
       </c>
       <c r="B69" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C69" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-05-05',</v>
-      </c>
-      <c r="D69" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>5,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-05-05'</v>
+      </c>
+      <c r="D69">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>5</v>
       </c>
       <c r="E69" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -45350,25 +45352,25 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(70,</v>
+      <c r="A70">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>70</v>
       </c>
       <c r="B70" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C70" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-05-06',</v>
-      </c>
-      <c r="D70" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>5,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-05-06'</v>
+      </c>
+      <c r="D70">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>5</v>
       </c>
       <c r="E70" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -45376,25 +45378,25 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(71,</v>
+      <c r="A71">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>71</v>
       </c>
       <c r="B71" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C71" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-05-07',</v>
-      </c>
-      <c r="D71" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>5,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-05-07'</v>
+      </c>
+      <c r="D71">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>5</v>
       </c>
       <c r="E71" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -45402,25 +45404,25 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(72,</v>
+      <c r="A72">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>72</v>
       </c>
       <c r="B72" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C72" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-05-08',</v>
-      </c>
-      <c r="D72" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>5,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-05-08'</v>
+      </c>
+      <c r="D72">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>5</v>
       </c>
       <c r="E72" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -45429,50 +45431,50 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B73" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C73" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D73" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E73" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G73" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(74,</v>
+      <c r="A74">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>74</v>
       </c>
       <c r="B74" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C74" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-05-13',</v>
-      </c>
-      <c r="D74" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>13,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-05-13'</v>
+      </c>
+      <c r="D74">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>13</v>
       </c>
       <c r="E74" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -45480,25 +45482,25 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(75,</v>
+      <c r="A75">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>75</v>
       </c>
       <c r="B75" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C75" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-05-14',</v>
-      </c>
-      <c r="D75" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>13,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-05-14'</v>
+      </c>
+      <c r="D75">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>13</v>
       </c>
       <c r="E75" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -45506,25 +45508,25 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(76,</v>
+      <c r="A76">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>76</v>
       </c>
       <c r="B76" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C76" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-05-18',</v>
-      </c>
-      <c r="D76" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>13,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-05-18'</v>
+      </c>
+      <c r="D76">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>13</v>
       </c>
       <c r="E76" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -45533,50 +45535,50 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B77" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C77" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D77" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E77" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G77" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(78,</v>
+      <c r="A78">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>78</v>
       </c>
       <c r="B78" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C78" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-05-19',</v>
-      </c>
-      <c r="D78" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>13,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-05-19'</v>
+      </c>
+      <c r="D78">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>13</v>
       </c>
       <c r="E78" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -45585,50 +45587,50 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B79" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C79" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D79" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E79" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G79" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(80,</v>
+      <c r="A80">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>80</v>
       </c>
       <c r="B80" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C80" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-05-20',</v>
-      </c>
-      <c r="D80" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>13,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-05-20'</v>
+      </c>
+      <c r="D80">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>13</v>
       </c>
       <c r="E80" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -45637,50 +45639,50 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B81" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C81" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D81" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E81" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G81" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(82,</v>
+      <c r="A82">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>82</v>
       </c>
       <c r="B82" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C82" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-05-21',</v>
-      </c>
-      <c r="D82" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>13,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-05-21'</v>
+      </c>
+      <c r="D82">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>13</v>
       </c>
       <c r="E82" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -45689,50 +45691,50 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B83" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C83" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D83" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E83" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G83" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(84,</v>
+      <c r="A84">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>84</v>
       </c>
       <c r="B84" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C84" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-05-22',</v>
-      </c>
-      <c r="D84" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>13,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-05-22'</v>
+      </c>
+      <c r="D84">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>13</v>
       </c>
       <c r="E84" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -45741,50 +45743,50 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B85" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C85" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D85" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E85" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G85" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(86,</v>
+      <c r="A86">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>86</v>
       </c>
       <c r="B86" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C86" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-05-23',</v>
-      </c>
-      <c r="D86" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>13,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-05-23'</v>
+      </c>
+      <c r="D86">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>13</v>
       </c>
       <c r="E86" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -45793,50 +45795,50 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B87" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C87" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D87" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E87" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G87" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(88,</v>
+      <c r="A88">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>88</v>
       </c>
       <c r="B88" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C88" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-05-26',</v>
-      </c>
-      <c r="D88" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>13,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-05-26'</v>
+      </c>
+      <c r="D88">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>13</v>
       </c>
       <c r="E88" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -45845,50 +45847,50 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B89" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C89" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D89" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E89" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G89" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(90,</v>
+      <c r="A90">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>90</v>
       </c>
       <c r="B90" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C90" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-07-03',</v>
-      </c>
-      <c r="D90" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>27,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-07-03'</v>
+      </c>
+      <c r="D90">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>27</v>
       </c>
       <c r="E90" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -45897,76 +45899,76 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B91" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C91" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D91" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E91" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G91" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B92" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C92" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D92" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E92" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G92" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(93,</v>
+      <c r="A93">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>93</v>
       </c>
       <c r="B93" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYZ50502',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYZ50502'</v>
       </c>
       <c r="C93" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D93" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>3,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D93">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>3</v>
       </c>
       <c r="E93" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -45974,25 +45976,25 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(94,</v>
+      <c r="A94">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>94</v>
       </c>
       <c r="B94" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYZ50502',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYZ50502'</v>
       </c>
       <c r="C94" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D94" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>3,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D94">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>3</v>
       </c>
       <c r="E94" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -46000,25 +46002,25 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(95,</v>
+      <c r="A95">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>95</v>
       </c>
       <c r="B95" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYZ50502',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYZ50502'</v>
       </c>
       <c r="C95" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-01',</v>
-      </c>
-      <c r="D95" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>3,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-01'</v>
+      </c>
+      <c r="D95">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>3</v>
       </c>
       <c r="E95" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -46027,50 +46029,50 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B96" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C96" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D96" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E96" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G96" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(97,</v>
+      <c r="A97">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>97</v>
       </c>
       <c r="B97" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C97" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-03-01',</v>
-      </c>
-      <c r="D97" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>30,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-03-01'</v>
+      </c>
+      <c r="D97">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>30</v>
       </c>
       <c r="E97" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -46079,102 +46081,102 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B98" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C98" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D98" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E98" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G98" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B99" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C99" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D99" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E99" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G99" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B100" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C100" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D100" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E100" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G100" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(101,</v>
+      <c r="A101">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>101</v>
       </c>
       <c r="B101" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C101" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-03-01',</v>
-      </c>
-      <c r="D101" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>91,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-03-01'</v>
+      </c>
+      <c r="D101">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>91</v>
       </c>
       <c r="E101" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -46183,232 +46185,232 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B102" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C102" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D102" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E102" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G102" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B103" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C103" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D103" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E103" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G103" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B104" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C104" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D104" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E104" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G104" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B105" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C105" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D105" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E105" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G105" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B106" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C106" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D106" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E106" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G106" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B107" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C107" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D107" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E107" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G107" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B108" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C108" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D108" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E108" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G108" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
         <v/>
       </c>
       <c r="B109" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
         <v/>
       </c>
       <c r="C109" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
         <v/>
       </c>
       <c r="D109" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
         <v/>
       </c>
       <c r="E109" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
         <v/>
       </c>
       <c r="G109" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("(",ROW(),","),"")</f>
-        <v>(110,</v>
+      <c r="A110">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,ROW(),"")</f>
+        <v>110</v>
       </c>
       <c r="B110" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"',"),"")</f>
-        <v>'TUIXYA225410',</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",Tabelle4[[#This Row],[ItemSeq]],"'"),"")</f>
+        <v>'TUIXYA225410'</v>
       </c>
       <c r="C110" s="49" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"',"),"")</f>
-        <v>'2016-01-27',</v>
-      </c>
-      <c r="D110" t="str">
-        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE(Tabelle4[[#This Row],[Duration]],","),"")</f>
-        <v>13,</v>
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,CONCATENATE("'",TEXT(Tabelle4[[#This Row],[ItemStartDate]],"jjjj-MM-tt"),"'"),"")</f>
+        <v>'2016-01-27'</v>
+      </c>
+      <c r="D110">
+        <f>IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,Tabelle4[[#This Row],[Duration]],"")</f>
+        <v>13</v>
       </c>
       <c r="E110" s="49" t="str">
-        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'),"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'),")),"")</f>
-        <v>'2015-05-19'),</v>
+        <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
+        <v>'2015-05-19'</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" ca="1" si="1"/>

--- a/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
+++ b/BaseData/HotelExport/SpecialOffers/SpecialPermutationen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="ToDo" sheetId="5" r:id="rId4"/>
     <sheet name="ResultOld" sheetId="2" r:id="rId5"/>
     <sheet name="BasisFürTestSkript" sheetId="7" r:id="rId6"/>
+    <sheet name="Tabelle1" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3521" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3754" uniqueCount="375">
   <si>
     <t>ItemType</t>
   </si>
@@ -971,9 +972,6 @@
     <t>Spalte4</t>
   </si>
   <si>
-    <t>Spalte5</t>
-  </si>
-  <si>
     <t xml:space="preserve">(12.05.16-18.05.16) 12.05.16 / 512 
 (19.05.16-25.05.16) 19.05.16 / 519 </t>
   </si>
@@ -1019,16 +1017,238 @@
   <si>
     <t>BookStart</t>
   </si>
+  <si>
+    <t>(01.01.16-04.01.16) 04.01.16 / 104.00 - 11.00 = 93.00</t>
+  </si>
+  <si>
+    <t>(01.01.16-06.01.16) 06.01.16 / 106.00 - 11.00 = 95.00</t>
+  </si>
+  <si>
+    <t>(01.01.16-07.01.16) 06.01.16 / 106.00 - 11.00 = 95.00
+(01.01.16-07.01.16) 07.01.16 / 107.00 - 11.00 = 96.00</t>
+  </si>
+  <si>
+    <t>(01.01.16-04.01.16) 04.01.16 / 104.00 - 11.00 = 93.00
+(05.01.16-08.01.16) 08.01.16 / 108.00 - 11.00 = 97.00</t>
+  </si>
+  <si>
+    <t>(01.01.16-04.01.16) 04.01.16 / 104.00 - 11.00 = 93.00
+(05.01.16-08.01.16) 08.01.16 / 108.00 - 11.00 = 97.00
+(09.01.16-12.01.16) 12.01.16 / 112.00 - 11.00 = 101.00</t>
+  </si>
+  <si>
+    <t>(01.01.16-07.01.16) 06.01.16 / 106.00 - 11.00 = 95.00
+(01.01.16-07.01.16) 07.01.16 / 107.00 - 11.00 = 96.00
+(08.01.16-13.01.16) 13.01.16 / 113.00 - 11.00 = 102.00</t>
+  </si>
+  <si>
+    <t>(01.01.16-07.01.16) 06.01.16 / 106.00 - 11.00 = 95.00
+(01.01.16-07.01.16) 07.01.16 / 107.00 - 11.00 = 96.00
+(08.01.16-14.01.16) 13.01.16 / 113.00 - 11.00 = 102.00
+(08.01.16-14.01.16) 14.01.16 / 114.00 - 11.00 = 103.00</t>
+  </si>
+  <si>
+    <t>(01.01.16-07.01.16) 06.01.16 / 106.00 - 11.00 = 95.00
+(01.01.16-07.01.16) 07.01.16 / 107.00 - 11.00 = 96.00
+(08.01.16-14.01.16) 13.01.16 / 113.00 - 11.00 = 102.00
+(08.01.16-14.01.16) 14.01.16 / 114.00 - 11.00 = 103.00
+(15.01.16-20.01.16) 20.01.16 / 120.00 - 11.00 = 109.00</t>
+  </si>
+  <si>
+    <t>(01.01.16-07.01.16) 06.01.16 / 106.00 - 11.00 = 95.00
+(01.01.16-07.01.16) 07.01.16 / 107.00 - 11.00 = 96.00
+(08.01.16-14.01.16) 13.01.16 / 113.00 - 11.00 = 102.00
+(08.01.16-14.01.16) 14.01.16 / 114.00 - 11.00 = 103.00
+(15.01.16-21.01.16) 20.01.16 / 120.00 - 11.00 = 109.00
+(15.01.16-21.01.16) 21.01.16 / 121.00 - 11.00 = 110.00</t>
+  </si>
+  <si>
+    <t>(23.01.16-29.01.16) 28.01.16 / 128.00 - 11.00 = 117.00
+(23.01.16-29.01.16) 29.01.16 / 129.00 - 11.00 = 118.00</t>
+  </si>
+  <si>
+    <t>(24.01.16-30.01.16) 24.01.16 / 124.00 - 11.00 = 113.00
+(24.01.16-30.01.16) 25.01.16 / 125.00 - 11.00 = 114.00</t>
+  </si>
+  <si>
+    <t>(25.01.16-31.01.16) 30.01.16 / 125.00 - 11.00 = 114.00
+(25.01.16-31.01.16) 31.01.16 / 126.00 - 11.00 = 115.00</t>
+  </si>
+  <si>
+    <t>(26.01.16-01.02.16) 31.01.16 / 201.00 - 11.00 = 190.00
+(26.01.16-01.02.16) 01.02.16 / 131.00 - 11.00 = 120.00</t>
+  </si>
+  <si>
+    <t>(27.01.16-02.02.16) 01.02.16 / 149.71 - 11.00 = 138.71
+(27.01.16-02.02.16) 02.02.16 / 149.71 - 11.00 = 138.71</t>
+  </si>
+  <si>
+    <t>(28.01.16-03.02.16) 02.02.16 / 202.00 - 11.00 = 191.00
+(28.01.16-03.02.16) 03.02.16 / 203.00 - 11.00 = 192.00</t>
+  </si>
+  <si>
+    <t>(29.01.16-04.02.16) 03.02.16 / 203.00 - 11.00 = 192.00
+(29.01.16-04.02.16) 04.02.16 / 204.00 - 11.00 = 193.00</t>
+  </si>
+  <si>
+    <t>(30.01.16-05.02.16) 04.02.16 / 204.00 - 11.00 = 193.00
+(30.01.16-05.02.16) 05.02.16 / 205.00 - 11.00 = 194.00</t>
+  </si>
+  <si>
+    <t>(31.01.16-06.02.16) 05.02.16 / 205.00 - 11.00 = 194.00
+(31.01.16-06.02.16) 06.02.16 / 206.00 - 11.00 = 195.00</t>
+  </si>
+  <si>
+    <t>(01.02.16-07.02.16) 06.02.16 / 206.00 - 11.00 = 195.00
+(01.02.16-07.02.16) 07.02.16 / 207.00 - 11.00 = 196.00</t>
+  </si>
+  <si>
+    <t>(02.02.16-08.02.16) 07.02.16 / 207.00 - 11.00 = 196.00
+(02.02.16-08.02.16) 08.02.16 / 208.00 - 11.00 = 197.00</t>
+  </si>
+  <si>
+    <t>(04.02.16-07.02.16) 07.02.16 / 207.00</t>
+  </si>
+  <si>
+    <t>(09.02.16-12.02.16) 12.02.16 / 212.00</t>
+  </si>
+  <si>
+    <t>(10.02.16-14.02.16) 14.02.16 / 214.00 - 11.00 = 203.00</t>
+  </si>
+  <si>
+    <t>(15.02.16-19.02.16) 19.02.16 / 219.00 - 11.00 = 208.00</t>
+  </si>
+  <si>
+    <t>(18.02.16-21.02.16) 21.02.16 / 221.00</t>
+  </si>
+  <si>
+    <t>(19.02.16-23.02.16) 23.02.16 / 223.00</t>
+  </si>
+  <si>
+    <t>(23.02.16-27.02.16) 27.02.16 / 227.00</t>
+  </si>
+  <si>
+    <t>(01.03.16-04.03.16) 04.03.16 / 304.00</t>
+  </si>
+  <si>
+    <t>(02.03.16-05.03.16) 05.03.16 / 305.00</t>
+  </si>
+  <si>
+    <t>(07.03.16-10.03.16) 10.03.16 / 310.00</t>
+  </si>
+  <si>
+    <t>(14.03.16-18.03.16) 18.03.16 / 318.00</t>
+  </si>
+  <si>
+    <t>(22.03.16-25.03.16) 25.03.16 / 325.00</t>
+  </si>
+  <si>
+    <t>(01.04.16-04.04.16) 04.04.16 / 404.00</t>
+  </si>
+  <si>
+    <t>(08.04.16-12.04.16) 12.04.16 / 412.00</t>
+  </si>
+  <si>
+    <t>(01.05.16-05.05.16) 01.05.16 / 501.00</t>
+  </si>
+  <si>
+    <t>(02.05.16-06.05.16) 02.05.16 / 502.00</t>
+  </si>
+  <si>
+    <t>(03.05.16-07.05.16) 03.05.16 / 503.00</t>
+  </si>
+  <si>
+    <t>(04.05.16-08.05.16) 04.05.16 / 504.00</t>
+  </si>
+  <si>
+    <t>(05.05.16-09.05.16) 05.05.16 / 505.00</t>
+  </si>
+  <si>
+    <t>(06.05.16-09.05.16) 06.05.16 / 506.00</t>
+  </si>
+  <si>
+    <t>(07.05.16-10.05.16) 07.05.16 / 507.00</t>
+  </si>
+  <si>
+    <t>(18.05.16-21.05.16) 18.05.16 / 518.00
+(22.05.16-25.05.16) 22.05.16 / 522.00</t>
+  </si>
+  <si>
+    <t>(19.05.16-25.05.16) 19.05.16 / 519.00</t>
+  </si>
+  <si>
+    <t>(20.05.16-26.05.16) 20.05.16 / 520.00</t>
+  </si>
+  <si>
+    <t>(21.05.16-27.05.16) 21.05.16 / 521.00</t>
+  </si>
+  <si>
+    <t>(22.05.16-25.05.16) 22.05.16 / 522.00</t>
+  </si>
+  <si>
+    <t>(23.05.16-26.05.16) 23.05.16 / 523.00</t>
+  </si>
+  <si>
+    <t>(26.05.16-31.05.16) 26.05.16 / 526.00
+(01.06.16-06.06.16) 01.06.16 / 601.00</t>
+  </si>
+  <si>
+    <t>(03.07.16-23.07.16) 18.07.16 / 713.00
+(03.07.16-23.07.16) 19.07.16 / 713.00
+(03.07.16-23.07.16) 20.07.16 / 713.00
+(03.07.16-23.07.16) 21.07.16 / 713.00
+(03.07.16-23.07.16) 22.07.16 / 713.00
+(03.07.16-23.07.16) 23.07.16 / 713.00</t>
+  </si>
+  <si>
+    <t>(01.01.16-03.01.16) 03.01.16 / 66.00</t>
+  </si>
+  <si>
+    <t>(27.01.16-02.02.16) 01.02.16 / 149.71 - 11.00 = 138.71
+(27.01.16-02.02.16) 02.02.16 / 149.71 - 11.00 = 138.71
+(03.02.16-08.02.16) 08.02.16 / 205.50 - 11.00 = 194.50</t>
+  </si>
+  <si>
+    <t>Spalte9</t>
+  </si>
+  <si>
+    <t>Spalte10</t>
+  </si>
+  <si>
+    <t>Spalte11</t>
+  </si>
+  <si>
+    <t>Spalte12</t>
+  </si>
+  <si>
+    <t>Spalte13</t>
+  </si>
+  <si>
+    <t>LineNr</t>
+  </si>
+  <si>
+    <t>TestSeq</t>
+  </si>
+  <si>
+    <t>TestStartDate</t>
+  </si>
+  <si>
+    <t>TestDuration</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mmm\ d&quot;, &quot;yy"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1221,6 +1441,16 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1639,7 +1869,7 @@
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1785,6 +2015,28 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="71">
     <cellStyle name="20 % - Akzent1" xfId="17" builtinId="30" customBuiltin="1"/>
@@ -1859,7 +2111,7 @@
     <cellStyle name="Warnender Text" xfId="1" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="2" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="112">
+  <dxfs count="120">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2268,6 +2520,36 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2523,77 +2805,87 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:L1048565" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:L1048565" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="A1:L1048565"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="ItemType" dataDxfId="109"/>
-    <tableColumn id="2" name="Dest" dataDxfId="108"/>
-    <tableColumn id="3" name="ParentCode" dataDxfId="107"/>
-    <tableColumn id="4" name="ItemCode" dataDxfId="106"/>
-    <tableColumn id="5" name="MealCode" dataDxfId="105"/>
-    <tableColumn id="6" name="CurrentDate" dataDxfId="104"/>
-    <tableColumn id="7" name="Adult" dataDxfId="103"/>
-    <tableColumn id="8" name="Chd" dataDxfId="102"/>
-    <tableColumn id="9" name="Inf" dataDxfId="101"/>
-    <tableColumn id="10" name="ItemStartDate" dataDxfId="100"/>
-    <tableColumn id="11" name="Duration" dataDxfId="99"/>
-    <tableColumn id="12" name="Notes" dataDxfId="98"/>
+    <tableColumn id="1" name="ItemType" dataDxfId="117"/>
+    <tableColumn id="2" name="Dest" dataDxfId="116"/>
+    <tableColumn id="3" name="ParentCode" dataDxfId="115"/>
+    <tableColumn id="4" name="ItemCode" dataDxfId="114"/>
+    <tableColumn id="5" name="MealCode" dataDxfId="113"/>
+    <tableColumn id="6" name="CurrentDate" dataDxfId="112"/>
+    <tableColumn id="7" name="Adult" dataDxfId="111"/>
+    <tableColumn id="8" name="Chd" dataDxfId="110"/>
+    <tableColumn id="9" name="Inf" dataDxfId="109"/>
+    <tableColumn id="10" name="ItemStartDate" dataDxfId="108"/>
+    <tableColumn id="11" name="Duration" dataDxfId="107"/>
+    <tableColumn id="12" name="Notes" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:AU110" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
-  <autoFilter ref="A1:AU110"/>
-  <tableColumns count="47">
-    <tableColumn id="1" name="ItemType" dataDxfId="95" dataCellStyle="Standard 4"/>
-    <tableColumn id="2" name="Dest" dataDxfId="94" dataCellStyle="Standard 4"/>
-    <tableColumn id="3" name="ParentCode" dataDxfId="93" dataCellStyle="Standard 4"/>
-    <tableColumn id="4" name="ItemCode" dataDxfId="92" dataCellStyle="Standard 4"/>
-    <tableColumn id="5" name="MealCode" dataDxfId="91" dataCellStyle="Standard 4"/>
-    <tableColumn id="6" name="CurrentDate" dataDxfId="90" dataCellStyle="Standard 4"/>
-    <tableColumn id="7" name="Adult" dataDxfId="89" dataCellStyle="Standard 4"/>
-    <tableColumn id="8" name="Chd" dataDxfId="88" dataCellStyle="Standard 4"/>
-    <tableColumn id="9" name="Inf" dataDxfId="87" dataCellStyle="Standard 4"/>
-    <tableColumn id="10" name="ItemStartDate" dataDxfId="86" dataCellStyle="Standard 4"/>
-    <tableColumn id="11" name="Duration" dataDxfId="85" dataCellStyle="Standard 4"/>
-    <tableColumn id="12" name="Notes" dataDxfId="84" dataCellStyle="Standard 4"/>
-    <tableColumn id="13" name="DateFrom" dataDxfId="83" dataCellStyle="Standard 4"/>
-    <tableColumn id="14" name="DateTo" dataDxfId="82" dataCellStyle="Standard 4"/>
-    <tableColumn id="15" name="Days" dataDxfId="81" dataCellStyle="Standard 4"/>
-    <tableColumn id="16" name="DayString" dataDxfId="80" dataCellStyle="Standard 4"/>
-    <tableColumn id="17" name="RuleDesc" dataDxfId="79" dataCellStyle="Standard 4"/>
-    <tableColumn id="18" name="PayNights" dataDxfId="78" dataCellStyle="Standard 4"/>
-    <tableColumn id="19" name="Type" dataDxfId="77" dataCellStyle="Standard 4"/>
-    <tableColumn id="20" name="EffectiveSpecialDays" dataDxfId="76" dataCellStyle="Standard 4"/>
-    <tableColumn id="21" name="LastSpOffEndDate" dataDxfId="75" dataCellStyle="Standard 4"/>
-    <tableColumn id="22" name="RevolvingGroup" dataDxfId="74" dataCellStyle="Standard 4"/>
-    <tableColumn id="23" name="StartDateRelevant" dataDxfId="73" dataCellStyle="Standard 4"/>
-    <tableColumn id="24" name="EndDateRelevant" dataDxfId="72" dataCellStyle="Standard 4"/>
-    <tableColumn id="25" name="DescId" dataDxfId="71" dataCellStyle="Standard 4"/>
-    <tableColumn id="26" name="DaysBeforeDepartureFrom" dataDxfId="70" dataCellStyle="Standard 4"/>
-    <tableColumn id="27" name="DaysBeforeDepartureTo" dataDxfId="69" dataCellStyle="Standard 4"/>
-    <tableColumn id="28" name="DateBeforeDepartureFrom" dataDxfId="68" dataCellStyle="Standard 4"/>
-    <tableColumn id="29" name="DateBeforeDepartureTo" dataDxfId="67" dataCellStyle="Standard 4"/>
-    <tableColumn id="30" name="ChildAdultNr" dataDxfId="66" dataCellStyle="Standard 4"/>
-    <tableColumn id="31" name="ChildChildNr" dataDxfId="65" dataCellStyle="Standard 4"/>
-    <tableColumn id="32" name="FromDayBase" dataDxfId="64" dataCellStyle="Standard 4"/>
-    <tableColumn id="33" name="ToDayBase" dataDxfId="63" dataCellStyle="Standard 4"/>
-    <tableColumn id="34" name="Child" dataDxfId="62" dataCellStyle="Standard 4"/>
-    <tableColumn id="35" name="Baby" dataDxfId="61" dataCellStyle="Standard 4"/>
-    <tableColumn id="36" name="RuleType" dataDxfId="60" dataCellStyle="Standard 4"/>
-    <tableColumn id="37" name="AddAmount" dataDxfId="59" dataCellStyle="Standard 4"/>
-    <tableColumn id="38" name="ItemSeq" dataDxfId="58" dataCellStyle="Standard 4"/>
-    <tableColumn id="39" name="ParentSeq" dataDxfId="57" dataCellStyle="Standard 4"/>
-    <tableColumn id="40" name="SpecialSeq" dataDxfId="56" dataCellStyle="Standard 4"/>
-    <tableColumn id="41" name="TotalSavings" dataDxfId="55" dataCellStyle="Standard 4"/>
-    <tableColumn id="42" name="TotalPrice" dataDxfId="54" dataCellStyle="Standard 4"/>
-    <tableColumn id="43" name="Spalte1" dataDxfId="53"/>
-    <tableColumn id="44" name="Spalte2" dataDxfId="52"/>
-    <tableColumn id="45" name="Spalte3" dataDxfId="51"/>
-    <tableColumn id="46" name="Spalte4" dataDxfId="50"/>
-    <tableColumn id="47" name="Spalte5" dataDxfId="49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:BC110" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
+  <autoFilter ref="A1:BC110"/>
+  <tableColumns count="55">
+    <tableColumn id="1" name="ItemType" dataDxfId="103" dataCellStyle="Standard 4"/>
+    <tableColumn id="2" name="Dest" dataDxfId="102" dataCellStyle="Standard 4"/>
+    <tableColumn id="3" name="ParentCode" dataDxfId="101" dataCellStyle="Standard 4"/>
+    <tableColumn id="4" name="ItemCode" dataDxfId="100" dataCellStyle="Standard 4"/>
+    <tableColumn id="5" name="MealCode" dataDxfId="99" dataCellStyle="Standard 4"/>
+    <tableColumn id="6" name="CurrentDate" dataDxfId="98" dataCellStyle="Standard 4"/>
+    <tableColumn id="7" name="Adult" dataDxfId="97" dataCellStyle="Standard 4"/>
+    <tableColumn id="8" name="Chd" dataDxfId="96" dataCellStyle="Standard 4"/>
+    <tableColumn id="9" name="Inf" dataDxfId="95" dataCellStyle="Standard 4"/>
+    <tableColumn id="10" name="ItemStartDate" dataDxfId="94" dataCellStyle="Standard 4"/>
+    <tableColumn id="11" name="Duration" dataDxfId="93" dataCellStyle="Standard 4"/>
+    <tableColumn id="12" name="Notes" dataDxfId="92" dataCellStyle="Standard 4"/>
+    <tableColumn id="13" name="DateFrom" dataDxfId="91" dataCellStyle="Standard 4"/>
+    <tableColumn id="14" name="DateTo" dataDxfId="90" dataCellStyle="Standard 4"/>
+    <tableColumn id="15" name="Days" dataDxfId="89" dataCellStyle="Standard 4"/>
+    <tableColumn id="16" name="DayString" dataDxfId="88" dataCellStyle="Standard 4"/>
+    <tableColumn id="17" name="RuleDesc" dataDxfId="87" dataCellStyle="Standard 4"/>
+    <tableColumn id="18" name="PayNights" dataDxfId="86" dataCellStyle="Standard 4"/>
+    <tableColumn id="19" name="Type" dataDxfId="85" dataCellStyle="Standard 4"/>
+    <tableColumn id="20" name="EffectiveSpecialDays" dataDxfId="84" dataCellStyle="Standard 4"/>
+    <tableColumn id="21" name="LastSpOffEndDate" dataDxfId="83" dataCellStyle="Standard 4"/>
+    <tableColumn id="22" name="RevolvingGroup" dataDxfId="82" dataCellStyle="Standard 4"/>
+    <tableColumn id="23" name="StartDateRelevant" dataDxfId="81" dataCellStyle="Standard 4"/>
+    <tableColumn id="24" name="EndDateRelevant" dataDxfId="80" dataCellStyle="Standard 4"/>
+    <tableColumn id="25" name="DescId" dataDxfId="79" dataCellStyle="Standard 4"/>
+    <tableColumn id="26" name="DaysBeforeDepartureFrom" dataDxfId="78" dataCellStyle="Standard 4"/>
+    <tableColumn id="27" name="DaysBeforeDepartureTo" dataDxfId="77" dataCellStyle="Standard 4"/>
+    <tableColumn id="28" name="DateBeforeDepartureFrom" dataDxfId="76" dataCellStyle="Standard 4"/>
+    <tableColumn id="29" name="DateBeforeDepartureTo" dataDxfId="75" dataCellStyle="Standard 4"/>
+    <tableColumn id="30" name="ChildAdultNr" dataDxfId="74" dataCellStyle="Standard 4"/>
+    <tableColumn id="31" name="ChildChildNr" dataDxfId="73" dataCellStyle="Standard 4"/>
+    <tableColumn id="32" name="FromDayBase" dataDxfId="72" dataCellStyle="Standard 4"/>
+    <tableColumn id="33" name="ToDayBase" dataDxfId="71" dataCellStyle="Standard 4"/>
+    <tableColumn id="34" name="Child" dataDxfId="70" dataCellStyle="Standard 4"/>
+    <tableColumn id="35" name="Baby" dataDxfId="69" dataCellStyle="Standard 4"/>
+    <tableColumn id="36" name="RuleType" dataDxfId="68" dataCellStyle="Standard 4"/>
+    <tableColumn id="37" name="AddAmount" dataDxfId="67" dataCellStyle="Standard 4"/>
+    <tableColumn id="38" name="ItemSeq" dataDxfId="66" dataCellStyle="Standard 4"/>
+    <tableColumn id="39" name="ParentSeq" dataDxfId="65" dataCellStyle="Standard 4"/>
+    <tableColumn id="40" name="SpecialSeq" dataDxfId="64" dataCellStyle="Standard 4"/>
+    <tableColumn id="41" name="TotalSavings" dataDxfId="63" dataCellStyle="Standard 4"/>
+    <tableColumn id="42" name="TotalPrice" dataDxfId="62" dataCellStyle="Standard 4"/>
+    <tableColumn id="43" name="Spalte1" dataDxfId="61"/>
+    <tableColumn id="44" name="Spalte2" dataDxfId="60"/>
+    <tableColumn id="45" name="Spalte3" dataDxfId="59"/>
+    <tableColumn id="46" name="Spalte4" dataDxfId="58"/>
+    <tableColumn id="47" name="LineNr" dataDxfId="57"/>
+    <tableColumn id="48" name="TestSeq" dataDxfId="56"/>
+    <tableColumn id="49" name="TestStartDate" dataDxfId="55"/>
+    <tableColumn id="50" name="TestDuration" dataDxfId="54"/>
+    <tableColumn id="51" name="Spalte9" dataDxfId="53"/>
+    <tableColumn id="52" name="Spalte10" dataDxfId="52"/>
+    <tableColumn id="53" name="Spalte11" dataDxfId="51"/>
+    <tableColumn id="54" name="Spalte12" dataDxfId="50">
+      <calculatedColumnFormula>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="55" name="Spalte13" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -19067,10 +19359,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU110"/>
+  <dimension ref="A1:BC110"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2"/>
+    <sheetView tabSelected="1" topLeftCell="AO88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AU97" sqref="AU97:BA97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19118,10 +19410,14 @@
     <col min="41" max="41" width="15.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="13.42578125" style="17" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="11.42578125" style="2"/>
+    <col min="44" max="49" width="11.42578125" style="2"/>
+    <col min="50" max="50" width="11.42578125" style="36"/>
+    <col min="51" max="52" width="11.42578125" style="57"/>
+    <col min="53" max="54" width="11.42578125" style="17"/>
+    <col min="55" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -19261,10 +19557,34 @@
         <v>299</v>
       </c>
       <c r="AU1" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" ht="60" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="AV1" s="54" t="s">
+        <v>371</v>
+      </c>
+      <c r="AW1" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="AX1" s="55" t="s">
+        <v>373</v>
+      </c>
+      <c r="AY1" s="56" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ1" s="56" t="s">
+        <v>366</v>
+      </c>
+      <c r="BA1" s="53" t="s">
+        <v>367</v>
+      </c>
+      <c r="BB1" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="BC1" s="54" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>36</v>
       </c>
@@ -19339,8 +19659,33 @@
       <c r="AP2" s="26">
         <v>306</v>
       </c>
-    </row>
-    <row r="3" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="AU2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW2" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX2" s="36">
+        <v>3</v>
+      </c>
+      <c r="AY2" s="57">
+        <v>42372</v>
+      </c>
+      <c r="AZ2" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA2" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>36</v>
       </c>
@@ -19387,7 +19732,7 @@
         <v>4</v>
       </c>
       <c r="P3" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q3" s="25" t="s">
         <v>51</v>
@@ -19463,8 +19808,33 @@
       <c r="AP3" s="26">
         <v>317</v>
       </c>
-    </row>
-    <row r="4" spans="1:47" ht="45" x14ac:dyDescent="0.25">
+      <c r="AU3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AV3" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW3" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX3" s="36">
+        <v>4</v>
+      </c>
+      <c r="AY3" s="57">
+        <v>42373</v>
+      </c>
+      <c r="AZ3" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA3" s="17">
+        <v>93</v>
+      </c>
+      <c r="BB3" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>36</v>
       </c>
@@ -19511,7 +19881,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="25" t="s">
         <v>51</v>
@@ -19587,8 +19957,33 @@
       <c r="AP4" s="26">
         <v>422</v>
       </c>
-    </row>
-    <row r="5" spans="1:47" ht="45" x14ac:dyDescent="0.25">
+      <c r="AU4" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV4" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW4" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX4" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY4" s="57">
+        <v>42374</v>
+      </c>
+      <c r="AZ4" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA4" s="17">
+        <v>93</v>
+      </c>
+      <c r="BB4" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>36</v>
       </c>
@@ -19635,7 +20030,7 @@
         <v>6</v>
       </c>
       <c r="P5" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="25" t="s">
         <v>63</v>
@@ -19711,8 +20106,33 @@
       <c r="AP5" s="26">
         <v>526</v>
       </c>
-    </row>
-    <row r="6" spans="1:47" ht="45" x14ac:dyDescent="0.25">
+      <c r="AU5" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV5" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW5" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX5" s="36">
+        <v>6</v>
+      </c>
+      <c r="AY5" s="57">
+        <v>42375</v>
+      </c>
+      <c r="AZ5" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA5" s="17">
+        <v>95</v>
+      </c>
+      <c r="BB5" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>36</v>
       </c>
@@ -19759,7 +20179,7 @@
         <v>7</v>
       </c>
       <c r="P6" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q6" s="25" t="s">
         <v>63</v>
@@ -19835,8 +20255,33 @@
       <c r="AP6" s="26">
         <v>537</v>
       </c>
-    </row>
-    <row r="7" spans="1:47" ht="60" x14ac:dyDescent="0.25">
+      <c r="AU6" s="2">
+        <v>6</v>
+      </c>
+      <c r="AV6" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW6" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX6" s="36">
+        <v>7</v>
+      </c>
+      <c r="AY6" s="57">
+        <v>42376</v>
+      </c>
+      <c r="AZ6" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA6" s="17">
+        <v>191</v>
+      </c>
+      <c r="BB6" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>36</v>
       </c>
@@ -19959,8 +20404,33 @@
       <c r="AP7" s="26">
         <v>646</v>
       </c>
-    </row>
-    <row r="8" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="AU7" s="2">
+        <v>7</v>
+      </c>
+      <c r="AV7" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW7" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX7" s="36">
+        <v>8</v>
+      </c>
+      <c r="AY7" s="57">
+        <v>42377</v>
+      </c>
+      <c r="AZ7" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA7" s="17">
+        <v>190</v>
+      </c>
+      <c r="BB7" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>36</v>
       </c>
@@ -20083,8 +20553,33 @@
       <c r="AP8" s="26">
         <v>755</v>
       </c>
-    </row>
-    <row r="9" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="AU8" s="2">
+        <v>8</v>
+      </c>
+      <c r="AV8" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW8" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX8" s="36">
+        <v>9</v>
+      </c>
+      <c r="AY8" s="57">
+        <v>42378</v>
+      </c>
+      <c r="AZ8" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA8" s="17">
+        <v>190</v>
+      </c>
+      <c r="BB8" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>36</v>
       </c>
@@ -20207,8 +20702,33 @@
       <c r="AP9" s="26">
         <v>865</v>
       </c>
-    </row>
-    <row r="10" spans="1:47" ht="75" x14ac:dyDescent="0.25">
+      <c r="AU9" s="2">
+        <v>9</v>
+      </c>
+      <c r="AV9" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW9" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX9" s="36">
+        <v>10</v>
+      </c>
+      <c r="AY9" s="57">
+        <v>42379</v>
+      </c>
+      <c r="AZ9" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA9" s="17">
+        <v>190</v>
+      </c>
+      <c r="BB9" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>36</v>
       </c>
@@ -20331,8 +20851,33 @@
       <c r="AP10" s="26">
         <v>976</v>
       </c>
-    </row>
-    <row r="11" spans="1:47" ht="60" x14ac:dyDescent="0.25">
+      <c r="AU10" s="2">
+        <v>10</v>
+      </c>
+      <c r="AV10" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW10" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX10" s="36">
+        <v>11</v>
+      </c>
+      <c r="AY10" s="57">
+        <v>42380</v>
+      </c>
+      <c r="AZ10" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA10" s="17">
+        <v>190</v>
+      </c>
+      <c r="BB10" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>36</v>
       </c>
@@ -20455,8 +21000,33 @@
       <c r="AP11" s="26">
         <v>987</v>
       </c>
-    </row>
-    <row r="12" spans="1:47" ht="60" x14ac:dyDescent="0.25">
+      <c r="AU11" s="2">
+        <v>11</v>
+      </c>
+      <c r="AV11" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW11" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX11" s="36">
+        <v>12</v>
+      </c>
+      <c r="AY11" s="57">
+        <v>42381</v>
+      </c>
+      <c r="AZ11" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA11" s="17">
+        <v>291</v>
+      </c>
+      <c r="BB11" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>36</v>
       </c>
@@ -20579,8 +21149,33 @@
       <c r="AP12" s="26">
         <v>1098</v>
       </c>
-    </row>
-    <row r="13" spans="1:47" ht="60" x14ac:dyDescent="0.25">
+      <c r="AU12" s="2">
+        <v>12</v>
+      </c>
+      <c r="AV12" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW12" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX12" s="36">
+        <v>13</v>
+      </c>
+      <c r="AY12" s="57">
+        <v>42382</v>
+      </c>
+      <c r="AZ12" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA12" s="17">
+        <v>293</v>
+      </c>
+      <c r="BB12" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>36</v>
       </c>
@@ -20703,8 +21298,33 @@
       <c r="AP13" s="26">
         <v>1109</v>
       </c>
-    </row>
-    <row r="14" spans="1:47" ht="60" x14ac:dyDescent="0.25">
+      <c r="AU13" s="2">
+        <v>13</v>
+      </c>
+      <c r="AV13" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW13" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX13" s="36">
+        <v>14</v>
+      </c>
+      <c r="AY13" s="57">
+        <v>42383</v>
+      </c>
+      <c r="AZ13" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA13" s="17">
+        <v>396</v>
+      </c>
+      <c r="BB13" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>36</v>
       </c>
@@ -20827,8 +21447,33 @@
       <c r="AP14" s="26">
         <v>1224</v>
       </c>
-    </row>
-    <row r="15" spans="1:47" ht="90" x14ac:dyDescent="0.25">
+      <c r="AU14" s="2">
+        <v>14</v>
+      </c>
+      <c r="AV14" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW14" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX14" s="36">
+        <v>15</v>
+      </c>
+      <c r="AY14" s="57">
+        <v>42384</v>
+      </c>
+      <c r="AZ14" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA14" s="17">
+        <v>396</v>
+      </c>
+      <c r="BB14" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>36</v>
       </c>
@@ -20951,8 +21596,33 @@
       <c r="AP15" s="26">
         <v>1340</v>
       </c>
-    </row>
-    <row r="16" spans="1:47" ht="90" x14ac:dyDescent="0.25">
+      <c r="AU15" s="2">
+        <v>15</v>
+      </c>
+      <c r="AV15" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW15" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX15" s="36">
+        <v>16</v>
+      </c>
+      <c r="AY15" s="57">
+        <v>42385</v>
+      </c>
+      <c r="AZ15" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA15" s="17">
+        <v>396</v>
+      </c>
+      <c r="BB15" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>36</v>
       </c>
@@ -21075,8 +21745,33 @@
       <c r="AP16" s="26">
         <v>1457</v>
       </c>
-    </row>
-    <row r="17" spans="1:42" ht="105" x14ac:dyDescent="0.25">
+      <c r="AU16" s="2">
+        <v>16</v>
+      </c>
+      <c r="AV16" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW16" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX16" s="36">
+        <v>17</v>
+      </c>
+      <c r="AY16" s="57">
+        <v>42386</v>
+      </c>
+      <c r="AZ16" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA16" s="17">
+        <v>396</v>
+      </c>
+      <c r="BB16" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:54" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>36</v>
       </c>
@@ -21199,8 +21894,33 @@
       <c r="AP17" s="26">
         <v>1468</v>
       </c>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AU17" s="2">
+        <v>17</v>
+      </c>
+      <c r="AV17" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW17" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX17" s="36">
+        <v>18</v>
+      </c>
+      <c r="AY17" s="57">
+        <v>42387</v>
+      </c>
+      <c r="AZ17" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA17" s="17">
+        <v>503</v>
+      </c>
+      <c r="BB17" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>36</v>
       </c>
@@ -21225,7 +21945,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q18" s="25" t="s">
         <v>51</v>
@@ -21297,8 +22017,13 @@
       </c>
       <c r="AO18" s="26"/>
       <c r="AP18" s="26"/>
-    </row>
-    <row r="19" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+      <c r="AW18" s="57"/>
+      <c r="BB18" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>36</v>
       </c>
@@ -21421,8 +22146,33 @@
       <c r="AP19" s="26">
         <v>1587</v>
       </c>
-    </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AU19" s="2">
+        <v>19</v>
+      </c>
+      <c r="AV19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW19" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX19" s="36">
+        <v>19</v>
+      </c>
+      <c r="AY19" s="57">
+        <v>42388</v>
+      </c>
+      <c r="AZ19" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA19" s="17">
+        <v>503</v>
+      </c>
+      <c r="BB19" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>36</v>
       </c>
@@ -21447,7 +22197,7 @@
         <v>4</v>
       </c>
       <c r="P20" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q20" s="25" t="s">
         <v>51</v>
@@ -21519,8 +22269,13 @@
       </c>
       <c r="AO20" s="26"/>
       <c r="AP20" s="26"/>
-    </row>
-    <row r="21" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+      <c r="AW20" s="57"/>
+      <c r="BB20" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:54" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>36</v>
       </c>
@@ -21643,8 +22398,33 @@
       <c r="AP21" s="26">
         <v>1705</v>
       </c>
-    </row>
-    <row r="22" spans="1:42" ht="90" x14ac:dyDescent="0.25">
+      <c r="AU21" s="2">
+        <v>21</v>
+      </c>
+      <c r="AV21" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW21" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX21" s="36">
+        <v>20</v>
+      </c>
+      <c r="AY21" s="57">
+        <v>42389</v>
+      </c>
+      <c r="AZ21" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA21" s="17">
+        <v>505</v>
+      </c>
+      <c r="BB21" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:54" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>36</v>
       </c>
@@ -21767,8 +22547,33 @@
       <c r="AP22" s="26">
         <v>1716</v>
       </c>
-    </row>
-    <row r="23" spans="1:42" ht="90" x14ac:dyDescent="0.25">
+      <c r="AU22" s="2">
+        <v>22</v>
+      </c>
+      <c r="AV22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW22" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX22" s="36">
+        <v>21</v>
+      </c>
+      <c r="AY22" s="57">
+        <v>42390</v>
+      </c>
+      <c r="AZ22" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA22" s="17">
+        <v>615</v>
+      </c>
+      <c r="BB22" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:54" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>36</v>
       </c>
@@ -21891,8 +22696,33 @@
       <c r="AP23" s="26">
         <v>1838</v>
       </c>
-    </row>
-    <row r="24" spans="1:42" ht="90" x14ac:dyDescent="0.25">
+      <c r="AU23" s="2">
+        <v>23</v>
+      </c>
+      <c r="AV23" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW23" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX23" s="36">
+        <v>22</v>
+      </c>
+      <c r="AY23" s="57">
+        <v>42391</v>
+      </c>
+      <c r="AZ23" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA23" s="17">
+        <v>615</v>
+      </c>
+      <c r="BB23" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:54" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>36</v>
       </c>
@@ -22015,8 +22845,40 @@
       <c r="AP24" s="26">
         <v>1961</v>
       </c>
-    </row>
-    <row r="26" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="AU24" s="2">
+        <v>24</v>
+      </c>
+      <c r="AV24" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW24" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX24" s="36">
+        <v>23</v>
+      </c>
+      <c r="AY24" s="57">
+        <v>42392</v>
+      </c>
+      <c r="AZ24" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA24" s="17">
+        <v>615</v>
+      </c>
+      <c r="BB24" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AW25" s="57"/>
+      <c r="BB25" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>36</v>
       </c>
@@ -22063,7 +22925,7 @@
         <v>7</v>
       </c>
       <c r="P26" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="25" t="s">
         <v>63</v>
@@ -22139,8 +23001,33 @@
       <c r="AP26" s="26">
         <v>647</v>
       </c>
-    </row>
-    <row r="27" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="AU26" s="2">
+        <v>26</v>
+      </c>
+      <c r="AV26" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW26" s="57">
+        <v>42392</v>
+      </c>
+      <c r="AX26" s="36">
+        <v>7</v>
+      </c>
+      <c r="AY26" s="57">
+        <v>42398</v>
+      </c>
+      <c r="AZ26" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA26" s="17">
+        <v>235</v>
+      </c>
+      <c r="BB26" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>36</v>
       </c>
@@ -22187,7 +23074,7 @@
         <v>7</v>
       </c>
       <c r="P27" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q27" s="25" t="s">
         <v>63</v>
@@ -22263,8 +23150,33 @@
       <c r="AP27" s="26">
         <v>662</v>
       </c>
-    </row>
-    <row r="28" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+      <c r="AU27" s="2">
+        <v>27</v>
+      </c>
+      <c r="AV27" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW27" s="57">
+        <v>42393</v>
+      </c>
+      <c r="AX27" s="36">
+        <v>7</v>
+      </c>
+      <c r="AY27" s="57">
+        <v>42399</v>
+      </c>
+      <c r="AZ27" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA27" s="17">
+        <v>227</v>
+      </c>
+      <c r="BB27" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>36</v>
       </c>
@@ -22311,7 +23223,7 @@
         <v>7</v>
       </c>
       <c r="P28" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="25" t="s">
         <v>63</v>
@@ -22387,8 +23299,33 @@
       <c r="AP28" s="26">
         <v>667</v>
       </c>
-    </row>
-    <row r="29" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+      <c r="AU28" s="2">
+        <v>28</v>
+      </c>
+      <c r="AV28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW28" s="57">
+        <v>42394</v>
+      </c>
+      <c r="AX28" s="36">
+        <v>7</v>
+      </c>
+      <c r="AY28" s="57">
+        <v>42400</v>
+      </c>
+      <c r="AZ28" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA28" s="17">
+        <v>229</v>
+      </c>
+      <c r="BB28" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>36</v>
       </c>
@@ -22435,7 +23372,7 @@
         <v>7</v>
       </c>
       <c r="P29" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q29" s="25" t="s">
         <v>63</v>
@@ -22511,8 +23448,33 @@
       <c r="AP29" s="26">
         <v>662</v>
       </c>
-    </row>
-    <row r="30" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+      <c r="AU29" s="2">
+        <v>29</v>
+      </c>
+      <c r="AV29" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW29" s="57">
+        <v>42395</v>
+      </c>
+      <c r="AX29" s="36">
+        <v>7</v>
+      </c>
+      <c r="AY29" s="57">
+        <v>42401</v>
+      </c>
+      <c r="AZ29" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA29" s="17">
+        <v>310</v>
+      </c>
+      <c r="BB29" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>36</v>
       </c>
@@ -22547,7 +23509,7 @@
         <v>7</v>
       </c>
       <c r="L30" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M30" s="28">
         <v>42396</v>
@@ -22559,7 +23521,7 @@
         <v>7</v>
       </c>
       <c r="P30" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q30" s="25" t="s">
         <v>63</v>
@@ -22571,7 +23533,7 @@
         <v>86</v>
       </c>
       <c r="T30" s="47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U30" s="28">
         <v>42402</v>
@@ -22635,8 +23597,40 @@
       <c r="AP30" s="26">
         <v>770.58</v>
       </c>
-    </row>
-    <row r="32" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+      <c r="AU30" s="2">
+        <v>30</v>
+      </c>
+      <c r="AV30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW30" s="57">
+        <v>42396</v>
+      </c>
+      <c r="AX30" s="36">
+        <v>7</v>
+      </c>
+      <c r="AY30" s="57">
+        <v>42402</v>
+      </c>
+      <c r="AZ30" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA30" s="17">
+        <v>277.42</v>
+      </c>
+      <c r="BB30" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AW31" s="57"/>
+      <c r="BB31" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:54" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>36</v>
       </c>
@@ -22683,7 +23677,7 @@
         <v>7</v>
       </c>
       <c r="P32" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q32" s="25" t="s">
         <v>63</v>
@@ -22759,8 +23753,33 @@
       <c r="AP32" s="26">
         <v>741</v>
       </c>
-    </row>
-    <row r="33" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="AU32" s="2">
+        <v>32</v>
+      </c>
+      <c r="AV32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW32" s="57">
+        <v>42397</v>
+      </c>
+      <c r="AX32" s="36">
+        <v>7</v>
+      </c>
+      <c r="AY32" s="57">
+        <v>42403</v>
+      </c>
+      <c r="AZ32" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA32" s="17">
+        <v>383</v>
+      </c>
+      <c r="BB32" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>36</v>
       </c>
@@ -22807,7 +23826,7 @@
         <v>7</v>
       </c>
       <c r="P33" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q33" s="25" t="s">
         <v>63</v>
@@ -22883,8 +23902,33 @@
       <c r="AP33" s="26">
         <v>815</v>
       </c>
-    </row>
-    <row r="34" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="AU33" s="2">
+        <v>33</v>
+      </c>
+      <c r="AV33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW33" s="57">
+        <v>42398</v>
+      </c>
+      <c r="AX33" s="36">
+        <v>7</v>
+      </c>
+      <c r="AY33" s="57">
+        <v>42404</v>
+      </c>
+      <c r="AZ33" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA33" s="17">
+        <v>385</v>
+      </c>
+      <c r="BB33" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>36</v>
       </c>
@@ -22931,7 +23975,7 @@
         <v>7</v>
       </c>
       <c r="P34" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q34" s="25" t="s">
         <v>63</v>
@@ -23007,8 +24051,33 @@
       <c r="AP34" s="26">
         <v>889</v>
       </c>
-    </row>
-    <row r="35" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="AU34" s="2">
+        <v>34</v>
+      </c>
+      <c r="AV34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW34" s="57">
+        <v>42399</v>
+      </c>
+      <c r="AX34" s="36">
+        <v>7</v>
+      </c>
+      <c r="AY34" s="57">
+        <v>42405</v>
+      </c>
+      <c r="AZ34" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA34" s="17">
+        <v>387</v>
+      </c>
+      <c r="BB34" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>36</v>
       </c>
@@ -23055,7 +24124,7 @@
         <v>7</v>
       </c>
       <c r="P35" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q35" s="25" t="s">
         <v>63</v>
@@ -23131,8 +24200,33 @@
       <c r="AP35" s="26">
         <v>963</v>
       </c>
-    </row>
-    <row r="36" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="AU35" s="2">
+        <v>35</v>
+      </c>
+      <c r="AV35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW35" s="57">
+        <v>42400</v>
+      </c>
+      <c r="AX35" s="36">
+        <v>7</v>
+      </c>
+      <c r="AY35" s="57">
+        <v>42406</v>
+      </c>
+      <c r="AZ35" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA35" s="17">
+        <v>389</v>
+      </c>
+      <c r="BB35" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>36</v>
       </c>
@@ -23179,7 +24273,7 @@
         <v>7</v>
       </c>
       <c r="P36" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q36" s="25" t="s">
         <v>63</v>
@@ -23255,8 +24349,33 @@
       <c r="AP36" s="26">
         <v>1037</v>
       </c>
-    </row>
-    <row r="37" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="AU36" s="2">
+        <v>36</v>
+      </c>
+      <c r="AV36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW36" s="57">
+        <v>42401</v>
+      </c>
+      <c r="AX36" s="36">
+        <v>7</v>
+      </c>
+      <c r="AY36" s="57">
+        <v>42407</v>
+      </c>
+      <c r="AZ36" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA36" s="17">
+        <v>391</v>
+      </c>
+      <c r="BB36" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>36</v>
       </c>
@@ -23303,7 +24422,7 @@
         <v>7</v>
       </c>
       <c r="P37" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q37" s="25" t="s">
         <v>63</v>
@@ -23379,8 +24498,40 @@
       <c r="AP37" s="26">
         <v>1042</v>
       </c>
-    </row>
-    <row r="39" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+      <c r="AU37" s="2">
+        <v>37</v>
+      </c>
+      <c r="AV37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW37" s="57">
+        <v>42402</v>
+      </c>
+      <c r="AX37" s="36">
+        <v>7</v>
+      </c>
+      <c r="AY37" s="57">
+        <v>42408</v>
+      </c>
+      <c r="AZ37" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA37" s="17">
+        <v>393</v>
+      </c>
+      <c r="BB37" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AW38" s="57"/>
+      <c r="BB38" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>36</v>
       </c>
@@ -23427,7 +24578,7 @@
         <v>4</v>
       </c>
       <c r="P39" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q39" s="25" t="s">
         <v>51</v>
@@ -23499,8 +24650,33 @@
       <c r="AP39" s="26">
         <v>1235</v>
       </c>
-    </row>
-    <row r="40" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="AU39" s="2">
+        <v>39</v>
+      </c>
+      <c r="AV39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW39" s="57">
+        <v>42403</v>
+      </c>
+      <c r="AX39" s="36">
+        <v>7</v>
+      </c>
+      <c r="AY39" s="57">
+        <v>42409</v>
+      </c>
+      <c r="AZ39" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA39" s="17">
+        <v>207</v>
+      </c>
+      <c r="BB39" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>36</v>
       </c>
@@ -23547,7 +24723,7 @@
         <v>4</v>
       </c>
       <c r="P40" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q40" s="25" t="s">
         <v>51</v>
@@ -23619,8 +24795,33 @@
       <c r="AP40" s="26">
         <v>1242</v>
       </c>
-    </row>
-    <row r="41" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="AU40" s="2">
+        <v>40</v>
+      </c>
+      <c r="AV40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW40" s="57">
+        <v>42404</v>
+      </c>
+      <c r="AX40" s="36">
+        <v>7</v>
+      </c>
+      <c r="AY40" s="57">
+        <v>42410</v>
+      </c>
+      <c r="AZ40" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA40" s="17">
+        <v>207</v>
+      </c>
+      <c r="BB40" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>36</v>
       </c>
@@ -23667,7 +24868,7 @@
         <v>4</v>
       </c>
       <c r="P41" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q41" s="25" t="s">
         <v>51</v>
@@ -23739,8 +24940,33 @@
       <c r="AP41" s="26">
         <v>1272</v>
       </c>
-    </row>
-    <row r="42" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="AU41" s="2">
+        <v>41</v>
+      </c>
+      <c r="AV41" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW41" s="57">
+        <v>42409</v>
+      </c>
+      <c r="AX41" s="36">
+        <v>7</v>
+      </c>
+      <c r="AY41" s="57">
+        <v>42415</v>
+      </c>
+      <c r="AZ41" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA41" s="17">
+        <v>212</v>
+      </c>
+      <c r="BB41" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>36</v>
       </c>
@@ -23787,7 +25013,7 @@
         <v>5</v>
       </c>
       <c r="P42" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q42" s="25" t="s">
         <v>140</v>
@@ -23859,8 +25085,33 @@
       <c r="AP42" s="26">
         <v>1288</v>
       </c>
-    </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AU42" s="2">
+        <v>42</v>
+      </c>
+      <c r="AV42" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW42" s="57">
+        <v>42410</v>
+      </c>
+      <c r="AX42" s="36">
+        <v>7</v>
+      </c>
+      <c r="AY42" s="57">
+        <v>42416</v>
+      </c>
+      <c r="AZ42" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA42" s="17">
+        <v>203</v>
+      </c>
+      <c r="BB42" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>36</v>
       </c>
@@ -23907,7 +25158,7 @@
         <v>5</v>
       </c>
       <c r="P43" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q43" s="25" t="s">
         <v>140</v>
@@ -23979,8 +25230,33 @@
       <c r="AP43" s="26">
         <v>1318</v>
       </c>
-    </row>
-    <row r="44" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="AU43" s="2">
+        <v>43</v>
+      </c>
+      <c r="AV43" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW43" s="57">
+        <v>42415</v>
+      </c>
+      <c r="AX43" s="36">
+        <v>7</v>
+      </c>
+      <c r="AY43" s="57">
+        <v>42421</v>
+      </c>
+      <c r="AZ43" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA43" s="17">
+        <v>208</v>
+      </c>
+      <c r="BB43" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>36</v>
       </c>
@@ -24027,7 +25303,7 @@
         <v>4</v>
       </c>
       <c r="P44" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q44" s="25" t="s">
         <v>51</v>
@@ -24099,8 +25375,40 @@
       <c r="AP44" s="26">
         <v>1313</v>
       </c>
-    </row>
-    <row r="46" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="AU44" s="2">
+        <v>44</v>
+      </c>
+      <c r="AV44" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW44" s="57">
+        <v>42416</v>
+      </c>
+      <c r="AX44" s="36">
+        <v>7</v>
+      </c>
+      <c r="AY44" s="57">
+        <v>42422</v>
+      </c>
+      <c r="AZ44" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA44" s="17">
+        <v>220</v>
+      </c>
+      <c r="BB44" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AW45" s="57"/>
+      <c r="BB45" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>36</v>
       </c>
@@ -24147,7 +25455,7 @@
         <v>4</v>
       </c>
       <c r="P46" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q46" s="25" t="s">
         <v>51</v>
@@ -24219,8 +25527,33 @@
       <c r="AP46" s="26">
         <v>879</v>
       </c>
-    </row>
-    <row r="47" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="AU46" s="2">
+        <v>46</v>
+      </c>
+      <c r="AV46" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW46" s="57">
+        <v>42418</v>
+      </c>
+      <c r="AX46" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY46" s="57">
+        <v>42422</v>
+      </c>
+      <c r="AZ46" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA46" s="17">
+        <v>221</v>
+      </c>
+      <c r="BB46" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>36</v>
       </c>
@@ -24267,7 +25600,7 @@
         <v>5</v>
       </c>
       <c r="P47" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q47" s="25" t="s">
         <v>140</v>
@@ -24339,8 +25672,33 @@
       <c r="AP47" s="26">
         <v>882</v>
       </c>
-    </row>
-    <row r="48" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="AU47" s="2">
+        <v>47</v>
+      </c>
+      <c r="AV47" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW47" s="57">
+        <v>42419</v>
+      </c>
+      <c r="AX47" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY47" s="57">
+        <v>42423</v>
+      </c>
+      <c r="AZ47" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA47" s="17">
+        <v>223</v>
+      </c>
+      <c r="BB47" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>36</v>
       </c>
@@ -24387,7 +25745,7 @@
         <v>5</v>
       </c>
       <c r="P48" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q48" s="25" t="s">
         <v>140</v>
@@ -24459,8 +25817,33 @@
       <c r="AP48" s="26">
         <v>898</v>
       </c>
-    </row>
-    <row r="49" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="AU48" s="2">
+        <v>48</v>
+      </c>
+      <c r="AV48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW48" s="57">
+        <v>42423</v>
+      </c>
+      <c r="AX48" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY48" s="57">
+        <v>42427</v>
+      </c>
+      <c r="AZ48" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA48" s="17">
+        <v>227</v>
+      </c>
+      <c r="BB48" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>36</v>
       </c>
@@ -24535,8 +25918,40 @@
       <c r="AP49" s="26">
         <v>1130</v>
       </c>
-    </row>
-    <row r="51" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="AU49" s="2">
+        <v>49</v>
+      </c>
+      <c r="AV49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW49" s="57">
+        <v>42424</v>
+      </c>
+      <c r="AX49" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY49" s="57">
+        <v>42428</v>
+      </c>
+      <c r="AZ49" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA49" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB49" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AW50" s="57"/>
+      <c r="BB50" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>36</v>
       </c>
@@ -24611,8 +26026,33 @@
       <c r="AP51" s="26">
         <v>1363</v>
       </c>
-    </row>
-    <row r="52" spans="1:42" ht="105" x14ac:dyDescent="0.25">
+      <c r="AU51" s="2">
+        <v>51</v>
+      </c>
+      <c r="AV51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW51" s="57">
+        <v>42428</v>
+      </c>
+      <c r="AX51" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY51" s="57">
+        <v>42432</v>
+      </c>
+      <c r="AZ51" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA51" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB51" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:54" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
         <v>36</v>
       </c>
@@ -24659,7 +26099,7 @@
         <v>4</v>
       </c>
       <c r="P52" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q52" s="25" t="s">
         <v>51</v>
@@ -24731,8 +26171,33 @@
       <c r="AP52" s="26">
         <v>1135</v>
       </c>
-    </row>
-    <row r="53" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="AU52" s="2">
+        <v>52</v>
+      </c>
+      <c r="AV52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW52" s="57">
+        <v>42429</v>
+      </c>
+      <c r="AX52" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY52" s="57">
+        <v>42433</v>
+      </c>
+      <c r="AZ52" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA52" s="17">
+        <v>304</v>
+      </c>
+      <c r="BB52" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>36</v>
       </c>
@@ -24779,7 +26244,7 @@
         <v>4</v>
       </c>
       <c r="P53" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q53" s="25" t="s">
         <v>51</v>
@@ -24851,8 +26316,33 @@
       <c r="AP53" s="26">
         <v>1211</v>
       </c>
-    </row>
-    <row r="54" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="AU53" s="2">
+        <v>53</v>
+      </c>
+      <c r="AV53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW53" s="57">
+        <v>42430</v>
+      </c>
+      <c r="AX53" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY53" s="57">
+        <v>42434</v>
+      </c>
+      <c r="AZ53" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA53" s="17">
+        <v>304</v>
+      </c>
+      <c r="BB53" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
         <v>36</v>
       </c>
@@ -24899,7 +26389,7 @@
         <v>4</v>
       </c>
       <c r="P54" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q54" s="25" t="s">
         <v>51</v>
@@ -24971,8 +26461,33 @@
       <c r="AP54" s="26">
         <v>1215</v>
       </c>
-    </row>
-    <row r="55" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="AU54" s="2">
+        <v>54</v>
+      </c>
+      <c r="AV54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW54" s="57">
+        <v>42431</v>
+      </c>
+      <c r="AX54" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY54" s="57">
+        <v>42435</v>
+      </c>
+      <c r="AZ54" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA54" s="17">
+        <v>305</v>
+      </c>
+      <c r="BB54" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
         <v>36</v>
       </c>
@@ -25047,8 +26562,40 @@
       <c r="AP55" s="26">
         <v>1525</v>
       </c>
-    </row>
-    <row r="57" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+      <c r="AU55" s="2">
+        <v>55</v>
+      </c>
+      <c r="AV55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW55" s="57">
+        <v>42432</v>
+      </c>
+      <c r="AX55" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY55" s="57">
+        <v>42436</v>
+      </c>
+      <c r="AZ55" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA55" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB55" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AW56" s="57"/>
+      <c r="BB56" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:54" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
         <v>36</v>
       </c>
@@ -25095,7 +26642,7 @@
         <v>4</v>
       </c>
       <c r="P57" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q57" s="25" t="s">
         <v>51</v>
@@ -25167,8 +26714,33 @@
       <c r="AP57" s="26">
         <v>1235</v>
       </c>
-    </row>
-    <row r="58" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+      <c r="AU57" s="2">
+        <v>57</v>
+      </c>
+      <c r="AV57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW57" s="57">
+        <v>42436</v>
+      </c>
+      <c r="AX57" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY57" s="57">
+        <v>42440</v>
+      </c>
+      <c r="AZ57" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA57" s="17">
+        <v>310</v>
+      </c>
+      <c r="BB57" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
         <v>36</v>
       </c>
@@ -25215,7 +26787,7 @@
         <v>5</v>
       </c>
       <c r="P58" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q58" s="25" t="s">
         <v>140</v>
@@ -25291,8 +26863,33 @@
       <c r="AP58" s="26">
         <v>1262</v>
       </c>
-    </row>
-    <row r="59" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+      <c r="AU58" s="2">
+        <v>58</v>
+      </c>
+      <c r="AV58" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW58" s="57">
+        <v>42443</v>
+      </c>
+      <c r="AX58" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY58" s="57">
+        <v>42447</v>
+      </c>
+      <c r="AZ58" s="57">
+        <v>42217</v>
+      </c>
+      <c r="BA58" s="17">
+        <v>318</v>
+      </c>
+      <c r="BB58" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
         <v>36</v>
       </c>
@@ -25339,7 +26936,7 @@
         <v>4</v>
       </c>
       <c r="P59" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q59" s="25" t="s">
         <v>51</v>
@@ -25415,8 +27012,40 @@
       <c r="AP59" s="26">
         <v>1295</v>
       </c>
-    </row>
-    <row r="61" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+      <c r="AU59" s="2">
+        <v>59</v>
+      </c>
+      <c r="AV59" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW59" s="57">
+        <v>42451</v>
+      </c>
+      <c r="AX59" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY59" s="57">
+        <v>42455</v>
+      </c>
+      <c r="AZ59" s="57">
+        <v>42410</v>
+      </c>
+      <c r="BA59" s="17">
+        <v>325</v>
+      </c>
+      <c r="BB59" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AW60" s="57"/>
+      <c r="BB60" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:54" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
         <v>36</v>
       </c>
@@ -25463,7 +27092,7 @@
         <v>4</v>
       </c>
       <c r="P61" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q61" s="25" t="s">
         <v>51</v>
@@ -25539,8 +27168,33 @@
       <c r="AP61" s="26">
         <v>1611</v>
       </c>
-    </row>
-    <row r="62" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+      <c r="AU61" s="2">
+        <v>61</v>
+      </c>
+      <c r="AV61" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW61" s="57">
+        <v>42461</v>
+      </c>
+      <c r="AX61" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY61" s="57">
+        <v>42465</v>
+      </c>
+      <c r="AZ61" s="57">
+        <v>42217</v>
+      </c>
+      <c r="BA61" s="17">
+        <v>404</v>
+      </c>
+      <c r="BB61" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:54" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
         <v>36</v>
       </c>
@@ -25587,7 +27241,7 @@
         <v>5</v>
       </c>
       <c r="P62" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q62" s="25" t="s">
         <v>140</v>
@@ -25663,8 +27317,33 @@
       <c r="AP62" s="26">
         <v>1638</v>
       </c>
-    </row>
-    <row r="63" spans="1:42" ht="90" x14ac:dyDescent="0.25">
+      <c r="AU62" s="2">
+        <v>62</v>
+      </c>
+      <c r="AV62" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW62" s="57">
+        <v>42468</v>
+      </c>
+      <c r="AX62" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY62" s="57">
+        <v>42472</v>
+      </c>
+      <c r="AZ62" s="57">
+        <v>42402</v>
+      </c>
+      <c r="BA62" s="17">
+        <v>412</v>
+      </c>
+      <c r="BB62" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:54" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
         <v>36</v>
       </c>
@@ -25711,7 +27390,7 @@
         <v>7</v>
       </c>
       <c r="P63" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q63" s="25" t="s">
         <v>168</v>
@@ -25787,8 +27466,40 @@
       <c r="AP63" s="26">
         <v>5295</v>
       </c>
-    </row>
-    <row r="65" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+      <c r="AU63" s="2">
+        <v>63</v>
+      </c>
+      <c r="AV63" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW63" s="57">
+        <v>42461</v>
+      </c>
+      <c r="AX63" s="36">
+        <v>15</v>
+      </c>
+      <c r="AY63" s="57">
+        <v>42475</v>
+      </c>
+      <c r="AZ63" s="57">
+        <v>42439</v>
+      </c>
+      <c r="BA63" s="17">
+        <v>825</v>
+      </c>
+      <c r="BB63" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AW64" s="57"/>
+      <c r="BB64" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:55" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
         <v>36</v>
       </c>
@@ -25835,7 +27546,7 @@
         <v>5</v>
       </c>
       <c r="P65" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q65" s="25" t="s">
         <v>140</v>
@@ -25907,8 +27618,33 @@
       <c r="AP65" s="26">
         <v>2014</v>
       </c>
-    </row>
-    <row r="66" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+      <c r="AU65" s="2">
+        <v>65</v>
+      </c>
+      <c r="AV65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW65" s="57">
+        <v>42491</v>
+      </c>
+      <c r="AX65" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY65" s="57">
+        <v>42495</v>
+      </c>
+      <c r="AZ65" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA65" s="17">
+        <v>501</v>
+      </c>
+      <c r="BB65" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:55" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
         <v>36</v>
       </c>
@@ -25955,7 +27691,7 @@
         <v>5</v>
       </c>
       <c r="P66" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q66" s="25" t="s">
         <v>140</v>
@@ -26027,8 +27763,33 @@
       <c r="AP66" s="26">
         <v>2018</v>
       </c>
-    </row>
-    <row r="67" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+      <c r="AU66" s="2">
+        <v>66</v>
+      </c>
+      <c r="AV66" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW66" s="57">
+        <v>42492</v>
+      </c>
+      <c r="AX66" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY66" s="57">
+        <v>42496</v>
+      </c>
+      <c r="AZ66" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA66" s="17">
+        <v>502</v>
+      </c>
+      <c r="BB66" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:55" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
         <v>36</v>
       </c>
@@ -26075,7 +27836,7 @@
         <v>5</v>
       </c>
       <c r="P67" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q67" s="25" t="s">
         <v>140</v>
@@ -26147,8 +27908,33 @@
       <c r="AP67" s="26">
         <v>2022</v>
       </c>
-    </row>
-    <row r="68" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+      <c r="AU67" s="2">
+        <v>67</v>
+      </c>
+      <c r="AV67" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW67" s="57">
+        <v>42493</v>
+      </c>
+      <c r="AX67" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY67" s="57">
+        <v>42497</v>
+      </c>
+      <c r="AZ67" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA67" s="17">
+        <v>503</v>
+      </c>
+      <c r="BB67" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:55" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
         <v>36</v>
       </c>
@@ -26195,7 +27981,7 @@
         <v>5</v>
       </c>
       <c r="P68" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q68" s="25" t="s">
         <v>140</v>
@@ -26267,8 +28053,33 @@
       <c r="AP68" s="26">
         <v>2026</v>
       </c>
-    </row>
-    <row r="69" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+      <c r="AU68" s="2">
+        <v>68</v>
+      </c>
+      <c r="AV68" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW68" s="57">
+        <v>42494</v>
+      </c>
+      <c r="AX68" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY68" s="57">
+        <v>42498</v>
+      </c>
+      <c r="AZ68" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA68" s="17">
+        <v>504</v>
+      </c>
+      <c r="BB68" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:55" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
         <v>36</v>
       </c>
@@ -26315,7 +28126,7 @@
         <v>5</v>
       </c>
       <c r="P69" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q69" s="25" t="s">
         <v>140</v>
@@ -26387,8 +28198,33 @@
       <c r="AP69" s="26">
         <v>2030</v>
       </c>
-    </row>
-    <row r="70" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="AU69" s="2">
+        <v>69</v>
+      </c>
+      <c r="AV69" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW69" s="57">
+        <v>42495</v>
+      </c>
+      <c r="AX69" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY69" s="57">
+        <v>42499</v>
+      </c>
+      <c r="AZ69" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA69" s="17">
+        <v>505</v>
+      </c>
+      <c r="BB69" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:55" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
         <v>36</v>
       </c>
@@ -26435,7 +28271,7 @@
         <v>4</v>
       </c>
       <c r="P70" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q70" s="25" t="s">
         <v>51</v>
@@ -26507,8 +28343,33 @@
       <c r="AP70" s="26">
         <v>2034</v>
       </c>
-    </row>
-    <row r="71" spans="1:42" ht="90" x14ac:dyDescent="0.25">
+      <c r="AU70" s="2">
+        <v>70</v>
+      </c>
+      <c r="AV70" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW70" s="57">
+        <v>42496</v>
+      </c>
+      <c r="AX70" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY70" s="57">
+        <v>42500</v>
+      </c>
+      <c r="AZ70" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA70" s="17">
+        <v>506</v>
+      </c>
+      <c r="BB70" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:55" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
         <v>36</v>
       </c>
@@ -26555,7 +28416,7 @@
         <v>4</v>
       </c>
       <c r="P71" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q71" s="25" t="s">
         <v>51</v>
@@ -26627,8 +28488,33 @@
       <c r="AP71" s="26">
         <v>2038</v>
       </c>
-    </row>
-    <row r="72" spans="1:42" ht="105" x14ac:dyDescent="0.25">
+      <c r="AU71" s="2">
+        <v>71</v>
+      </c>
+      <c r="AV71" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW71" s="57">
+        <v>42497</v>
+      </c>
+      <c r="AX71" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY71" s="57">
+        <v>42501</v>
+      </c>
+      <c r="AZ71" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA71" s="17">
+        <v>507</v>
+      </c>
+      <c r="BB71" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:55" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
         <v>36</v>
       </c>
@@ -26703,8 +28589,40 @@
       <c r="AP72" s="26">
         <v>2550</v>
       </c>
-    </row>
-    <row r="74" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+      <c r="AU72" s="2">
+        <v>72</v>
+      </c>
+      <c r="AV72" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW72" s="57">
+        <v>42498</v>
+      </c>
+      <c r="AX72" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY72" s="57">
+        <v>42502</v>
+      </c>
+      <c r="AZ72" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA72" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB72" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AW73" s="57"/>
+      <c r="BB73" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:55" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
         <v>36</v>
       </c>
@@ -26823,8 +28741,36 @@
       <c r="AP74" s="26">
         <v>5717</v>
       </c>
-    </row>
-    <row r="75" spans="1:42" ht="90" x14ac:dyDescent="0.25">
+      <c r="AU74" s="2">
+        <v>74</v>
+      </c>
+      <c r="AV74" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW74" s="57">
+        <v>42503</v>
+      </c>
+      <c r="AX74" s="36">
+        <v>13</v>
+      </c>
+      <c r="AY74" s="57">
+        <v>42515</v>
+      </c>
+      <c r="AZ74" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA74" s="17">
+        <v>1551</v>
+      </c>
+      <c r="BB74" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>521</v>
+      </c>
+      <c r="BC74" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="75" spans="1:55" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
         <v>36</v>
       </c>
@@ -26943,8 +28889,36 @@
       <c r="AP75" s="26">
         <v>5728</v>
       </c>
-    </row>
-    <row r="76" spans="1:42" ht="195" x14ac:dyDescent="0.25">
+      <c r="AU75" s="2">
+        <v>75</v>
+      </c>
+      <c r="AV75" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW75" s="57">
+        <v>42504</v>
+      </c>
+      <c r="AX75" s="36">
+        <v>13</v>
+      </c>
+      <c r="AY75" s="57">
+        <v>42516</v>
+      </c>
+      <c r="AZ75" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA75" s="17">
+        <v>1554</v>
+      </c>
+      <c r="BB75" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>522</v>
+      </c>
+      <c r="BC75" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="76" spans="1:55" ht="195" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
         <v>36</v>
       </c>
@@ -27063,8 +29037,33 @@
       <c r="AP76" s="26">
         <v>5246</v>
       </c>
-    </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AU76" s="2">
+        <v>76</v>
+      </c>
+      <c r="AV76" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW76" s="57">
+        <v>42508</v>
+      </c>
+      <c r="AX76" s="36">
+        <v>13</v>
+      </c>
+      <c r="AY76" s="57">
+        <v>42520</v>
+      </c>
+      <c r="AZ76" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA76" s="17">
+        <v>1566</v>
+      </c>
+      <c r="BB76" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
         <v>36</v>
       </c>
@@ -27089,7 +29088,7 @@
         <v>5</v>
       </c>
       <c r="P77" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q77" s="25" t="s">
         <v>140</v>
@@ -27157,8 +29156,13 @@
       </c>
       <c r="AO77" s="26"/>
       <c r="AP77" s="26"/>
-    </row>
-    <row r="78" spans="1:42" ht="240" x14ac:dyDescent="0.25">
+      <c r="AW77" s="57"/>
+      <c r="BB77" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:55" ht="240" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
         <v>36</v>
       </c>
@@ -27205,7 +29209,7 @@
         <v>7</v>
       </c>
       <c r="P78" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q78" s="25" t="s">
         <v>212</v>
@@ -27277,8 +29281,33 @@
       <c r="AP78" s="26">
         <v>5780</v>
       </c>
-    </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AU78" s="2">
+        <v>78</v>
+      </c>
+      <c r="AV78" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW78" s="57">
+        <v>42509</v>
+      </c>
+      <c r="AX78" s="36">
+        <v>13</v>
+      </c>
+      <c r="AY78" s="57">
+        <v>42521</v>
+      </c>
+      <c r="AZ78" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA78" s="17">
+        <v>1045</v>
+      </c>
+      <c r="BB78" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
         <v>36</v>
       </c>
@@ -27303,7 +29332,7 @@
         <v>6</v>
       </c>
       <c r="P79" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q79" s="25" t="s">
         <v>215</v>
@@ -27371,8 +29400,13 @@
       </c>
       <c r="AO79" s="26"/>
       <c r="AP79" s="26"/>
-    </row>
-    <row r="80" spans="1:42" ht="345" x14ac:dyDescent="0.25">
+      <c r="AW79" s="57"/>
+      <c r="BB79" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:55" ht="360" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
         <v>36</v>
       </c>
@@ -27419,7 +29453,7 @@
         <v>7</v>
       </c>
       <c r="P80" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q80" s="25" t="s">
         <v>212</v>
@@ -27491,8 +29525,33 @@
       <c r="AP80" s="26">
         <v>5860</v>
       </c>
-    </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AU80" s="2">
+        <v>80</v>
+      </c>
+      <c r="AV80" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW80" s="57">
+        <v>42510</v>
+      </c>
+      <c r="AX80" s="36">
+        <v>13</v>
+      </c>
+      <c r="AY80" s="57">
+        <v>42522</v>
+      </c>
+      <c r="AZ80" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA80" s="17">
+        <v>1047</v>
+      </c>
+      <c r="BB80" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
         <v>36</v>
       </c>
@@ -27517,7 +29576,7 @@
         <v>6</v>
       </c>
       <c r="P81" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q81" s="25" t="s">
         <v>215</v>
@@ -27585,8 +29644,13 @@
       </c>
       <c r="AO81" s="26"/>
       <c r="AP81" s="26"/>
-    </row>
-    <row r="82" spans="1:42" ht="375" x14ac:dyDescent="0.25">
+      <c r="AW81" s="57"/>
+      <c r="BB81" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:55" ht="375" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
         <v>36</v>
       </c>
@@ -27633,7 +29697,7 @@
         <v>7</v>
       </c>
       <c r="P82" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q82" s="25" t="s">
         <v>212</v>
@@ -27705,8 +29769,33 @@
       <c r="AP82" s="26">
         <v>5940</v>
       </c>
-    </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AU82" s="2">
+        <v>82</v>
+      </c>
+      <c r="AV82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW82" s="57">
+        <v>42511</v>
+      </c>
+      <c r="AX82" s="36">
+        <v>13</v>
+      </c>
+      <c r="AY82" s="57">
+        <v>42523</v>
+      </c>
+      <c r="AZ82" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA82" s="17">
+        <v>1049</v>
+      </c>
+      <c r="BB82" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
         <v>36</v>
       </c>
@@ -27731,7 +29820,7 @@
         <v>6</v>
       </c>
       <c r="P83" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q83" s="25" t="s">
         <v>215</v>
@@ -27799,8 +29888,13 @@
       </c>
       <c r="AO83" s="26"/>
       <c r="AP83" s="26"/>
-    </row>
-    <row r="84" spans="1:42" ht="285" x14ac:dyDescent="0.25">
+      <c r="AW83" s="57"/>
+      <c r="BB83" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:55" ht="285" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
         <v>36</v>
       </c>
@@ -27847,7 +29941,7 @@
         <v>4</v>
       </c>
       <c r="P84" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q84" s="25" t="s">
         <v>51</v>
@@ -27919,8 +30013,33 @@
       <c r="AP84" s="26">
         <v>6023</v>
       </c>
-    </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AU84" s="2">
+        <v>84</v>
+      </c>
+      <c r="AV84" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW84" s="57">
+        <v>42512</v>
+      </c>
+      <c r="AX84" s="36">
+        <v>13</v>
+      </c>
+      <c r="AY84" s="57">
+        <v>42524</v>
+      </c>
+      <c r="AZ84" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA84" s="17">
+        <v>1048</v>
+      </c>
+      <c r="BB84" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
         <v>36</v>
       </c>
@@ -27945,7 +30064,7 @@
         <v>6</v>
       </c>
       <c r="P85" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q85" s="25" t="s">
         <v>215</v>
@@ -28013,8 +30132,13 @@
       </c>
       <c r="AO85" s="26"/>
       <c r="AP85" s="26"/>
-    </row>
-    <row r="86" spans="1:42" ht="285" x14ac:dyDescent="0.25">
+      <c r="AW85" s="57"/>
+      <c r="BB85" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:55" ht="285" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
         <v>36</v>
       </c>
@@ -28061,7 +30185,7 @@
         <v>4</v>
       </c>
       <c r="P86" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q86" s="25" t="s">
         <v>51</v>
@@ -28133,8 +30257,33 @@
       <c r="AP86" s="26">
         <v>6103</v>
       </c>
-    </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AU86" s="2">
+        <v>86</v>
+      </c>
+      <c r="AV86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW86" s="57">
+        <v>42513</v>
+      </c>
+      <c r="AX86" s="36">
+        <v>13</v>
+      </c>
+      <c r="AY86" s="57">
+        <v>42525</v>
+      </c>
+      <c r="AZ86" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA86" s="17">
+        <v>1050</v>
+      </c>
+      <c r="BB86" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
         <v>36</v>
       </c>
@@ -28159,7 +30308,7 @@
         <v>6</v>
       </c>
       <c r="P87" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q87" s="25" t="s">
         <v>215</v>
@@ -28227,8 +30376,13 @@
       </c>
       <c r="AO87" s="26"/>
       <c r="AP87" s="26"/>
-    </row>
-    <row r="88" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+      <c r="AW87" s="57"/>
+      <c r="BB87" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:55" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
         <v>36</v>
       </c>
@@ -28347,8 +30501,40 @@
       <c r="AP88" s="26">
         <v>6272</v>
       </c>
-    </row>
-    <row r="90" spans="1:42" ht="135" x14ac:dyDescent="0.25">
+      <c r="AU88" s="2">
+        <v>88</v>
+      </c>
+      <c r="AV88" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW88" s="57">
+        <v>42516</v>
+      </c>
+      <c r="AX88" s="36">
+        <v>13</v>
+      </c>
+      <c r="AY88" s="57">
+        <v>42528</v>
+      </c>
+      <c r="AZ88" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA88" s="17">
+        <v>1127</v>
+      </c>
+      <c r="BB88" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AW89" s="57"/>
+      <c r="BB89" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:55" ht="135" x14ac:dyDescent="0.25">
       <c r="A90" s="40" t="s">
         <v>36</v>
       </c>
@@ -28395,7 +30581,7 @@
         <v>21</v>
       </c>
       <c r="P90" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q90" s="25" t="s">
         <v>234</v>
@@ -28467,8 +30653,33 @@
       <c r="AP90" s="26">
         <v>14330</v>
       </c>
-    </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AU90" s="2">
+        <v>90</v>
+      </c>
+      <c r="AV90" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW90" s="57">
+        <v>42554</v>
+      </c>
+      <c r="AX90" s="36">
+        <v>27</v>
+      </c>
+      <c r="AY90" s="57">
+        <v>42580</v>
+      </c>
+      <c r="AZ90" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA90" s="17">
+        <v>5002</v>
+      </c>
+      <c r="BB90" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
         <v>36</v>
       </c>
@@ -28493,7 +30704,7 @@
         <v>6</v>
       </c>
       <c r="P91" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q91" s="25" t="s">
         <v>215</v>
@@ -28561,8 +30772,40 @@
       </c>
       <c r="AO91" s="26"/>
       <c r="AP91" s="26"/>
-    </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AW91" s="57"/>
+      <c r="BB91" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AU92" s="2">
+        <v>93</v>
+      </c>
+      <c r="AV92" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW92" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX92" s="36">
+        <v>3</v>
+      </c>
+      <c r="AY92" s="57">
+        <v>42372</v>
+      </c>
+      <c r="AZ92" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA92" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB92" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
         <v>36</v>
       </c>
@@ -28609,7 +30852,7 @@
         <v>3</v>
       </c>
       <c r="P93" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q93" s="25" t="s">
         <v>265</v>
@@ -28681,8 +30924,16 @@
       <c r="AP93" s="26">
         <v>264</v>
       </c>
-    </row>
-    <row r="94" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="AW93" s="57"/>
+      <c r="BB93" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>-132</v>
+      </c>
+      <c r="BC93" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="94" spans="1:55" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
         <v>36</v>
       </c>
@@ -28729,7 +30980,7 @@
         <v>3</v>
       </c>
       <c r="P94" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q94" s="25" t="s">
         <v>265</v>
@@ -28801,8 +31052,36 @@
       <c r="AP94" s="26">
         <v>314</v>
       </c>
-    </row>
-    <row r="95" spans="1:42" ht="105" x14ac:dyDescent="0.25">
+      <c r="AU94" s="2">
+        <v>94</v>
+      </c>
+      <c r="AV94" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW94" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX94" s="36">
+        <v>3</v>
+      </c>
+      <c r="AY94" s="57">
+        <v>42372</v>
+      </c>
+      <c r="AZ94" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA94" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB94" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>-157</v>
+      </c>
+      <c r="BC94" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="95" spans="1:55" ht="105" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
         <v>36</v>
       </c>
@@ -28849,7 +31128,7 @@
         <v>3</v>
       </c>
       <c r="P95" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q95" s="25" t="s">
         <v>265</v>
@@ -28921,8 +31200,36 @@
       <c r="AP95" s="26">
         <v>364</v>
       </c>
-    </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AU95" s="2">
+        <v>95</v>
+      </c>
+      <c r="AV95" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW95" s="57">
+        <v>42370</v>
+      </c>
+      <c r="AX95" s="36">
+        <v>3</v>
+      </c>
+      <c r="AY95" s="57">
+        <v>42372</v>
+      </c>
+      <c r="AZ95" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA95" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB95" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>-182</v>
+      </c>
+      <c r="BC95" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="96" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
       <c r="B96" s="41"/>
       <c r="C96" s="41"/>
@@ -28965,8 +31272,13 @@
       <c r="AN96" s="41"/>
       <c r="AO96" s="46"/>
       <c r="AP96" s="46"/>
-    </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AW96" s="57"/>
+      <c r="BB96" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A97" s="41" t="s">
         <v>36</v>
       </c>
@@ -29011,7 +31323,7 @@
         <v>4</v>
       </c>
       <c r="P97" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q97" s="41" t="s">
         <v>51</v>
@@ -29083,8 +31395,33 @@
       <c r="AP97" s="46">
         <v>8533</v>
       </c>
-    </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AU97" s="2">
+        <v>97</v>
+      </c>
+      <c r="AV97" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW97" s="57">
+        <v>42430</v>
+      </c>
+      <c r="AX97" s="36">
+        <v>30</v>
+      </c>
+      <c r="AY97" s="57">
+        <v>42459</v>
+      </c>
+      <c r="AZ97" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA97" s="17">
+        <v>932</v>
+      </c>
+      <c r="BB97" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A98" s="41" t="s">
         <v>36</v>
       </c>
@@ -29109,7 +31446,7 @@
         <v>4</v>
       </c>
       <c r="P98" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q98" s="41" t="s">
         <v>51</v>
@@ -29177,8 +31514,13 @@
       </c>
       <c r="AO98" s="46"/>
       <c r="AP98" s="46"/>
-    </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AW98" s="57"/>
+      <c r="BB98" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A99" s="41" t="s">
         <v>36</v>
       </c>
@@ -29203,7 +31545,7 @@
         <v>5</v>
       </c>
       <c r="P99" s="45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q99" s="41" t="s">
         <v>140</v>
@@ -29275,8 +31617,13 @@
       </c>
       <c r="AO99" s="46"/>
       <c r="AP99" s="46"/>
-    </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AW99" s="57"/>
+      <c r="BB99" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A100" s="41"/>
       <c r="B100" s="41"/>
       <c r="C100" s="41"/>
@@ -29319,8 +31666,13 @@
       <c r="AN100" s="41"/>
       <c r="AO100" s="46"/>
       <c r="AP100" s="46"/>
-    </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AW100" s="57"/>
+      <c r="BB100" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A101" s="41" t="s">
         <v>36</v>
       </c>
@@ -29365,7 +31717,7 @@
         <v>4</v>
       </c>
       <c r="P101" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q101" s="41" t="s">
         <v>51</v>
@@ -29437,8 +31789,33 @@
       <c r="AP101" s="46">
         <v>33826</v>
       </c>
-    </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AU101" s="2">
+        <v>101</v>
+      </c>
+      <c r="AV101" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW101" s="57">
+        <v>42430</v>
+      </c>
+      <c r="AX101" s="36">
+        <v>91</v>
+      </c>
+      <c r="AY101" s="57">
+        <v>42520</v>
+      </c>
+      <c r="AZ101" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA101" s="17">
+        <v>3900</v>
+      </c>
+      <c r="BB101" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A102" s="41" t="s">
         <v>36</v>
       </c>
@@ -29463,7 +31840,7 @@
         <v>4</v>
       </c>
       <c r="P102" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q102" s="41" t="s">
         <v>51</v>
@@ -29531,8 +31908,13 @@
       </c>
       <c r="AO102" s="46"/>
       <c r="AP102" s="46"/>
-    </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AW102" s="57"/>
+      <c r="BB102" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A103" s="41" t="s">
         <v>36</v>
       </c>
@@ -29557,7 +31939,7 @@
         <v>5</v>
       </c>
       <c r="P103" s="45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q103" s="41" t="s">
         <v>140</v>
@@ -29629,8 +32011,13 @@
       </c>
       <c r="AO103" s="46"/>
       <c r="AP103" s="46"/>
-    </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AW103" s="57"/>
+      <c r="BB103" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A104" s="41" t="s">
         <v>36</v>
       </c>
@@ -29655,7 +32042,7 @@
         <v>4</v>
       </c>
       <c r="P104" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q104" s="41" t="s">
         <v>51</v>
@@ -29727,8 +32114,13 @@
       </c>
       <c r="AO104" s="46"/>
       <c r="AP104" s="46"/>
-    </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AW104" s="57"/>
+      <c r="BB104" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A105" s="41" t="s">
         <v>36</v>
       </c>
@@ -29753,7 +32145,7 @@
         <v>5</v>
       </c>
       <c r="P105" s="45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q105" s="41" t="s">
         <v>140</v>
@@ -29821,8 +32213,13 @@
       </c>
       <c r="AO105" s="46"/>
       <c r="AP105" s="46"/>
-    </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AW105" s="57"/>
+      <c r="BB105" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A106" s="41" t="s">
         <v>36</v>
       </c>
@@ -29847,7 +32244,7 @@
         <v>4</v>
       </c>
       <c r="P106" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q106" s="41" t="s">
         <v>51</v>
@@ -29915,8 +32312,13 @@
       </c>
       <c r="AO106" s="46"/>
       <c r="AP106" s="46"/>
-    </row>
-    <row r="107" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="AW106" s="57"/>
+      <c r="BB106" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="41" t="s">
         <v>36</v>
       </c>
@@ -29953,7 +32355,7 @@
         <v>77</v>
       </c>
       <c r="T107" s="44" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U107" s="42">
         <v>42530</v>
@@ -30009,8 +32411,13 @@
       </c>
       <c r="AO107" s="46"/>
       <c r="AP107" s="46"/>
-    </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AW107" s="57"/>
+      <c r="BB107" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A108" s="41" t="s">
         <v>36</v>
       </c>
@@ -30035,7 +32442,7 @@
         <v>5</v>
       </c>
       <c r="P108" s="45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q108" s="41" t="s">
         <v>140</v>
@@ -30103,8 +32510,13 @@
       </c>
       <c r="AO108" s="46"/>
       <c r="AP108" s="46"/>
-    </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AW108" s="57"/>
+      <c r="BB108" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A109" s="41"/>
       <c r="B109" s="41"/>
       <c r="C109" s="41"/>
@@ -30147,8 +32559,13 @@
       <c r="AN109" s="41"/>
       <c r="AO109" s="46"/>
       <c r="AP109" s="46"/>
-    </row>
-    <row r="110" spans="1:42" ht="90" x14ac:dyDescent="0.25">
+      <c r="AW109" s="57"/>
+      <c r="BB109" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:54" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" s="41" t="s">
         <v>36</v>
       </c>
@@ -30183,7 +32600,7 @@
         <v>13</v>
       </c>
       <c r="L110" s="44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M110" s="42">
         <v>42396</v>
@@ -30207,7 +32624,7 @@
         <v>86</v>
       </c>
       <c r="T110" s="48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U110" s="42">
         <v>42402</v>
@@ -30270,6 +32687,31 @@
       </c>
       <c r="AP110" s="46">
         <v>1809.08</v>
+      </c>
+      <c r="AU110" s="2">
+        <v>110</v>
+      </c>
+      <c r="AV110" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW110" s="57">
+        <v>42396</v>
+      </c>
+      <c r="AX110" s="36">
+        <v>13</v>
+      </c>
+      <c r="AY110" s="57">
+        <v>42408</v>
+      </c>
+      <c r="AZ110" s="57">
+        <v>42143</v>
+      </c>
+      <c r="BA110" s="17">
+        <v>471.92</v>
+      </c>
+      <c r="BB110" s="17">
+        <f>Tabelle4[[#This Row],[TotalSavings]]+Tabelle4[[#This Row],[Spalte11]]</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -43544,7 +45986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -43562,19 +46004,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -43596,11 +46038,11 @@
       </c>
       <c r="E2" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">IF(LEN(B2)&gt;0,CONCATENATE("(",A2,",",B2,",",C2,",",D2,",",E2,"),"),"")</f>
-        <v>(2,'TUIXYA225410','2016-01-01',3,'2015-05-19'),</v>
+        <v>(2,'TUIXYA225410','2016-01-01',3,'2015-05-27'),</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -43622,12 +46064,12 @@
       </c>
       <c r="E3" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="F3" s="50"/>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" ca="1" si="0">IF(LEN(B3)&gt;0,CONCATENATE("(",A3,",",B3,",",C3,",",D3,",",E3,"),"),"")</f>
-        <v>(3,'TUIXYA225410','2016-01-01',4,'2015-05-19'),</v>
+        <v>(3,'TUIXYA225410','2016-01-01',4,'2015-05-27'),</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
@@ -43654,11 +46096,11 @@
       </c>
       <c r="E4" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(4,'TUIXYA225410','2016-01-01',5,'2015-05-19'),</v>
+        <v>(4,'TUIXYA225410','2016-01-01',5,'2015-05-27'),</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -43680,11 +46122,11 @@
       </c>
       <c r="E5" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(5,'TUIXYA225410','2016-01-01',6,'2015-05-19'),</v>
+        <v>(5,'TUIXYA225410','2016-01-01',6,'2015-05-27'),</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -43706,11 +46148,11 @@
       </c>
       <c r="E6" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(6,'TUIXYA225410','2016-01-01',7,'2015-05-19'),</v>
+        <v>(6,'TUIXYA225410','2016-01-01',7,'2015-05-27'),</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -43732,11 +46174,11 @@
       </c>
       <c r="E7" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(7,'TUIXYA225410','2016-01-01',8,'2015-05-19'),</v>
+        <v>(7,'TUIXYA225410','2016-01-01',8,'2015-05-27'),</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -43758,11 +46200,11 @@
       </c>
       <c r="E8" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(8,'TUIXYA225410','2016-01-01',9,'2015-05-19'),</v>
+        <v>(8,'TUIXYA225410','2016-01-01',9,'2015-05-27'),</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -43784,11 +46226,11 @@
       </c>
       <c r="E9" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(9,'TUIXYA225410','2016-01-01',10,'2015-05-19'),</v>
+        <v>(9,'TUIXYA225410','2016-01-01',10,'2015-05-27'),</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -43810,11 +46252,11 @@
       </c>
       <c r="E10" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(10,'TUIXYA225410','2016-01-01',11,'2015-05-19'),</v>
+        <v>(10,'TUIXYA225410','2016-01-01',11,'2015-05-27'),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -43836,11 +46278,11 @@
       </c>
       <c r="E11" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(11,'TUIXYA225410','2016-01-01',12,'2015-05-19'),</v>
+        <v>(11,'TUIXYA225410','2016-01-01',12,'2015-05-27'),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -43862,11 +46304,11 @@
       </c>
       <c r="E12" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(12,'TUIXYA225410','2016-01-01',13,'2015-05-19'),</v>
+        <v>(12,'TUIXYA225410','2016-01-01',13,'2015-05-27'),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -43888,11 +46330,11 @@
       </c>
       <c r="E13" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(13,'TUIXYA225410','2016-01-01',14,'2015-05-19'),</v>
+        <v>(13,'TUIXYA225410','2016-01-01',14,'2015-05-27'),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -43914,11 +46356,11 @@
       </c>
       <c r="E14" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(14,'TUIXYA225410','2016-01-01',15,'2015-05-19'),</v>
+        <v>(14,'TUIXYA225410','2016-01-01',15,'2015-05-27'),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -43940,11 +46382,11 @@
       </c>
       <c r="E15" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(15,'TUIXYA225410','2016-01-01',16,'2015-05-19'),</v>
+        <v>(15,'TUIXYA225410','2016-01-01',16,'2015-05-27'),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -43966,11 +46408,11 @@
       </c>
       <c r="E16" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(16,'TUIXYA225410','2016-01-01',17,'2015-05-19'),</v>
+        <v>(16,'TUIXYA225410','2016-01-01',17,'2015-05-27'),</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -43992,11 +46434,11 @@
       </c>
       <c r="E17" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(17,'TUIXYA225410','2016-01-01',18,'2015-05-19'),</v>
+        <v>(17,'TUIXYA225410','2016-01-01',18,'2015-05-27'),</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -44044,11 +46486,11 @@
       </c>
       <c r="E19" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(19,'TUIXYA225410','2016-01-01',19,'2015-05-19'),</v>
+        <v>(19,'TUIXYA225410','2016-01-01',19,'2015-05-27'),</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -44096,11 +46538,11 @@
       </c>
       <c r="E21" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(21,'TUIXYA225410','2016-01-01',20,'2015-05-19'),</v>
+        <v>(21,'TUIXYA225410','2016-01-01',20,'2015-05-27'),</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -44122,11 +46564,11 @@
       </c>
       <c r="E22" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(22,'TUIXYA225410','2016-01-01',21,'2015-05-19'),</v>
+        <v>(22,'TUIXYA225410','2016-01-01',21,'2015-05-27'),</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -44148,11 +46590,11 @@
       </c>
       <c r="E23" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(23,'TUIXYA225410','2016-01-01',22,'2015-05-19'),</v>
+        <v>(23,'TUIXYA225410','2016-01-01',22,'2015-05-27'),</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -44174,11 +46616,11 @@
       </c>
       <c r="E24" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(24,'TUIXYA225410','2016-01-01',23,'2015-05-19'),</v>
+        <v>(24,'TUIXYA225410','2016-01-01',23,'2015-05-27'),</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -44226,11 +46668,11 @@
       </c>
       <c r="E26" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(26,'TUIXYA225410','2016-01-23',7,'2015-05-19'),</v>
+        <v>(26,'TUIXYA225410','2016-01-23',7,'2015-05-27'),</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -44252,11 +46694,11 @@
       </c>
       <c r="E27" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(27,'TUIXYA225410','2016-01-24',7,'2015-05-19'),</v>
+        <v>(27,'TUIXYA225410','2016-01-24',7,'2015-05-27'),</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -44278,11 +46720,11 @@
       </c>
       <c r="E28" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(28,'TUIXYA225410','2016-01-25',7,'2015-05-19'),</v>
+        <v>(28,'TUIXYA225410','2016-01-25',7,'2015-05-27'),</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -44304,11 +46746,11 @@
       </c>
       <c r="E29" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(29,'TUIXYA225410','2016-01-26',7,'2015-05-19'),</v>
+        <v>(29,'TUIXYA225410','2016-01-26',7,'2015-05-27'),</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -44330,11 +46772,11 @@
       </c>
       <c r="E30" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(30,'TUIXYA225410','2016-01-27',7,'2015-05-19'),</v>
+        <v>(30,'TUIXYA225410','2016-01-27',7,'2015-05-27'),</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -44382,11 +46824,11 @@
       </c>
       <c r="E32" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(32,'TUIXYA225410','2016-01-28',7,'2015-05-19'),</v>
+        <v>(32,'TUIXYA225410','2016-01-28',7,'2015-05-27'),</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -44408,11 +46850,11 @@
       </c>
       <c r="E33" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(33,'TUIXYA225410','2016-01-29',7,'2015-05-19'),</v>
+        <v>(33,'TUIXYA225410','2016-01-29',7,'2015-05-27'),</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -44434,11 +46876,11 @@
       </c>
       <c r="E34" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(34,'TUIXYA225410','2016-01-30',7,'2015-05-19'),</v>
+        <v>(34,'TUIXYA225410','2016-01-30',7,'2015-05-27'),</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -44460,11 +46902,11 @@
       </c>
       <c r="E35" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(35,'TUIXYA225410','2016-01-31',7,'2015-05-19'),</v>
+        <v>(35,'TUIXYA225410','2016-01-31',7,'2015-05-27'),</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -44486,11 +46928,11 @@
       </c>
       <c r="E36" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(36,'TUIXYA225410','2016-02-01',7,'2015-05-19'),</v>
+        <v>(36,'TUIXYA225410','2016-02-01',7,'2015-05-27'),</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -44512,11 +46954,11 @@
       </c>
       <c r="E37" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(37,'TUIXYA225410','2016-02-02',7,'2015-05-19'),</v>
+        <v>(37,'TUIXYA225410','2016-02-02',7,'2015-05-27'),</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -44564,11 +47006,11 @@
       </c>
       <c r="E39" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(39,'TUIXYA225410','2016-02-03',7,'2015-05-19'),</v>
+        <v>(39,'TUIXYA225410','2016-02-03',7,'2015-05-27'),</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -44590,11 +47032,11 @@
       </c>
       <c r="E40" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(40,'TUIXYA225410','2016-02-04',7,'2015-05-19'),</v>
+        <v>(40,'TUIXYA225410','2016-02-04',7,'2015-05-27'),</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -44616,11 +47058,11 @@
       </c>
       <c r="E41" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(41,'TUIXYA225410','2016-02-09',7,'2015-05-19'),</v>
+        <v>(41,'TUIXYA225410','2016-02-09',7,'2015-05-27'),</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -44642,11 +47084,11 @@
       </c>
       <c r="E42" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(42,'TUIXYA225410','2016-02-10',7,'2015-05-19'),</v>
+        <v>(42,'TUIXYA225410','2016-02-10',7,'2015-05-27'),</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -44668,11 +47110,11 @@
       </c>
       <c r="E43" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(43,'TUIXYA225410','2016-02-15',7,'2015-05-19'),</v>
+        <v>(43,'TUIXYA225410','2016-02-15',7,'2015-05-27'),</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -44694,11 +47136,11 @@
       </c>
       <c r="E44" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(44,'TUIXYA225410','2016-02-16',7,'2015-05-19'),</v>
+        <v>(44,'TUIXYA225410','2016-02-16',7,'2015-05-27'),</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -44746,11 +47188,11 @@
       </c>
       <c r="E46" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(46,'TUIXYA225410','2016-02-18',5,'2015-05-19'),</v>
+        <v>(46,'TUIXYA225410','2016-02-18',5,'2015-05-27'),</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -44772,11 +47214,11 @@
       </c>
       <c r="E47" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(47,'TUIXYA225410','2016-02-19',5,'2015-05-19'),</v>
+        <v>(47,'TUIXYA225410','2016-02-19',5,'2015-05-27'),</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -44798,11 +47240,11 @@
       </c>
       <c r="E48" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(48,'TUIXYA225410','2016-02-23',5,'2015-05-19'),</v>
+        <v>(48,'TUIXYA225410','2016-02-23',5,'2015-05-27'),</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -44824,11 +47266,11 @@
       </c>
       <c r="E49" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(49,'TUIXYA225410','2016-02-24',5,'2015-05-19'),</v>
+        <v>(49,'TUIXYA225410','2016-02-24',5,'2015-05-27'),</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -44876,11 +47318,11 @@
       </c>
       <c r="E51" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(51,'TUIXYA225410','2016-02-28',5,'2015-05-19'),</v>
+        <v>(51,'TUIXYA225410','2016-02-28',5,'2015-05-27'),</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -44902,11 +47344,11 @@
       </c>
       <c r="E52" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(52,'TUIXYA225410','2016-02-29',5,'2015-05-19'),</v>
+        <v>(52,'TUIXYA225410','2016-02-29',5,'2015-05-27'),</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -44928,11 +47370,11 @@
       </c>
       <c r="E53" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(53,'TUIXYA225410','2016-03-01',5,'2015-05-19'),</v>
+        <v>(53,'TUIXYA225410','2016-03-01',5,'2015-05-27'),</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -44954,11 +47396,11 @@
       </c>
       <c r="E54" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(54,'TUIXYA225410','2016-03-02',5,'2015-05-19'),</v>
+        <v>(54,'TUIXYA225410','2016-03-02',5,'2015-05-27'),</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -44980,11 +47422,11 @@
       </c>
       <c r="E55" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(55,'TUIXYA225410','2016-03-03',5,'2015-05-19'),</v>
+        <v>(55,'TUIXYA225410','2016-03-03',5,'2015-05-27'),</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -45032,11 +47474,11 @@
       </c>
       <c r="E57" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(57,'TUIXYA225410','2016-03-07',5,'2015-05-19'),</v>
+        <v>(57,'TUIXYA225410','2016-03-07',5,'2015-05-27'),</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -45240,11 +47682,11 @@
       </c>
       <c r="E65" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(65,'TUIXYA225410','2016-05-01',5,'2015-05-19'),</v>
+        <v>(65,'TUIXYA225410','2016-05-01',5,'2015-05-27'),</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -45266,11 +47708,11 @@
       </c>
       <c r="E66" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>(66,'TUIXYA225410','2016-05-02',5,'2015-05-19'),</v>
+        <v>(66,'TUIXYA225410','2016-05-02',5,'2015-05-27'),</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -45292,11 +47734,11 @@
       </c>
       <c r="E67" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G110" ca="1" si="1">IF(LEN(B67)&gt;0,CONCATENATE("(",A67,",",B67,",",C67,",",D67,",",E67,"),"),"")</f>
-        <v>(67,'TUIXYA225410','2016-05-03',5,'2015-05-19'),</v>
+        <v>(67,'TUIXYA225410','2016-05-03',5,'2015-05-27'),</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -45318,11 +47760,11 @@
       </c>
       <c r="E68" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>(68,'TUIXYA225410','2016-05-04',5,'2015-05-19'),</v>
+        <v>(68,'TUIXYA225410','2016-05-04',5,'2015-05-27'),</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -45344,11 +47786,11 @@
       </c>
       <c r="E69" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>(69,'TUIXYA225410','2016-05-05',5,'2015-05-19'),</v>
+        <v>(69,'TUIXYA225410','2016-05-05',5,'2015-05-27'),</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -45370,11 +47812,11 @@
       </c>
       <c r="E70" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>(70,'TUIXYA225410','2016-05-06',5,'2015-05-19'),</v>
+        <v>(70,'TUIXYA225410','2016-05-06',5,'2015-05-27'),</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -45396,11 +47838,11 @@
       </c>
       <c r="E71" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>(71,'TUIXYA225410','2016-05-07',5,'2015-05-19'),</v>
+        <v>(71,'TUIXYA225410','2016-05-07',5,'2015-05-27'),</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -45422,11 +47864,11 @@
       </c>
       <c r="E72" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>(72,'TUIXYA225410','2016-05-08',5,'2015-05-19'),</v>
+        <v>(72,'TUIXYA225410','2016-05-08',5,'2015-05-27'),</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -45474,11 +47916,11 @@
       </c>
       <c r="E74" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>(74,'TUIXYA225410','2016-05-13',13,'2015-05-19'),</v>
+        <v>(74,'TUIXYA225410','2016-05-13',13,'2015-05-27'),</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -45500,11 +47942,11 @@
       </c>
       <c r="E75" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>(75,'TUIXYA225410','2016-05-14',13,'2015-05-19'),</v>
+        <v>(75,'TUIXYA225410','2016-05-14',13,'2015-05-27'),</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -45526,11 +47968,11 @@
       </c>
       <c r="E76" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>(76,'TUIXYA225410','2016-05-18',13,'2015-05-19'),</v>
+        <v>(76,'TUIXYA225410','2016-05-18',13,'2015-05-27'),</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -45578,11 +48020,11 @@
       </c>
       <c r="E78" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>(78,'TUIXYA225410','2016-05-19',13,'2015-05-19'),</v>
+        <v>(78,'TUIXYA225410','2016-05-19',13,'2015-05-27'),</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -45630,11 +48072,11 @@
       </c>
       <c r="E80" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>(80,'TUIXYA225410','2016-05-20',13,'2015-05-19'),</v>
+        <v>(80,'TUIXYA225410','2016-05-20',13,'2015-05-27'),</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -45682,11 +48124,11 @@
       </c>
       <c r="E82" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>(82,'TUIXYA225410','2016-05-21',13,'2015-05-19'),</v>
+        <v>(82,'TUIXYA225410','2016-05-21',13,'2015-05-27'),</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -45734,11 +48176,11 @@
       </c>
       <c r="E84" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>(84,'TUIXYA225410','2016-05-22',13,'2015-05-19'),</v>
+        <v>(84,'TUIXYA225410','2016-05-22',13,'2015-05-27'),</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -45786,11 +48228,11 @@
       </c>
       <c r="E86" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>(86,'TUIXYA225410','2016-05-23',13,'2015-05-19'),</v>
+        <v>(86,'TUIXYA225410','2016-05-23',13,'2015-05-27'),</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -45838,11 +48280,11 @@
       </c>
       <c r="E88" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>(88,'TUIXYA225410','2016-05-26',13,'2015-05-19'),</v>
+        <v>(88,'TUIXYA225410','2016-05-26',13,'2015-05-27'),</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -45890,11 +48332,11 @@
       </c>
       <c r="E90" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>(90,'TUIXYA225410','2016-07-03',27,'2015-05-19'),</v>
+        <v>(90,'TUIXYA225410','2016-07-03',27,'2015-05-27'),</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -45968,11 +48410,11 @@
       </c>
       <c r="E93" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>(93,'TUIXYZ50502','2016-01-01',3,'2015-05-19'),</v>
+        <v>(93,'TUIXYZ50502','2016-01-01',3,'2015-05-27'),</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -45994,11 +48436,11 @@
       </c>
       <c r="E94" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>(94,'TUIXYZ50502','2016-01-01',3,'2015-05-19'),</v>
+        <v>(94,'TUIXYZ50502','2016-01-01',3,'2015-05-27'),</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -46020,11 +48462,11 @@
       </c>
       <c r="E95" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>(95,'TUIXYZ50502','2016-01-01',3,'2015-05-19'),</v>
+        <v>(95,'TUIXYZ50502','2016-01-01',3,'2015-05-27'),</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -46072,11 +48514,11 @@
       </c>
       <c r="E97" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>(97,'TUIXYA225410','2016-03-01',30,'2015-05-19'),</v>
+        <v>(97,'TUIXYA225410','2016-03-01',30,'2015-05-27'),</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -46176,11 +48618,11 @@
       </c>
       <c r="E101" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>(101,'TUIXYA225410','2016-03-01',91,'2015-05-19'),</v>
+        <v>(101,'TUIXYA225410','2016-03-01',91,'2015-05-27'),</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -46410,15 +48852,1781 @@
       </c>
       <c r="E110" s="49" t="str">
         <f ca="1">IF(LEN(Tabelle4[[#This Row],[ItemStartDate]])&gt;0,IF(Tabelle4[[#This Row],[CurrentDate]]="current date",CONCATENATE("'",TEXT(TODAY(),"jjjj-MM-tt"),"'"),CONCATENATE("'",TEXT(Tabelle4[[#This Row],[CurrentDate]],"jjjj-MM-tt"),"'")),"")</f>
-        <v>'2015-05-19'</v>
+        <v>'2015-05-27'</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>(110,'TUIXYA225410','2016-01-27',13,'2015-05-19'),</v>
+        <v>(110,'TUIXYA225410','2016-01-27',13,'2015-05-27'),</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:G78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F3">
+        <v>-93</v>
+      </c>
+      <c r="G3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F4">
+        <v>-93</v>
+      </c>
+      <c r="G4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F5">
+        <v>-95</v>
+      </c>
+      <c r="G5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F6">
+        <v>-191</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F7">
+        <v>-190</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F8">
+        <v>-190</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F9">
+        <v>-190</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F10">
+        <v>-190</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F11">
+        <v>-291</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F12">
+        <v>-293</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F13">
+        <v>-396</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F14">
+        <v>-396</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F15">
+        <v>-396</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+      <c r="E16" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F16">
+        <v>-396</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F17">
+        <v>-396</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
+      </c>
+      <c r="E18" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F18">
+        <v>-396</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F19">
+        <v>-505</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F20">
+        <v>-615</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D21">
+        <v>22</v>
+      </c>
+      <c r="E21" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F21">
+        <v>-615</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D22">
+        <v>23</v>
+      </c>
+      <c r="E22" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F22">
+        <v>-615</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F23">
+        <v>-235</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F24">
+        <v>-227</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F25">
+        <v>-229</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F26">
+        <v>-310</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F27">
+        <v>-277.42</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F28">
+        <v>-383</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F29">
+        <v>-385</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F30">
+        <v>-387</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F31">
+        <v>-389</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="51">
+        <v>42420</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F32">
+        <v>-391</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="51">
+        <v>42420</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F33">
+        <v>-393</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="51">
+        <v>42420</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="51">
+        <v>42420</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F35">
+        <v>-207</v>
+      </c>
+      <c r="G35" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="51">
+        <v>42420</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F36">
+        <v>-212</v>
+      </c>
+      <c r="G36" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="51">
+        <v>42420</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F37">
+        <v>-203</v>
+      </c>
+      <c r="G37" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="51">
+        <v>42420</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F38">
+        <v>-208</v>
+      </c>
+      <c r="G38" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="51">
+        <v>42420</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="51">
+        <v>42420</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F40">
+        <v>-221</v>
+      </c>
+      <c r="G40" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="51">
+        <v>42420</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F41">
+        <v>-223</v>
+      </c>
+      <c r="G41" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="51">
+        <v>42420</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F42">
+        <v>-227</v>
+      </c>
+      <c r="G42" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="51">
+        <v>42420</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="51">
+        <v>42420</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="51">
+        <v>42420</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="51">
+        <v>42449</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F46">
+        <v>-304</v>
+      </c>
+      <c r="G46" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="51">
+        <v>42449</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F47">
+        <v>-305</v>
+      </c>
+      <c r="G47" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="51">
+        <v>42449</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="51">
+        <v>42449</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F49">
+        <v>-310</v>
+      </c>
+      <c r="G49" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="51">
+        <v>42449</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50" s="51">
+        <v>42236</v>
+      </c>
+      <c r="F50">
+        <v>-318</v>
+      </c>
+      <c r="G50" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="51">
+        <v>42449</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51" s="51">
+        <v>42420</v>
+      </c>
+      <c r="F51">
+        <v>-325</v>
+      </c>
+      <c r="G51" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="51">
+        <v>42480</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" s="51">
+        <v>42236</v>
+      </c>
+      <c r="F52">
+        <v>-404</v>
+      </c>
+      <c r="G52" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="51">
+        <v>42480</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" s="51">
+        <v>42420</v>
+      </c>
+      <c r="F53">
+        <v>-412</v>
+      </c>
+      <c r="G53" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="51">
+        <v>42480</v>
+      </c>
+      <c r="D54">
+        <v>15</v>
+      </c>
+      <c r="E54" s="51">
+        <v>42449</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="51">
+        <v>42510</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F55">
+        <v>-501</v>
+      </c>
+      <c r="G55" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="51">
+        <v>42510</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F56">
+        <v>-502</v>
+      </c>
+      <c r="G56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>67</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="51">
+        <v>42510</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F57">
+        <v>-503</v>
+      </c>
+      <c r="G57" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>68</v>
+      </c>
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="51">
+        <v>42510</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F58">
+        <v>-504</v>
+      </c>
+      <c r="G58" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>69</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="51">
+        <v>42510</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F59">
+        <v>-505</v>
+      </c>
+      <c r="G59" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="51">
+        <v>42510</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F60">
+        <v>-506</v>
+      </c>
+      <c r="G60" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" s="51">
+        <v>42510</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F61">
+        <v>-507</v>
+      </c>
+      <c r="G61" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="51">
+        <v>42510</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>74</v>
+      </c>
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="51">
+        <v>42510</v>
+      </c>
+      <c r="D63">
+        <v>13</v>
+      </c>
+      <c r="E63" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>75</v>
+      </c>
+      <c r="B64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="51">
+        <v>42510</v>
+      </c>
+      <c r="D64">
+        <v>13</v>
+      </c>
+      <c r="E64" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>76</v>
+      </c>
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="51">
+        <v>42510</v>
+      </c>
+      <c r="D65">
+        <v>13</v>
+      </c>
+      <c r="E65" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F65">
+        <v>-1040</v>
+      </c>
+      <c r="G65" s="52" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>78</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="51">
+        <v>42510</v>
+      </c>
+      <c r="D66">
+        <v>13</v>
+      </c>
+      <c r="E66" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F66">
+        <v>-519</v>
+      </c>
+      <c r="G66" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>80</v>
+      </c>
+      <c r="B67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="51">
+        <v>42510</v>
+      </c>
+      <c r="D67">
+        <v>13</v>
+      </c>
+      <c r="E67" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F67">
+        <v>-520</v>
+      </c>
+      <c r="G67" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="51">
+        <v>42510</v>
+      </c>
+      <c r="D68">
+        <v>13</v>
+      </c>
+      <c r="E68" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F68">
+        <v>-521</v>
+      </c>
+      <c r="G68" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>84</v>
+      </c>
+      <c r="B69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="51">
+        <v>42510</v>
+      </c>
+      <c r="D69">
+        <v>13</v>
+      </c>
+      <c r="E69" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F69">
+        <v>-522</v>
+      </c>
+      <c r="G69" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>86</v>
+      </c>
+      <c r="B70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="51">
+        <v>42510</v>
+      </c>
+      <c r="D70">
+        <v>13</v>
+      </c>
+      <c r="E70" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F70">
+        <v>-523</v>
+      </c>
+      <c r="G70" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>88</v>
+      </c>
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="51">
+        <v>42510</v>
+      </c>
+      <c r="D71">
+        <v>13</v>
+      </c>
+      <c r="E71" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F71">
+        <v>-1127</v>
+      </c>
+      <c r="G71" s="52" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>90</v>
+      </c>
+      <c r="B72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="51">
+        <v>42571</v>
+      </c>
+      <c r="D72">
+        <v>27</v>
+      </c>
+      <c r="E72" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F72">
+        <v>-4278</v>
+      </c>
+      <c r="G72" s="52" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>93</v>
+      </c>
+      <c r="B73" t="s">
+        <v>268</v>
+      </c>
+      <c r="C73" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F73">
+        <v>-66</v>
+      </c>
+      <c r="G73" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>94</v>
+      </c>
+      <c r="B74" t="s">
+        <v>268</v>
+      </c>
+      <c r="C74" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F74">
+        <v>-66</v>
+      </c>
+      <c r="G74" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>95</v>
+      </c>
+      <c r="B75" t="s">
+        <v>268</v>
+      </c>
+      <c r="C75" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F75">
+        <v>-66</v>
+      </c>
+      <c r="G75" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>97</v>
+      </c>
+      <c r="B76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="51">
+        <v>42449</v>
+      </c>
+      <c r="D76">
+        <v>30</v>
+      </c>
+      <c r="E76" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F76">
+        <v>-304</v>
+      </c>
+      <c r="G76" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>101</v>
+      </c>
+      <c r="B77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="51">
+        <v>42449</v>
+      </c>
+      <c r="D77">
+        <v>91</v>
+      </c>
+      <c r="E77" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F77">
+        <v>-304</v>
+      </c>
+      <c r="G77" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>110</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="51">
+        <v>42389</v>
+      </c>
+      <c r="D78">
+        <v>13</v>
+      </c>
+      <c r="E78" s="51">
+        <v>42144</v>
+      </c>
+      <c r="F78">
+        <v>-471.92</v>
+      </c>
+      <c r="G78" s="52" t="s">
+        <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>